--- a/QuantLibXL/Data2/XLS/JPY_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/JPY_YCSTDBootstrapping.xlsx
@@ -1307,7 +1307,7 @@
     <xf numFmtId="175" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="175" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1653,27 +1653,6 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1753,18 +1732,6 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1782,6 +1749,18 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2606,7 +2585,7 @@
       </c>
       <c r="D14" s="22" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_JPYYCSTD#0019</v>
+        <v>_JPYYCSTD#0010</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2964,7 +2943,7 @@
       </c>
       <c r="D23" s="8">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>1.8817274796240749E-2</v>
+        <v>1.8871222169023899E-2</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -4507,12 +4486,10 @@
     <col min="3" max="3" width="14" style="89" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="89" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" style="89" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="89" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="89" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="89" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="89" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8" style="89" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" style="89" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="89" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="89" customWidth="1"/>
+    <col min="10" max="11" width="9" style="89" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="17.28515625" style="89" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" style="45" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.28515625" style="63" bestFit="1" customWidth="1"/>
@@ -4522,11 +4499,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="202" t="s">
+      <c r="B1" s="191" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="203"/>
-      <c r="D1" s="204"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="193"/>
       <c r="E1" s="118" t="s">
         <v>51</v>
       </c>
@@ -4563,7 +4540,7 @@
       </c>
       <c r="E2" s="121" t="str">
         <f>Deposits!E3</f>
-        <v>obj_00361#0011</v>
+        <v>obj_00321#0001</v>
       </c>
       <c r="F2" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E2),"LastFixing","D"),"Libor","")</f>
@@ -4607,7 +4584,7 @@
       </c>
       <c r="E3" s="121" t="str">
         <f>Deposits!E4</f>
-        <v>obj_0036a#0012</v>
+        <v>obj_00323#0001</v>
       </c>
       <c r="F3" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E3),"LastFixing","D"),"Libor","")</f>
@@ -4651,7 +4628,7 @@
       </c>
       <c r="E4" s="121" t="str">
         <f>Deposits!E5</f>
-        <v>obj_00508#0001</v>
+        <v>obj_00311#0001</v>
       </c>
       <c r="F4" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E4),"LastFixing","D"),"Libor","")</f>
@@ -4693,17 +4670,17 @@
       <c r="D5" s="121" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="121" t="e">
+      <c r="E5" s="121">
         <f>Deposits!E6</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F5" s="121" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E5),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="G5" s="122" t="e">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="H5" s="122"/>
       <c r="I5" s="65" t="b">
@@ -4718,11 +4695,11 @@
       </c>
       <c r="L5" s="123" t="e">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="M5" s="124" t="e">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="N5" s="63">
         <v>40</v>
@@ -4737,17 +4714,17 @@
       <c r="D6" s="121" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="121" t="e">
+      <c r="E6" s="121">
         <f>Deposits!E7</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F6" s="121" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E6),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="G6" s="122" t="e">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="H6" s="122"/>
       <c r="I6" s="65" t="b">
@@ -4762,11 +4739,11 @@
       </c>
       <c r="L6" s="123" t="e">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="M6" s="124" t="e">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="N6" s="63">
         <v>50</v>
@@ -4783,7 +4760,7 @@
       </c>
       <c r="E7" s="121" t="str">
         <f>Deposits!E8</f>
-        <v>obj_0050a#0001</v>
+        <v>obj_0030e#0001</v>
       </c>
       <c r="F7" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E7),"LastFixing","D"),"Libor","")</f>
@@ -4827,7 +4804,7 @@
       </c>
       <c r="E8" s="121" t="str">
         <f>Deposits!E9</f>
-        <v>obj_0050b#0001</v>
+        <v>obj_0030f#0001</v>
       </c>
       <c r="F8" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E8),"LastFixing","D"),"Libor","")</f>
@@ -4865,7 +4842,7 @@
       </c>
       <c r="E9" s="121" t="str">
         <f>Deposits!E10</f>
-        <v>obj_00509#0001</v>
+        <v>obj_00310#0001</v>
       </c>
       <c r="F9" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E9),"LastFixing","D"),"Libor","")</f>
@@ -4901,17 +4878,17 @@
       <c r="D10" s="121" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="121" t="e">
+      <c r="E10" s="121">
         <f>Deposits!E11</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F10" s="121" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E10),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="G10" s="122" t="e">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="H10" s="122"/>
       <c r="I10" s="65" t="b">
@@ -4926,11 +4903,11 @@
       </c>
       <c r="L10" s="123" t="e">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="M10" s="124" t="e">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
@@ -4939,17 +4916,17 @@
       <c r="D11" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="121" t="e">
+      <c r="E11" s="121">
         <f>Deposits!E12</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F11" s="121" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E11),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="G11" s="122" t="e">
         <f>_xll.qlRateHelperQuoteValue($E11,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="H11" s="122"/>
       <c r="I11" s="65" t="b">
@@ -4964,11 +4941,11 @@
       </c>
       <c r="L11" s="123" t="e">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="M11" s="124" t="e">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
@@ -4979,7 +4956,7 @@
       </c>
       <c r="E12" s="121" t="str">
         <f>Deposits!E13</f>
-        <v>obj_0036b#0015</v>
+        <v>obj_00313#0001</v>
       </c>
       <c r="F12" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E12),"LastFixing","D"),"Libor","")</f>
@@ -5015,17 +4992,17 @@
       <c r="D13" s="121" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="121" t="e">
+      <c r="E13" s="121">
         <f>Deposits!E14</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F13" s="121" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E13),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="G13" s="122" t="e">
         <f>_xll.qlRateHelperQuoteValue($E13,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="H13" s="122"/>
       <c r="I13" s="65" t="b">
@@ -5040,11 +5017,11 @@
       </c>
       <c r="L13" s="123" t="e">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="M13" s="124" t="e">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
@@ -5053,17 +5030,17 @@
       <c r="D14" s="121" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="121" t="e">
+      <c r="E14" s="121">
         <f>Deposits!E15</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F14" s="121" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E14),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="G14" s="122" t="e">
         <f>_xll.qlRateHelperQuoteValue($E14,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="H14" s="122"/>
       <c r="I14" s="65" t="b">
@@ -5078,11 +5055,11 @@
       </c>
       <c r="L14" s="123" t="e">
         <f>_xll.qlRateHelperEarliestDate($E14,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="M14" s="124" t="e">
         <f>_xll.qlRateHelperLatestDate($E14,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
@@ -5091,17 +5068,17 @@
       <c r="D15" s="121" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="121" t="e">
+      <c r="E15" s="121">
         <f>Deposits!E16</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F15" s="121" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E15),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="G15" s="122" t="e">
         <f>_xll.qlRateHelperQuoteValue($E15,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="H15" s="122"/>
       <c r="I15" s="65" t="b">
@@ -5116,11 +5093,11 @@
       </c>
       <c r="L15" s="123" t="e">
         <f>_xll.qlRateHelperEarliestDate($E15,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="M15" s="124" t="e">
         <f>_xll.qlRateHelperLatestDate($E15,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
@@ -5129,17 +5106,17 @@
       <c r="D16" s="121" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="121" t="e">
+      <c r="E16" s="121">
         <f>Deposits!E17</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F16" s="121" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E16),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="G16" s="122" t="e">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="H16" s="122"/>
       <c r="I16" s="65" t="b">
@@ -5154,11 +5131,11 @@
       </c>
       <c r="L16" s="123" t="e">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="M16" s="124" t="e">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -5167,17 +5144,17 @@
       <c r="D17" s="121" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="121" t="e">
+      <c r="E17" s="121">
         <f>Deposits!E18</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F17" s="121" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E17),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="G17" s="122" t="e">
         <f>_xll.qlRateHelperQuoteValue($E17,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="H17" s="122"/>
       <c r="I17" s="65" t="b">
@@ -5192,11 +5169,11 @@
       </c>
       <c r="L17" s="123" t="e">
         <f>_xll.qlRateHelperEarliestDate($E17,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="M17" s="124" t="e">
         <f>_xll.qlRateHelperLatestDate($E17,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -5207,7 +5184,7 @@
       </c>
       <c r="E18" s="121" t="str">
         <f>Deposits!E19</f>
-        <v>obj_0050c#0002</v>
+        <v>obj_00312#0001</v>
       </c>
       <c r="F18" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E18),"LastFixing","D"),"Libor","")</f>
@@ -5215,7 +5192,7 @@
       </c>
       <c r="G18" s="122">
         <f>_xll.qlRateHelperQuoteValue($E18,Trigger)</f>
-        <v>3.3214E-3</v>
+        <v>3.3356999999999996E-3</v>
       </c>
       <c r="H18" s="122"/>
       <c r="I18" s="65" t="b">
@@ -5250,7 +5227,7 @@
       </c>
       <c r="E19" s="137" t="str">
         <f>FRAs!G3</f>
-        <v>obj_00363#0001</v>
+        <v>obj_00316#0001</v>
       </c>
       <c r="F19" s="137" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E19),"LastFixing","D"),"Libor","")</f>
@@ -5292,7 +5269,7 @@
       </c>
       <c r="E20" s="121" t="str">
         <f>FRAs!G4</f>
-        <v>obj_00364#0001</v>
+        <v>obj_00317#0001</v>
       </c>
       <c r="F20" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E20),"LastFixing","D"),"Libor","")</f>
@@ -5334,7 +5311,7 @@
       </c>
       <c r="E21" s="121" t="str">
         <f>FRAs!G5</f>
-        <v>obj_00366#0001</v>
+        <v>obj_00318#0001</v>
       </c>
       <c r="F21" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E21),"LastFixing","D"),"Libor","")</f>
@@ -5376,7 +5353,7 @@
       </c>
       <c r="E22" s="121" t="str">
         <f>FRAs!G6</f>
-        <v>obj_00369#0001</v>
+        <v>obj_0031b#0001</v>
       </c>
       <c r="F22" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E22),"LastFixing","D"),"Libor","")</f>
@@ -5418,7 +5395,7 @@
       </c>
       <c r="E23" s="121" t="str">
         <f>FRAs!G7</f>
-        <v>obj_00367#0001</v>
+        <v>obj_00319#0001</v>
       </c>
       <c r="F23" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E23),"LastFixing","D"),"Libor","")</f>
@@ -5460,7 +5437,7 @@
       </c>
       <c r="E24" s="121" t="str">
         <f>FRAs!G8</f>
-        <v>obj_0035f#0001</v>
+        <v>obj_0031d#0001</v>
       </c>
       <c r="F24" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E24),"LastFixing","D"),"Libor","")</f>
@@ -5502,7 +5479,7 @@
       </c>
       <c r="E25" s="121" t="str">
         <f>FRAs!G9</f>
-        <v>obj_00368#0001</v>
+        <v>obj_0031a#0001</v>
       </c>
       <c r="F25" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E25),"LastFixing","D"),"Libor","")</f>
@@ -5510,7 +5487,7 @@
       </c>
       <c r="G25" s="122">
         <f>_xll.qlRateHelperQuoteValue($E25,Trigger)</f>
-        <v>1.2999999999999999E-3</v>
+        <v>1.3500000000000001E-3</v>
       </c>
       <c r="H25" s="122"/>
       <c r="I25" s="65" t="b">
@@ -5544,7 +5521,7 @@
       </c>
       <c r="E26" s="121" t="str">
         <f>FRAs!G10</f>
-        <v>obj_00360#0001</v>
+        <v>obj_00314#0001</v>
       </c>
       <c r="F26" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E26),"LastFixing","D"),"Libor","")</f>
@@ -5586,7 +5563,7 @@
       </c>
       <c r="E27" s="121" t="str">
         <f>FRAs!G11</f>
-        <v>obj_00365#0001</v>
+        <v>obj_0031e#0001</v>
       </c>
       <c r="F27" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E27),"LastFixing","D"),"Libor","")</f>
@@ -5628,7 +5605,7 @@
       </c>
       <c r="E28" s="121" t="str">
         <f>FRAs!G12</f>
-        <v>obj_0035d#0001</v>
+        <v>obj_0031f#0001</v>
       </c>
       <c r="F28" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E28),"LastFixing","D"),"Libor","")</f>
@@ -5670,7 +5647,7 @@
       </c>
       <c r="E29" s="126" t="str">
         <f>FRAs!G13</f>
-        <v>obj_0035e#0001</v>
+        <v>obj_00320#0001</v>
       </c>
       <c r="F29" s="126" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E29),"LastFixing","D"),"Libor","")</f>
@@ -5714,19 +5691,19 @@
       </c>
       <c r="E30" s="121" t="str">
         <f>Futures!H3</f>
-        <v>obj_00391#0001</v>
+        <v>obj_0033e#0001</v>
       </c>
       <c r="F30" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E30),"LastFixing","D"),"Libor","")</f>
         <v>JPYFUT3MM4_Quote</v>
       </c>
-      <c r="G30" s="134">
+      <c r="G30" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E30,Trigger)</f>
-        <v>99.792500000000004</v>
-      </c>
-      <c r="H30" s="122">
+        <v>#NUM!</v>
+      </c>
+      <c r="H30" s="122" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(E30,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="I30" s="65" t="b">
         <v>0</v>
@@ -5760,7 +5737,7 @@
       </c>
       <c r="E31" s="121" t="str">
         <f>Futures!H4</f>
-        <v>obj_0037e#0001</v>
+        <v>obj_00345#0001</v>
       </c>
       <c r="F31" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E31),"LastFixing","D"),"Libor","")</f>
@@ -5806,7 +5783,7 @@
       </c>
       <c r="E32" s="121" t="str">
         <f>Futures!H5</f>
-        <v>obj_00389#0001</v>
+        <v>obj_00364#0001</v>
       </c>
       <c r="F32" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E32),"LastFixing","D"),"Libor","")</f>
@@ -5852,19 +5829,19 @@
       </c>
       <c r="E33" s="121" t="str">
         <f>Futures!H6</f>
-        <v>obj_00398#0001</v>
+        <v>obj_00360#0001</v>
       </c>
       <c r="F33" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E33),"LastFixing","D"),"Libor","")</f>
         <v>JPYFUT3MU4_Quote</v>
       </c>
-      <c r="G33" s="134">
+      <c r="G33" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E33,Trigger)</f>
-        <v>99.802500000000009</v>
-      </c>
-      <c r="H33" s="122">
+        <v>#NUM!</v>
+      </c>
+      <c r="H33" s="122" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(E33,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="I33" s="65" t="b">
         <v>0</v>
@@ -5898,7 +5875,7 @@
       </c>
       <c r="E34" s="121" t="str">
         <f>Futures!H7</f>
-        <v>obj_003a2#0001</v>
+        <v>obj_00342#0001</v>
       </c>
       <c r="F34" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E34),"LastFixing","D"),"Libor","")</f>
@@ -5944,7 +5921,7 @@
       </c>
       <c r="E35" s="121" t="str">
         <f>Futures!H8</f>
-        <v>obj_00393#0001</v>
+        <v>obj_00350#0001</v>
       </c>
       <c r="F35" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E35),"LastFixing","D"),"Libor","")</f>
@@ -5990,19 +5967,19 @@
       </c>
       <c r="E36" s="121" t="str">
         <f>Futures!H9</f>
-        <v>obj_00397#0001</v>
+        <v>obj_0035b#0001</v>
       </c>
       <c r="F36" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E36),"LastFixing","D"),"Libor","")</f>
         <v>JPYFUT3MZ4_Quote</v>
       </c>
-      <c r="G36" s="134">
+      <c r="G36" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E36,Trigger)</f>
-        <v>99.807500000000005</v>
-      </c>
-      <c r="H36" s="122">
+        <v>#NUM!</v>
+      </c>
+      <c r="H36" s="122" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(E36,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="I36" s="65" t="b">
         <v>0</v>
@@ -6036,7 +6013,7 @@
       </c>
       <c r="E37" s="121" t="str">
         <f>Futures!H10</f>
-        <v>obj_003ba#0001</v>
+        <v>obj_00371#0001</v>
       </c>
       <c r="F37" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E37),"LastFixing","D"),"Libor","")</f>
@@ -6082,7 +6059,7 @@
       </c>
       <c r="E38" s="121" t="str">
         <f>Futures!H11</f>
-        <v>obj_003b1#0001</v>
+        <v>obj_00341#0001</v>
       </c>
       <c r="F38" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E38),"LastFixing","D"),"Libor","")</f>
@@ -6128,19 +6105,19 @@
       </c>
       <c r="E39" s="121" t="str">
         <f>Futures!H12</f>
-        <v>obj_00375#0001</v>
+        <v>obj_0034f#0001</v>
       </c>
       <c r="F39" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E39),"LastFixing","D"),"Libor","")</f>
         <v>JPYFUT3MH5_Quote</v>
       </c>
-      <c r="G39" s="134">
+      <c r="G39" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E39,Trigger)</f>
-        <v>99.807500000000005</v>
-      </c>
-      <c r="H39" s="122">
+        <v>#NUM!</v>
+      </c>
+      <c r="H39" s="122" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(E39,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="I39" s="65" t="b">
         <v>0</v>
@@ -6174,7 +6151,7 @@
       </c>
       <c r="E40" s="121" t="str">
         <f>Futures!H13</f>
-        <v>obj_0039d#0001</v>
+        <v>obj_00337#0001</v>
       </c>
       <c r="F40" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E40),"LastFixing","D"),"Libor","")</f>
@@ -6220,7 +6197,7 @@
       </c>
       <c r="E41" s="121" t="str">
         <f>Futures!H14</f>
-        <v>obj_00384#0001</v>
+        <v>obj_00351#0001</v>
       </c>
       <c r="F41" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E41),"LastFixing","D"),"Libor","")</f>
@@ -6266,19 +6243,19 @@
       </c>
       <c r="E42" s="121" t="str">
         <f>Futures!H15</f>
-        <v>obj_0037a#0001</v>
+        <v>obj_00368#0001</v>
       </c>
       <c r="F42" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E42),"LastFixing","D"),"Libor","")</f>
         <v>JPYFUT3MM5_Quote</v>
       </c>
-      <c r="G42" s="134">
+      <c r="G42" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E42,Trigger)</f>
-        <v>99.81</v>
-      </c>
-      <c r="H42" s="122">
+        <v>#NUM!</v>
+      </c>
+      <c r="H42" s="122" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(E42,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="I42" s="65" t="b">
         <v>0</v>
@@ -6312,19 +6289,19 @@
       </c>
       <c r="E43" s="121" t="str">
         <f>Futures!H16</f>
-        <v>obj_003bb#0001</v>
+        <v>obj_0032a#0001</v>
       </c>
       <c r="F43" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E43),"LastFixing","D"),"Libor","")</f>
         <v>JPYFUT3MU5_Quote</v>
       </c>
-      <c r="G43" s="134">
+      <c r="G43" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E43,Trigger)</f>
-        <v>99.807500000000005</v>
-      </c>
-      <c r="H43" s="122">
+        <v>#NUM!</v>
+      </c>
+      <c r="H43" s="122" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(E43,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="I43" s="65" t="b">
         <v>0</v>
@@ -6358,19 +6335,19 @@
       </c>
       <c r="E44" s="121" t="str">
         <f>Futures!H17</f>
-        <v>obj_003b4#0001</v>
+        <v>obj_00355#0001</v>
       </c>
       <c r="F44" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E44),"LastFixing","D"),"Libor","")</f>
         <v>JPYFUT3MZ5_Quote</v>
       </c>
-      <c r="G44" s="134">
+      <c r="G44" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E44,Trigger)</f>
-        <v>99.802500000000009</v>
-      </c>
-      <c r="H44" s="122">
+        <v>#NUM!</v>
+      </c>
+      <c r="H44" s="122" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(E44,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="I44" s="65" t="b">
         <v>0</v>
@@ -6404,19 +6381,19 @@
       </c>
       <c r="E45" s="121" t="str">
         <f>Futures!H18</f>
-        <v>obj_003a7#0001</v>
+        <v>obj_00361#0001</v>
       </c>
       <c r="F45" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E45),"LastFixing","D"),"Libor","")</f>
         <v>JPYFUT3MH6_Quote</v>
       </c>
-      <c r="G45" s="134">
+      <c r="G45" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E45,Trigger)</f>
-        <v>99.797499999999999</v>
-      </c>
-      <c r="H45" s="122">
+        <v>#NUM!</v>
+      </c>
+      <c r="H45" s="122" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(E45,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="I45" s="65" t="b">
         <v>0</v>
@@ -6450,19 +6427,19 @@
       </c>
       <c r="E46" s="121" t="str">
         <f>Futures!H19</f>
-        <v>obj_003b0#0001</v>
+        <v>obj_0032e#0001</v>
       </c>
       <c r="F46" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E46),"LastFixing","D"),"Libor","")</f>
         <v>JPYFUT3MM6_Quote</v>
       </c>
-      <c r="G46" s="134">
+      <c r="G46" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E46,Trigger)</f>
-        <v>99.78</v>
-      </c>
-      <c r="H46" s="122">
+        <v>#NUM!</v>
+      </c>
+      <c r="H46" s="122" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(E46,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="I46" s="65" t="b">
         <v>0</v>
@@ -6496,19 +6473,19 @@
       </c>
       <c r="E47" s="121" t="str">
         <f>Futures!H20</f>
-        <v>obj_0039e#0001</v>
+        <v>obj_00347#0001</v>
       </c>
       <c r="F47" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E47),"LastFixing","D"),"Libor","")</f>
         <v>JPYFUT3MU6_Quote</v>
       </c>
-      <c r="G47" s="134">
+      <c r="G47" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E47,Trigger)</f>
-        <v>99.762500000000003</v>
-      </c>
-      <c r="H47" s="122">
+        <v>#NUM!</v>
+      </c>
+      <c r="H47" s="122" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(E47,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="I47" s="65" t="b">
         <v>0</v>
@@ -6542,19 +6519,19 @@
       </c>
       <c r="E48" s="121" t="str">
         <f>Futures!H21</f>
-        <v>obj_003ab#0001</v>
+        <v>obj_00329#0001</v>
       </c>
       <c r="F48" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E48),"LastFixing","D"),"Libor","")</f>
         <v>JPYFUT3MZ6_Quote</v>
       </c>
-      <c r="G48" s="134">
+      <c r="G48" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E48,Trigger)</f>
-        <v>99.740000000000009</v>
-      </c>
-      <c r="H48" s="122">
+        <v>#NUM!</v>
+      </c>
+      <c r="H48" s="122" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(E48,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="I48" s="65" t="b">
         <v>0</v>
@@ -6588,7 +6565,7 @@
       </c>
       <c r="E49" s="121" t="str">
         <f>Futures!H22</f>
-        <v>obj_00386#0001</v>
+        <v>obj_00359#0001</v>
       </c>
       <c r="F49" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E49),"LastFixing","D"),"Libor","")</f>
@@ -6634,7 +6611,7 @@
       </c>
       <c r="E50" s="121" t="str">
         <f>Futures!H23</f>
-        <v>obj_00380#0001</v>
+        <v>obj_0033c#0001</v>
       </c>
       <c r="F50" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E50),"LastFixing","D"),"Libor","")</f>
@@ -6680,7 +6657,7 @@
       </c>
       <c r="E51" s="121" t="str">
         <f>Futures!H24</f>
-        <v>obj_003a3#0001</v>
+        <v>obj_00352#0001</v>
       </c>
       <c r="F51" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E51),"LastFixing","D"),"Libor","")</f>
@@ -6726,7 +6703,7 @@
       </c>
       <c r="E52" s="121" t="str">
         <f>Futures!H25</f>
-        <v>obj_00385#0001</v>
+        <v>obj_00354#0001</v>
       </c>
       <c r="F52" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E52),"LastFixing","D"),"Libor","")</f>
@@ -6772,7 +6749,7 @@
       </c>
       <c r="E53" s="121" t="str">
         <f>Futures!H26</f>
-        <v>obj_00373#0001</v>
+        <v>obj_0034c#0001</v>
       </c>
       <c r="F53" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E53),"LastFixing","D"),"Libor","")</f>
@@ -6818,7 +6795,7 @@
       </c>
       <c r="E54" s="121" t="str">
         <f>Futures!H27</f>
-        <v>obj_00388#0001</v>
+        <v>obj_0035f#0001</v>
       </c>
       <c r="F54" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E54),"LastFixing","D"),"Libor","")</f>
@@ -6864,7 +6841,7 @@
       </c>
       <c r="E55" s="121" t="str">
         <f>Futures!H28</f>
-        <v>obj_00383#0001</v>
+        <v>obj_00330#0001</v>
       </c>
       <c r="F55" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E55),"LastFixing","D"),"Libor","")</f>
@@ -6910,7 +6887,7 @@
       </c>
       <c r="E56" s="121" t="str">
         <f>Futures!H29</f>
-        <v>obj_003b6#0001</v>
+        <v>obj_0035d#0001</v>
       </c>
       <c r="F56" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E56),"LastFixing","D"),"Libor","")</f>
@@ -6956,7 +6933,7 @@
       </c>
       <c r="E57" s="121" t="str">
         <f>Futures!H30</f>
-        <v>obj_003b5#0001</v>
+        <v>obj_00334#0001</v>
       </c>
       <c r="F57" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E57),"LastFixing","D"),"Libor","")</f>
@@ -7002,7 +6979,7 @@
       </c>
       <c r="E58" s="121" t="str">
         <f>Futures!H31</f>
-        <v>obj_0038f#0001</v>
+        <v>obj_0033a#0001</v>
       </c>
       <c r="F58" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E58),"LastFixing","D"),"Libor","")</f>
@@ -7048,7 +7025,7 @@
       </c>
       <c r="E59" s="121" t="str">
         <f>Futures!H32</f>
-        <v>obj_003a6#0001</v>
+        <v>obj_0035c#0001</v>
       </c>
       <c r="F59" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E59),"LastFixing","D"),"Libor","")</f>
@@ -7094,7 +7071,7 @@
       </c>
       <c r="E60" s="121" t="str">
         <f>Futures!H33</f>
-        <v>obj_0037c#0001</v>
+        <v>obj_00326#0001</v>
       </c>
       <c r="F60" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E60),"LastFixing","D"),"Libor","")</f>
@@ -7140,7 +7117,7 @@
       </c>
       <c r="E61" s="121" t="str">
         <f>Futures!H34</f>
-        <v>obj_0037d#0001</v>
+        <v>obj_00335#0001</v>
       </c>
       <c r="F61" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E61),"LastFixing","D"),"Libor","")</f>
@@ -7187,7 +7164,7 @@
       </c>
       <c r="E62" s="121" t="str">
         <f>Futures!H35</f>
-        <v>obj_00392#0001</v>
+        <v>obj_00340#0001</v>
       </c>
       <c r="F62" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E62),"LastFixing","D"),"Libor","")</f>
@@ -7234,7 +7211,7 @@
       </c>
       <c r="E63" s="121" t="str">
         <f>Futures!H36</f>
-        <v>obj_00387#0001</v>
+        <v>obj_0035a#0001</v>
       </c>
       <c r="F63" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E63),"LastFixing","D"),"Libor","")</f>
@@ -7281,7 +7258,7 @@
       </c>
       <c r="E64" s="121" t="str">
         <f>Futures!H37</f>
-        <v>obj_00379#0001</v>
+        <v>obj_00363#0001</v>
       </c>
       <c r="F64" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E64),"LastFixing","D"),"Libor","")</f>
@@ -7328,7 +7305,7 @@
       </c>
       <c r="E65" s="121" t="str">
         <f>Futures!H38</f>
-        <v>obj_003af#0001</v>
+        <v>obj_0033d#0001</v>
       </c>
       <c r="F65" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E65),"LastFixing","D"),"Libor","")</f>
@@ -7375,7 +7352,7 @@
       </c>
       <c r="E66" s="121" t="str">
         <f>Futures!H39</f>
-        <v>obj_003aa#0001</v>
+        <v>obj_00370#0001</v>
       </c>
       <c r="F66" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E66),"LastFixing","D"),"Libor","")</f>
@@ -7422,7 +7399,7 @@
       </c>
       <c r="E67" s="121" t="str">
         <f>Futures!H40</f>
-        <v>obj_0038b#0001</v>
+        <v>obj_0036e#0001</v>
       </c>
       <c r="F67" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E67),"LastFixing","D"),"Libor","")</f>
@@ -7469,7 +7446,7 @@
       </c>
       <c r="E68" s="121" t="str">
         <f>Futures!H41</f>
-        <v>obj_003b8#0001</v>
+        <v>obj_00367#0001</v>
       </c>
       <c r="F68" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E68),"LastFixing","D"),"Libor","")</f>
@@ -7516,7 +7493,7 @@
       </c>
       <c r="E69" s="121" t="str">
         <f>Futures!H42</f>
-        <v>obj_0037b#0001</v>
+        <v>obj_0036d#0001</v>
       </c>
       <c r="F69" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E69),"LastFixing","D"),"Libor","")</f>
@@ -7563,7 +7540,7 @@
       </c>
       <c r="E70" s="121" t="str">
         <f>Futures!H43</f>
-        <v>obj_0039c#0001</v>
+        <v>obj_00328#0001</v>
       </c>
       <c r="F70" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E70),"LastFixing","D"),"Libor","")</f>
@@ -7610,7 +7587,7 @@
       </c>
       <c r="E71" s="121" t="str">
         <f>Futures!H44</f>
-        <v>obj_00390#0001</v>
+        <v>obj_0034b#0001</v>
       </c>
       <c r="F71" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E71),"LastFixing","D"),"Libor","")</f>
@@ -7656,7 +7633,7 @@
       </c>
       <c r="E72" s="121" t="str">
         <f>Swaps!K5</f>
-        <v>obj_00370#0001</v>
+        <v>obj_00322#0001</v>
       </c>
       <c r="F72" s="137" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E72),"LastFixing","D"),"Libor","")</f>
@@ -7702,7 +7679,7 @@
       </c>
       <c r="E73" s="121" t="str">
         <f>Swaps!K6</f>
-        <v>obj_0039b#0001</v>
+        <v>obj_0036f#0001</v>
       </c>
       <c r="F73" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E73),"LastFixing","D"),"Libor","")</f>
@@ -7748,7 +7725,7 @@
       </c>
       <c r="E74" s="121" t="str">
         <f>Swaps!K7</f>
-        <v>obj_003a0#0001</v>
+        <v>obj_0034d#0001</v>
       </c>
       <c r="F74" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E74),"LastFixing","D"),"Libor","")</f>
@@ -7794,7 +7771,7 @@
       </c>
       <c r="E75" s="121" t="str">
         <f>Swaps!K8</f>
-        <v>obj_0038e#0001</v>
+        <v>obj_00346#0001</v>
       </c>
       <c r="F75" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E75),"LastFixing","D"),"Libor","")</f>
@@ -7840,7 +7817,7 @@
       </c>
       <c r="E76" s="121" t="str">
         <f>Swaps!K9</f>
-        <v>obj_00378#0001</v>
+        <v>obj_0035e#0001</v>
       </c>
       <c r="F76" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E76),"LastFixing","D"),"Libor","")</f>
@@ -7886,7 +7863,7 @@
       </c>
       <c r="E77" s="121" t="str">
         <f>Swaps!K10</f>
-        <v>obj_00381#0001</v>
+        <v>obj_0032d#0001</v>
       </c>
       <c r="F77" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E77),"LastFixing","D"),"Libor","")</f>
@@ -7932,7 +7909,7 @@
       </c>
       <c r="E78" s="121" t="str">
         <f>Swaps!K11</f>
-        <v>obj_003a5#0001</v>
+        <v>obj_00357#0001</v>
       </c>
       <c r="F78" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E78),"LastFixing","D"),"Libor","")</f>
@@ -7940,7 +7917,7 @@
       </c>
       <c r="G78" s="122">
         <f>_xll.qlRateHelperQuoteValue($E78,Trigger)</f>
-        <v>2.4250000000000001E-3</v>
+        <v>2.4499999999999999E-3</v>
       </c>
       <c r="H78" s="122">
         <f>_xll.qlSwapRateHelperSpread($E78,Trigger)</f>
@@ -7978,7 +7955,7 @@
       </c>
       <c r="E79" s="121" t="str">
         <f>Swaps!K12</f>
-        <v>obj_003b9#0001</v>
+        <v>obj_0036c#0001</v>
       </c>
       <c r="F79" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E79),"LastFixing","D"),"Libor","")</f>
@@ -7986,7 +7963,7 @@
       </c>
       <c r="G79" s="122">
         <f>_xll.qlRateHelperQuoteValue($E79,Trigger)</f>
-        <v>3.0249999999999999E-3</v>
+        <v>3.0500000000000006E-3</v>
       </c>
       <c r="H79" s="122">
         <f>_xll.qlSwapRateHelperSpread($E79,Trigger)</f>
@@ -8024,7 +8001,7 @@
       </c>
       <c r="E80" s="121" t="str">
         <f>Swaps!K13</f>
-        <v>obj_00394#0001</v>
+        <v>obj_00343#0001</v>
       </c>
       <c r="F80" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E80),"LastFixing","D"),"Libor","")</f>
@@ -8032,7 +8009,7 @@
       </c>
       <c r="G80" s="122">
         <f>_xll.qlRateHelperQuoteValue($E80,Trigger)</f>
-        <v>3.8E-3</v>
+        <v>3.8249999999999994E-3</v>
       </c>
       <c r="H80" s="122">
         <f>_xll.qlSwapRateHelperSpread($E80,Trigger)</f>
@@ -8070,7 +8047,7 @@
       </c>
       <c r="E81" s="121" t="str">
         <f>Swaps!K14</f>
-        <v>obj_003bc#0001</v>
+        <v>obj_00339#0001</v>
       </c>
       <c r="F81" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E81),"LastFixing","D"),"Libor","")</f>
@@ -8078,7 +8055,7 @@
       </c>
       <c r="G81" s="122">
         <f>_xll.qlRateHelperQuoteValue($E81,Trigger)</f>
-        <v>4.6750000000000003E-3</v>
+        <v>4.725E-3</v>
       </c>
       <c r="H81" s="122">
         <f>_xll.qlSwapRateHelperSpread($E81,Trigger)</f>
@@ -8116,7 +8093,7 @@
       </c>
       <c r="E82" s="121" t="str">
         <f>Swaps!K15</f>
-        <v>obj_003ac#0001</v>
+        <v>obj_00338#0001</v>
       </c>
       <c r="F82" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E82),"LastFixing","D"),"Libor","")</f>
@@ -8124,7 +8101,7 @@
       </c>
       <c r="G82" s="122">
         <f>_xll.qlRateHelperQuoteValue($E82,Trigger)</f>
-        <v>5.6000000000000008E-3</v>
+        <v>5.6499999999999996E-3</v>
       </c>
       <c r="H82" s="122">
         <f>_xll.qlSwapRateHelperSpread($E82,Trigger)</f>
@@ -8162,7 +8139,7 @@
       </c>
       <c r="E83" s="121" t="str">
         <f>Swaps!K16</f>
-        <v>obj_003a8#0001</v>
+        <v>obj_00366#0001</v>
       </c>
       <c r="F83" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E83),"LastFixing","D"),"Libor","")</f>
@@ -8170,7 +8147,7 @@
       </c>
       <c r="G83" s="122">
         <f>_xll.qlRateHelperQuoteValue($E83,Trigger)</f>
-        <v>6.5500000000000003E-3</v>
+        <v>6.5999999999999991E-3</v>
       </c>
       <c r="H83" s="122">
         <f>_xll.qlSwapRateHelperSpread($E83,Trigger)</f>
@@ -8208,7 +8185,7 @@
       </c>
       <c r="E84" s="121" t="str">
         <f>Swaps!K17</f>
-        <v>obj_00376#0001</v>
+        <v>obj_00332#0001</v>
       </c>
       <c r="F84" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E84),"LastFixing","D"),"Libor","")</f>
@@ -8216,7 +8193,7 @@
       </c>
       <c r="G84" s="122">
         <f>_xll.qlRateHelperQuoteValue($E84,Trigger)</f>
-        <v>7.4750000000000007E-3</v>
+        <v>7.5249999999999996E-3</v>
       </c>
       <c r="H84" s="122">
         <f>_xll.qlSwapRateHelperSpread($E84,Trigger)</f>
@@ -8254,7 +8231,7 @@
       </c>
       <c r="E85" s="121" t="str">
         <f>Swaps!K18</f>
-        <v>obj_003a1#0001</v>
+        <v>obj_0034e#0001</v>
       </c>
       <c r="F85" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E85),"LastFixing","D"),"Libor","")</f>
@@ -8300,7 +8277,7 @@
       </c>
       <c r="E86" s="121" t="str">
         <f>Swaps!K19</f>
-        <v>obj_003bd#0001</v>
+        <v>obj_00349#0001</v>
       </c>
       <c r="F86" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E86),"LastFixing","D"),"Libor","")</f>
@@ -8308,7 +8285,7 @@
       </c>
       <c r="G86" s="122">
         <f>_xll.qlRateHelperQuoteValue($E86,Trigger)</f>
-        <v>9.3500000000000007E-3</v>
+        <v>9.3999999999999986E-3</v>
       </c>
       <c r="H86" s="122">
         <f>_xll.qlSwapRateHelperSpread($E86,Trigger)</f>
@@ -8346,7 +8323,7 @@
       </c>
       <c r="E87" s="121" t="str">
         <f>Swaps!K20</f>
-        <v>obj_003a9#0001</v>
+        <v>obj_0036b#0001</v>
       </c>
       <c r="F87" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E87),"LastFixing","D"),"Libor","")</f>
@@ -8392,7 +8369,7 @@
       </c>
       <c r="E88" s="121" t="str">
         <f>Swaps!K21</f>
-        <v>obj_0039f#0001</v>
+        <v>obj_0034a#0001</v>
       </c>
       <c r="F88" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E88),"LastFixing","D"),"Libor","")</f>
@@ -8438,7 +8415,7 @@
       </c>
       <c r="E89" s="121" t="str">
         <f>Swaps!K22</f>
-        <v>obj_003b3#0001</v>
+        <v>obj_00353#0001</v>
       </c>
       <c r="F89" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E89),"LastFixing","D"),"Libor","")</f>
@@ -8446,7 +8423,7 @@
       </c>
       <c r="G89" s="122">
         <f>_xll.qlRateHelperQuoteValue($E89,Trigger)</f>
-        <v>1.2E-2</v>
+        <v>1.205E-2</v>
       </c>
       <c r="H89" s="122">
         <f>_xll.qlSwapRateHelperSpread($E89,Trigger)</f>
@@ -8484,7 +8461,7 @@
       </c>
       <c r="E90" s="121" t="str">
         <f>Swaps!K23</f>
-        <v>obj_0039a#0001</v>
+        <v>obj_0036a#0001</v>
       </c>
       <c r="F90" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E90),"LastFixing","D"),"Libor","")</f>
@@ -8530,7 +8507,7 @@
       </c>
       <c r="E91" s="121" t="str">
         <f>Swaps!K24</f>
-        <v>obj_00395#0001</v>
+        <v>obj_00344#0001</v>
       </c>
       <c r="F91" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E91),"LastFixing","D"),"Libor","")</f>
@@ -8576,7 +8553,7 @@
       </c>
       <c r="E92" s="121" t="str">
         <f>Swaps!K25</f>
-        <v>obj_00374#0001</v>
+        <v>obj_0033f#0001</v>
       </c>
       <c r="F92" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E92),"LastFixing","D"),"Libor","")</f>
@@ -8622,7 +8599,7 @@
       </c>
       <c r="E93" s="121" t="str">
         <f>Swaps!K26</f>
-        <v>obj_003a4#0001</v>
+        <v>obj_00333#0001</v>
       </c>
       <c r="F93" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E93),"LastFixing","D"),"Libor","")</f>
@@ -8668,7 +8645,7 @@
       </c>
       <c r="E94" s="121" t="str">
         <f>Swaps!K27</f>
-        <v>obj_00382#0001</v>
+        <v>obj_0032f#0001</v>
       </c>
       <c r="F94" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E94),"LastFixing","D"),"Libor","")</f>
@@ -8676,7 +8653,7 @@
       </c>
       <c r="G94" s="122">
         <f>_xll.qlRateHelperQuoteValue($E94,Trigger)</f>
-        <v>1.5175000000000001E-2</v>
+        <v>1.5224999999999999E-2</v>
       </c>
       <c r="H94" s="122">
         <f>_xll.qlSwapRateHelperSpread($E94,Trigger)</f>
@@ -8714,7 +8691,7 @@
       </c>
       <c r="E95" s="121" t="str">
         <f>Swaps!K28</f>
-        <v>obj_003b7#0001</v>
+        <v>obj_00362#0001</v>
       </c>
       <c r="F95" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E95),"LastFixing","D"),"Libor","")</f>
@@ -8760,7 +8737,7 @@
       </c>
       <c r="E96" s="121" t="str">
         <f>Swaps!K29</f>
-        <v>obj_00377#0001</v>
+        <v>obj_00356#0001</v>
       </c>
       <c r="F96" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E96),"LastFixing","D"),"Libor","")</f>
@@ -8806,7 +8783,7 @@
       </c>
       <c r="E97" s="121" t="str">
         <f>Swaps!K30</f>
-        <v>obj_00371#0001</v>
+        <v>obj_00324#0001</v>
       </c>
       <c r="F97" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E97),"LastFixing","D"),"Libor","")</f>
@@ -8852,7 +8829,7 @@
       </c>
       <c r="E98" s="121" t="str">
         <f>Swaps!K31</f>
-        <v>obj_0038a#0001</v>
+        <v>obj_00369#0001</v>
       </c>
       <c r="F98" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E98),"LastFixing","D"),"Libor","")</f>
@@ -8898,7 +8875,7 @@
       </c>
       <c r="E99" s="121" t="str">
         <f>Swaps!K32</f>
-        <v>obj_0038d#0001</v>
+        <v>obj_00336#0001</v>
       </c>
       <c r="F99" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E99),"LastFixing","D"),"Libor","")</f>
@@ -8906,7 +8883,7 @@
       </c>
       <c r="G99" s="122">
         <f>_xll.qlRateHelperQuoteValue($E99,Trigger)</f>
-        <v>1.6799999999999999E-2</v>
+        <v>1.685E-2</v>
       </c>
       <c r="H99" s="122">
         <f>_xll.qlSwapRateHelperSpread($E99,Trigger)</f>
@@ -8943,7 +8920,7 @@
       </c>
       <c r="E100" s="121" t="str">
         <f>Swaps!K33</f>
-        <v>obj_00396#0001</v>
+        <v>obj_00358#0001</v>
       </c>
       <c r="F100" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E100),"LastFixing","D"),"Libor","")</f>
@@ -8988,7 +8965,7 @@
       </c>
       <c r="E101" s="121" t="str">
         <f>Swaps!K34</f>
-        <v>obj_0038c#0001</v>
+        <v>obj_00327#0001</v>
       </c>
       <c r="F101" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E101),"LastFixing","D"),"Libor","")</f>
@@ -9033,7 +9010,7 @@
       </c>
       <c r="E102" s="121" t="str">
         <f>Swaps!K35</f>
-        <v>obj_00399#0001</v>
+        <v>obj_00365#0001</v>
       </c>
       <c r="F102" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E102),"LastFixing","D"),"Libor","")</f>
@@ -9078,7 +9055,7 @@
       </c>
       <c r="E103" s="121" t="str">
         <f>Swaps!K36</f>
-        <v>obj_00372#0001</v>
+        <v>obj_00325#0001</v>
       </c>
       <c r="F103" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E103),"LastFixing","D"),"Libor","")</f>
@@ -9123,7 +9100,7 @@
       </c>
       <c r="E104" s="121" t="str">
         <f>Swaps!K37</f>
-        <v>obj_003be#0001</v>
+        <v>obj_0032c#0001</v>
       </c>
       <c r="F104" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E104),"LastFixing","D"),"Libor","")</f>
@@ -9131,7 +9108,7 @@
       </c>
       <c r="G104" s="122">
         <f>_xll.qlRateHelperQuoteValue($E104,Trigger)</f>
-        <v>1.7675E-2</v>
+        <v>1.7725000000000001E-2</v>
       </c>
       <c r="H104" s="122">
         <f>_xll.qlSwapRateHelperSpread($E104,Trigger)</f>
@@ -9168,7 +9145,7 @@
       </c>
       <c r="E105" s="121" t="str">
         <f>Swaps!K38</f>
-        <v>obj_003ad#0001</v>
+        <v>obj_00348#0001</v>
       </c>
       <c r="F105" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E105),"LastFixing","D"),"Libor","")</f>
@@ -9213,7 +9190,7 @@
       </c>
       <c r="E106" s="121" t="str">
         <f>Swaps!K39</f>
-        <v>obj_003ae#0001</v>
+        <v>obj_0033b#0001</v>
       </c>
       <c r="F106" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E106),"LastFixing","D"),"Libor","")</f>
@@ -9258,7 +9235,7 @@
       </c>
       <c r="E107" s="121" t="str">
         <f>Swaps!K40</f>
-        <v>obj_0037f#0001</v>
+        <v>obj_0032b#0001</v>
       </c>
       <c r="F107" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E107),"LastFixing","D"),"Libor","")</f>
@@ -9303,7 +9280,7 @@
       </c>
       <c r="E108" s="121" t="str">
         <f>Swaps!K41</f>
-        <v>obj_003b2#0001</v>
+        <v>obj_00331#0001</v>
       </c>
       <c r="F108" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E108),"LastFixing","D"),"Libor","")</f>
@@ -9336,9 +9313,9 @@
       </c>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E109" s="201"/>
-      <c r="F109" s="201"/>
-      <c r="G109" s="201"/>
+      <c r="E109" s="190"/>
+      <c r="F109" s="190"/>
+      <c r="G109" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9356,7 +9333,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -9366,21 +9343,20 @@
     <col min="2" max="2" width="41" style="63" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.7109375" style="63" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" style="89" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" style="89" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="89" customWidth="1"/>
-    <col min="7" max="7" width="8" style="89" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="89" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8" style="89" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="17.28515625" style="89" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="63" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="63" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="205" t="s">
+    <row r="1" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="D1" s="196" t="s">
+      <c r="B1" s="195"/>
+      <c r="D1" s="189" t="s">
         <v>59</v>
       </c>
       <c r="E1" s="72" t="s">
@@ -9410,7 +9386,7 @@
       </c>
       <c r="D2" s="78" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_0036a</v>
+        <v>obj_00323</v>
       </c>
       <c r="E2" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D2),"LastFixing","D"),"Libor","")</f>
@@ -9445,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="78" t="str">
-        <v>obj_00508</v>
+        <v>obj_00311</v>
       </c>
       <c r="E3" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D3),"LastFixing","D"),"Libor","")</f>
@@ -9480,7 +9456,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="78" t="str">
-        <v>obj_0050a</v>
+        <v>obj_0030e</v>
       </c>
       <c r="E4" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D4),"LastFixing","D"),"Libor","")</f>
@@ -9515,7 +9491,7 @@
         <v>54</v>
       </c>
       <c r="D5" s="78" t="str">
-        <v>obj_0050b</v>
+        <v>obj_0030f</v>
       </c>
       <c r="E5" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D5),"LastFixing","D"),"Libor","")</f>
@@ -9551,7 +9527,7 @@
         <v/>
       </c>
       <c r="D6" s="78" t="str">
-        <v>obj_00509</v>
+        <v>obj_00310</v>
       </c>
       <c r="E6" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D6),"LastFixing","D"),"Libor","")</f>
@@ -9581,14 +9557,14 @@
     <row r="7" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="85" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>JPY_YCSTDRH_RateHelpersSelected#0019</v>
+        <v>JPY_YCSTDRH_RateHelpersSelected#0010</v>
       </c>
       <c r="B7" s="86" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
         <v/>
       </c>
       <c r="D7" s="78" t="str">
-        <v>obj_0036b</v>
+        <v>obj_00313</v>
       </c>
       <c r="E7" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D7),"LastFixing","D"),"Libor","")</f>
@@ -9617,7 +9593,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D8" s="78" t="str">
-        <v>obj_00370</v>
+        <v>obj_00322</v>
       </c>
       <c r="E8" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D8),"LastFixing","D"),"Libor","")</f>
@@ -9640,13 +9616,13 @@
         <v>42167</v>
       </c>
       <c r="J8" s="75">
-        <v>1.792326118080163E-3</v>
+        <v>1.7923261180793992E-3</v>
       </c>
       <c r="K8" s="80"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D9" s="78" t="str">
-        <v>obj_003a0</v>
+        <v>obj_0034d</v>
       </c>
       <c r="E9" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D9),"LastFixing","D"),"Libor","")</f>
@@ -9669,13 +9645,13 @@
         <v>42352</v>
       </c>
       <c r="J9" s="75">
-        <v>1.7946229618163996E-3</v>
+        <v>1.794622961815882E-3</v>
       </c>
       <c r="K9" s="80"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D10" s="78" t="str">
-        <v>obj_00381</v>
+        <v>obj_0032d</v>
       </c>
       <c r="E10" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D10),"LastFixing","D"),"Libor","")</f>
@@ -9698,13 +9674,13 @@
         <v>42898</v>
       </c>
       <c r="J10" s="75">
-        <v>2.021663718286867E-3</v>
+        <v>2.0216637182866376E-3</v>
       </c>
       <c r="K10" s="80"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D11" s="78" t="str">
-        <v>obj_003a5</v>
+        <v>obj_00357</v>
       </c>
       <c r="E11" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D11),"LastFixing","D"),"Libor","")</f>
@@ -9712,7 +9688,7 @@
       </c>
       <c r="F11" s="79">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>2.4250000000000001E-3</v>
+        <v>2.4499999999999999E-3</v>
       </c>
       <c r="G11" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -9727,13 +9703,13 @@
         <v>43263</v>
       </c>
       <c r="J11" s="75">
-        <v>2.4227943576126581E-3</v>
+        <v>2.4478426874757573E-3</v>
       </c>
       <c r="K11" s="80"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D12" s="78" t="str">
-        <v>obj_003b9</v>
+        <v>obj_0036c</v>
       </c>
       <c r="E12" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D12),"LastFixing","D"),"Libor","")</f>
@@ -9741,7 +9717,7 @@
       </c>
       <c r="F12" s="79">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>3.0249999999999999E-3</v>
+        <v>3.0500000000000006E-3</v>
       </c>
       <c r="G12" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -9756,13 +9732,13 @@
         <v>43628</v>
       </c>
       <c r="J12" s="75">
-        <v>3.0255233571506797E-3</v>
+        <v>3.0505977247435702E-3</v>
       </c>
       <c r="K12" s="80"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D13" s="78" t="str">
-        <v>obj_00394</v>
+        <v>obj_00343</v>
       </c>
       <c r="E13" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D13),"LastFixing","D"),"Libor","")</f>
@@ -9770,7 +9746,7 @@
       </c>
       <c r="F13" s="79">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>3.8E-3</v>
+        <v>3.8249999999999994E-3</v>
       </c>
       <c r="G13" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -9785,13 +9761,13 @@
         <v>43994</v>
       </c>
       <c r="J13" s="75">
-        <v>3.8066923344264331E-3</v>
+        <v>3.8318080580757629E-3</v>
       </c>
       <c r="K13" s="80"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D14" s="78" t="str">
-        <v>obj_003bc</v>
+        <v>obj_00339</v>
       </c>
       <c r="E14" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D14),"LastFixing","D"),"Libor","")</f>
@@ -9799,7 +9775,7 @@
       </c>
       <c r="F14" s="79">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>4.6750000000000003E-3</v>
+        <v>4.725E-3</v>
       </c>
       <c r="G14" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -9814,13 +9790,13 @@
         <v>44361</v>
       </c>
       <c r="J14" s="75">
-        <v>4.6928257929975707E-3</v>
+        <v>4.743421668832187E-3</v>
       </c>
       <c r="K14" s="80"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D15" s="78" t="str">
-        <v>obj_003ac</v>
+        <v>obj_00338</v>
       </c>
       <c r="E15" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D15),"LastFixing","D"),"Libor","")</f>
@@ -9828,7 +9804,7 @@
       </c>
       <c r="F15" s="79">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>5.6000000000000008E-3</v>
+        <v>5.6499999999999996E-3</v>
       </c>
       <c r="G15" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -9843,13 +9819,13 @@
         <v>44725</v>
       </c>
       <c r="J15" s="75">
-        <v>5.6351698178697179E-3</v>
+        <v>5.6859059088861675E-3</v>
       </c>
       <c r="K15" s="80"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D16" s="78" t="str">
-        <v>obj_003a8</v>
+        <v>obj_00366</v>
       </c>
       <c r="E16" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D16),"LastFixing","D"),"Libor","")</f>
@@ -9857,7 +9833,7 @@
       </c>
       <c r="F16" s="79">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>6.5500000000000003E-3</v>
+        <v>6.5999999999999991E-3</v>
       </c>
       <c r="G16" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -9872,12 +9848,12 @@
         <v>45089</v>
       </c>
       <c r="J16" s="75">
-        <v>6.6097714766173475E-3</v>
+        <v>6.6606651198882674E-3</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D17" s="78" t="str">
-        <v>obj_00376</v>
+        <v>obj_00332</v>
       </c>
       <c r="E17" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D17),"LastFixing","D"),"Libor","")</f>
@@ -9885,7 +9861,7 @@
       </c>
       <c r="F17" s="79">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>7.4750000000000007E-3</v>
+        <v>7.5249999999999996E-3</v>
       </c>
       <c r="G17" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -9900,12 +9876,12 @@
         <v>45455</v>
       </c>
       <c r="J17" s="75">
-        <v>7.5659479035006857E-3</v>
+        <v>7.6170051650501407E-3</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D18" s="78" t="str">
-        <v>obj_003bd</v>
+        <v>obj_00349</v>
       </c>
       <c r="E18" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D18),"LastFixing","D"),"Libor","")</f>
@@ -9913,7 +9889,7 @@
       </c>
       <c r="F18" s="79">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>9.3500000000000007E-3</v>
+        <v>9.3999999999999986E-3</v>
       </c>
       <c r="G18" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -9928,12 +9904,12 @@
         <v>46185</v>
       </c>
       <c r="J18" s="75">
-        <v>9.5316936443058716E-3</v>
+        <v>9.5831410039367241E-3</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D19" s="78" t="str">
-        <v>obj_003b3</v>
+        <v>obj_00353</v>
       </c>
       <c r="E19" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D19),"LastFixing","D"),"Libor","")</f>
@@ -9941,7 +9917,7 @@
       </c>
       <c r="F19" s="79">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.2E-2</v>
+        <v>1.205E-2</v>
       </c>
       <c r="G19" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -9956,12 +9932,12 @@
         <v>47281</v>
       </c>
       <c r="J19" s="75">
-        <v>1.2387009149854607E-2</v>
+        <v>1.2439148266127771E-2</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D20" s="78" t="str">
-        <v>obj_00382</v>
+        <v>obj_0032f</v>
       </c>
       <c r="E20" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D20),"LastFixing","D"),"Libor","")</f>
@@ -9969,7 +9945,7 @@
       </c>
       <c r="F20" s="79">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.5175000000000001E-2</v>
+        <v>1.5224999999999999E-2</v>
       </c>
       <c r="G20" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -9984,12 +9960,12 @@
         <v>49107</v>
       </c>
       <c r="J20" s="75">
-        <v>1.5955741426513348E-2</v>
+        <v>1.6008935157585672E-2</v>
       </c>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D21" s="78" t="str">
-        <v>obj_0038d</v>
+        <v>obj_00336</v>
       </c>
       <c r="E21" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D21),"LastFixing","D"),"Libor","")</f>
@@ -9997,7 +9973,7 @@
       </c>
       <c r="F21" s="79">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.6799999999999999E-2</v>
+        <v>1.685E-2</v>
       </c>
       <c r="G21" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -10012,12 +9988,12 @@
         <v>50934</v>
       </c>
       <c r="J21" s="75">
-        <v>1.7823005114833257E-2</v>
+        <v>1.7876729919604969E-2</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D22" s="78" t="str">
-        <v>obj_003be</v>
+        <v>obj_0032c</v>
       </c>
       <c r="E22" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D22),"LastFixing","D"),"Libor","")</f>
@@ -10025,7 +10001,7 @@
       </c>
       <c r="F22" s="79">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.7675E-2</v>
+        <v>1.7725000000000001E-2</v>
       </c>
       <c r="G22" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -10040,7 +10016,7 @@
         <v>52761</v>
       </c>
       <c r="J22" s="75">
-        <v>1.8817274796240749E-2</v>
+        <v>1.8871222169023899E-2</v>
       </c>
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.2">
@@ -12976,18 +12952,16 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="45" customWidth="1"/>
     <col min="2" max="2" width="4" style="45" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.85546875" style="45" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" style="45" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="45"/>
   </cols>
@@ -13009,7 +12983,7 @@
       <c r="F1" s="63"/>
       <c r="G1" s="49"/>
     </row>
-    <row r="2" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="55"/>
       <c r="B2" s="62"/>
       <c r="C2" s="62" t="s">
@@ -13028,7 +13002,7 @@
       </c>
       <c r="G2" s="49"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="55"/>
       <c r="B3" s="58" t="s">
         <v>109</v>
@@ -13043,7 +13017,7 @@
       </c>
       <c r="E3" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00361#0011</v>
+        <v>obj_00321#0001</v>
       </c>
       <c r="F3" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E3)</f>
@@ -13051,14 +13025,14 @@
       </c>
       <c r="G3" s="49"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="55"/>
       <c r="B4" s="54" t="s">
         <v>129</v>
       </c>
       <c r="C4" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B4,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035a#0013</v>
+        <v>obj_0031c#0001</v>
       </c>
       <c r="D4" s="52" t="str">
         <f t="shared" ref="D4:D19" si="0">PROPER(Currency)&amp;FamilyName&amp;$B4&amp;"LastFixing"&amp;QuoteSuffix</f>
@@ -13066,7 +13040,7 @@
       </c>
       <c r="E4" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036a#0012</v>
+        <v>obj_00323#0001</v>
       </c>
       <c r="F4" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E4)</f>
@@ -13074,14 +13048,14 @@
       </c>
       <c r="G4" s="49"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="55"/>
       <c r="B5" s="54" t="s">
         <v>108</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B5,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00502#0002</v>
+        <v>obj_0030b#0001</v>
       </c>
       <c r="D5" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13089,7 +13063,7 @@
       </c>
       <c r="E5" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00508#0001</v>
+        <v>obj_00311#0001</v>
       </c>
       <c r="F5" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -13097,60 +13071,54 @@
       </c>
       <c r="G5" s="49"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55"/>
       <c r="B6" s="54" t="s">
         <v>130</v>
       </c>
       <c r="C6" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B6,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_004fe#0002</v>
+        <v>obj_00302#0001</v>
       </c>
       <c r="D6" s="52" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor2WLastFixing_Quote</v>
       </c>
-      <c r="E6" s="51" t="e">
-        <f>_xll.qlDepositRateHelper(,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
+      <c r="E6" s="51"/>
       <c r="F6" s="50" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(E6)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'JpyLibor2WLastFixing_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(E6)</f>
+        <v/>
       </c>
       <c r="G6" s="49"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55"/>
       <c r="B7" s="54" t="s">
         <v>131</v>
       </c>
       <c r="C7" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B7,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00500#0002</v>
+        <v>obj_0030c#0001</v>
       </c>
       <c r="D7" s="52" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3WLastFixing_Quote</v>
       </c>
-      <c r="E7" s="51" t="e">
-        <f>_xll.qlDepositRateHelper(,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
+      <c r="E7" s="51"/>
       <c r="F7" s="50" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(E7)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'JpyLibor3WLastFixing_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(E7)</f>
+        <v/>
       </c>
       <c r="G7" s="49"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55"/>
       <c r="B8" s="54" t="s">
         <v>107</v>
       </c>
       <c r="C8" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B8,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00503#0002</v>
+        <v>obj_00304#0001</v>
       </c>
       <c r="D8" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13158,7 +13126,7 @@
       </c>
       <c r="E8" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0050a#0001</v>
+        <v>obj_0030e#0001</v>
       </c>
       <c r="F8" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -13166,14 +13134,14 @@
       </c>
       <c r="G8" s="49"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55"/>
       <c r="B9" s="54" t="s">
         <v>106</v>
       </c>
       <c r="C9" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B9,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00501#0002</v>
+        <v>obj_00309#0001</v>
       </c>
       <c r="D9" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13181,7 +13149,7 @@
       </c>
       <c r="E9" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0050b#0001</v>
+        <v>obj_0030f#0001</v>
       </c>
       <c r="F9" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -13189,14 +13157,14 @@
       </c>
       <c r="G9" s="49"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55"/>
       <c r="B10" s="54" t="s">
         <v>81</v>
       </c>
       <c r="C10" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B10,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_004ff#0002</v>
+        <v>obj_00303#0001</v>
       </c>
       <c r="D10" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13204,7 +13172,7 @@
       </c>
       <c r="E10" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00509#0001</v>
+        <v>obj_00310#0001</v>
       </c>
       <c r="F10" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -13212,60 +13180,54 @@
       </c>
       <c r="G10" s="49"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55"/>
       <c r="B11" s="54" t="s">
         <v>132</v>
       </c>
       <c r="C11" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B11,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00357#0013</v>
+        <v>obj_0030a#0001</v>
       </c>
       <c r="D11" s="52" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor4MLastFixing_Quote</v>
       </c>
-      <c r="E11" s="51" t="e">
-        <f>_xll.qlDepositRateHelper(,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
+      <c r="E11" s="51"/>
       <c r="F11" s="50" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(E11)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'JpyLibor4MLastFixing_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(E11)</f>
+        <v/>
       </c>
       <c r="G11" s="49"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55"/>
       <c r="B12" s="54" t="s">
         <v>133</v>
       </c>
       <c r="C12" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B12,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00358#0013</v>
+        <v>obj_0030d#0001</v>
       </c>
       <c r="D12" s="52" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor5MLastFixing_Quote</v>
       </c>
-      <c r="E12" s="51" t="e">
-        <f>_xll.qlDepositRateHelper(,D12,C12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
+      <c r="E12" s="51"/>
       <c r="F12" s="50" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(E12)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'JpyLibor5MLastFixing_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(E12)</f>
+        <v/>
       </c>
       <c r="G12" s="49"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55"/>
       <c r="B13" s="54" t="s">
         <v>105</v>
       </c>
       <c r="C13" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B13,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035b#0013</v>
+        <v>obj_00305#0001</v>
       </c>
       <c r="D13" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13273,7 +13235,7 @@
       </c>
       <c r="E13" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D13,C13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036b#0015</v>
+        <v>obj_00313#0001</v>
       </c>
       <c r="F13" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -13281,129 +13243,114 @@
       </c>
       <c r="G13" s="49"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55"/>
       <c r="B14" s="54" t="s">
         <v>134</v>
       </c>
       <c r="C14" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B14,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00359#0013</v>
+        <v>obj_00307#0001</v>
       </c>
       <c r="D14" s="52" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor7MLastFixing_Quote</v>
       </c>
-      <c r="E14" s="51" t="e">
-        <f>_xll.qlDepositRateHelper(,D14,C14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
+      <c r="E14" s="51"/>
       <c r="F14" s="50" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(E14)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'JpyLibor7MLastFixing_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(E14)</f>
+        <v/>
       </c>
       <c r="G14" s="49"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55"/>
       <c r="B15" s="58" t="s">
         <v>135</v>
       </c>
       <c r="C15" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B15,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035c#0014</v>
+        <v>obj_00308#0001</v>
       </c>
       <c r="D15" s="52" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor8MLastFixing_Quote</v>
       </c>
-      <c r="E15" s="51" t="e">
-        <f>_xll.qlDepositRateHelper(,D15,C15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
+      <c r="E15" s="51"/>
       <c r="F15" s="56" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(E15)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'JpyLibor8MLastFixing_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(E15)</f>
+        <v/>
       </c>
       <c r="G15" s="49"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55"/>
       <c r="B16" s="54" t="s">
         <v>136</v>
       </c>
       <c r="C16" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B16,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00504#0002</v>
+        <v>obj_002ff#0001</v>
       </c>
       <c r="D16" s="52" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor9MLastFixing_Quote</v>
       </c>
-      <c r="E16" s="51" t="e">
-        <f>_xll.qlDepositRateHelper(,D16,C16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
+      <c r="E16" s="51"/>
       <c r="F16" s="50" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(E16)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'JpyLibor9MLastFixing_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(E16)</f>
+        <v/>
       </c>
       <c r="G16" s="49"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="54" t="s">
         <v>137</v>
       </c>
       <c r="C17" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B17,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00505#0002</v>
+        <v>obj_00300#0001</v>
       </c>
       <c r="D17" s="52" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor10MLastFixing_Quote</v>
       </c>
-      <c r="E17" s="51" t="e">
-        <f>_xll.qlDepositRateHelper(,D17,C17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
+      <c r="E17" s="51"/>
       <c r="F17" s="50" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(E17)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'JpyLibor10MLastFixing_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(E17)</f>
+        <v/>
       </c>
       <c r="G17" s="49"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55"/>
       <c r="B18" s="54" t="s">
         <v>138</v>
       </c>
       <c r="C18" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B18,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00506#0002</v>
+        <v>obj_00306#0001</v>
       </c>
       <c r="D18" s="52" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor11MLastFixing_Quote</v>
       </c>
-      <c r="E18" s="51" t="e">
-        <f>_xll.qlDepositRateHelper(,D18,C18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
+      <c r="E18" s="51"/>
       <c r="F18" s="50" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(E18)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'JpyLibor11MLastFixing_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(E18)</f>
+        <v/>
       </c>
       <c r="G18" s="49"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55"/>
       <c r="B19" s="54" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B19,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00507#0002</v>
+        <v>obj_00301#0001</v>
       </c>
       <c r="D19" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13411,7 +13358,7 @@
       </c>
       <c r="E19" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D19,C19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0050c#0002</v>
+        <v>obj_00312#0001</v>
       </c>
       <c r="F19" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
@@ -13419,7 +13366,7 @@
       </c>
       <c r="G19" s="49"/>
     </row>
-    <row r="20" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="48"/>
       <c r="B20" s="47"/>
       <c r="C20" s="47"/>
@@ -13440,9 +13387,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13450,9 +13395,9 @@
     <col min="2" max="2" width="4" style="63" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" style="63" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="63" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="63" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="63" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="89" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="63" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="89" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.28515625" style="63" customWidth="1"/>
     <col min="9" max="9" width="3" style="63" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="63"/>
@@ -13479,7 +13424,7 @@
       <c r="H1" s="147"/>
       <c r="I1" s="148"/>
     </row>
-    <row r="2" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="55"/>
       <c r="B2" s="149"/>
       <c r="C2" s="149"/>
@@ -13500,356 +13445,356 @@
       </c>
       <c r="I2" s="49"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55"/>
-      <c r="B3" s="153" t="str">
+      <c r="B3" s="196" t="str">
         <f>C3&amp;"M"</f>
         <v>1M</v>
       </c>
-      <c r="C3" s="153">
-        <v>1</v>
-      </c>
-      <c r="D3" s="154" t="str">
+      <c r="C3" s="199">
+        <v>1</v>
+      </c>
+      <c r="D3" s="198" t="str">
         <f>"x"&amp;C3+$D$1&amp;"F"</f>
         <v>x4F</v>
       </c>
-      <c r="E3" s="155" t="str">
+      <c r="E3" s="196" t="str">
         <f t="shared" ref="E3:E13" si="0">PROPER(Currency)&amp;FamilyName&amp;"3M"</f>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F3" s="155" t="str">
+      <c r="F3" s="196" t="str">
         <f t="shared" ref="F3:F13" si="1">Currency&amp;C3&amp;D3&amp;"_Quote"</f>
         <v>JPY1x4F_Quote</v>
       </c>
-      <c r="G3" s="155" t="str">
+      <c r="G3" s="196" t="str">
         <f>_xll.qlFraRateHelper(,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00363#0001</v>
-      </c>
-      <c r="H3" s="156" t="str">
+        <v>obj_00316#0001</v>
+      </c>
+      <c r="H3" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(G3)</f>
         <v/>
       </c>
       <c r="I3" s="49"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="55"/>
-      <c r="B4" s="197" t="str">
+      <c r="B4" s="196" t="str">
         <f t="shared" ref="B4:B13" si="2">C4&amp;"M"</f>
         <v>2M</v>
       </c>
-      <c r="C4" s="197">
+      <c r="C4" s="199">
         <v>2</v>
       </c>
       <c r="D4" s="198" t="str">
         <f t="shared" ref="D4:D13" si="3">"x"&amp;C4+$D$1&amp;"F"</f>
         <v>x5F</v>
       </c>
-      <c r="E4" s="199" t="str">
+      <c r="E4" s="196" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F4" s="199" t="str">
+      <c r="F4" s="196" t="str">
         <f t="shared" si="1"/>
         <v>JPY2x5F_Quote</v>
       </c>
-      <c r="G4" s="199" t="str">
+      <c r="G4" s="196" t="str">
         <f>_xll.qlFraRateHelper(,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00364#0001</v>
-      </c>
-      <c r="H4" s="200" t="str">
+        <v>obj_00317#0001</v>
+      </c>
+      <c r="H4" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(G4)</f>
         <v/>
       </c>
       <c r="I4" s="49"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="55"/>
-      <c r="B5" s="197" t="str">
+      <c r="B5" s="196" t="str">
         <f t="shared" si="2"/>
         <v>3M</v>
       </c>
-      <c r="C5" s="197">
+      <c r="C5" s="199">
         <v>3</v>
       </c>
       <c r="D5" s="198" t="str">
         <f t="shared" si="3"/>
         <v>x6F</v>
       </c>
-      <c r="E5" s="199" t="str">
+      <c r="E5" s="196" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F5" s="199" t="str">
+      <c r="F5" s="196" t="str">
         <f t="shared" si="1"/>
         <v>JPY3x6F_Quote</v>
       </c>
-      <c r="G5" s="199" t="str">
+      <c r="G5" s="196" t="str">
         <f>_xll.qlFraRateHelper(,F5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00366#0001</v>
-      </c>
-      <c r="H5" s="200" t="str">
+        <v>obj_00318#0001</v>
+      </c>
+      <c r="H5" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(G5)</f>
         <v/>
       </c>
       <c r="I5" s="49"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="55"/>
-      <c r="B6" s="197" t="str">
+      <c r="B6" s="196" t="str">
         <f t="shared" si="2"/>
         <v>4M</v>
       </c>
-      <c r="C6" s="197">
+      <c r="C6" s="199">
         <v>4</v>
       </c>
       <c r="D6" s="198" t="str">
         <f t="shared" si="3"/>
         <v>x7F</v>
       </c>
-      <c r="E6" s="199" t="str">
+      <c r="E6" s="196" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F6" s="199" t="str">
+      <c r="F6" s="196" t="str">
         <f t="shared" si="1"/>
         <v>JPY4x7F_Quote</v>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="196" t="str">
         <f>_xll.qlFraRateHelper(,F6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00369#0001</v>
-      </c>
-      <c r="H6" s="200" t="str">
+        <v>obj_0031b#0001</v>
+      </c>
+      <c r="H6" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(G6)</f>
         <v/>
       </c>
       <c r="I6" s="49"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="55"/>
-      <c r="B7" s="197" t="str">
+      <c r="B7" s="196" t="str">
         <f t="shared" si="2"/>
         <v>5M</v>
       </c>
-      <c r="C7" s="197">
+      <c r="C7" s="199">
         <v>5</v>
       </c>
       <c r="D7" s="198" t="str">
         <f t="shared" si="3"/>
         <v>x8F</v>
       </c>
-      <c r="E7" s="199" t="str">
+      <c r="E7" s="196" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F7" s="199" t="str">
+      <c r="F7" s="196" t="str">
         <f t="shared" si="1"/>
         <v>JPY5x8F_Quote</v>
       </c>
-      <c r="G7" s="199" t="str">
+      <c r="G7" s="196" t="str">
         <f>_xll.qlFraRateHelper(,F7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00367#0001</v>
-      </c>
-      <c r="H7" s="200" t="str">
+        <v>obj_00319#0001</v>
+      </c>
+      <c r="H7" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(G7)</f>
         <v/>
       </c>
       <c r="I7" s="49"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="55"/>
-      <c r="B8" s="197" t="str">
+      <c r="B8" s="196" t="str">
         <f t="shared" si="2"/>
         <v>6M</v>
       </c>
-      <c r="C8" s="197">
+      <c r="C8" s="199">
         <v>6</v>
       </c>
       <c r="D8" s="198" t="str">
         <f t="shared" si="3"/>
         <v>x9F</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="196" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="196" t="str">
         <f t="shared" si="1"/>
         <v>JPY6x9F_Quote</v>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="196" t="str">
         <f>_xll.qlFraRateHelper(,F8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035f#0001</v>
-      </c>
-      <c r="H8" s="200" t="str">
+        <v>obj_0031d#0001</v>
+      </c>
+      <c r="H8" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(G8)</f>
         <v/>
       </c>
       <c r="I8" s="49"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55"/>
-      <c r="B9" s="197" t="str">
+      <c r="B9" s="196" t="str">
         <f t="shared" si="2"/>
         <v>9M</v>
       </c>
-      <c r="C9" s="197">
+      <c r="C9" s="199">
         <v>9</v>
       </c>
       <c r="D9" s="198" t="str">
         <f t="shared" si="3"/>
         <v>x12F</v>
       </c>
-      <c r="E9" s="199" t="str">
+      <c r="E9" s="196" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F9" s="199" t="str">
+      <c r="F9" s="196" t="str">
         <f t="shared" si="1"/>
         <v>JPY9x12F_Quote</v>
       </c>
-      <c r="G9" s="199" t="str">
+      <c r="G9" s="196" t="str">
         <f>_xll.qlFraRateHelper(,F9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00368#0001</v>
-      </c>
-      <c r="H9" s="200" t="str">
+        <v>obj_0031a#0001</v>
+      </c>
+      <c r="H9" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(G9)</f>
         <v/>
       </c>
       <c r="I9" s="49"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55"/>
-      <c r="B10" s="197" t="str">
+      <c r="B10" s="196" t="str">
         <f t="shared" si="2"/>
         <v>12M</v>
       </c>
-      <c r="C10" s="197">
+      <c r="C10" s="199">
         <v>12</v>
       </c>
       <c r="D10" s="198" t="str">
         <f t="shared" si="3"/>
         <v>x15F</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="196" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="196" t="str">
         <f t="shared" si="1"/>
         <v>JPY12x15F_Quote</v>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="196" t="str">
         <f>_xll.qlFraRateHelper(,F10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00360#0001</v>
-      </c>
-      <c r="H10" s="200" t="str">
+        <v>obj_00314#0001</v>
+      </c>
+      <c r="H10" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(G10)</f>
         <v/>
       </c>
       <c r="I10" s="49"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="55"/>
-      <c r="B11" s="197" t="str">
+      <c r="B11" s="196" t="str">
         <f t="shared" si="2"/>
         <v>15M</v>
       </c>
-      <c r="C11" s="197">
+      <c r="C11" s="199">
         <v>15</v>
       </c>
       <c r="D11" s="198" t="str">
         <f t="shared" si="3"/>
         <v>x18F</v>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="196" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="196" t="str">
         <f t="shared" si="1"/>
         <v>JPY15x18F_Quote</v>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="196" t="str">
         <f>_xll.qlFraRateHelper(,F11,B11,E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00365#0001</v>
-      </c>
-      <c r="H11" s="200" t="str">
+        <v>obj_0031e#0001</v>
+      </c>
+      <c r="H11" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(G11)</f>
         <v/>
       </c>
       <c r="I11" s="49"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55"/>
-      <c r="B12" s="197" t="str">
+      <c r="B12" s="196" t="str">
         <f t="shared" si="2"/>
         <v>18M</v>
       </c>
-      <c r="C12" s="197">
+      <c r="C12" s="199">
         <v>18</v>
       </c>
       <c r="D12" s="198" t="str">
         <f t="shared" si="3"/>
         <v>x21F</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="196" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="196" t="str">
         <f t="shared" si="1"/>
         <v>JPY18x21F_Quote</v>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="196" t="str">
         <f>_xll.qlFraRateHelper(,F12,B12,E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035d#0001</v>
-      </c>
-      <c r="H12" s="200" t="str">
+        <v>obj_0031f#0001</v>
+      </c>
+      <c r="H12" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(G12)</f>
         <v/>
       </c>
       <c r="I12" s="49"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55"/>
-      <c r="B13" s="157" t="str">
+      <c r="B13" s="196" t="str">
         <f t="shared" si="2"/>
         <v>21M</v>
       </c>
-      <c r="C13" s="157">
+      <c r="C13" s="199">
         <v>21</v>
       </c>
-      <c r="D13" s="51" t="str">
+      <c r="D13" s="198" t="str">
         <f t="shared" si="3"/>
         <v>x24F</v>
       </c>
-      <c r="E13" s="158" t="str">
+      <c r="E13" s="196" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F13" s="158" t="str">
+      <c r="F13" s="196" t="str">
         <f t="shared" si="1"/>
         <v>JPY21x24F_Quote</v>
       </c>
-      <c r="G13" s="158" t="str">
+      <c r="G13" s="196" t="str">
         <f>_xll.qlFraRateHelper(,F13,B13,E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035e#0001</v>
-      </c>
-      <c r="H13" s="159" t="str">
+        <v>obj_00320#0001</v>
+      </c>
+      <c r="H13" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(G13)</f>
         <v/>
       </c>
       <c r="I13" s="49"/>
     </row>
-    <row r="14" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
       <c r="B14" s="47"/>
       <c r="C14" s="47"/>
       <c r="D14" s="47"/>
       <c r="E14" s="47"/>
       <c r="F14" s="47"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
       <c r="I14" s="46"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -13867,16 +13812,14 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="45" customWidth="1"/>
     <col min="2" max="2" width="3" style="45" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="7" style="45" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="45" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" style="45" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.42578125" style="45" bestFit="1" customWidth="1"/>
@@ -13888,14 +13831,14 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="67"/>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
       <c r="E1" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="162"/>
-      <c r="G1" s="163" t="str">
+      <c r="F1" s="155"/>
+      <c r="G1" s="156" t="str">
         <f>Currency&amp;"_YC"&amp;"STDRH"</f>
         <v>JPY_YCSTDRH</v>
       </c>
@@ -13903,10 +13846,10 @@
         <f>$G$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
         <v>JPY_YCSTDRH_Futures3M.xml</v>
       </c>
-      <c r="I1" s="164"/>
+      <c r="I1" s="157"/>
       <c r="J1" s="49"/>
     </row>
-    <row r="2" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="67"/>
       <c r="B2" s="149" t="s">
         <v>104</v>
@@ -13914,7 +13857,7 @@
       <c r="C2" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="165" t="s">
+      <c r="D2" s="158" t="s">
         <v>102</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -13936,1291 +13879,1291 @@
       </c>
       <c r="J2" s="49"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="166"/>
+    <row r="3" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="159"/>
       <c r="B3" s="58">
         <v>1</v>
       </c>
-      <c r="C3" s="167" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="167" t="str">
+      <c r="C3" s="160" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="160" t="str">
         <f t="array" ref="D3:D44">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C3:$C44)</f>
         <v>M4</v>
       </c>
-      <c r="E3" s="167" t="str">
+      <c r="E3" s="160" t="str">
         <f t="shared" ref="E3:E34" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F3" s="168" t="str">
+      <c r="F3" s="161" t="str">
         <f t="shared" ref="F3:F34" si="1">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
         <v>JPYFUT3MM4_Quote</v>
       </c>
-      <c r="G3" s="168" t="str">
+      <c r="G3" s="161" t="str">
         <f t="shared" ref="G3:G34" si="2">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;"ConvAdj"&amp;QuoteSuffix</f>
         <v>JPYFUT3MM4ConvAdj_Quote</v>
       </c>
-      <c r="H3" s="169" t="str">
+      <c r="H3" s="162" t="str">
         <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00391#0001</v>
+        <v>obj_0033e#0001</v>
       </c>
       <c r="I3" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
         <v/>
       </c>
       <c r="J3" s="49"/>
-      <c r="K3" s="170"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="166"/>
+      <c r="K3" s="163"/>
+    </row>
+    <row r="4" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="159"/>
       <c r="B4" s="54">
         <v>2</v>
       </c>
-      <c r="C4" s="171" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="171" t="str">
+      <c r="C4" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="164" t="str">
         <v>N4</v>
       </c>
-      <c r="E4" s="167" t="str">
+      <c r="E4" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F4" s="168" t="str">
+      <c r="F4" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MN4_Quote</v>
       </c>
-      <c r="G4" s="168" t="str">
+      <c r="G4" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MN4ConvAdj_Quote</v>
       </c>
-      <c r="H4" s="172" t="str">
+      <c r="H4" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037e#0001</v>
+        <v>obj_00345#0001</v>
       </c>
       <c r="I4" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
         <v/>
       </c>
       <c r="J4" s="49"/>
-      <c r="K4" s="170"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="166"/>
+      <c r="K4" s="163"/>
+    </row>
+    <row r="5" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="159"/>
       <c r="B5" s="54">
         <v>3</v>
       </c>
-      <c r="C5" s="171" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="171" t="str">
+      <c r="C5" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="164" t="str">
         <v>Q4</v>
       </c>
-      <c r="E5" s="167" t="str">
+      <c r="E5" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F5" s="168" t="str">
+      <c r="F5" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MQ4_Quote</v>
       </c>
-      <c r="G5" s="168" t="str">
+      <c r="G5" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MQ4ConvAdj_Quote</v>
       </c>
-      <c r="H5" s="172" t="str">
+      <c r="H5" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00389#0001</v>
+        <v>obj_00364#0001</v>
       </c>
       <c r="I5" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
         <v/>
       </c>
       <c r="J5" s="49"/>
-      <c r="K5" s="170"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="166"/>
+      <c r="K5" s="163"/>
+    </row>
+    <row r="6" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="159"/>
       <c r="B6" s="54">
         <v>4</v>
       </c>
-      <c r="C6" s="171" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="171" t="str">
+      <c r="C6" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="164" t="str">
         <v>U4</v>
       </c>
-      <c r="E6" s="167" t="str">
+      <c r="E6" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F6" s="168" t="str">
+      <c r="F6" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MU4_Quote</v>
       </c>
-      <c r="G6" s="168" t="str">
+      <c r="G6" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MU4ConvAdj_Quote</v>
       </c>
-      <c r="H6" s="172" t="str">
+      <c r="H6" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00398#0001</v>
+        <v>obj_00360#0001</v>
       </c>
       <c r="I6" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
         <v/>
       </c>
       <c r="J6" s="49"/>
-      <c r="K6" s="170"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="166"/>
+      <c r="K6" s="163"/>
+    </row>
+    <row r="7" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="159"/>
       <c r="B7" s="54">
         <v>5</v>
       </c>
-      <c r="C7" s="171" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="171" t="str">
+      <c r="C7" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="164" t="str">
         <v>V4</v>
       </c>
-      <c r="E7" s="167" t="str">
+      <c r="E7" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F7" s="168" t="str">
+      <c r="F7" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MV4_Quote</v>
       </c>
-      <c r="G7" s="168" t="str">
+      <c r="G7" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MV4ConvAdj_Quote</v>
       </c>
-      <c r="H7" s="172" t="str">
+      <c r="H7" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a2#0001</v>
+        <v>obj_00342#0001</v>
       </c>
       <c r="I7" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
         <v/>
       </c>
       <c r="J7" s="49"/>
-      <c r="K7" s="170"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="166"/>
+      <c r="K7" s="163"/>
+    </row>
+    <row r="8" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="159"/>
       <c r="B8" s="54">
         <v>6</v>
       </c>
-      <c r="C8" s="171" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="171" t="str">
+      <c r="C8" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="164" t="str">
         <v>X4</v>
       </c>
-      <c r="E8" s="167" t="str">
+      <c r="E8" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F8" s="168" t="str">
+      <c r="F8" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MX4_Quote</v>
       </c>
-      <c r="G8" s="168" t="str">
+      <c r="G8" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MX4ConvAdj_Quote</v>
       </c>
-      <c r="H8" s="172" t="str">
+      <c r="H8" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00393#0001</v>
+        <v>obj_00350#0001</v>
       </c>
       <c r="I8" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
         <v/>
       </c>
       <c r="J8" s="49"/>
-      <c r="K8" s="170"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="166"/>
+      <c r="K8" s="163"/>
+    </row>
+    <row r="9" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="159"/>
       <c r="B9" s="54">
         <v>7</v>
       </c>
-      <c r="C9" s="171" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="171" t="str">
+      <c r="C9" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="164" t="str">
         <v>Z4</v>
       </c>
-      <c r="E9" s="167" t="str">
+      <c r="E9" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F9" s="168" t="str">
+      <c r="F9" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MZ4_Quote</v>
       </c>
-      <c r="G9" s="168" t="str">
+      <c r="G9" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MZ4ConvAdj_Quote</v>
       </c>
-      <c r="H9" s="172" t="str">
+      <c r="H9" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00397#0001</v>
+        <v>obj_0035b#0001</v>
       </c>
       <c r="I9" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
         <v/>
       </c>
       <c r="J9" s="49"/>
-      <c r="K9" s="170"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="166"/>
+      <c r="K9" s="163"/>
+    </row>
+    <row r="10" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="159"/>
       <c r="B10" s="54">
         <v>8</v>
       </c>
-      <c r="C10" s="171" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="171" t="str">
+      <c r="C10" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="164" t="str">
         <v>F5</v>
       </c>
-      <c r="E10" s="167" t="str">
+      <c r="E10" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F10" s="168" t="str">
+      <c r="F10" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MF5_Quote</v>
       </c>
-      <c r="G10" s="168" t="str">
+      <c r="G10" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MF5ConvAdj_Quote</v>
       </c>
-      <c r="H10" s="172" t="str">
+      <c r="H10" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ba#0001</v>
+        <v>obj_00371#0001</v>
       </c>
       <c r="I10" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
         <v/>
       </c>
       <c r="J10" s="49"/>
-      <c r="K10" s="170"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="166"/>
+      <c r="K10" s="163"/>
+    </row>
+    <row r="11" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="159"/>
       <c r="B11" s="54">
         <v>9</v>
       </c>
-      <c r="C11" s="171" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="171" t="str">
+      <c r="C11" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="164" t="str">
         <v>G5</v>
       </c>
-      <c r="E11" s="167" t="str">
+      <c r="E11" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F11" s="168" t="str">
+      <c r="F11" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MG5_Quote</v>
       </c>
-      <c r="G11" s="168" t="str">
+      <c r="G11" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MG5ConvAdj_Quote</v>
       </c>
-      <c r="H11" s="172" t="str">
+      <c r="H11" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b1#0001</v>
+        <v>obj_00341#0001</v>
       </c>
       <c r="I11" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
         <v/>
       </c>
       <c r="J11" s="49"/>
-      <c r="K11" s="170"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="166"/>
+      <c r="K11" s="163"/>
+    </row>
+    <row r="12" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="159"/>
       <c r="B12" s="54">
         <v>10</v>
       </c>
-      <c r="C12" s="171" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="171" t="str">
+      <c r="C12" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="164" t="str">
         <v>H5</v>
       </c>
-      <c r="E12" s="167" t="str">
+      <c r="E12" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F12" s="168" t="str">
+      <c r="F12" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MH5_Quote</v>
       </c>
-      <c r="G12" s="168" t="str">
+      <c r="G12" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MH5ConvAdj_Quote</v>
       </c>
-      <c r="H12" s="172" t="str">
+      <c r="H12" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00375#0001</v>
+        <v>obj_0034f#0001</v>
       </c>
       <c r="I12" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
         <v/>
       </c>
       <c r="J12" s="49"/>
-      <c r="K12" s="170"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="166"/>
+      <c r="K12" s="163"/>
+    </row>
+    <row r="13" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="159"/>
       <c r="B13" s="54">
         <v>11</v>
       </c>
-      <c r="C13" s="171" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="171" t="str">
+      <c r="C13" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="164" t="str">
         <v>J5</v>
       </c>
-      <c r="E13" s="167" t="str">
+      <c r="E13" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F13" s="168" t="str">
+      <c r="F13" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MJ5_Quote</v>
       </c>
-      <c r="G13" s="168" t="str">
+      <c r="G13" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MJ5ConvAdj_Quote</v>
       </c>
-      <c r="H13" s="172" t="str">
+      <c r="H13" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039d#0001</v>
+        <v>obj_00337#0001</v>
       </c>
       <c r="I13" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
         <v/>
       </c>
       <c r="J13" s="49"/>
-      <c r="K13" s="170"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="166"/>
+      <c r="K13" s="163"/>
+    </row>
+    <row r="14" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="159"/>
       <c r="B14" s="54">
         <v>12</v>
       </c>
-      <c r="C14" s="171" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="171" t="str">
+      <c r="C14" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="164" t="str">
         <v>K5</v>
       </c>
-      <c r="E14" s="167" t="str">
+      <c r="E14" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F14" s="168" t="str">
+      <c r="F14" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MK5_Quote</v>
       </c>
-      <c r="G14" s="168" t="str">
+      <c r="G14" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MK5ConvAdj_Quote</v>
       </c>
-      <c r="H14" s="172" t="str">
+      <c r="H14" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00384#0001</v>
+        <v>obj_00351#0001</v>
       </c>
       <c r="I14" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
         <v/>
       </c>
       <c r="J14" s="49"/>
-      <c r="K14" s="170"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="166"/>
+      <c r="K14" s="163"/>
+    </row>
+    <row r="15" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="159"/>
       <c r="B15" s="54">
         <v>13</v>
       </c>
-      <c r="C15" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="171" t="str">
+      <c r="C15" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="164" t="str">
         <v>M5</v>
       </c>
-      <c r="E15" s="167" t="str">
+      <c r="E15" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F15" s="168" t="str">
+      <c r="F15" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MM5_Quote</v>
       </c>
-      <c r="G15" s="168" t="str">
+      <c r="G15" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MM5ConvAdj_Quote</v>
       </c>
-      <c r="H15" s="172" t="str">
+      <c r="H15" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037a#0001</v>
+        <v>obj_00368#0001</v>
       </c>
       <c r="I15" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
         <v/>
       </c>
       <c r="J15" s="49"/>
-      <c r="K15" s="170"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="166"/>
+      <c r="K15" s="163"/>
+    </row>
+    <row r="16" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="159"/>
       <c r="B16" s="54">
         <v>14</v>
       </c>
-      <c r="C16" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="171" t="str">
+      <c r="C16" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="164" t="str">
         <v>U5</v>
       </c>
-      <c r="E16" s="167" t="str">
+      <c r="E16" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F16" s="168" t="str">
+      <c r="F16" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MU5_Quote</v>
       </c>
-      <c r="G16" s="168" t="str">
+      <c r="G16" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MU5ConvAdj_Quote</v>
       </c>
-      <c r="H16" s="172" t="str">
+      <c r="H16" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003bb#0001</v>
+        <v>obj_0032a#0001</v>
       </c>
       <c r="I16" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
         <v/>
       </c>
       <c r="J16" s="49"/>
-      <c r="K16" s="170"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="166"/>
+      <c r="K16" s="163"/>
+    </row>
+    <row r="17" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="159"/>
       <c r="B17" s="54">
         <v>15</v>
       </c>
-      <c r="C17" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" s="171" t="str">
+      <c r="C17" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="164" t="str">
         <v>Z5</v>
       </c>
-      <c r="E17" s="167" t="str">
+      <c r="E17" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F17" s="168" t="str">
+      <c r="F17" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MZ5_Quote</v>
       </c>
-      <c r="G17" s="168" t="str">
+      <c r="G17" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MZ5ConvAdj_Quote</v>
       </c>
-      <c r="H17" s="172" t="str">
+      <c r="H17" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b4#0001</v>
+        <v>obj_00355#0001</v>
       </c>
       <c r="I17" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
         <v/>
       </c>
       <c r="J17" s="49"/>
-      <c r="K17" s="170"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="166"/>
+      <c r="K17" s="163"/>
+    </row>
+    <row r="18" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="159"/>
       <c r="B18" s="54">
         <v>16</v>
       </c>
-      <c r="C18" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" s="171" t="str">
+      <c r="C18" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="164" t="str">
         <v>H6</v>
       </c>
-      <c r="E18" s="167" t="str">
+      <c r="E18" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F18" s="168" t="str">
+      <c r="F18" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MH6_Quote</v>
       </c>
-      <c r="G18" s="168" t="str">
+      <c r="G18" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MH6ConvAdj_Quote</v>
       </c>
-      <c r="H18" s="172" t="str">
+      <c r="H18" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a7#0001</v>
+        <v>obj_00361#0001</v>
       </c>
       <c r="I18" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
         <v/>
       </c>
       <c r="J18" s="49"/>
-      <c r="K18" s="170"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="166"/>
+      <c r="K18" s="163"/>
+    </row>
+    <row r="19" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="159"/>
       <c r="B19" s="54">
         <v>17</v>
       </c>
-      <c r="C19" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" s="171" t="str">
+      <c r="C19" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="164" t="str">
         <v>M6</v>
       </c>
-      <c r="E19" s="167" t="str">
+      <c r="E19" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F19" s="168" t="str">
+      <c r="F19" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MM6_Quote</v>
       </c>
-      <c r="G19" s="168" t="str">
+      <c r="G19" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MM6ConvAdj_Quote</v>
       </c>
-      <c r="H19" s="172" t="str">
+      <c r="H19" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b0#0001</v>
+        <v>obj_0032e#0001</v>
       </c>
       <c r="I19" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
         <v/>
       </c>
       <c r="J19" s="49"/>
-      <c r="K19" s="170"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="166"/>
+      <c r="K19" s="163"/>
+    </row>
+    <row r="20" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="159"/>
       <c r="B20" s="54">
         <v>18</v>
       </c>
-      <c r="C20" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" s="171" t="str">
+      <c r="C20" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="164" t="str">
         <v>U6</v>
       </c>
-      <c r="E20" s="167" t="str">
+      <c r="E20" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F20" s="168" t="str">
+      <c r="F20" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MU6_Quote</v>
       </c>
-      <c r="G20" s="168" t="str">
+      <c r="G20" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MU6ConvAdj_Quote</v>
       </c>
-      <c r="H20" s="172" t="str">
+      <c r="H20" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039e#0001</v>
+        <v>obj_00347#0001</v>
       </c>
       <c r="I20" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
         <v/>
       </c>
       <c r="J20" s="49"/>
-      <c r="K20" s="170"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="166"/>
+      <c r="K20" s="163"/>
+    </row>
+    <row r="21" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="159"/>
       <c r="B21" s="54">
         <v>19</v>
       </c>
-      <c r="C21" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" s="171" t="str">
+      <c r="C21" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="164" t="str">
         <v>Z6</v>
       </c>
-      <c r="E21" s="167" t="str">
+      <c r="E21" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F21" s="168" t="str">
+      <c r="F21" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MZ6_Quote</v>
       </c>
-      <c r="G21" s="168" t="str">
+      <c r="G21" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MZ6ConvAdj_Quote</v>
       </c>
-      <c r="H21" s="172" t="str">
+      <c r="H21" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ab#0001</v>
+        <v>obj_00329#0001</v>
       </c>
       <c r="I21" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
         <v/>
       </c>
       <c r="J21" s="49"/>
-      <c r="K21" s="170"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="166"/>
+      <c r="K21" s="163"/>
+    </row>
+    <row r="22" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="159"/>
       <c r="B22" s="54">
         <v>20</v>
       </c>
-      <c r="C22" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" s="171" t="str">
+      <c r="C22" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="164" t="str">
         <v>H7</v>
       </c>
-      <c r="E22" s="167" t="str">
+      <c r="E22" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F22" s="168" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MH7_Quote</v>
       </c>
-      <c r="G22" s="168" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MH7ConvAdj_Quote</v>
       </c>
-      <c r="H22" s="172" t="str">
+      <c r="H22" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00386#0001</v>
+        <v>obj_00359#0001</v>
       </c>
       <c r="I22" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
         <v/>
       </c>
       <c r="J22" s="49"/>
-      <c r="K22" s="170"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="166"/>
+      <c r="K22" s="163"/>
+    </row>
+    <row r="23" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="159"/>
       <c r="B23" s="54">
         <v>21</v>
       </c>
-      <c r="C23" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" s="171" t="str">
+      <c r="C23" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="164" t="str">
         <v>M7</v>
       </c>
-      <c r="E23" s="167" t="str">
+      <c r="E23" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F23" s="168" t="str">
+      <c r="F23" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MM7_Quote</v>
       </c>
-      <c r="G23" s="168" t="str">
+      <c r="G23" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MM7ConvAdj_Quote</v>
       </c>
-      <c r="H23" s="172" t="str">
+      <c r="H23" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00380#0001</v>
+        <v>obj_0033c#0001</v>
       </c>
       <c r="I23" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H23)</f>
         <v/>
       </c>
       <c r="J23" s="49"/>
-      <c r="K23" s="170"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="166"/>
+      <c r="K23" s="163"/>
+    </row>
+    <row r="24" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="159"/>
       <c r="B24" s="54">
         <v>22</v>
       </c>
-      <c r="C24" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" s="171" t="str">
+      <c r="C24" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="164" t="str">
         <v>U7</v>
       </c>
-      <c r="E24" s="167" t="str">
+      <c r="E24" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F24" s="168" t="str">
+      <c r="F24" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MU7_Quote</v>
       </c>
-      <c r="G24" s="168" t="str">
+      <c r="G24" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MU7ConvAdj_Quote</v>
       </c>
-      <c r="H24" s="172" t="str">
+      <c r="H24" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a3#0001</v>
+        <v>obj_00352#0001</v>
       </c>
       <c r="I24" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H24)</f>
         <v/>
       </c>
       <c r="J24" s="49"/>
-      <c r="K24" s="170"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="166"/>
+      <c r="K24" s="163"/>
+    </row>
+    <row r="25" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="159"/>
       <c r="B25" s="54">
         <v>23</v>
       </c>
-      <c r="C25" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" s="171" t="str">
+      <c r="C25" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="164" t="str">
         <v>Z7</v>
       </c>
-      <c r="E25" s="167" t="str">
+      <c r="E25" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F25" s="168" t="str">
+      <c r="F25" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MZ7_Quote</v>
       </c>
-      <c r="G25" s="168" t="str">
+      <c r="G25" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MZ7ConvAdj_Quote</v>
       </c>
-      <c r="H25" s="172" t="str">
+      <c r="H25" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00385#0001</v>
+        <v>obj_00354#0001</v>
       </c>
       <c r="I25" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H25)</f>
         <v/>
       </c>
       <c r="J25" s="49"/>
-      <c r="K25" s="170"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="166"/>
+      <c r="K25" s="163"/>
+    </row>
+    <row r="26" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="159"/>
       <c r="B26" s="54">
         <v>24</v>
       </c>
-      <c r="C26" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26" s="171" t="str">
+      <c r="C26" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="164" t="str">
         <v>H8</v>
       </c>
-      <c r="E26" s="167" t="str">
+      <c r="E26" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F26" s="168" t="str">
+      <c r="F26" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MH8_Quote</v>
       </c>
-      <c r="G26" s="168" t="str">
+      <c r="G26" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MH8ConvAdj_Quote</v>
       </c>
-      <c r="H26" s="172" t="str">
+      <c r="H26" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00373#0001</v>
+        <v>obj_0034c#0001</v>
       </c>
       <c r="I26" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H26)</f>
         <v/>
       </c>
       <c r="J26" s="49"/>
-      <c r="K26" s="170"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="166"/>
+      <c r="K26" s="163"/>
+    </row>
+    <row r="27" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="159"/>
       <c r="B27" s="54">
         <v>25</v>
       </c>
-      <c r="C27" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" s="171" t="str">
+      <c r="C27" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="164" t="str">
         <v>M8</v>
       </c>
-      <c r="E27" s="167" t="str">
+      <c r="E27" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F27" s="168" t="str">
+      <c r="F27" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MM8_Quote</v>
       </c>
-      <c r="G27" s="168" t="str">
+      <c r="G27" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MM8ConvAdj_Quote</v>
       </c>
-      <c r="H27" s="172" t="str">
+      <c r="H27" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00388#0001</v>
+        <v>obj_0035f#0001</v>
       </c>
       <c r="I27" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
         <v/>
       </c>
       <c r="J27" s="49"/>
-      <c r="K27" s="170"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="166"/>
+      <c r="K27" s="163"/>
+    </row>
+    <row r="28" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="159"/>
       <c r="B28" s="54">
         <v>26</v>
       </c>
-      <c r="C28" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28" s="171" t="str">
+      <c r="C28" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="164" t="str">
         <v>U8</v>
       </c>
-      <c r="E28" s="167" t="str">
+      <c r="E28" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F28" s="168" t="str">
+      <c r="F28" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MU8_Quote</v>
       </c>
-      <c r="G28" s="168" t="str">
+      <c r="G28" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MU8ConvAdj_Quote</v>
       </c>
-      <c r="H28" s="172" t="str">
+      <c r="H28" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00383#0001</v>
+        <v>obj_00330#0001</v>
       </c>
       <c r="I28" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
         <v/>
       </c>
       <c r="J28" s="49"/>
-      <c r="K28" s="170"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="166"/>
+      <c r="K28" s="163"/>
+    </row>
+    <row r="29" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="159"/>
       <c r="B29" s="54">
         <v>27</v>
       </c>
-      <c r="C29" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" s="171" t="str">
+      <c r="C29" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="164" t="str">
         <v>Z8</v>
       </c>
-      <c r="E29" s="167" t="str">
+      <c r="E29" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F29" s="168" t="str">
+      <c r="F29" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MZ8_Quote</v>
       </c>
-      <c r="G29" s="168" t="str">
+      <c r="G29" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MZ8ConvAdj_Quote</v>
       </c>
-      <c r="H29" s="172" t="str">
+      <c r="H29" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b6#0001</v>
+        <v>obj_0035d#0001</v>
       </c>
       <c r="I29" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H29)</f>
         <v/>
       </c>
       <c r="J29" s="49"/>
-      <c r="K29" s="170"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="166"/>
+      <c r="K29" s="163"/>
+    </row>
+    <row r="30" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="159"/>
       <c r="B30" s="54">
         <v>28</v>
       </c>
-      <c r="C30" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30" s="171" t="str">
+      <c r="C30" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="164" t="str">
         <v>H9</v>
       </c>
-      <c r="E30" s="167" t="str">
+      <c r="E30" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F30" s="168" t="str">
+      <c r="F30" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MH9_Quote</v>
       </c>
-      <c r="G30" s="168" t="str">
+      <c r="G30" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MH9ConvAdj_Quote</v>
       </c>
-      <c r="H30" s="172" t="str">
+      <c r="H30" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b5#0001</v>
+        <v>obj_00334#0001</v>
       </c>
       <c r="I30" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H30)</f>
         <v/>
       </c>
       <c r="J30" s="49"/>
-      <c r="K30" s="170"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="166"/>
+      <c r="K30" s="163"/>
+    </row>
+    <row r="31" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="159"/>
       <c r="B31" s="54">
         <v>29</v>
       </c>
-      <c r="C31" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" s="171" t="str">
+      <c r="C31" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="164" t="str">
         <v>M9</v>
       </c>
-      <c r="E31" s="167" t="str">
+      <c r="E31" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F31" s="168" t="str">
+      <c r="F31" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MM9_Quote</v>
       </c>
-      <c r="G31" s="168" t="str">
+      <c r="G31" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MM9ConvAdj_Quote</v>
       </c>
-      <c r="H31" s="172" t="str">
+      <c r="H31" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038f#0001</v>
+        <v>obj_0033a#0001</v>
       </c>
       <c r="I31" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H31)</f>
         <v/>
       </c>
       <c r="J31" s="49"/>
-      <c r="K31" s="170"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="166"/>
+      <c r="K31" s="163"/>
+    </row>
+    <row r="32" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="159"/>
       <c r="B32" s="54">
         <v>30</v>
       </c>
-      <c r="C32" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" s="171" t="str">
+      <c r="C32" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="164" t="str">
         <v>U9</v>
       </c>
-      <c r="E32" s="167" t="str">
+      <c r="E32" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F32" s="168" t="str">
+      <c r="F32" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MU9_Quote</v>
       </c>
-      <c r="G32" s="168" t="str">
+      <c r="G32" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MU9ConvAdj_Quote</v>
       </c>
-      <c r="H32" s="172" t="str">
+      <c r="H32" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a6#0001</v>
+        <v>obj_0035c#0001</v>
       </c>
       <c r="I32" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H32)</f>
         <v/>
       </c>
       <c r="J32" s="49"/>
-      <c r="K32" s="170"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="166"/>
+      <c r="K32" s="163"/>
+    </row>
+    <row r="33" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="159"/>
       <c r="B33" s="54">
         <v>31</v>
       </c>
-      <c r="C33" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" s="171" t="str">
+      <c r="C33" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" s="164" t="str">
         <v>Z9</v>
       </c>
-      <c r="E33" s="167" t="str">
+      <c r="E33" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F33" s="168" t="str">
+      <c r="F33" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MZ9_Quote</v>
       </c>
-      <c r="G33" s="168" t="str">
+      <c r="G33" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MZ9ConvAdj_Quote</v>
       </c>
-      <c r="H33" s="172" t="str">
+      <c r="H33" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037c#0001</v>
+        <v>obj_00326#0001</v>
       </c>
       <c r="I33" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
         <v/>
       </c>
       <c r="J33" s="49"/>
-      <c r="K33" s="170"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="166"/>
+      <c r="K33" s="163"/>
+    </row>
+    <row r="34" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="159"/>
       <c r="B34" s="54">
         <v>32</v>
       </c>
-      <c r="C34" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" s="171" t="str">
+      <c r="C34" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" s="164" t="str">
         <v>H0</v>
       </c>
-      <c r="E34" s="167" t="str">
+      <c r="E34" s="160" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F34" s="168" t="str">
+      <c r="F34" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPYFUT3MH0_Quote</v>
       </c>
-      <c r="G34" s="168" t="str">
+      <c r="G34" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPYFUT3MH0ConvAdj_Quote</v>
       </c>
-      <c r="H34" s="172" t="str">
+      <c r="H34" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037d#0001</v>
+        <v>obj_00335#0001</v>
       </c>
       <c r="I34" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
         <v/>
       </c>
       <c r="J34" s="49"/>
-      <c r="K34" s="170"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="166"/>
+      <c r="K34" s="163"/>
+    </row>
+    <row r="35" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="159"/>
       <c r="B35" s="54">
         <v>33</v>
       </c>
-      <c r="C35" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" s="171" t="str">
+      <c r="C35" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" s="164" t="str">
         <v>M0</v>
       </c>
-      <c r="E35" s="167" t="str">
+      <c r="E35" s="160" t="str">
         <f t="shared" ref="E35:E44" si="3">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F35" s="168" t="str">
+      <c r="F35" s="161" t="str">
         <f t="shared" ref="F35:F44" si="4">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;QuoteSuffix</f>
         <v>JPYFUT3MM0_Quote</v>
       </c>
-      <c r="G35" s="168" t="str">
+      <c r="G35" s="161" t="str">
         <f t="shared" ref="G35:G44" si="5">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;"ConvAdj"&amp;QuoteSuffix</f>
         <v>JPYFUT3MM0ConvAdj_Quote</v>
       </c>
-      <c r="H35" s="172" t="str">
+      <c r="H35" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00392#0001</v>
+        <v>obj_00340#0001</v>
       </c>
       <c r="I35" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H35)</f>
         <v/>
       </c>
       <c r="J35" s="49"/>
-      <c r="K35" s="170"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="166"/>
+      <c r="K35" s="163"/>
+    </row>
+    <row r="36" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="159"/>
       <c r="B36" s="54">
         <v>34</v>
       </c>
-      <c r="C36" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D36" s="171" t="str">
+      <c r="C36" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" s="164" t="str">
         <v>U0</v>
       </c>
-      <c r="E36" s="167" t="str">
+      <c r="E36" s="160" t="str">
         <f t="shared" si="3"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F36" s="168" t="str">
+      <c r="F36" s="161" t="str">
         <f t="shared" si="4"/>
         <v>JPYFUT3MU0_Quote</v>
       </c>
-      <c r="G36" s="168" t="str">
+      <c r="G36" s="161" t="str">
         <f t="shared" si="5"/>
         <v>JPYFUT3MU0ConvAdj_Quote</v>
       </c>
-      <c r="H36" s="172" t="str">
+      <c r="H36" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00387#0001</v>
+        <v>obj_0035a#0001</v>
       </c>
       <c r="I36" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H36)</f>
         <v/>
       </c>
       <c r="J36" s="49"/>
-      <c r="K36" s="170"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="166"/>
+      <c r="K36" s="163"/>
+    </row>
+    <row r="37" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="159"/>
       <c r="B37" s="54">
         <v>35</v>
       </c>
-      <c r="C37" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" s="171" t="str">
+      <c r="C37" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" s="164" t="str">
         <v>Z0</v>
       </c>
-      <c r="E37" s="167" t="str">
+      <c r="E37" s="160" t="str">
         <f t="shared" si="3"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F37" s="168" t="str">
+      <c r="F37" s="161" t="str">
         <f t="shared" si="4"/>
         <v>JPYFUT3MZ0_Quote</v>
       </c>
-      <c r="G37" s="168" t="str">
+      <c r="G37" s="161" t="str">
         <f t="shared" si="5"/>
         <v>JPYFUT3MZ0ConvAdj_Quote</v>
       </c>
-      <c r="H37" s="172" t="str">
+      <c r="H37" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00379#0001</v>
+        <v>obj_00363#0001</v>
       </c>
       <c r="I37" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H37)</f>
         <v/>
       </c>
       <c r="J37" s="49"/>
-      <c r="K37" s="170"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="166"/>
+      <c r="K37" s="163"/>
+    </row>
+    <row r="38" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="159"/>
       <c r="B38" s="54">
         <v>36</v>
       </c>
-      <c r="C38" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D38" s="171" t="str">
+      <c r="C38" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" s="164" t="str">
         <v>H1</v>
       </c>
-      <c r="E38" s="167" t="str">
+      <c r="E38" s="160" t="str">
         <f t="shared" si="3"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F38" s="168" t="str">
+      <c r="F38" s="161" t="str">
         <f t="shared" si="4"/>
         <v>JPYFUT3MH1_Quote</v>
       </c>
-      <c r="G38" s="168" t="str">
+      <c r="G38" s="161" t="str">
         <f t="shared" si="5"/>
         <v>JPYFUT3MH1ConvAdj_Quote</v>
       </c>
-      <c r="H38" s="172" t="str">
+      <c r="H38" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003af#0001</v>
+        <v>obj_0033d#0001</v>
       </c>
       <c r="I38" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H38)</f>
         <v/>
       </c>
       <c r="J38" s="49"/>
-      <c r="K38" s="170"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="166"/>
+      <c r="K38" s="163"/>
+    </row>
+    <row r="39" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="159"/>
       <c r="B39" s="54">
         <v>37</v>
       </c>
-      <c r="C39" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" s="171" t="str">
+      <c r="C39" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" s="164" t="str">
         <v>M1</v>
       </c>
-      <c r="E39" s="167" t="str">
+      <c r="E39" s="160" t="str">
         <f t="shared" si="3"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F39" s="168" t="str">
+      <c r="F39" s="161" t="str">
         <f t="shared" si="4"/>
         <v>JPYFUT3MM1_Quote</v>
       </c>
-      <c r="G39" s="168" t="str">
+      <c r="G39" s="161" t="str">
         <f t="shared" si="5"/>
         <v>JPYFUT3MM1ConvAdj_Quote</v>
       </c>
-      <c r="H39" s="172" t="str">
+      <c r="H39" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003aa#0001</v>
+        <v>obj_00370#0001</v>
       </c>
       <c r="I39" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H39)</f>
         <v/>
       </c>
       <c r="J39" s="49"/>
-      <c r="K39" s="170"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="166"/>
+      <c r="K39" s="163"/>
+    </row>
+    <row r="40" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="159"/>
       <c r="B40" s="54">
         <v>38</v>
       </c>
-      <c r="C40" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" s="171" t="str">
+      <c r="C40" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="164" t="str">
         <v>U1</v>
       </c>
-      <c r="E40" s="167" t="str">
+      <c r="E40" s="160" t="str">
         <f t="shared" si="3"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F40" s="168" t="str">
+      <c r="F40" s="161" t="str">
         <f t="shared" si="4"/>
         <v>JPYFUT3MU1_Quote</v>
       </c>
-      <c r="G40" s="168" t="str">
+      <c r="G40" s="161" t="str">
         <f t="shared" si="5"/>
         <v>JPYFUT3MU1ConvAdj_Quote</v>
       </c>
-      <c r="H40" s="172" t="str">
+      <c r="H40" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038b#0001</v>
+        <v>obj_0036e#0001</v>
       </c>
       <c r="I40" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H40)</f>
@@ -15228,32 +15171,32 @@
       </c>
       <c r="J40" s="49"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="166"/>
+    <row r="41" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="159"/>
       <c r="B41" s="54">
         <v>39</v>
       </c>
-      <c r="C41" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D41" s="171" t="str">
+      <c r="C41" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" s="164" t="str">
         <v>Z1</v>
       </c>
-      <c r="E41" s="167" t="str">
+      <c r="E41" s="160" t="str">
         <f t="shared" si="3"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F41" s="168" t="str">
+      <c r="F41" s="161" t="str">
         <f t="shared" si="4"/>
         <v>JPYFUT3MZ1_Quote</v>
       </c>
-      <c r="G41" s="168" t="str">
+      <c r="G41" s="161" t="str">
         <f t="shared" si="5"/>
         <v>JPYFUT3MZ1ConvAdj_Quote</v>
       </c>
-      <c r="H41" s="172" t="str">
+      <c r="H41" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b8#0001</v>
+        <v>obj_00367#0001</v>
       </c>
       <c r="I41" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H41)</f>
@@ -15261,32 +15204,32 @@
       </c>
       <c r="J41" s="49"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="166"/>
+    <row r="42" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="159"/>
       <c r="B42" s="54">
         <v>40</v>
       </c>
-      <c r="C42" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D42" s="171" t="str">
+      <c r="C42" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" s="164" t="str">
         <v>H2</v>
       </c>
-      <c r="E42" s="167" t="str">
+      <c r="E42" s="160" t="str">
         <f t="shared" si="3"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F42" s="168" t="str">
+      <c r="F42" s="161" t="str">
         <f t="shared" si="4"/>
         <v>JPYFUT3MH2_Quote</v>
       </c>
-      <c r="G42" s="168" t="str">
+      <c r="G42" s="161" t="str">
         <f t="shared" si="5"/>
         <v>JPYFUT3MH2ConvAdj_Quote</v>
       </c>
-      <c r="H42" s="172" t="str">
+      <c r="H42" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037b#0001</v>
+        <v>obj_0036d#0001</v>
       </c>
       <c r="I42" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H42)</f>
@@ -15294,32 +15237,32 @@
       </c>
       <c r="J42" s="49"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="166"/>
+    <row r="43" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="159"/>
       <c r="B43" s="54">
         <v>41</v>
       </c>
-      <c r="C43" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D43" s="171" t="str">
+      <c r="C43" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" s="164" t="str">
         <v>M2</v>
       </c>
-      <c r="E43" s="167" t="str">
+      <c r="E43" s="160" t="str">
         <f t="shared" si="3"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F43" s="168" t="str">
+      <c r="F43" s="161" t="str">
         <f t="shared" si="4"/>
         <v>JPYFUT3MM2_Quote</v>
       </c>
-      <c r="G43" s="168" t="str">
+      <c r="G43" s="161" t="str">
         <f t="shared" si="5"/>
         <v>JPYFUT3MM2ConvAdj_Quote</v>
       </c>
-      <c r="H43" s="172" t="str">
+      <c r="H43" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039c#0001</v>
+        <v>obj_00328#0001</v>
       </c>
       <c r="I43" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H43)</f>
@@ -15327,32 +15270,32 @@
       </c>
       <c r="J43" s="49"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="166"/>
+    <row r="44" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="159"/>
       <c r="B44" s="54">
         <v>42</v>
       </c>
-      <c r="C44" s="171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D44" s="171" t="str">
+      <c r="C44" s="164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" s="164" t="str">
         <v>U2</v>
       </c>
-      <c r="E44" s="167" t="str">
+      <c r="E44" s="160" t="str">
         <f t="shared" si="3"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F44" s="168" t="str">
+      <c r="F44" s="161" t="str">
         <f t="shared" si="4"/>
         <v>JPYFUT3MU2_Quote</v>
       </c>
-      <c r="G44" s="168" t="str">
+      <c r="G44" s="161" t="str">
         <f t="shared" si="5"/>
         <v>JPYFUT3MU2ConvAdj_Quote</v>
       </c>
-      <c r="H44" s="172" t="str">
+      <c r="H44" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00390#0001</v>
+        <v>obj_0034b#0001</v>
       </c>
       <c r="I44" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H44)</f>
@@ -15360,16 +15303,16 @@
       </c>
       <c r="J44" s="49"/>
     </row>
-    <row r="45" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="173"/>
-      <c r="B45" s="174"/>
-      <c r="C45" s="174"/>
-      <c r="D45" s="174"/>
-      <c r="E45" s="174"/>
-      <c r="F45" s="174"/>
-      <c r="G45" s="174"/>
-      <c r="H45" s="174"/>
-      <c r="I45" s="174"/>
+    <row r="45" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="166"/>
+      <c r="B45" s="167"/>
+      <c r="C45" s="167"/>
+      <c r="D45" s="167"/>
+      <c r="E45" s="167"/>
+      <c r="F45" s="167"/>
+      <c r="G45" s="167"/>
+      <c r="H45" s="167"/>
+      <c r="I45" s="167"/>
       <c r="J45" s="46"/>
     </row>
   </sheetData>
@@ -15384,9 +15327,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15399,7 +15340,7 @@
     <col min="7" max="8" width="19.28515625" style="45" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="45" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" style="45" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23" style="195" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" style="188" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.5703125" style="45" customWidth="1"/>
     <col min="13" max="13" width="3.85546875" style="45" customWidth="1"/>
     <col min="14" max="14" width="2.5703125" style="45" customWidth="1"/>
@@ -15425,12 +15366,12 @@
         <f>Currency&amp;"_YC"&amp;"STDRH"</f>
         <v>JPY_YCSTDRH</v>
       </c>
-      <c r="K1" s="176" t="str">
+      <c r="K1" s="169" t="str">
         <f>J1&amp;"_Swaps.xml"</f>
         <v>JPY_YCSTDRH_Swaps.xml</v>
       </c>
       <c r="L1" s="66"/>
-      <c r="M1" s="175"/>
+      <c r="M1" s="168"/>
     </row>
     <row r="2" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2" s="55"/>
@@ -15459,13 +15400,13 @@
         <f>IF(Serialize,_xll.ohObjectSave(K3:K41,SerializationPath&amp;K1,FileOverwrite,Serialize),"---")</f>
         <v>---</v>
       </c>
-      <c r="L2" s="177" t="str">
+      <c r="L2" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K2)</f>
         <v/>
       </c>
-      <c r="M2" s="178"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M2" s="171"/>
+    </row>
+    <row r="3" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="67"/>
       <c r="B3" s="66"/>
       <c r="C3" s="66"/>
@@ -15476,17 +15417,17 @@
       <c r="H3" s="66"/>
       <c r="I3" s="66"/>
       <c r="J3" s="66"/>
-      <c r="K3" s="179" t="str">
+      <c r="K3" s="172" t="str">
         <f>_xll.qlLibor(,Currency,$I$1,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00362#0001</v>
-      </c>
-      <c r="L3" s="180" t="str">
+        <v>obj_00315#0001</v>
+      </c>
+      <c r="L3" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
         <v/>
       </c>
-      <c r="M3" s="175"/>
-    </row>
-    <row r="4" spans="1:17" s="63" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="168"/>
+    </row>
+    <row r="4" spans="1:17" s="63" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="67"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66"/>
@@ -15499,1606 +15440,1606 @@
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
-      <c r="M4" s="175"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M4" s="168"/>
+    </row>
+    <row r="5" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="55"/>
-      <c r="B5" s="181" t="s">
+      <c r="B5" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="181" t="s">
+      <c r="C5" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="181" t="str">
+      <c r="D5" s="174" t="str">
         <f t="array" ref="D5:D41">VLOOKUP(Currency,Conventions,2)</f>
         <v>SB</v>
       </c>
-      <c r="E5" s="181" t="str">
+      <c r="E5" s="174" t="str">
         <f t="array" ref="E5:E41">VLOOKUP(Currency,Conventions,3)</f>
         <v>6L</v>
       </c>
-      <c r="F5" s="171" t="str">
+      <c r="F5" s="164" t="str">
         <f t="shared" ref="F5:F41" si="0">IF(UPPER(LEFT($D5))="A","Annual",IF(UPPER(LEFT($D5))="S","Semiannual","--"))</f>
         <v>Semiannual</v>
       </c>
-      <c r="G5" s="171" t="s">
+      <c r="G5" s="164" t="s">
         <v>110</v>
       </c>
-      <c r="H5" s="171" t="str">
+      <c r="H5" s="164" t="str">
         <f t="shared" ref="H5:H41" si="1">IF(UPPER(RIGHT($D5))="B",BondBasisDayCounter,IF(UPPER(RIGHT($D5))="M",MoneyMarketDayCounter,"--"))</f>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I5" s="182">
-        <v>0</v>
-      </c>
-      <c r="J5" s="183" t="str">
+      <c r="I5" s="175">
+        <v>0</v>
+      </c>
+      <c r="J5" s="176" t="str">
         <f t="shared" ref="J5:J41" si="2">Currency&amp;$D5&amp;$E5&amp;$C5&amp;QuoteSuffix</f>
         <v>JPYSB6L1Y_Quote</v>
       </c>
-      <c r="K5" s="184" t="str">
+      <c r="K5" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J5,$C5,Calendar,$F5,$G5,$H5,$K$3,$I5,B5,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00370#0001</v>
-      </c>
-      <c r="L5" s="177" t="str">
+        <v>obj_00322#0001</v>
+      </c>
+      <c r="L5" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
         <v/>
       </c>
-      <c r="M5" s="178"/>
-      <c r="O5" s="185" t="s">
+      <c r="M5" s="171"/>
+      <c r="O5" s="178" t="s">
         <v>86</v>
       </c>
       <c r="P5" s="146"/>
-      <c r="Q5" s="186"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q5" s="179"/>
+    </row>
+    <row r="6" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55"/>
-      <c r="B6" s="181" t="s">
+      <c r="B6" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="181" t="s">
+      <c r="C6" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="181" t="str">
+      <c r="D6" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E6" s="181" t="str">
+      <c r="E6" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F6" s="167" t="str">
+      <c r="F6" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G6" s="167" t="s">
+      <c r="G6" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H6" s="167" t="str">
+      <c r="H6" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I6" s="182">
-        <v>0</v>
-      </c>
-      <c r="J6" s="187" t="str">
+      <c r="I6" s="175">
+        <v>0</v>
+      </c>
+      <c r="J6" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L15M_Quote</v>
       </c>
-      <c r="K6" s="184" t="str">
+      <c r="K6" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$3,$I6,B6,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039b#0001</v>
-      </c>
-      <c r="L6" s="177" t="str">
+        <v>obj_0036f#0001</v>
+      </c>
+      <c r="L6" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
         <v/>
       </c>
-      <c r="M6" s="178"/>
-      <c r="O6" s="188" t="s">
+      <c r="M6" s="171"/>
+      <c r="O6" s="181" t="s">
         <v>84</v>
       </c>
-      <c r="P6" s="189" t="s">
+      <c r="P6" s="182" t="s">
         <v>83</v>
       </c>
-      <c r="Q6" s="190" t="s">
+      <c r="Q6" s="183" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55"/>
-      <c r="B7" s="181" t="s">
+      <c r="B7" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="181" t="s">
+      <c r="C7" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="181" t="str">
+      <c r="D7" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E7" s="181" t="str">
+      <c r="E7" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F7" s="167" t="str">
+      <c r="F7" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G7" s="167" t="s">
+      <c r="G7" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H7" s="167" t="str">
+      <c r="H7" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I7" s="182">
-        <v>0</v>
-      </c>
-      <c r="J7" s="187" t="str">
+      <c r="I7" s="175">
+        <v>0</v>
+      </c>
+      <c r="J7" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L18M_Quote</v>
       </c>
-      <c r="K7" s="184" t="str">
+      <c r="K7" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$3,$I7,B7,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a0#0001</v>
-      </c>
-      <c r="L7" s="177" t="str">
+        <v>obj_0034d#0001</v>
+      </c>
+      <c r="L7" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
         <v/>
       </c>
-      <c r="M7" s="178"/>
-      <c r="O7" s="188" t="s">
+      <c r="M7" s="171"/>
+      <c r="O7" s="181" t="s">
         <v>80</v>
       </c>
-      <c r="P7" s="189" t="s">
+      <c r="P7" s="182" t="s">
         <v>114</v>
       </c>
-      <c r="Q7" s="190" t="s">
+      <c r="Q7" s="183" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55"/>
-      <c r="B8" s="181" t="s">
+      <c r="B8" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="181" t="s">
+      <c r="C8" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="181" t="str">
+      <c r="D8" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E8" s="181" t="str">
+      <c r="E8" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F8" s="167" t="str">
+      <c r="F8" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G8" s="167" t="s">
+      <c r="G8" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H8" s="167" t="str">
+      <c r="H8" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I8" s="182">
-        <v>0</v>
-      </c>
-      <c r="J8" s="187" t="str">
+      <c r="I8" s="175">
+        <v>0</v>
+      </c>
+      <c r="J8" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L21M_Quote</v>
       </c>
-      <c r="K8" s="184" t="str">
+      <c r="K8" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$3,$I8,B8,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0038e#0001</v>
-      </c>
-      <c r="L8" s="177" t="str">
+        <v>obj_00346#0001</v>
+      </c>
+      <c r="L8" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
         <v/>
       </c>
-      <c r="M8" s="178"/>
-      <c r="O8" s="188" t="s">
+      <c r="M8" s="171"/>
+      <c r="O8" s="181" t="s">
         <v>78</v>
       </c>
-      <c r="P8" s="189" t="s">
+      <c r="P8" s="182" t="s">
         <v>114</v>
       </c>
-      <c r="Q8" s="190" t="s">
+      <c r="Q8" s="183" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="55"/>
-      <c r="B9" s="181" t="s">
+      <c r="B9" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="181" t="s">
+      <c r="C9" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="181" t="str">
+      <c r="D9" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E9" s="181" t="str">
+      <c r="E9" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F9" s="167" t="str">
+      <c r="F9" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G9" s="167" t="s">
+      <c r="G9" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H9" s="167" t="str">
+      <c r="H9" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I9" s="182">
-        <v>0</v>
-      </c>
-      <c r="J9" s="187" t="str">
+      <c r="I9" s="175">
+        <v>0</v>
+      </c>
+      <c r="J9" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L2Y_Quote</v>
       </c>
-      <c r="K9" s="184" t="str">
+      <c r="K9" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$3,$I9,B9,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00378#0001</v>
-      </c>
-      <c r="L9" s="177" t="str">
+        <v>obj_0035e#0001</v>
+      </c>
+      <c r="L9" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
         <v/>
       </c>
-      <c r="M9" s="178"/>
-      <c r="O9" s="191" t="s">
+      <c r="M9" s="171"/>
+      <c r="O9" s="184" t="s">
         <v>76</v>
       </c>
-      <c r="P9" s="192" t="s">
+      <c r="P9" s="185" t="s">
         <v>75</v>
       </c>
-      <c r="Q9" s="193" t="s">
+      <c r="Q9" s="186" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55"/>
-      <c r="B10" s="181" t="s">
+      <c r="B10" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="181" t="s">
+      <c r="C10" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="181" t="str">
+      <c r="D10" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E10" s="181" t="str">
+      <c r="E10" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F10" s="167" t="str">
+      <c r="F10" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G10" s="167" t="s">
+      <c r="G10" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="167" t="str">
+      <c r="H10" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I10" s="182">
-        <v>0</v>
-      </c>
-      <c r="J10" s="187" t="str">
+      <c r="I10" s="175">
+        <v>0</v>
+      </c>
+      <c r="J10" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L3Y_Quote</v>
       </c>
-      <c r="K10" s="184" t="str">
+      <c r="K10" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$3,$I10,B10,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00381#0001</v>
-      </c>
-      <c r="L10" s="177" t="str">
+        <v>obj_0032d#0001</v>
+      </c>
+      <c r="L10" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
         <v/>
       </c>
-      <c r="M10" s="178"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M10" s="171"/>
+    </row>
+    <row r="11" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55"/>
-      <c r="B11" s="181" t="s">
+      <c r="B11" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="181" t="s">
+      <c r="C11" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="181" t="str">
+      <c r="D11" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E11" s="181" t="str">
+      <c r="E11" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F11" s="167" t="str">
+      <c r="F11" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G11" s="167" t="s">
+      <c r="G11" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="167" t="str">
+      <c r="H11" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I11" s="182">
-        <v>0</v>
-      </c>
-      <c r="J11" s="187" t="str">
+      <c r="I11" s="175">
+        <v>0</v>
+      </c>
+      <c r="J11" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L4Y_Quote</v>
       </c>
-      <c r="K11" s="184" t="str">
+      <c r="K11" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$3,$I11,B11,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a5#0001</v>
-      </c>
-      <c r="L11" s="177" t="str">
+        <v>obj_00357#0001</v>
+      </c>
+      <c r="L11" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
         <v/>
       </c>
-      <c r="M11" s="178"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M11" s="171"/>
+    </row>
+    <row r="12" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55"/>
-      <c r="B12" s="181" t="s">
+      <c r="B12" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="181" t="s">
+      <c r="C12" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="181" t="str">
+      <c r="D12" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E12" s="181" t="str">
+      <c r="E12" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F12" s="167" t="str">
+      <c r="F12" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G12" s="167" t="s">
+      <c r="G12" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H12" s="167" t="str">
+      <c r="H12" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I12" s="182">
-        <v>0</v>
-      </c>
-      <c r="J12" s="187" t="str">
+      <c r="I12" s="175">
+        <v>0</v>
+      </c>
+      <c r="J12" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L5Y_Quote</v>
       </c>
-      <c r="K12" s="184" t="str">
+      <c r="K12" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$3,$I12,B12,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003b9#0001</v>
-      </c>
-      <c r="L12" s="177" t="str">
+        <v>obj_0036c#0001</v>
+      </c>
+      <c r="L12" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
         <v/>
       </c>
-      <c r="M12" s="178"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M12" s="171"/>
+    </row>
+    <row r="13" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55"/>
-      <c r="B13" s="181" t="s">
+      <c r="B13" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="181" t="s">
+      <c r="C13" s="174" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="181" t="str">
+      <c r="D13" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E13" s="181" t="str">
+      <c r="E13" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F13" s="167" t="str">
+      <c r="F13" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G13" s="167" t="s">
+      <c r="G13" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H13" s="167" t="str">
+      <c r="H13" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I13" s="182">
-        <v>0</v>
-      </c>
-      <c r="J13" s="187" t="str">
+      <c r="I13" s="175">
+        <v>0</v>
+      </c>
+      <c r="J13" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L6Y_Quote</v>
       </c>
-      <c r="K13" s="184" t="str">
+      <c r="K13" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$3,$I13,B13,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00394#0001</v>
-      </c>
-      <c r="L13" s="177" t="str">
+        <v>obj_00343#0001</v>
+      </c>
+      <c r="L13" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
         <v/>
       </c>
-      <c r="M13" s="178"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M13" s="171"/>
+    </row>
+    <row r="14" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55"/>
-      <c r="B14" s="181" t="s">
+      <c r="B14" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="181" t="s">
+      <c r="C14" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="181" t="str">
+      <c r="D14" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E14" s="181" t="str">
+      <c r="E14" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F14" s="167" t="str">
+      <c r="F14" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G14" s="167" t="s">
+      <c r="G14" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="167" t="str">
+      <c r="H14" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I14" s="182">
-        <v>0</v>
-      </c>
-      <c r="J14" s="187" t="str">
+      <c r="I14" s="175">
+        <v>0</v>
+      </c>
+      <c r="J14" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L7Y_Quote</v>
       </c>
-      <c r="K14" s="184" t="str">
+      <c r="K14" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$3,$I14,B14,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003bc#0001</v>
-      </c>
-      <c r="L14" s="177" t="str">
+        <v>obj_00339#0001</v>
+      </c>
+      <c r="L14" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
         <v/>
       </c>
-      <c r="M14" s="178"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M14" s="171"/>
+    </row>
+    <row r="15" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55"/>
-      <c r="B15" s="181" t="s">
+      <c r="B15" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="181" t="s">
+      <c r="C15" s="174" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="181" t="str">
+      <c r="D15" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E15" s="181" t="str">
+      <c r="E15" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F15" s="167" t="str">
+      <c r="F15" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G15" s="167" t="s">
+      <c r="G15" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H15" s="167" t="str">
+      <c r="H15" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I15" s="182">
-        <v>0</v>
-      </c>
-      <c r="J15" s="187" t="str">
+      <c r="I15" s="175">
+        <v>0</v>
+      </c>
+      <c r="J15" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L8Y_Quote</v>
       </c>
-      <c r="K15" s="184" t="str">
+      <c r="K15" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$3,$I15,B15,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003ac#0001</v>
-      </c>
-      <c r="L15" s="177" t="str">
+        <v>obj_00338#0001</v>
+      </c>
+      <c r="L15" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
         <v/>
       </c>
-      <c r="M15" s="178"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M15" s="171"/>
+    </row>
+    <row r="16" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55"/>
-      <c r="B16" s="181" t="s">
+      <c r="B16" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="181" t="s">
+      <c r="C16" s="174" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="181" t="str">
+      <c r="D16" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E16" s="181" t="str">
+      <c r="E16" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F16" s="167" t="str">
+      <c r="F16" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G16" s="167" t="s">
+      <c r="G16" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H16" s="167" t="str">
+      <c r="H16" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I16" s="182">
-        <v>0</v>
-      </c>
-      <c r="J16" s="187" t="str">
+      <c r="I16" s="175">
+        <v>0</v>
+      </c>
+      <c r="J16" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L9Y_Quote</v>
       </c>
-      <c r="K16" s="184" t="str">
+      <c r="K16" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$3,$I16,B16,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a8#0001</v>
-      </c>
-      <c r="L16" s="177" t="str">
+        <v>obj_00366#0001</v>
+      </c>
+      <c r="L16" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
         <v/>
       </c>
-      <c r="M16" s="178"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M16" s="171"/>
+    </row>
+    <row r="17" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
-      <c r="B17" s="181" t="s">
+      <c r="B17" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="181" t="s">
+      <c r="C17" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="181" t="str">
+      <c r="D17" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E17" s="181" t="str">
+      <c r="E17" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F17" s="167" t="str">
+      <c r="F17" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G17" s="167" t="s">
+      <c r="G17" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="167" t="str">
+      <c r="H17" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I17" s="182">
-        <v>0</v>
-      </c>
-      <c r="J17" s="187" t="str">
+      <c r="I17" s="175">
+        <v>0</v>
+      </c>
+      <c r="J17" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L10Y_Quote</v>
       </c>
-      <c r="K17" s="184" t="str">
+      <c r="K17" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$3,$I17,B17,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00376#0001</v>
-      </c>
-      <c r="L17" s="177" t="str">
+        <v>obj_00332#0001</v>
+      </c>
+      <c r="L17" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
         <v/>
       </c>
-      <c r="M17" s="178"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M17" s="171"/>
+    </row>
+    <row r="18" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55"/>
-      <c r="B18" s="181" t="s">
+      <c r="B18" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="181" t="s">
+      <c r="C18" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="181" t="str">
+      <c r="D18" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E18" s="181" t="str">
+      <c r="E18" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F18" s="167" t="str">
+      <c r="F18" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G18" s="167" t="s">
+      <c r="G18" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H18" s="167" t="str">
+      <c r="H18" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I18" s="182">
-        <v>0</v>
-      </c>
-      <c r="J18" s="187" t="str">
+      <c r="I18" s="175">
+        <v>0</v>
+      </c>
+      <c r="J18" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L11Y_Quote</v>
       </c>
-      <c r="K18" s="184" t="str">
+      <c r="K18" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$3,$I18,B18,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a1#0001</v>
-      </c>
-      <c r="L18" s="177" t="str">
+        <v>obj_0034e#0001</v>
+      </c>
+      <c r="L18" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
         <v/>
       </c>
-      <c r="M18" s="178"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M18" s="171"/>
+    </row>
+    <row r="19" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55"/>
-      <c r="B19" s="181" t="s">
+      <c r="B19" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="181" t="s">
+      <c r="C19" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="181" t="str">
+      <c r="D19" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E19" s="181" t="str">
+      <c r="E19" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F19" s="167" t="str">
+      <c r="F19" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G19" s="167" t="s">
+      <c r="G19" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="167" t="str">
+      <c r="H19" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I19" s="182">
-        <v>0</v>
-      </c>
-      <c r="J19" s="187" t="str">
+      <c r="I19" s="175">
+        <v>0</v>
+      </c>
+      <c r="J19" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L12Y_Quote</v>
       </c>
-      <c r="K19" s="184" t="str">
+      <c r="K19" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$3,$I19,B19,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003bd#0001</v>
-      </c>
-      <c r="L19" s="177" t="str">
+        <v>obj_00349#0001</v>
+      </c>
+      <c r="L19" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
         <v/>
       </c>
-      <c r="M19" s="178"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M19" s="171"/>
+    </row>
+    <row r="20" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55"/>
-      <c r="B20" s="181" t="s">
+      <c r="B20" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="181" t="s">
+      <c r="C20" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="181" t="str">
+      <c r="D20" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E20" s="181" t="str">
+      <c r="E20" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F20" s="167" t="str">
+      <c r="F20" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G20" s="167" t="s">
+      <c r="G20" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H20" s="167" t="str">
+      <c r="H20" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I20" s="182">
-        <v>0</v>
-      </c>
-      <c r="J20" s="187" t="str">
+      <c r="I20" s="175">
+        <v>0</v>
+      </c>
+      <c r="J20" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L13Y_Quote</v>
       </c>
-      <c r="K20" s="184" t="str">
+      <c r="K20" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$3,$I20,B20,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a9#0001</v>
-      </c>
-      <c r="L20" s="177" t="str">
+        <v>obj_0036b#0001</v>
+      </c>
+      <c r="L20" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
         <v/>
       </c>
-      <c r="M20" s="178"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M20" s="171"/>
+    </row>
+    <row r="21" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55"/>
-      <c r="B21" s="181" t="s">
+      <c r="B21" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="181" t="s">
+      <c r="C21" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="181" t="str">
+      <c r="D21" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E21" s="181" t="str">
+      <c r="E21" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F21" s="167" t="str">
+      <c r="F21" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G21" s="167" t="s">
+      <c r="G21" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H21" s="167" t="str">
+      <c r="H21" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I21" s="182">
-        <v>0</v>
-      </c>
-      <c r="J21" s="187" t="str">
+      <c r="I21" s="175">
+        <v>0</v>
+      </c>
+      <c r="J21" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L14Y_Quote</v>
       </c>
-      <c r="K21" s="184" t="str">
+      <c r="K21" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$3,$I21,B21,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039f#0001</v>
-      </c>
-      <c r="L21" s="177" t="str">
+        <v>obj_0034a#0001</v>
+      </c>
+      <c r="L21" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
         <v/>
       </c>
-      <c r="M21" s="178"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M21" s="171"/>
+    </row>
+    <row r="22" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55"/>
-      <c r="B22" s="181" t="s">
+      <c r="B22" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="181" t="s">
+      <c r="C22" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="181" t="str">
+      <c r="D22" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E22" s="181" t="str">
+      <c r="E22" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F22" s="167" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G22" s="167" t="s">
+      <c r="G22" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="167" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I22" s="182">
-        <v>0</v>
-      </c>
-      <c r="J22" s="187" t="str">
+      <c r="I22" s="175">
+        <v>0</v>
+      </c>
+      <c r="J22" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L15Y_Quote</v>
       </c>
-      <c r="K22" s="184" t="str">
+      <c r="K22" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$3,$I22,B22,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003b3#0001</v>
-      </c>
-      <c r="L22" s="177" t="str">
+        <v>obj_00353#0001</v>
+      </c>
+      <c r="L22" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
         <v/>
       </c>
-      <c r="M22" s="178"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M22" s="171"/>
+    </row>
+    <row r="23" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55"/>
-      <c r="B23" s="181" t="s">
+      <c r="B23" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="181" t="s">
+      <c r="C23" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="181" t="str">
+      <c r="D23" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E23" s="181" t="str">
+      <c r="E23" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F23" s="167" t="str">
+      <c r="F23" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G23" s="167" t="s">
+      <c r="G23" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="167" t="str">
+      <c r="H23" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I23" s="182">
-        <v>0</v>
-      </c>
-      <c r="J23" s="187" t="str">
+      <c r="I23" s="175">
+        <v>0</v>
+      </c>
+      <c r="J23" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L16Y_Quote</v>
       </c>
-      <c r="K23" s="184" t="str">
+      <c r="K23" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$3,$I23,B23,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039a#0001</v>
-      </c>
-      <c r="L23" s="177" t="str">
+        <v>obj_0036a#0001</v>
+      </c>
+      <c r="L23" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
         <v/>
       </c>
-      <c r="M23" s="178"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M23" s="171"/>
+    </row>
+    <row r="24" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55"/>
-      <c r="B24" s="181" t="s">
+      <c r="B24" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="181" t="s">
+      <c r="C24" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="181" t="str">
+      <c r="D24" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E24" s="181" t="str">
+      <c r="E24" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F24" s="167" t="str">
+      <c r="F24" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G24" s="167" t="s">
+      <c r="G24" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H24" s="167" t="str">
+      <c r="H24" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I24" s="182">
-        <v>0</v>
-      </c>
-      <c r="J24" s="187" t="str">
+      <c r="I24" s="175">
+        <v>0</v>
+      </c>
+      <c r="J24" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L17Y_Quote</v>
       </c>
-      <c r="K24" s="184" t="str">
+      <c r="K24" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$3,$I24,B24,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00395#0001</v>
-      </c>
-      <c r="L24" s="177" t="str">
+        <v>obj_00344#0001</v>
+      </c>
+      <c r="L24" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
         <v/>
       </c>
-      <c r="M24" s="178"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M24" s="171"/>
+    </row>
+    <row r="25" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55"/>
-      <c r="B25" s="181" t="s">
+      <c r="B25" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="181" t="s">
+      <c r="C25" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="181" t="str">
+      <c r="D25" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E25" s="181" t="str">
+      <c r="E25" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F25" s="167" t="str">
+      <c r="F25" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G25" s="167" t="s">
+      <c r="G25" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H25" s="167" t="str">
+      <c r="H25" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I25" s="182">
-        <v>0</v>
-      </c>
-      <c r="J25" s="187" t="str">
+      <c r="I25" s="175">
+        <v>0</v>
+      </c>
+      <c r="J25" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L18Y_Quote</v>
       </c>
-      <c r="K25" s="184" t="str">
+      <c r="K25" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$3,$I25,B25,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00374#0001</v>
-      </c>
-      <c r="L25" s="177" t="str">
+        <v>obj_0033f#0001</v>
+      </c>
+      <c r="L25" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
         <v/>
       </c>
-      <c r="M25" s="178"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M25" s="171"/>
+    </row>
+    <row r="26" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55"/>
-      <c r="B26" s="181" t="s">
+      <c r="B26" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="181" t="s">
+      <c r="C26" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="181" t="str">
+      <c r="D26" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E26" s="181" t="str">
+      <c r="E26" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F26" s="167" t="str">
+      <c r="F26" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G26" s="167" t="s">
+      <c r="G26" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H26" s="167" t="str">
+      <c r="H26" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I26" s="182">
-        <v>0</v>
-      </c>
-      <c r="J26" s="187" t="str">
+      <c r="I26" s="175">
+        <v>0</v>
+      </c>
+      <c r="J26" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L19Y_Quote</v>
       </c>
-      <c r="K26" s="184" t="str">
+      <c r="K26" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$3,$I26,B26,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a4#0001</v>
-      </c>
-      <c r="L26" s="177" t="str">
+        <v>obj_00333#0001</v>
+      </c>
+      <c r="L26" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
         <v/>
       </c>
-      <c r="M26" s="178"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M26" s="171"/>
+    </row>
+    <row r="27" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55"/>
-      <c r="B27" s="181" t="s">
+      <c r="B27" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="181" t="s">
+      <c r="C27" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="181" t="str">
+      <c r="D27" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E27" s="181" t="str">
+      <c r="E27" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F27" s="167" t="str">
+      <c r="F27" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G27" s="167" t="s">
+      <c r="G27" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H27" s="167" t="str">
+      <c r="H27" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I27" s="182">
-        <v>0</v>
-      </c>
-      <c r="J27" s="187" t="str">
+      <c r="I27" s="175">
+        <v>0</v>
+      </c>
+      <c r="J27" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L20Y_Quote</v>
       </c>
-      <c r="K27" s="184" t="str">
+      <c r="K27" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$3,$I27,B27,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00382#0001</v>
-      </c>
-      <c r="L27" s="177" t="str">
+        <v>obj_0032f#0001</v>
+      </c>
+      <c r="L27" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K27)</f>
         <v/>
       </c>
-      <c r="M27" s="178"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M27" s="171"/>
+    </row>
+    <row r="28" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55"/>
-      <c r="B28" s="181" t="s">
+      <c r="B28" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="181" t="s">
+      <c r="C28" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="181" t="str">
+      <c r="D28" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E28" s="181" t="str">
+      <c r="E28" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F28" s="167" t="str">
+      <c r="F28" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G28" s="167" t="s">
+      <c r="G28" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H28" s="167" t="str">
+      <c r="H28" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I28" s="182">
-        <v>0</v>
-      </c>
-      <c r="J28" s="187" t="str">
+      <c r="I28" s="175">
+        <v>0</v>
+      </c>
+      <c r="J28" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L21Y_Quote</v>
       </c>
-      <c r="K28" s="184" t="str">
+      <c r="K28" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$3,$I28,B28,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003b7#0001</v>
-      </c>
-      <c r="L28" s="177" t="str">
+        <v>obj_00362#0001</v>
+      </c>
+      <c r="L28" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K28)</f>
         <v/>
       </c>
-      <c r="M28" s="178"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M28" s="171"/>
+    </row>
+    <row r="29" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55"/>
-      <c r="B29" s="181" t="s">
+      <c r="B29" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="181" t="s">
+      <c r="C29" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="181" t="str">
+      <c r="D29" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E29" s="181" t="str">
+      <c r="E29" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F29" s="167" t="str">
+      <c r="F29" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G29" s="167" t="s">
+      <c r="G29" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H29" s="167" t="str">
+      <c r="H29" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I29" s="182">
-        <v>0</v>
-      </c>
-      <c r="J29" s="187" t="str">
+      <c r="I29" s="175">
+        <v>0</v>
+      </c>
+      <c r="J29" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L22Y_Quote</v>
       </c>
-      <c r="K29" s="184" t="str">
+      <c r="K29" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J29,$C29,Calendar,$F29,$G29,$H29,$K$3,$I29,B29,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00377#0001</v>
-      </c>
-      <c r="L29" s="177" t="str">
+        <v>obj_00356#0001</v>
+      </c>
+      <c r="L29" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K29)</f>
         <v/>
       </c>
-      <c r="M29" s="178"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M29" s="171"/>
+    </row>
+    <row r="30" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55"/>
-      <c r="B30" s="181" t="s">
+      <c r="B30" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="181" t="s">
+      <c r="C30" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="181" t="str">
+      <c r="D30" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E30" s="181" t="str">
+      <c r="E30" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F30" s="167" t="str">
+      <c r="F30" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G30" s="167" t="s">
+      <c r="G30" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H30" s="167" t="str">
+      <c r="H30" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I30" s="182">
-        <v>0</v>
-      </c>
-      <c r="J30" s="187" t="str">
+      <c r="I30" s="175">
+        <v>0</v>
+      </c>
+      <c r="J30" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L23Y_Quote</v>
       </c>
-      <c r="K30" s="184" t="str">
+      <c r="K30" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J30,$C30,Calendar,$F30,$G30,$H30,$K$3,$I30,B30,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00371#0001</v>
-      </c>
-      <c r="L30" s="177" t="str">
+        <v>obj_00324#0001</v>
+      </c>
+      <c r="L30" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K30)</f>
         <v/>
       </c>
-      <c r="M30" s="178"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M30" s="171"/>
+    </row>
+    <row r="31" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55"/>
-      <c r="B31" s="181" t="s">
+      <c r="B31" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="181" t="s">
+      <c r="C31" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="181" t="str">
+      <c r="D31" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E31" s="181" t="str">
+      <c r="E31" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F31" s="167" t="str">
+      <c r="F31" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G31" s="167" t="s">
+      <c r="G31" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H31" s="167" t="str">
+      <c r="H31" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I31" s="182">
-        <v>0</v>
-      </c>
-      <c r="J31" s="187" t="str">
+      <c r="I31" s="175">
+        <v>0</v>
+      </c>
+      <c r="J31" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L24Y_Quote</v>
       </c>
-      <c r="K31" s="184" t="str">
+      <c r="K31" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J31,$C31,Calendar,$F31,$G31,$H31,$K$3,$I31,B31,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0038a#0001</v>
-      </c>
-      <c r="L31" s="177" t="str">
+        <v>obj_00369#0001</v>
+      </c>
+      <c r="L31" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K31)</f>
         <v/>
       </c>
-      <c r="M31" s="178"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M31" s="171"/>
+    </row>
+    <row r="32" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55"/>
-      <c r="B32" s="181" t="s">
+      <c r="B32" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="181" t="s">
+      <c r="C32" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="181" t="str">
+      <c r="D32" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E32" s="181" t="str">
+      <c r="E32" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F32" s="167" t="str">
+      <c r="F32" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G32" s="167" t="s">
+      <c r="G32" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H32" s="167" t="str">
+      <c r="H32" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I32" s="182">
-        <v>0</v>
-      </c>
-      <c r="J32" s="187" t="str">
+      <c r="I32" s="175">
+        <v>0</v>
+      </c>
+      <c r="J32" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L25Y_Quote</v>
       </c>
-      <c r="K32" s="184" t="str">
+      <c r="K32" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J32,$C32,Calendar,$F32,$G32,$H32,$K$3,$I32,B32,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0038d#0001</v>
-      </c>
-      <c r="L32" s="177" t="str">
+        <v>obj_00336#0001</v>
+      </c>
+      <c r="L32" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K32)</f>
         <v/>
       </c>
-      <c r="M32" s="178"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M32" s="171"/>
+    </row>
+    <row r="33" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55"/>
-      <c r="B33" s="181" t="s">
+      <c r="B33" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="181" t="s">
+      <c r="C33" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="181" t="str">
+      <c r="D33" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E33" s="181" t="str">
+      <c r="E33" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F33" s="167" t="str">
+      <c r="F33" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G33" s="167" t="s">
+      <c r="G33" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H33" s="167" t="str">
+      <c r="H33" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I33" s="182">
-        <v>0</v>
-      </c>
-      <c r="J33" s="187" t="str">
+      <c r="I33" s="175">
+        <v>0</v>
+      </c>
+      <c r="J33" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L26Y_Quote</v>
       </c>
-      <c r="K33" s="184" t="str">
+      <c r="K33" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J33,$C33,Calendar,$F33,$G33,$H33,$K$3,$I33,B33,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00396#0001</v>
-      </c>
-      <c r="L33" s="177" t="str">
+        <v>obj_00358#0001</v>
+      </c>
+      <c r="L33" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K33)</f>
         <v/>
       </c>
-      <c r="M33" s="178"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M33" s="171"/>
+    </row>
+    <row r="34" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55"/>
-      <c r="B34" s="181" t="s">
+      <c r="B34" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="181" t="s">
+      <c r="C34" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="181" t="str">
+      <c r="D34" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E34" s="181" t="str">
+      <c r="E34" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F34" s="167" t="str">
+      <c r="F34" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G34" s="167" t="s">
+      <c r="G34" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H34" s="167" t="str">
+      <c r="H34" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I34" s="182">
-        <v>0</v>
-      </c>
-      <c r="J34" s="187" t="str">
+      <c r="I34" s="175">
+        <v>0</v>
+      </c>
+      <c r="J34" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L27Y_Quote</v>
       </c>
-      <c r="K34" s="184" t="str">
+      <c r="K34" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J34,$C34,Calendar,$F34,$G34,$H34,$K$3,$I34,B34,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0038c#0001</v>
-      </c>
-      <c r="L34" s="177" t="str">
+        <v>obj_00327#0001</v>
+      </c>
+      <c r="L34" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K34)</f>
         <v/>
       </c>
-      <c r="M34" s="178"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="171"/>
+    </row>
+    <row r="35" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55"/>
-      <c r="B35" s="181" t="s">
+      <c r="B35" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="181" t="s">
+      <c r="C35" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="181" t="str">
+      <c r="D35" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E35" s="181" t="str">
+      <c r="E35" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F35" s="167" t="str">
+      <c r="F35" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G35" s="167" t="s">
+      <c r="G35" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H35" s="167" t="str">
+      <c r="H35" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I35" s="182">
-        <v>0</v>
-      </c>
-      <c r="J35" s="187" t="str">
+      <c r="I35" s="175">
+        <v>0</v>
+      </c>
+      <c r="J35" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L28Y_Quote</v>
       </c>
-      <c r="K35" s="184" t="str">
+      <c r="K35" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J35,$C35,Calendar,$F35,$G35,$H35,$K$3,$I35,B35,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00399#0001</v>
-      </c>
-      <c r="L35" s="177" t="str">
+        <v>obj_00365#0001</v>
+      </c>
+      <c r="L35" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K35)</f>
         <v/>
       </c>
-      <c r="M35" s="178"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M35" s="171"/>
+    </row>
+    <row r="36" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55"/>
-      <c r="B36" s="181" t="s">
+      <c r="B36" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="181" t="s">
+      <c r="C36" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="181" t="str">
+      <c r="D36" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E36" s="181" t="str">
+      <c r="E36" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F36" s="167" t="str">
+      <c r="F36" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G36" s="167" t="s">
+      <c r="G36" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H36" s="167" t="str">
+      <c r="H36" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I36" s="182">
-        <v>0</v>
-      </c>
-      <c r="J36" s="187" t="str">
+      <c r="I36" s="175">
+        <v>0</v>
+      </c>
+      <c r="J36" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L29Y_Quote</v>
       </c>
-      <c r="K36" s="184" t="str">
+      <c r="K36" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J36,$C36,Calendar,$F36,$G36,$H36,$K$3,$I36,B36,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00372#0001</v>
-      </c>
-      <c r="L36" s="177" t="str">
+        <v>obj_00325#0001</v>
+      </c>
+      <c r="L36" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K36)</f>
         <v/>
       </c>
-      <c r="M36" s="178"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="171"/>
+    </row>
+    <row r="37" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55"/>
-      <c r="B37" s="181" t="s">
+      <c r="B37" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="181" t="s">
+      <c r="C37" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="181" t="str">
+      <c r="D37" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E37" s="181" t="str">
+      <c r="E37" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F37" s="167" t="str">
+      <c r="F37" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G37" s="167" t="s">
+      <c r="G37" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H37" s="167" t="str">
+      <c r="H37" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I37" s="182">
-        <v>0</v>
-      </c>
-      <c r="J37" s="187" t="str">
+      <c r="I37" s="175">
+        <v>0</v>
+      </c>
+      <c r="J37" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L30Y_Quote</v>
       </c>
-      <c r="K37" s="184" t="str">
+      <c r="K37" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J37,$C37,Calendar,$F37,$G37,$H37,$K$3,$I37,B37,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003be#0001</v>
-      </c>
-      <c r="L37" s="177" t="str">
+        <v>obj_0032c#0001</v>
+      </c>
+      <c r="L37" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K37)</f>
         <v/>
       </c>
-      <c r="M37" s="178"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M37" s="171"/>
+    </row>
+    <row r="38" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55"/>
-      <c r="B38" s="181" t="s">
+      <c r="B38" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="181" t="s">
+      <c r="C38" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="181" t="str">
+      <c r="D38" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E38" s="181" t="str">
+      <c r="E38" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F38" s="167" t="str">
+      <c r="F38" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G38" s="167" t="s">
+      <c r="G38" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H38" s="167" t="str">
+      <c r="H38" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I38" s="182">
-        <v>0</v>
-      </c>
-      <c r="J38" s="187" t="str">
+      <c r="I38" s="175">
+        <v>0</v>
+      </c>
+      <c r="J38" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L35Y_Quote</v>
       </c>
-      <c r="K38" s="184" t="str">
+      <c r="K38" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J38,$C38,Calendar,$F38,$G38,$H38,$K$3,$I38,B38,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003ad#0001</v>
-      </c>
-      <c r="L38" s="177" t="str">
+        <v>obj_00348#0001</v>
+      </c>
+      <c r="L38" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K38)</f>
         <v/>
       </c>
-      <c r="M38" s="178"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="171"/>
+    </row>
+    <row r="39" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55"/>
-      <c r="B39" s="181" t="s">
+      <c r="B39" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="181" t="s">
+      <c r="C39" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="181" t="str">
+      <c r="D39" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E39" s="181" t="str">
+      <c r="E39" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F39" s="167" t="str">
+      <c r="F39" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G39" s="167" t="s">
+      <c r="G39" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H39" s="167" t="str">
+      <c r="H39" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I39" s="182">
-        <v>0</v>
-      </c>
-      <c r="J39" s="187" t="str">
+      <c r="I39" s="175">
+        <v>0</v>
+      </c>
+      <c r="J39" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L40Y_Quote</v>
       </c>
-      <c r="K39" s="184" t="str">
+      <c r="K39" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J39,$C39,Calendar,$F39,$G39,$H39,$K$3,$I39,B39,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003ae#0001</v>
-      </c>
-      <c r="L39" s="177" t="str">
+        <v>obj_0033b#0001</v>
+      </c>
+      <c r="L39" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K39)</f>
         <v/>
       </c>
-      <c r="M39" s="178"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M39" s="171"/>
+    </row>
+    <row r="40" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55"/>
-      <c r="B40" s="181" t="s">
+      <c r="B40" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="181" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="181" t="str">
+      <c r="C40" s="174" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E40" s="181" t="str">
+      <c r="E40" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F40" s="167" t="str">
+      <c r="F40" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G40" s="167" t="s">
+      <c r="G40" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H40" s="167" t="str">
+      <c r="H40" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I40" s="182">
-        <v>0</v>
-      </c>
-      <c r="J40" s="187" t="str">
+      <c r="I40" s="175">
+        <v>0</v>
+      </c>
+      <c r="J40" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L50Y_Quote</v>
       </c>
-      <c r="K40" s="184" t="str">
+      <c r="K40" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J40,$C40,Calendar,$F40,$G40,$H40,$K$3,$I40,B40,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0037f#0001</v>
-      </c>
-      <c r="L40" s="177" t="str">
+        <v>obj_0032b#0001</v>
+      </c>
+      <c r="L40" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K40)</f>
         <v/>
       </c>
-      <c r="M40" s="178"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="171"/>
+    </row>
+    <row r="41" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55"/>
-      <c r="B41" s="181" t="s">
+      <c r="B41" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="181" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="181" t="str">
+      <c r="C41" s="174" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="174" t="str">
         <v>SB</v>
       </c>
-      <c r="E41" s="181" t="str">
+      <c r="E41" s="174" t="str">
         <v>6L</v>
       </c>
-      <c r="F41" s="167" t="str">
+      <c r="F41" s="160" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G41" s="167" t="s">
+      <c r="G41" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="H41" s="167" t="str">
+      <c r="H41" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I41" s="182">
-        <v>0</v>
-      </c>
-      <c r="J41" s="187" t="str">
+      <c r="I41" s="175">
+        <v>0</v>
+      </c>
+      <c r="J41" s="180" t="str">
         <f t="shared" si="2"/>
         <v>JPYSB6L60Y_Quote</v>
       </c>
-      <c r="K41" s="184" t="str">
+      <c r="K41" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J41,$C41,Calendar,$F41,$G41,$H41,$K$3,$I41,B41,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003b2#0001</v>
-      </c>
-      <c r="L41" s="177" t="str">
+        <v>obj_00331#0001</v>
+      </c>
+      <c r="L41" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K41)</f>
         <v/>
       </c>
-      <c r="M41" s="178"/>
-    </row>
-    <row r="42" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M41" s="171"/>
+    </row>
+    <row r="42" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="48"/>
       <c r="B42" s="47"/>
       <c r="C42" s="47"/>
@@ -17109,9 +17050,9 @@
       <c r="H42" s="47"/>
       <c r="I42" s="47"/>
       <c r="J42" s="47"/>
-      <c r="K42" s="160"/>
-      <c r="L42" s="160"/>
-      <c r="M42" s="194"/>
+      <c r="K42" s="153"/>
+      <c r="L42" s="153"/>
+      <c r="M42" s="187"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/QuantLibXL/Data2/XLS/JPY_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/JPY_YCSTDBootstrapping.xlsx
@@ -29,7 +29,7 @@
     <definedName name="IborType">'General Settings'!$D$7</definedName>
     <definedName name="IndexTenor">'General Settings'!$D$6</definedName>
     <definedName name="InterpolatorID">'General Settings'!$D$21</definedName>
-    <definedName name="MinDistance">RateHelpers!$K$2:$K$108</definedName>
+    <definedName name="MinDistance">RateHelpers!$K$2:$K$99</definedName>
     <definedName name="MoneyMarketDayCounter">'General Settings'!$M$14</definedName>
     <definedName name="Months">'General Settings'!$D$5</definedName>
     <definedName name="NDays">'General Settings'!$D$17</definedName>
@@ -39,9 +39,9 @@
     <definedName name="Permanent">'General Settings'!$D$10</definedName>
     <definedName name="QuoteSuffix">'General Settings'!$M$12</definedName>
     <definedName name="RateHelperPrefix">'General Settings'!$D$9</definedName>
-    <definedName name="RateHelpers">RateHelpers!$E$2:$E$108</definedName>
-    <definedName name="RateHelpersIncluded">RateHelpers!$I$2:$I$108</definedName>
-    <definedName name="RateHelpersPriority">RateHelpers!$J$2:$J$108</definedName>
+    <definedName name="RateHelpers">RateHelpers!$E$2:$E$99</definedName>
+    <definedName name="RateHelpersIncluded">RateHelpers!$I$2:$I$99</definedName>
+    <definedName name="RateHelpersPriority">RateHelpers!$J$2:$J$99</definedName>
     <definedName name="RateHelpersSelected">Selected!$A$7</definedName>
     <definedName name="SerializationPath">'General Settings'!$M$5</definedName>
     <definedName name="Serialize">'General Settings'!$M$4</definedName>
@@ -216,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="137">
   <si>
     <t>60Y</t>
   </si>
@@ -333,12 +333,6 @@
   </si>
   <si>
     <t>short term futures</t>
-  </si>
-  <si>
-    <t>swap</t>
-  </si>
-  <si>
-    <t>exotic swap</t>
   </si>
   <si>
     <t>long term futures</t>
@@ -1735,6 +1729,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1749,18 +1755,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2103,7 +2097,7 @@
     </row>
     <row r="2" spans="1:33" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="112" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" s="113"/>
       <c r="D2" s="113"/>
@@ -2111,7 +2105,7 @@
       <c r="F2" s="113"/>
       <c r="G2" s="28"/>
       <c r="K2" s="106" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L2" s="107"/>
       <c r="M2" s="107"/>
@@ -2156,22 +2150,22 @@
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="28"/>
       <c r="H4" s="100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I4" s="101"/>
       <c r="J4" s="3"/>
       <c r="K4" s="42"/>
       <c r="L4" s="41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M4" s="36" t="b">
         <v>0</v>
@@ -2201,7 +2195,7 @@
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
@@ -2210,15 +2204,15 @@
       <c r="F5" s="4"/>
       <c r="G5" s="28"/>
       <c r="H5" s="102" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I5" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="42"/>
       <c r="L5" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M5" s="43"/>
       <c r="N5" s="40"/>
@@ -2246,22 +2240,22 @@
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
       <c r="C6" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="28"/>
       <c r="H6" s="102" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I6" s="103"/>
       <c r="J6" s="3"/>
       <c r="K6" s="42"/>
       <c r="L6" s="41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M6" s="33" t="b">
         <v>1</v>
@@ -2291,7 +2285,7 @@
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D7" s="6" t="str">
         <f>Months&amp;IF(UPPER(Currency)="EUR","E","L")</f>
@@ -2301,7 +2295,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="28"/>
       <c r="H7" s="102" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I7" s="103"/>
       <c r="J7" s="3"/>
@@ -2333,7 +2327,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D8" s="6">
         <f>VLOOKUP(Currency,H4:I8,2)</f>
@@ -2343,10 +2337,10 @@
       <c r="F8" s="4"/>
       <c r="G8" s="28"/>
       <c r="H8" s="104" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I8" s="105" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -2377,7 +2371,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D9" s="6" t="str">
         <f>Currency&amp;"_"&amp;$E$16&amp;"RH"</f>
@@ -2390,7 +2384,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="106" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L9" s="107"/>
       <c r="M9" s="107"/>
@@ -2419,7 +2413,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
       <c r="C10" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="6" t="b">
         <v>1</v>
@@ -2458,7 +2452,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="5"/>
       <c r="C11" s="26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="4"/>
@@ -2469,10 +2463,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="35"/>
       <c r="L11" s="34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M11" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N11" s="32"/>
       <c r="O11" s="3"/>
@@ -2499,7 +2493,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
       <c r="C12" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" s="23" t="b">
         <v>1</v>
@@ -2512,10 +2506,10 @@
       <c r="J12" s="3"/>
       <c r="K12" s="35"/>
       <c r="L12" s="34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M12" s="33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N12" s="32"/>
       <c r="O12" s="3"/>
@@ -2551,10 +2545,10 @@
       <c r="J13" s="3"/>
       <c r="K13" s="35"/>
       <c r="L13" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M13" s="36" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N13" s="32"/>
       <c r="O13" s="3"/>
@@ -2581,11 +2575,11 @@
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="22" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_JPYYCSTD#0010</v>
+        <v>_JPYYCSTD#0004</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2595,10 +2589,10 @@
       <c r="J14" s="3"/>
       <c r="K14" s="69"/>
       <c r="L14" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M14" s="36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N14" s="68"/>
       <c r="O14" s="3"/>
@@ -2625,14 +2619,14 @@
       <c r="A15" s="3"/>
       <c r="B15" s="5"/>
       <c r="C15" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" s="21" t="str">
         <f>_xll.ohRangeRetrieveError(YieldCurve)</f>
         <v/>
       </c>
       <c r="E15" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="28"/>
@@ -2667,14 +2661,14 @@
       <c r="A16" s="3"/>
       <c r="B16" s="5"/>
       <c r="C16" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D16" s="19" t="str">
         <f>"_"&amp;Currency&amp;$E$16</f>
         <v>_JPYYCSTD</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="28"/>
@@ -2709,7 +2703,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="5"/>
       <c r="C17" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="4"/>
@@ -2746,10 +2740,10 @@
       <c r="A18" s="3"/>
       <c r="B18" s="5"/>
       <c r="C18" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -2785,7 +2779,7 @@
       <c r="A19" s="3"/>
       <c r="B19" s="5"/>
       <c r="C19" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D19" s="15" t="e">
         <f>NA()</f>
@@ -2825,10 +2819,10 @@
       <c r="A20" s="3"/>
       <c r="B20" s="5"/>
       <c r="C20" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -2864,10 +2858,10 @@
       <c r="A21" s="3"/>
       <c r="B21" s="5"/>
       <c r="C21" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -2939,11 +2933,11 @@
       <c r="B23" s="5"/>
       <c r="C23" s="9">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41800</v>
+        <v>41801</v>
       </c>
       <c r="D23" s="8">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>1.8871222169023899E-2</v>
+        <v>1.8928831220685265E-2</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2984,7 +2978,7 @@
       </c>
       <c r="D24" s="6">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>5.4313987369326768E-4</v>
+        <v>5.4313906545588734E-4</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -3020,7 +3014,7 @@
       <c r="A25" s="3"/>
       <c r="B25" s="5"/>
       <c r="C25" s="70" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D25" s="71" t="str">
         <f>_xll.ohRangeRetrieveError(Selected!J1)</f>
@@ -3101,7 +3095,7 @@
       <c r="A27" s="94"/>
       <c r="B27" s="4"/>
       <c r="C27" s="95" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D27" s="44" t="b">
         <f>_xll.qlExtrapolatorEnableExtrapolation(YieldCurve,TRUE)</f>
@@ -4473,19 +4467,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O109"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="63" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="89" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="89" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="89" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" style="89" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="63" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="89" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="89" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="89" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="89" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" style="89" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8" style="89" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" style="89" customWidth="1"/>
@@ -4499,48 +4493,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="191" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="192"/>
-      <c r="D1" s="193"/>
+      <c r="B1" s="195" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="196"/>
+      <c r="D1" s="197"/>
       <c r="E1" s="118" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F1" s="118" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G1" s="118" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H1" s="118" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I1" s="118" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J1" s="118" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K1" s="118" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L1" s="118" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M1" s="118" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="119"/>
       <c r="C2" s="120"/>
       <c r="D2" s="121" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E2" s="121" t="str">
         <f>Deposits!E3</f>
-        <v>obj_00321#0001</v>
+        <v>obj_00323#0001</v>
       </c>
       <c r="F2" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E2),"LastFixing","D"),"Libor","")</f>
@@ -4563,28 +4557,28 @@
       </c>
       <c r="L2" s="123">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41800</v>
+        <v>41801</v>
       </c>
       <c r="M2" s="124">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41801</v>
+        <v>41802</v>
       </c>
       <c r="N2" s="63">
         <v>10</v>
       </c>
       <c r="O2" s="63" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" ht="11.25" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="119"/>
       <c r="C3" s="120"/>
       <c r="D3" s="121" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E3" s="121" t="str">
         <f>Deposits!E4</f>
-        <v>obj_00323#0001</v>
+        <v>obj_00321#0001</v>
       </c>
       <c r="F3" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E3),"LastFixing","D"),"Libor","")</f>
@@ -4596,7 +4590,7 @@
       </c>
       <c r="H3" s="122"/>
       <c r="I3" s="65" t="b">
-        <f t="shared" ref="I3:I18" si="0">IF(ISERROR(G3),FALSE,TRUE)</f>
+        <f t="shared" ref="I3:I9" si="0">IF(ISERROR(G3),FALSE,TRUE)</f>
         <v>1</v>
       </c>
       <c r="J3" s="65">
@@ -4607,28 +4601,28 @@
       </c>
       <c r="L3" s="123">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M3" s="124">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41803</v>
+        <v>41806</v>
       </c>
       <c r="N3" s="63">
         <v>20</v>
       </c>
       <c r="O3" s="63" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="11.25" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="119"/>
       <c r="C4" s="120"/>
       <c r="D4" s="121" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E4" s="121" t="str">
         <f>Deposits!E5</f>
-        <v>obj_00311#0001</v>
+        <v>obj_0030e#0001</v>
       </c>
       <c r="F4" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E4),"LastFixing","D"),"Libor","")</f>
@@ -4651,41 +4645,41 @@
       </c>
       <c r="L4" s="123">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M4" s="124">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41809</v>
+        <v>41810</v>
       </c>
       <c r="N4" s="63">
         <v>30</v>
       </c>
       <c r="O4" s="63" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="11.25" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="119"/>
       <c r="C5" s="120"/>
       <c r="D5" s="121" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="121">
-        <f>Deposits!E6</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="121" t="e">
+        <v>105</v>
+      </c>
+      <c r="E5" s="121" t="str">
+        <f>Deposits!E8</f>
+        <v>obj_00313#0001</v>
+      </c>
+      <c r="F5" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E5),"LastFixing","D"),"Libor","")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G5" s="122" t="e">
+        <v>Jpy1MD_Quote</v>
+      </c>
+      <c r="G5" s="122">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>#NUM!</v>
+        <v>9.7860000000000004E-4</v>
       </c>
       <c r="H5" s="122"/>
       <c r="I5" s="65" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="65">
         <v>10</v>
@@ -4693,43 +4687,43 @@
       <c r="K5" s="65">
         <v>1</v>
       </c>
-      <c r="L5" s="123" t="e">
+      <c r="L5" s="123">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M5" s="124" t="e">
+        <v>41803</v>
+      </c>
+      <c r="M5" s="124">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>#NUM!</v>
+        <v>41834</v>
       </c>
       <c r="N5" s="63">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="O5" s="63" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="11.25" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="119"/>
       <c r="C6" s="120"/>
       <c r="D6" s="121" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="121">
-        <f>Deposits!E7</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="121" t="e">
+        <v>104</v>
+      </c>
+      <c r="E6" s="121" t="str">
+        <f>Deposits!E9</f>
+        <v>obj_00314#0001</v>
+      </c>
+      <c r="F6" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E6),"LastFixing","D"),"Libor","")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" s="122" t="e">
+        <v>Jpy2MD_Quote</v>
+      </c>
+      <c r="G6" s="122">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.2286E-3</v>
       </c>
       <c r="H6" s="122"/>
       <c r="I6" s="65" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="65">
         <v>10</v>
@@ -4737,38 +4731,32 @@
       <c r="K6" s="65">
         <v>1</v>
       </c>
-      <c r="L6" s="123" t="e">
+      <c r="L6" s="123">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M6" s="124" t="e">
+        <v>41803</v>
+      </c>
+      <c r="M6" s="124">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N6" s="63">
-        <v>50</v>
-      </c>
-      <c r="O6" s="63" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="11.25" x14ac:dyDescent="0.2">
+        <v>41864</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="119"/>
       <c r="C7" s="120"/>
       <c r="D7" s="121" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="E7" s="121" t="str">
-        <f>Deposits!E8</f>
-        <v>obj_0030e#0001</v>
+        <f>Deposits!E10</f>
+        <v>obj_00315#0001</v>
       </c>
       <c r="F7" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E7),"LastFixing","D"),"Libor","")</f>
-        <v>Jpy1MD_Quote</v>
+        <v>Jpy3MD_Quote</v>
       </c>
       <c r="G7" s="122">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
-        <v>9.7860000000000004E-4</v>
+        <v>1.3500000000000001E-3</v>
       </c>
       <c r="H7" s="122"/>
       <c r="I7" s="65" t="b">
@@ -4783,36 +4771,30 @@
       </c>
       <c r="L7" s="123">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M7" s="124">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41834</v>
-      </c>
-      <c r="N7" s="63">
-        <v>60</v>
-      </c>
-      <c r="O7" s="63" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+        <v>41897</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="119"/>
       <c r="C8" s="120"/>
       <c r="D8" s="121" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E8" s="121" t="str">
-        <f>Deposits!E9</f>
-        <v>obj_0030f#0001</v>
+        <f>Deposits!E13</f>
+        <v>obj_00317#0001</v>
       </c>
       <c r="F8" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E8),"LastFixing","D"),"Libor","")</f>
-        <v>Jpy2MD_Quote</v>
+        <v>Jpy6MD_Quote</v>
       </c>
       <c r="G8" s="122">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
-        <v>1.2286E-3</v>
+        <v>1.8179000000000001E-3</v>
       </c>
       <c r="H8" s="122"/>
       <c r="I8" s="65" t="b">
@@ -4827,30 +4809,30 @@
       </c>
       <c r="L8" s="123">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M8" s="124">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41863</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+        <v>41988</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="119"/>
       <c r="C9" s="120"/>
       <c r="D9" s="121" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="E9" s="121" t="str">
-        <f>Deposits!E10</f>
-        <v>obj_00310#0001</v>
+        <f>Deposits!E19</f>
+        <v>obj_00316#0001</v>
       </c>
       <c r="F9" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E9),"LastFixing","D"),"Libor","")</f>
-        <v>Jpy3MD_Quote</v>
+        <v>Jpy1YD_Quote</v>
       </c>
       <c r="G9" s="122">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
-        <v>1.3500000000000001E-3</v>
+        <v>3.3356999999999996E-3</v>
       </c>
       <c r="H9" s="122"/>
       <c r="I9" s="65" t="b">
@@ -4865,837 +4847,909 @@
       </c>
       <c r="L9" s="123">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M9" s="124">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41894</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="119"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="121" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="121">
-        <f>Deposits!E11</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="121" t="e">
+        <v>42170</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="136">
+        <v>1</v>
+      </c>
+      <c r="C10" s="133" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="137" t="str">
+        <f t="shared" ref="D10:D20" si="1">(B10+Months)&amp;"F"</f>
+        <v>4F</v>
+      </c>
+      <c r="E10" s="137" t="str">
+        <f>FRAs!G3</f>
+        <v>obj_00318#0001</v>
+      </c>
+      <c r="F10" s="137" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E10),"LastFixing","D"),"Libor","")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G10" s="122" t="e">
+        <v>JPY1x4F_Quote</v>
+      </c>
+      <c r="G10" s="138">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="65" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="65">
-        <v>10</v>
-      </c>
-      <c r="K10" s="65">
-        <v>1</v>
-      </c>
-      <c r="L10" s="123" t="e">
+        <v>1.3500000000000001E-3</v>
+      </c>
+      <c r="H10" s="138"/>
+      <c r="I10" s="139" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="139">
+        <v>20</v>
+      </c>
+      <c r="K10" s="139">
+        <v>7</v>
+      </c>
+      <c r="L10" s="140">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M10" s="124" t="e">
+        <v>41834</v>
+      </c>
+      <c r="M10" s="141">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="119"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="121" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="121">
-        <f>Deposits!E12</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="121" t="e">
+        <v>41926</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="131">
+        <v>2</v>
+      </c>
+      <c r="C11" s="120" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="121" t="str">
+        <f t="shared" si="1"/>
+        <v>5F</v>
+      </c>
+      <c r="E11" s="121" t="str">
+        <f>FRAs!G4</f>
+        <v>obj_00319#0001</v>
+      </c>
+      <c r="F11" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E11),"LastFixing","D"),"Libor","")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G11" s="122" t="e">
+        <v>JPY2x5F_Quote</v>
+      </c>
+      <c r="G11" s="122">
         <f>_xll.qlRateHelperQuoteValue($E11,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.3500000000000001E-3</v>
       </c>
       <c r="H11" s="122"/>
       <c r="I11" s="65" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J11" s="65">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K11" s="65">
-        <v>1</v>
-      </c>
-      <c r="L11" s="123" t="e">
+        <v>7</v>
+      </c>
+      <c r="L11" s="123">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M11" s="124" t="e">
+        <v>41864</v>
+      </c>
+      <c r="M11" s="124">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="119"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="121" t="s">
-        <v>105</v>
+        <v>41956</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="131">
+        <v>3</v>
+      </c>
+      <c r="C12" s="120" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="121" t="str">
+        <f t="shared" si="1"/>
+        <v>6F</v>
       </c>
       <c r="E12" s="121" t="str">
-        <f>Deposits!E13</f>
-        <v>obj_00313#0001</v>
+        <f>FRAs!G5</f>
+        <v>obj_0031f#0001</v>
       </c>
       <c r="F12" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E12),"LastFixing","D"),"Libor","")</f>
-        <v>Jpy6MD_Quote</v>
+        <v>JPY3x6F_Quote</v>
       </c>
       <c r="G12" s="122">
         <f>_xll.qlRateHelperQuoteValue($E12,Trigger)</f>
-        <v>1.8179000000000001E-3</v>
+        <v>1.3500000000000001E-3</v>
       </c>
       <c r="H12" s="122"/>
       <c r="I12" s="65" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="65">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K12" s="65">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L12" s="123">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>41802</v>
+        <v>41897</v>
       </c>
       <c r="M12" s="124">
         <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>41985</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="119"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="121" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="121">
-        <f>Deposits!E14</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="121" t="e">
+        <v>41988</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="131">
+        <v>4</v>
+      </c>
+      <c r="C13" s="120" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="121" t="str">
+        <f t="shared" si="1"/>
+        <v>7F</v>
+      </c>
+      <c r="E13" s="121" t="str">
+        <f>FRAs!G6</f>
+        <v>obj_0031b#0001</v>
+      </c>
+      <c r="F13" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E13),"LastFixing","D"),"Libor","")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G13" s="122" t="e">
+        <v>JPY4x7F_Quote</v>
+      </c>
+      <c r="G13" s="122">
         <f>_xll.qlRateHelperQuoteValue($E13,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.3500000000000001E-3</v>
       </c>
       <c r="H13" s="122"/>
       <c r="I13" s="65" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J13" s="65">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K13" s="65">
-        <v>1</v>
-      </c>
-      <c r="L13" s="123" t="e">
+        <v>7</v>
+      </c>
+      <c r="L13" s="123">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M13" s="124" t="e">
+        <v>41925</v>
+      </c>
+      <c r="M13" s="124">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="119"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="121" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="121">
-        <f>Deposits!E15</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="121" t="e">
+        <v>42017</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="131">
+        <v>5</v>
+      </c>
+      <c r="C14" s="120" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="121" t="str">
+        <f t="shared" si="1"/>
+        <v>8F</v>
+      </c>
+      <c r="E14" s="121" t="str">
+        <f>FRAs!G7</f>
+        <v>obj_0031a#0001</v>
+      </c>
+      <c r="F14" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E14),"LastFixing","D"),"Libor","")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G14" s="122" t="e">
+        <v>JPY5x8F_Quote</v>
+      </c>
+      <c r="G14" s="122">
         <f>_xll.qlRateHelperQuoteValue($E14,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="H14" s="122"/>
       <c r="I14" s="65" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J14" s="65">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K14" s="65">
-        <v>1</v>
-      </c>
-      <c r="L14" s="123" t="e">
+        <v>7</v>
+      </c>
+      <c r="L14" s="123">
         <f>_xll.qlRateHelperEarliestDate($E14,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M14" s="124" t="e">
+        <v>41956</v>
+      </c>
+      <c r="M14" s="124">
         <f>_xll.qlRateHelperLatestDate($E14,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="119"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="121" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="121">
-        <f>Deposits!E16</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="121" t="e">
+        <v>42048</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="131">
+        <v>6</v>
+      </c>
+      <c r="C15" s="120" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="121" t="str">
+        <f t="shared" si="1"/>
+        <v>9F</v>
+      </c>
+      <c r="E15" s="121" t="str">
+        <f>FRAs!G8</f>
+        <v>obj_0031c#0001</v>
+      </c>
+      <c r="F15" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E15),"LastFixing","D"),"Libor","")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G15" s="122" t="e">
+        <v>JPY6x9F_Quote</v>
+      </c>
+      <c r="G15" s="122">
         <f>_xll.qlRateHelperQuoteValue($E15,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="H15" s="122"/>
       <c r="I15" s="65" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J15" s="65">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K15" s="65">
-        <v>1</v>
-      </c>
-      <c r="L15" s="123" t="e">
+        <v>7</v>
+      </c>
+      <c r="L15" s="123">
         <f>_xll.qlRateHelperEarliestDate($E15,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M15" s="124" t="e">
+        <v>41988</v>
+      </c>
+      <c r="M15" s="124">
         <f>_xll.qlRateHelperLatestDate($E15,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="119"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="121" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="121">
-        <f>Deposits!E17</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="121" t="e">
+        <v>42079</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="131">
+        <v>7</v>
+      </c>
+      <c r="C16" s="120" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="121" t="str">
+        <f t="shared" si="1"/>
+        <v>10F</v>
+      </c>
+      <c r="E16" s="121" t="str">
+        <f>FRAs!G9</f>
+        <v>obj_00311#0001</v>
+      </c>
+      <c r="F16" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E16),"LastFixing","D"),"Libor","")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G16" s="122" t="e">
+        <v>JPY9x12F_Quote</v>
+      </c>
+      <c r="G16" s="122">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="H16" s="122"/>
       <c r="I16" s="65" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J16" s="65">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K16" s="65">
-        <v>1</v>
-      </c>
-      <c r="L16" s="123" t="e">
+        <v>7</v>
+      </c>
+      <c r="L16" s="123">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M16" s="124" t="e">
+        <v>42076</v>
+      </c>
+      <c r="M16" s="124">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="119"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="121" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="121">
-        <f>Deposits!E18</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="121" t="e">
+        <v>42170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="131">
+        <v>8</v>
+      </c>
+      <c r="C17" s="120" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="121" t="str">
+        <f t="shared" si="1"/>
+        <v>11F</v>
+      </c>
+      <c r="E17" s="121" t="str">
+        <f>FRAs!G10</f>
+        <v>obj_0030f#0001</v>
+      </c>
+      <c r="F17" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E17),"LastFixing","D"),"Libor","")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G17" s="122" t="e">
+        <v>JPY12x15F_Quote</v>
+      </c>
+      <c r="G17" s="122">
         <f>_xll.qlRateHelperQuoteValue($E17,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.25E-3</v>
       </c>
       <c r="H17" s="122"/>
       <c r="I17" s="65" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J17" s="65">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K17" s="65">
-        <v>1</v>
-      </c>
-      <c r="L17" s="123" t="e">
+        <v>7</v>
+      </c>
+      <c r="L17" s="123">
         <f>_xll.qlRateHelperEarliestDate($E17,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M17" s="124" t="e">
+        <v>42170</v>
+      </c>
+      <c r="M17" s="124">
         <f>_xll.qlRateHelperLatestDate($E17,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="119"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="121" t="s">
-        <v>36</v>
+        <v>42262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="131">
+        <v>9</v>
+      </c>
+      <c r="C18" s="120" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="121" t="str">
+        <f t="shared" si="1"/>
+        <v>12F</v>
       </c>
       <c r="E18" s="121" t="str">
-        <f>Deposits!E19</f>
-        <v>obj_00312#0001</v>
+        <f>FRAs!G11</f>
+        <v>obj_0031d#0001</v>
       </c>
       <c r="F18" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E18),"LastFixing","D"),"Libor","")</f>
-        <v>Jpy1YD_Quote</v>
+        <v>JPY15x18F_Quote</v>
       </c>
       <c r="G18" s="122">
         <f>_xll.qlRateHelperQuoteValue($E18,Trigger)</f>
-        <v>3.3356999999999996E-3</v>
+        <v>1.25E-3</v>
       </c>
       <c r="H18" s="122"/>
       <c r="I18" s="65" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="65">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K18" s="65">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L18" s="123">
         <f>_xll.qlRateHelperEarliestDate($E18,Trigger)</f>
-        <v>41802</v>
+        <v>42261</v>
       </c>
       <c r="M18" s="124">
         <f>_xll.qlRateHelperLatestDate($E18,Trigger)</f>
-        <v>42167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="136">
-        <v>1</v>
-      </c>
-      <c r="C19" s="133" t="s">
+        <v>42352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="131">
+        <v>10</v>
+      </c>
+      <c r="C19" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="137" t="str">
-        <f t="shared" ref="D19:D29" si="1">(B19+Months)&amp;"F"</f>
-        <v>4F</v>
-      </c>
-      <c r="E19" s="137" t="str">
-        <f>FRAs!G3</f>
-        <v>obj_00316#0001</v>
-      </c>
-      <c r="F19" s="137" t="str">
+      <c r="D19" s="121" t="str">
+        <f t="shared" si="1"/>
+        <v>13F</v>
+      </c>
+      <c r="E19" s="121" t="str">
+        <f>FRAs!G12</f>
+        <v>obj_0031e#0001</v>
+      </c>
+      <c r="F19" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E19),"LastFixing","D"),"Libor","")</f>
-        <v>JPY1x4F_Quote</v>
-      </c>
-      <c r="G19" s="138">
+        <v>JPY18x21F_Quote</v>
+      </c>
+      <c r="G19" s="122">
         <f>_xll.qlRateHelperQuoteValue($E19,Trigger)</f>
-        <v>1.3500000000000001E-3</v>
-      </c>
-      <c r="H19" s="138"/>
-      <c r="I19" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="139">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="H19" s="122"/>
+      <c r="I19" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="65">
         <v>20</v>
       </c>
-      <c r="K19" s="139">
+      <c r="K19" s="65">
         <v>7</v>
       </c>
-      <c r="L19" s="140">
+      <c r="L19" s="123">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>41834</v>
-      </c>
-      <c r="M19" s="141">
+        <v>42352</v>
+      </c>
+      <c r="M19" s="124">
         <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
-        <v>41926</v>
+        <v>42443</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="131">
-        <v>2</v>
-      </c>
-      <c r="C20" s="120" t="s">
+      <c r="B20" s="132">
+        <v>11</v>
+      </c>
+      <c r="C20" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="121" t="str">
+      <c r="D20" s="126" t="str">
         <f t="shared" si="1"/>
-        <v>5F</v>
-      </c>
-      <c r="E20" s="121" t="str">
-        <f>FRAs!G4</f>
-        <v>obj_00317#0001</v>
-      </c>
-      <c r="F20" s="121" t="str">
+        <v>14F</v>
+      </c>
+      <c r="E20" s="126" t="str">
+        <f>FRAs!G13</f>
+        <v>obj_00320#0001</v>
+      </c>
+      <c r="F20" s="126" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E20),"LastFixing","D"),"Libor","")</f>
-        <v>JPY2x5F_Quote</v>
-      </c>
-      <c r="G20" s="122">
+        <v>JPY21x24F_Quote</v>
+      </c>
+      <c r="G20" s="127">
         <f>_xll.qlRateHelperQuoteValue($E20,Trigger)</f>
         <v>1.3500000000000001E-3</v>
       </c>
-      <c r="H20" s="122"/>
-      <c r="I20" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="65">
+      <c r="H20" s="127"/>
+      <c r="I20" s="128" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="128">
         <v>20</v>
       </c>
-      <c r="K20" s="65">
+      <c r="K20" s="128">
         <v>7</v>
       </c>
-      <c r="L20" s="123">
+      <c r="L20" s="129">
         <f>_xll.qlRateHelperEarliestDate($E20,Trigger)</f>
-        <v>41863</v>
-      </c>
-      <c r="M20" s="124">
+        <v>42443</v>
+      </c>
+      <c r="M20" s="130">
         <f>_xll.qlRateHelperLatestDate($E20,Trigger)</f>
-        <v>41955</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="131">
-        <v>3</v>
-      </c>
-      <c r="C21" s="120" t="s">
-        <v>37</v>
+        <v>42535</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="133" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21" s="131"/>
+      <c r="C21" s="120" t="str">
+        <f t="shared" ref="C21:C62" si="2">"FUT"&amp;IndexTenor</f>
+        <v>FUT3M</v>
       </c>
       <c r="D21" s="121" t="str">
-        <f t="shared" si="1"/>
-        <v>6F</v>
+        <f t="array" ref="D21:D62">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A21:$A62)</f>
+        <v>M4</v>
       </c>
       <c r="E21" s="121" t="str">
-        <f>FRAs!G5</f>
-        <v>obj_00318#0001</v>
+        <f>Futures!H3</f>
+        <v>obj_0036d#0001</v>
       </c>
       <c r="F21" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E21),"LastFixing","D"),"Libor","")</f>
-        <v>JPY3x6F_Quote</v>
-      </c>
-      <c r="G21" s="122">
-        <f>_xll.qlRateHelperQuoteValue($E21,Trigger)</f>
-        <v>1.3500000000000001E-3</v>
-      </c>
-      <c r="H21" s="122"/>
+        <v>JPYFUT3MM4_Quote</v>
+      </c>
+      <c r="G21" s="134" t="e">
+        <f>_xll.qlRateHelperQuoteValue(E21,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H21" s="122" t="e">
+        <f>_xll.qlFuturesRateHelperConvexityAdjustment(E21,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="I21" s="65" t="b">
         <v>0</v>
       </c>
       <c r="J21" s="65">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K21" s="65">
-        <v>7</v>
-      </c>
-      <c r="L21" s="123">
-        <f>_xll.qlRateHelperEarliestDate($E21,Trigger)</f>
-        <v>41894</v>
-      </c>
-      <c r="M21" s="124">
-        <f>_xll.qlRateHelperLatestDate($E21,Trigger)</f>
-        <v>41985</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="131">
-        <v>4</v>
-      </c>
-      <c r="C22" s="120" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="L21" s="123" t="e">
+        <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M21" s="124" t="e">
+        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="120" t="b">
+        <v>0</v>
+      </c>
+      <c r="B22" s="131"/>
+      <c r="C22" s="120" t="str">
+        <f t="shared" si="2"/>
+        <v>FUT3M</v>
       </c>
       <c r="D22" s="121" t="str">
-        <f t="shared" si="1"/>
-        <v>7F</v>
+        <v>N4</v>
       </c>
       <c r="E22" s="121" t="str">
-        <f>FRAs!G6</f>
-        <v>obj_0031b#0001</v>
+        <f>Futures!H4</f>
+        <v>obj_00356#0001</v>
       </c>
       <c r="F22" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E22),"LastFixing","D"),"Libor","")</f>
-        <v>JPY4x7F_Quote</v>
-      </c>
-      <c r="G22" s="122">
-        <f>_xll.qlRateHelperQuoteValue($E22,Trigger)</f>
-        <v>1.3500000000000001E-3</v>
-      </c>
-      <c r="H22" s="122"/>
+        <v>JPYFUT3MN4_Quote</v>
+      </c>
+      <c r="G22" s="134" t="e">
+        <f>_xll.qlRateHelperQuoteValue(E22,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H22" s="122" t="e">
+        <f>_xll.qlFuturesRateHelperConvexityAdjustment(E22,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="I22" s="65" t="b">
         <v>0</v>
       </c>
       <c r="J22" s="65">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K22" s="65">
-        <v>7</v>
-      </c>
-      <c r="L22" s="123">
-        <f>_xll.qlRateHelperEarliestDate($E22,Trigger)</f>
-        <v>41925</v>
-      </c>
-      <c r="M22" s="124">
-        <f>_xll.qlRateHelperLatestDate($E22,Trigger)</f>
-        <v>42017</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="131">
-        <v>5</v>
-      </c>
-      <c r="C23" s="120" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="L22" s="123" t="e">
+        <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M22" s="124" t="e">
+        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="120" t="b">
+        <v>0</v>
+      </c>
+      <c r="B23" s="131"/>
+      <c r="C23" s="120" t="str">
+        <f t="shared" si="2"/>
+        <v>FUT3M</v>
       </c>
       <c r="D23" s="121" t="str">
-        <f t="shared" si="1"/>
-        <v>8F</v>
+        <v>Q4</v>
       </c>
       <c r="E23" s="121" t="str">
-        <f>FRAs!G7</f>
-        <v>obj_00319#0001</v>
+        <f>Futures!H5</f>
+        <v>obj_00365#0001</v>
       </c>
       <c r="F23" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E23),"LastFixing","D"),"Libor","")</f>
-        <v>JPY5x8F_Quote</v>
-      </c>
-      <c r="G23" s="122">
-        <f>_xll.qlRateHelperQuoteValue($E23,Trigger)</f>
-        <v>1.3500000000000001E-3</v>
-      </c>
-      <c r="H23" s="122"/>
+        <v>JPYFUT3MQ4_Quote</v>
+      </c>
+      <c r="G23" s="134" t="e">
+        <f>_xll.qlRateHelperQuoteValue(E23,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H23" s="122" t="e">
+        <f>_xll.qlFuturesRateHelperConvexityAdjustment(E23,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="I23" s="65" t="b">
         <v>0</v>
       </c>
       <c r="J23" s="65">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K23" s="65">
-        <v>7</v>
-      </c>
-      <c r="L23" s="123">
-        <f>_xll.qlRateHelperEarliestDate($E23,Trigger)</f>
-        <v>41955</v>
-      </c>
-      <c r="M23" s="124">
-        <f>_xll.qlRateHelperLatestDate($E23,Trigger)</f>
-        <v>42047</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="131">
-        <v>6</v>
-      </c>
-      <c r="C24" s="120" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="L23" s="123" t="e">
+        <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M23" s="124" t="e">
+        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="120" t="b">
+        <v>0</v>
+      </c>
+      <c r="B24" s="131"/>
+      <c r="C24" s="120" t="str">
+        <f t="shared" si="2"/>
+        <v>FUT3M</v>
       </c>
       <c r="D24" s="121" t="str">
-        <f t="shared" si="1"/>
-        <v>9F</v>
+        <v>U4</v>
       </c>
       <c r="E24" s="121" t="str">
-        <f>FRAs!G8</f>
-        <v>obj_0031d#0001</v>
+        <f>Futures!H6</f>
+        <v>obj_0032c#0001</v>
       </c>
       <c r="F24" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E24),"LastFixing","D"),"Libor","")</f>
-        <v>JPY6x9F_Quote</v>
-      </c>
-      <c r="G24" s="122">
-        <f>_xll.qlRateHelperQuoteValue($E24,Trigger)</f>
-        <v>1.3500000000000001E-3</v>
-      </c>
-      <c r="H24" s="122"/>
+        <v>JPYFUT3MU4_Quote</v>
+      </c>
+      <c r="G24" s="134" t="e">
+        <f>_xll.qlRateHelperQuoteValue(E24,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H24" s="122" t="e">
+        <f>_xll.qlFuturesRateHelperConvexityAdjustment(E24,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="I24" s="65" t="b">
         <v>0</v>
       </c>
       <c r="J24" s="65">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K24" s="65">
-        <v>7</v>
-      </c>
-      <c r="L24" s="123">
-        <f>_xll.qlRateHelperEarliestDate($E24,Trigger)</f>
-        <v>41985</v>
-      </c>
-      <c r="M24" s="124">
-        <f>_xll.qlRateHelperLatestDate($E24,Trigger)</f>
-        <v>42075</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="131">
-        <v>7</v>
-      </c>
-      <c r="C25" s="120" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="L24" s="123" t="e">
+        <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M24" s="124" t="e">
+        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="120" t="b">
+        <v>0</v>
+      </c>
+      <c r="B25" s="131"/>
+      <c r="C25" s="120" t="str">
+        <f t="shared" si="2"/>
+        <v>FUT3M</v>
       </c>
       <c r="D25" s="121" t="str">
-        <f t="shared" si="1"/>
-        <v>10F</v>
+        <v>V4</v>
       </c>
       <c r="E25" s="121" t="str">
-        <f>FRAs!G9</f>
-        <v>obj_0031a#0001</v>
+        <f>Futures!H7</f>
+        <v>obj_00350#0001</v>
       </c>
       <c r="F25" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E25),"LastFixing","D"),"Libor","")</f>
-        <v>JPY9x12F_Quote</v>
-      </c>
-      <c r="G25" s="122">
-        <f>_xll.qlRateHelperQuoteValue($E25,Trigger)</f>
-        <v>1.3500000000000001E-3</v>
-      </c>
-      <c r="H25" s="122"/>
+        <v>JPYFUT3MV4_Quote</v>
+      </c>
+      <c r="G25" s="134" t="e">
+        <f>_xll.qlRateHelperQuoteValue(E25,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H25" s="122" t="e">
+        <f>_xll.qlFuturesRateHelperConvexityAdjustment(E25,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="I25" s="65" t="b">
         <v>0</v>
       </c>
       <c r="J25" s="65">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K25" s="65">
-        <v>7</v>
-      </c>
-      <c r="L25" s="123">
-        <f>_xll.qlRateHelperEarliestDate($E25,Trigger)</f>
-        <v>42075</v>
-      </c>
-      <c r="M25" s="124">
-        <f>_xll.qlRateHelperLatestDate($E25,Trigger)</f>
-        <v>42167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="131">
-        <v>8</v>
-      </c>
-      <c r="C26" s="120" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="L25" s="123" t="e">
+        <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M25" s="124" t="e">
+        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="120" t="b">
+        <v>0</v>
+      </c>
+      <c r="B26" s="131"/>
+      <c r="C26" s="120" t="str">
+        <f t="shared" si="2"/>
+        <v>FUT3M</v>
       </c>
       <c r="D26" s="121" t="str">
-        <f t="shared" si="1"/>
-        <v>11F</v>
+        <v>X4</v>
       </c>
       <c r="E26" s="121" t="str">
-        <f>FRAs!G10</f>
-        <v>obj_00314#0001</v>
+        <f>Futures!H8</f>
+        <v>obj_0033a#0001</v>
       </c>
       <c r="F26" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E26),"LastFixing","D"),"Libor","")</f>
-        <v>JPY12x15F_Quote</v>
-      </c>
-      <c r="G26" s="122">
-        <f>_xll.qlRateHelperQuoteValue($E26,Trigger)</f>
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="H26" s="122"/>
+        <v>JPYFUT3MX4_Quote</v>
+      </c>
+      <c r="G26" s="134" t="e">
+        <f>_xll.qlRateHelperQuoteValue(E26,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H26" s="122" t="e">
+        <f>_xll.qlFuturesRateHelperConvexityAdjustment(E26,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="I26" s="65" t="b">
         <v>0</v>
       </c>
       <c r="J26" s="65">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K26" s="65">
-        <v>7</v>
-      </c>
-      <c r="L26" s="123">
-        <f>_xll.qlRateHelperEarliestDate($E26,Trigger)</f>
-        <v>42167</v>
-      </c>
-      <c r="M26" s="124">
-        <f>_xll.qlRateHelperLatestDate($E26,Trigger)</f>
-        <v>42261</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="131">
-        <v>9</v>
-      </c>
-      <c r="C27" s="120" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="L26" s="123" t="e">
+        <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M26" s="124" t="e">
+        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="120" t="b">
+        <v>0</v>
+      </c>
+      <c r="B27" s="131"/>
+      <c r="C27" s="120" t="str">
+        <f t="shared" si="2"/>
+        <v>FUT3M</v>
       </c>
       <c r="D27" s="121" t="str">
-        <f t="shared" si="1"/>
-        <v>12F</v>
+        <v>Z4</v>
       </c>
       <c r="E27" s="121" t="str">
-        <f>FRAs!G11</f>
-        <v>obj_0031e#0001</v>
+        <f>Futures!H9</f>
+        <v>obj_0036e#0001</v>
       </c>
       <c r="F27" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E27),"LastFixing","D"),"Libor","")</f>
-        <v>JPY15x18F_Quote</v>
-      </c>
-      <c r="G27" s="122">
-        <f>_xll.qlRateHelperQuoteValue($E27,Trigger)</f>
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="H27" s="122"/>
+        <v>JPYFUT3MZ4_Quote</v>
+      </c>
+      <c r="G27" s="134" t="e">
+        <f>_xll.qlRateHelperQuoteValue(E27,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H27" s="122" t="e">
+        <f>_xll.qlFuturesRateHelperConvexityAdjustment(E27,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="I27" s="65" t="b">
         <v>0</v>
       </c>
       <c r="J27" s="65">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K27" s="65">
-        <v>7</v>
-      </c>
-      <c r="L27" s="123">
-        <f>_xll.qlRateHelperEarliestDate($E27,Trigger)</f>
-        <v>42261</v>
-      </c>
-      <c r="M27" s="124">
-        <f>_xll.qlRateHelperLatestDate($E27,Trigger)</f>
-        <v>42352</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="131">
-        <v>10</v>
-      </c>
-      <c r="C28" s="120" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="L27" s="123" t="e">
+        <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M27" s="124" t="e">
+        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="120" t="b">
+        <v>0</v>
+      </c>
+      <c r="B28" s="131"/>
+      <c r="C28" s="120" t="str">
+        <f t="shared" si="2"/>
+        <v>FUT3M</v>
       </c>
       <c r="D28" s="121" t="str">
-        <f t="shared" si="1"/>
-        <v>13F</v>
+        <v>F5</v>
       </c>
       <c r="E28" s="121" t="str">
-        <f>FRAs!G12</f>
-        <v>obj_0031f#0001</v>
+        <f>Futures!H10</f>
+        <v>obj_00342#0001</v>
       </c>
       <c r="F28" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E28),"LastFixing","D"),"Libor","")</f>
-        <v>JPY18x21F_Quote</v>
-      </c>
-      <c r="G28" s="122">
-        <f>_xll.qlRateHelperQuoteValue($E28,Trigger)</f>
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="H28" s="122"/>
+        <v>JPYFUT3MF5_Quote</v>
+      </c>
+      <c r="G28" s="134" t="e">
+        <f>_xll.qlRateHelperQuoteValue(E28,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H28" s="122" t="e">
+        <f>_xll.qlFuturesRateHelperConvexityAdjustment(E28,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="I28" s="65" t="b">
         <v>0</v>
       </c>
       <c r="J28" s="65">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K28" s="65">
-        <v>7</v>
-      </c>
-      <c r="L28" s="123">
-        <f>_xll.qlRateHelperEarliestDate($E28,Trigger)</f>
-        <v>42352</v>
-      </c>
-      <c r="M28" s="124">
-        <f>_xll.qlRateHelperLatestDate($E28,Trigger)</f>
-        <v>42443</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="132">
-        <v>11</v>
-      </c>
-      <c r="C29" s="125" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="126" t="str">
-        <f t="shared" si="1"/>
-        <v>14F</v>
-      </c>
-      <c r="E29" s="126" t="str">
-        <f>FRAs!G13</f>
-        <v>obj_00320#0001</v>
-      </c>
-      <c r="F29" s="126" t="str">
+        <v>1</v>
+      </c>
+      <c r="L28" s="123" t="e">
+        <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M28" s="124" t="e">
+        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="120" t="b">
+        <v>0</v>
+      </c>
+      <c r="B29" s="131"/>
+      <c r="C29" s="120" t="str">
+        <f t="shared" si="2"/>
+        <v>FUT3M</v>
+      </c>
+      <c r="D29" s="121" t="str">
+        <v>G5</v>
+      </c>
+      <c r="E29" s="121" t="str">
+        <f>Futures!H11</f>
+        <v>obj_00339#0001</v>
+      </c>
+      <c r="F29" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E29),"LastFixing","D"),"Libor","")</f>
-        <v>JPY21x24F_Quote</v>
-      </c>
-      <c r="G29" s="127">
-        <f>_xll.qlRateHelperQuoteValue($E29,Trigger)</f>
-        <v>1.4000000000000002E-3</v>
-      </c>
-      <c r="H29" s="127"/>
-      <c r="I29" s="128" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="128">
-        <v>20</v>
-      </c>
-      <c r="K29" s="128">
-        <v>7</v>
-      </c>
-      <c r="L29" s="129">
-        <f>_xll.qlRateHelperEarliestDate($E29,Trigger)</f>
-        <v>42443</v>
-      </c>
-      <c r="M29" s="130">
-        <f>_xll.qlRateHelperLatestDate($E29,Trigger)</f>
-        <v>42535</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="133" t="b">
+        <v>JPYFUT3MG5_Quote</v>
+      </c>
+      <c r="G29" s="134" t="e">
+        <f>_xll.qlRateHelperQuoteValue(E29,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H29" s="122" t="e">
+        <f>_xll.qlFuturesRateHelperConvexityAdjustment(E29,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I29" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="65">
+        <v>60</v>
+      </c>
+      <c r="K29" s="65">
+        <v>1</v>
+      </c>
+      <c r="L29" s="123" t="e">
+        <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M29" s="124" t="e">
+        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="120" t="b">
         <v>0</v>
       </c>
       <c r="B30" s="131"/>
       <c r="C30" s="120" t="str">
-        <f t="shared" ref="C30:C71" si="2">"FUT"&amp;IndexTenor</f>
+        <f t="shared" si="2"/>
         <v>FUT3M</v>
       </c>
       <c r="D30" s="121" t="str">
-        <f t="array" ref="D30:D71">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A30:$A71)</f>
-        <v>M4</v>
+        <v>H5</v>
       </c>
       <c r="E30" s="121" t="str">
-        <f>Futures!H3</f>
-        <v>obj_0033e#0001</v>
+        <f>Futures!H12</f>
+        <v>obj_00328#0001</v>
       </c>
       <c r="F30" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E30),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM4_Quote</v>
+        <v>JPYFUT3MH5_Quote</v>
       </c>
       <c r="G30" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E30,Trigger)</f>
@@ -5723,7 +5777,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="120" t="b">
         <v>0</v>
       </c>
@@ -5733,15 +5787,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D31" s="121" t="str">
-        <v>N4</v>
+        <v>J5</v>
       </c>
       <c r="E31" s="121" t="str">
-        <f>Futures!H4</f>
-        <v>obj_00345#0001</v>
+        <f>Futures!H13</f>
+        <v>obj_0032e#0001</v>
       </c>
       <c r="F31" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E31),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MN4_Quote</v>
+        <v>JPYFUT3MJ5_Quote</v>
       </c>
       <c r="G31" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E31,Trigger)</f>
@@ -5769,7 +5823,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="120" t="b">
         <v>0</v>
       </c>
@@ -5779,15 +5833,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D32" s="121" t="str">
-        <v>Q4</v>
+        <v>K5</v>
       </c>
       <c r="E32" s="121" t="str">
-        <f>Futures!H5</f>
-        <v>obj_00364#0001</v>
+        <f>Futures!H14</f>
+        <v>obj_00353#0001</v>
       </c>
       <c r="F32" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E32),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MQ4_Quote</v>
+        <v>JPYFUT3MK5_Quote</v>
       </c>
       <c r="G32" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E32,Trigger)</f>
@@ -5815,9 +5869,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" s="131"/>
       <c r="C33" s="120" t="str">
@@ -5825,15 +5879,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D33" s="121" t="str">
-        <v>U4</v>
+        <v>M5</v>
       </c>
       <c r="E33" s="121" t="str">
-        <f>Futures!H6</f>
-        <v>obj_00360#0001</v>
+        <f>Futures!H15</f>
+        <v>obj_00335#0001</v>
       </c>
       <c r="F33" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E33),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU4_Quote</v>
+        <v>JPYFUT3MM5_Quote</v>
       </c>
       <c r="G33" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E33,Trigger)</f>
@@ -5861,9 +5915,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" s="131"/>
       <c r="C34" s="120" t="str">
@@ -5871,15 +5925,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D34" s="121" t="str">
-        <v>V4</v>
+        <v>U5</v>
       </c>
       <c r="E34" s="121" t="str">
-        <f>Futures!H7</f>
-        <v>obj_00342#0001</v>
+        <f>Futures!H16</f>
+        <v>obj_00361#0001</v>
       </c>
       <c r="F34" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E34),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MV4_Quote</v>
+        <v>JPYFUT3MU5_Quote</v>
       </c>
       <c r="G34" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E34,Trigger)</f>
@@ -5907,9 +5961,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35" s="131"/>
       <c r="C35" s="120" t="str">
@@ -5917,15 +5971,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D35" s="121" t="str">
-        <v>X4</v>
+        <v>Z5</v>
       </c>
       <c r="E35" s="121" t="str">
-        <f>Futures!H8</f>
-        <v>obj_00350#0001</v>
+        <f>Futures!H17</f>
+        <v>obj_00364#0001</v>
       </c>
       <c r="F35" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E35),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MX4_Quote</v>
+        <v>JPYFUT3MZ5_Quote</v>
       </c>
       <c r="G35" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E35,Trigger)</f>
@@ -5953,9 +6007,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" s="131"/>
       <c r="C36" s="120" t="str">
@@ -5963,15 +6017,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D36" s="121" t="str">
-        <v>Z4</v>
+        <v>H6</v>
       </c>
       <c r="E36" s="121" t="str">
-        <f>Futures!H9</f>
-        <v>obj_0035b#0001</v>
+        <f>Futures!H18</f>
+        <v>obj_00355#0001</v>
       </c>
       <c r="F36" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E36),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ4_Quote</v>
+        <v>JPYFUT3MH6_Quote</v>
       </c>
       <c r="G36" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E36,Trigger)</f>
@@ -5999,9 +6053,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37" s="131"/>
       <c r="C37" s="120" t="str">
@@ -6009,15 +6063,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D37" s="121" t="str">
-        <v>F5</v>
+        <v>M6</v>
       </c>
       <c r="E37" s="121" t="str">
-        <f>Futures!H10</f>
-        <v>obj_00371#0001</v>
+        <f>Futures!H19</f>
+        <v>obj_0034b#0001</v>
       </c>
       <c r="F37" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E37),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MF5_Quote</v>
+        <v>JPYFUT3MM6_Quote</v>
       </c>
       <c r="G37" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E37,Trigger)</f>
@@ -6045,9 +6099,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" s="131"/>
       <c r="C38" s="120" t="str">
@@ -6055,15 +6109,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D38" s="121" t="str">
-        <v>G5</v>
+        <v>U6</v>
       </c>
       <c r="E38" s="121" t="str">
-        <f>Futures!H11</f>
-        <v>obj_00341#0001</v>
+        <f>Futures!H20</f>
+        <v>obj_00363#0001</v>
       </c>
       <c r="F38" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E38),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MG5_Quote</v>
+        <v>JPYFUT3MU6_Quote</v>
       </c>
       <c r="G38" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E38,Trigger)</f>
@@ -6077,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="65">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K38" s="65">
         <v>1</v>
@@ -6091,9 +6145,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" s="131"/>
       <c r="C39" s="120" t="str">
@@ -6101,15 +6155,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D39" s="121" t="str">
-        <v>H5</v>
+        <v>Z6</v>
       </c>
       <c r="E39" s="121" t="str">
-        <f>Futures!H12</f>
-        <v>obj_0034f#0001</v>
+        <f>Futures!H21</f>
+        <v>obj_00330#0001</v>
       </c>
       <c r="F39" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E39),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH5_Quote</v>
+        <v>JPYFUT3MZ6_Quote</v>
       </c>
       <c r="G39" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E39,Trigger)</f>
@@ -6123,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="65">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K39" s="65">
         <v>1</v>
@@ -6137,9 +6191,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40" s="131"/>
       <c r="C40" s="120" t="str">
@@ -6147,15 +6201,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D40" s="121" t="str">
-        <v>J5</v>
+        <v>H7</v>
       </c>
       <c r="E40" s="121" t="str">
-        <f>Futures!H13</f>
-        <v>obj_00337#0001</v>
+        <f>Futures!H22</f>
+        <v>obj_0035a#0001</v>
       </c>
       <c r="F40" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E40),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MJ5_Quote</v>
+        <v>JPYFUT3MH7_Quote</v>
       </c>
       <c r="G40" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E40,Trigger)</f>
@@ -6169,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="65">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K40" s="65">
         <v>1</v>
@@ -6183,9 +6237,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41" s="131"/>
       <c r="C41" s="120" t="str">
@@ -6193,15 +6247,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D41" s="121" t="str">
-        <v>K5</v>
+        <v>M7</v>
       </c>
       <c r="E41" s="121" t="str">
-        <f>Futures!H14</f>
-        <v>obj_00351#0001</v>
+        <f>Futures!H23</f>
+        <v>obj_00336#0001</v>
       </c>
       <c r="F41" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E41),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MK5_Quote</v>
+        <v>JPYFUT3MM7_Quote</v>
       </c>
       <c r="G41" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E41,Trigger)</f>
@@ -6215,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="65">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K41" s="65">
         <v>1</v>
@@ -6229,7 +6283,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="120" t="b">
         <v>1</v>
       </c>
@@ -6239,15 +6293,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D42" s="121" t="str">
-        <v>M5</v>
+        <v>U7</v>
       </c>
       <c r="E42" s="121" t="str">
-        <f>Futures!H15</f>
-        <v>obj_00368#0001</v>
+        <f>Futures!H24</f>
+        <v>obj_00341#0001</v>
       </c>
       <c r="F42" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E42),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM5_Quote</v>
+        <v>JPYFUT3MU7_Quote</v>
       </c>
       <c r="G42" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E42,Trigger)</f>
@@ -6261,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="65">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K42" s="65">
         <v>1</v>
@@ -6275,7 +6329,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="120" t="b">
         <v>1</v>
       </c>
@@ -6285,15 +6339,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D43" s="121" t="str">
-        <v>U5</v>
+        <v>Z7</v>
       </c>
       <c r="E43" s="121" t="str">
-        <f>Futures!H16</f>
-        <v>obj_0032a#0001</v>
+        <f>Futures!H25</f>
+        <v>obj_00331#0001</v>
       </c>
       <c r="F43" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E43),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU5_Quote</v>
+        <v>JPYFUT3MZ7_Quote</v>
       </c>
       <c r="G43" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E43,Trigger)</f>
@@ -6307,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="65">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K43" s="65">
         <v>1</v>
@@ -6321,7 +6375,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="120" t="b">
         <v>1</v>
       </c>
@@ -6331,15 +6385,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D44" s="121" t="str">
-        <v>Z5</v>
+        <v>H8</v>
       </c>
       <c r="E44" s="121" t="str">
-        <f>Futures!H17</f>
-        <v>obj_00355#0001</v>
+        <f>Futures!H26</f>
+        <v>obj_0035f#0001</v>
       </c>
       <c r="F44" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E44),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ5_Quote</v>
+        <v>JPYFUT3MH8_Quote</v>
       </c>
       <c r="G44" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E44,Trigger)</f>
@@ -6353,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="65">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K44" s="65">
         <v>1</v>
@@ -6367,7 +6421,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="120" t="b">
         <v>1</v>
       </c>
@@ -6377,15 +6431,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D45" s="121" t="str">
-        <v>H6</v>
+        <v>M8</v>
       </c>
       <c r="E45" s="121" t="str">
-        <f>Futures!H18</f>
-        <v>obj_00361#0001</v>
+        <f>Futures!H27</f>
+        <v>obj_00351#0001</v>
       </c>
       <c r="F45" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E45),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH6_Quote</v>
+        <v>JPYFUT3MM8_Quote</v>
       </c>
       <c r="G45" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E45,Trigger)</f>
@@ -6399,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="65">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K45" s="65">
         <v>1</v>
@@ -6413,7 +6467,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="120" t="b">
         <v>1</v>
       </c>
@@ -6423,15 +6477,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D46" s="121" t="str">
-        <v>M6</v>
+        <v>U8</v>
       </c>
       <c r="E46" s="121" t="str">
-        <f>Futures!H19</f>
-        <v>obj_0032e#0001</v>
+        <f>Futures!H28</f>
+        <v>obj_0034c#0001</v>
       </c>
       <c r="F46" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E46),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM6_Quote</v>
+        <v>JPYFUT3MU8_Quote</v>
       </c>
       <c r="G46" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E46,Trigger)</f>
@@ -6445,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="65">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K46" s="65">
         <v>1</v>
@@ -6459,7 +6513,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="120" t="b">
         <v>1</v>
       </c>
@@ -6469,15 +6523,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D47" s="121" t="str">
-        <v>U6</v>
+        <v>Z8</v>
       </c>
       <c r="E47" s="121" t="str">
-        <f>Futures!H20</f>
-        <v>obj_00347#0001</v>
+        <f>Futures!H29</f>
+        <v>obj_00329#0001</v>
       </c>
       <c r="F47" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E47),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU6_Quote</v>
+        <v>JPYFUT3MZ8_Quote</v>
       </c>
       <c r="G47" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E47,Trigger)</f>
@@ -6505,7 +6559,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="120" t="b">
         <v>1</v>
       </c>
@@ -6515,15 +6569,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D48" s="121" t="str">
-        <v>Z6</v>
+        <v>H9</v>
       </c>
       <c r="E48" s="121" t="str">
-        <f>Futures!H21</f>
-        <v>obj_00329#0001</v>
+        <f>Futures!H30</f>
+        <v>obj_0034f#0001</v>
       </c>
       <c r="F48" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E48),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ6_Quote</v>
+        <v>JPYFUT3MH9_Quote</v>
       </c>
       <c r="G48" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E48,Trigger)</f>
@@ -6551,7 +6605,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="120" t="b">
         <v>1</v>
       </c>
@@ -6561,15 +6615,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D49" s="121" t="str">
-        <v>H7</v>
+        <v>M9</v>
       </c>
       <c r="E49" s="121" t="str">
-        <f>Futures!H22</f>
-        <v>obj_00359#0001</v>
+        <f>Futures!H31</f>
+        <v>obj_00347#0001</v>
       </c>
       <c r="F49" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E49),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH7_Quote</v>
+        <v>JPYFUT3MM9_Quote</v>
       </c>
       <c r="G49" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E49,Trigger)</f>
@@ -6597,7 +6651,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="120" t="b">
         <v>1</v>
       </c>
@@ -6607,15 +6661,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D50" s="121" t="str">
-        <v>M7</v>
+        <v>U9</v>
       </c>
       <c r="E50" s="121" t="str">
-        <f>Futures!H23</f>
-        <v>obj_0033c#0001</v>
+        <f>Futures!H32</f>
+        <v>obj_00370#0001</v>
       </c>
       <c r="F50" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E50),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM7_Quote</v>
+        <v>JPYFUT3MU9_Quote</v>
       </c>
       <c r="G50" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E50,Trigger)</f>
@@ -6643,7 +6697,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="120" t="b">
         <v>1</v>
       </c>
@@ -6653,15 +6707,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D51" s="121" t="str">
-        <v>U7</v>
+        <v>Z9</v>
       </c>
       <c r="E51" s="121" t="str">
-        <f>Futures!H24</f>
-        <v>obj_00352#0001</v>
+        <f>Futures!H33</f>
+        <v>obj_0033d#0001</v>
       </c>
       <c r="F51" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E51),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU7_Quote</v>
+        <v>JPYFUT3MZ9_Quote</v>
       </c>
       <c r="G51" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E51,Trigger)</f>
@@ -6689,7 +6743,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="120" t="b">
         <v>1</v>
       </c>
@@ -6699,15 +6753,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D52" s="121" t="str">
-        <v>Z7</v>
+        <v>H0</v>
       </c>
       <c r="E52" s="121" t="str">
-        <f>Futures!H25</f>
-        <v>obj_00354#0001</v>
+        <f>Futures!H34</f>
+        <v>obj_0032b#0001</v>
       </c>
       <c r="F52" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E52),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ7_Quote</v>
+        <v>JPYFUT3MH0_Quote</v>
       </c>
       <c r="G52" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E52,Trigger)</f>
@@ -6734,8 +6788,9 @@
         <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N52" s="135"/>
+    </row>
+    <row r="53" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="120" t="b">
         <v>1</v>
       </c>
@@ -6745,15 +6800,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D53" s="121" t="str">
-        <v>H8</v>
+        <v>M0</v>
       </c>
       <c r="E53" s="121" t="str">
-        <f>Futures!H26</f>
-        <v>obj_0034c#0001</v>
+        <f>Futures!H35</f>
+        <v>obj_00327#0001</v>
       </c>
       <c r="F53" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E53),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH8_Quote</v>
+        <v>JPYFUT3MM0_Quote</v>
       </c>
       <c r="G53" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E53,Trigger)</f>
@@ -6780,8 +6835,9 @@
         <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O53" s="142"/>
+    </row>
+    <row r="54" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="120" t="b">
         <v>1</v>
       </c>
@@ -6791,15 +6847,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D54" s="121" t="str">
-        <v>M8</v>
+        <v>U0</v>
       </c>
       <c r="E54" s="121" t="str">
-        <f>Futures!H27</f>
-        <v>obj_0035f#0001</v>
+        <f>Futures!H36</f>
+        <v>obj_0035d#0001</v>
       </c>
       <c r="F54" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E54),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM8_Quote</v>
+        <v>JPYFUT3MU0_Quote</v>
       </c>
       <c r="G54" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E54,Trigger)</f>
@@ -6826,8 +6882,9 @@
         <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O54" s="142"/>
+    </row>
+    <row r="55" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="120" t="b">
         <v>1</v>
       </c>
@@ -6837,15 +6894,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D55" s="121" t="str">
-        <v>U8</v>
+        <v>Z0</v>
       </c>
       <c r="E55" s="121" t="str">
-        <f>Futures!H28</f>
-        <v>obj_00330#0001</v>
+        <f>Futures!H37</f>
+        <v>obj_00346#0001</v>
       </c>
       <c r="F55" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E55),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU8_Quote</v>
+        <v>JPYFUT3MZ0_Quote</v>
       </c>
       <c r="G55" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E55,Trigger)</f>
@@ -6872,8 +6929,9 @@
         <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O55" s="142"/>
+    </row>
+    <row r="56" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="120" t="b">
         <v>1</v>
       </c>
@@ -6883,15 +6941,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D56" s="121" t="str">
-        <v>Z8</v>
+        <v>H1</v>
       </c>
       <c r="E56" s="121" t="str">
-        <f>Futures!H29</f>
-        <v>obj_0035d#0001</v>
+        <f>Futures!H38</f>
+        <v>obj_0036c#0001</v>
       </c>
       <c r="F56" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E56),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ8_Quote</v>
+        <v>JPYFUT3MH1_Quote</v>
       </c>
       <c r="G56" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E56,Trigger)</f>
@@ -6918,8 +6976,9 @@
         <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O56" s="142"/>
+    </row>
+    <row r="57" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="120" t="b">
         <v>1</v>
       </c>
@@ -6929,15 +6988,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D57" s="121" t="str">
-        <v>H9</v>
+        <v>M1</v>
       </c>
       <c r="E57" s="121" t="str">
-        <f>Futures!H30</f>
-        <v>obj_00334#0001</v>
+        <f>Futures!H39</f>
+        <v>obj_0033f#0001</v>
       </c>
       <c r="F57" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E57),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH9_Quote</v>
+        <v>JPYFUT3MM1_Quote</v>
       </c>
       <c r="G57" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E57,Trigger)</f>
@@ -6964,8 +7023,9 @@
         <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O57" s="142"/>
+    </row>
+    <row r="58" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="120" t="b">
         <v>1</v>
       </c>
@@ -6975,15 +7035,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D58" s="121" t="str">
-        <v>M9</v>
+        <v>U1</v>
       </c>
       <c r="E58" s="121" t="str">
-        <f>Futures!H31</f>
-        <v>obj_0033a#0001</v>
+        <f>Futures!H40</f>
+        <v>obj_0033c#0001</v>
       </c>
       <c r="F58" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E58),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM9_Quote</v>
+        <v>JPYFUT3MU1_Quote</v>
       </c>
       <c r="G58" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E58,Trigger)</f>
@@ -7010,8 +7070,9 @@
         <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O58" s="142"/>
+    </row>
+    <row r="59" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="120" t="b">
         <v>1</v>
       </c>
@@ -7021,15 +7082,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D59" s="121" t="str">
-        <v>U9</v>
+        <v>Z1</v>
       </c>
       <c r="E59" s="121" t="str">
-        <f>Futures!H32</f>
-        <v>obj_0035c#0001</v>
+        <f>Futures!H41</f>
+        <v>obj_00334#0001</v>
       </c>
       <c r="F59" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E59),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU9_Quote</v>
+        <v>JPYFUT3MZ1_Quote</v>
       </c>
       <c r="G59" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E59,Trigger)</f>
@@ -7056,8 +7117,9 @@
         <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O59" s="142"/>
+    </row>
+    <row r="60" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="120" t="b">
         <v>1</v>
       </c>
@@ -7067,15 +7129,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D60" s="121" t="str">
-        <v>Z9</v>
+        <v>H2</v>
       </c>
       <c r="E60" s="121" t="str">
-        <f>Futures!H33</f>
-        <v>obj_00326#0001</v>
+        <f>Futures!H42</f>
+        <v>obj_0032a#0001</v>
       </c>
       <c r="F60" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E60),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ9_Quote</v>
+        <v>JPYFUT3MH2_Quote</v>
       </c>
       <c r="G60" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E60,Trigger)</f>
@@ -7102,8 +7164,9 @@
         <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O60" s="142"/>
+    </row>
+    <row r="61" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="120" t="b">
         <v>1</v>
       </c>
@@ -7113,15 +7176,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D61" s="121" t="str">
-        <v>H0</v>
+        <v>M2</v>
       </c>
       <c r="E61" s="121" t="str">
-        <f>Futures!H34</f>
-        <v>obj_00335#0001</v>
+        <f>Futures!H43</f>
+        <v>obj_00343#0001</v>
       </c>
       <c r="F61" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E61),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH0_Quote</v>
+        <v>JPYFUT3MM2_Quote</v>
       </c>
       <c r="G61" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E61,Trigger)</f>
@@ -7148,27 +7211,27 @@
         <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N61" s="135"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="120" t="b">
-        <v>1</v>
-      </c>
-      <c r="B62" s="131"/>
-      <c r="C62" s="120" t="str">
+      <c r="O61" s="142"/>
+    </row>
+    <row r="62" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="125" t="b">
+        <v>1</v>
+      </c>
+      <c r="B62" s="132"/>
+      <c r="C62" s="125" t="str">
         <f t="shared" si="2"/>
         <v>FUT3M</v>
       </c>
-      <c r="D62" s="121" t="str">
-        <v>M0</v>
+      <c r="D62" s="126" t="str">
+        <v>U2</v>
       </c>
       <c r="E62" s="121" t="str">
-        <f>Futures!H35</f>
-        <v>obj_00340#0001</v>
+        <f>Futures!H44</f>
+        <v>obj_0034a#0001</v>
       </c>
       <c r="F62" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E62),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM0_Quote</v>
+        <v>JPYFUT3MU2_Quote</v>
       </c>
       <c r="G62" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E62,Trigger)</f>
@@ -7197,504 +7260,495 @@
       </c>
       <c r="O62" s="142"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="120" t="b">
-        <v>1</v>
-      </c>
-      <c r="B63" s="131"/>
-      <c r="C63" s="120" t="str">
-        <f t="shared" si="2"/>
-        <v>FUT3M</v>
-      </c>
-      <c r="D63" s="121" t="str">
-        <v>U0</v>
+    <row r="63" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="131">
+        <f t="shared" ref="B63:B94" si="3">SwapFixedFreq</f>
+        <v>0</v>
+      </c>
+      <c r="C63" s="120" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" s="121" t="s">
+        <v>36</v>
       </c>
       <c r="E63" s="121" t="str">
-        <f>Futures!H36</f>
-        <v>obj_0035a#0001</v>
-      </c>
-      <c r="F63" s="121" t="str">
+        <f>Swaps!K5</f>
+        <v>obj_00322#0001</v>
+      </c>
+      <c r="F63" s="137" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E63),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU0_Quote</v>
-      </c>
-      <c r="G63" s="134" t="e">
-        <f>_xll.qlRateHelperQuoteValue(E63,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H63" s="122" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment(E63,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I63" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" s="65">
-        <v>30</v>
-      </c>
-      <c r="K63" s="65">
-        <v>1</v>
-      </c>
-      <c r="L63" s="123" t="e">
-        <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M63" s="124" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>JPYSB6L1Y_Quote</v>
+      </c>
+      <c r="G63" s="138">
+        <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
+        <v>1.8E-3</v>
+      </c>
+      <c r="H63" s="138">
+        <f>_xll.qlSwapRateHelperSpread($E63,Trigger)</f>
+        <v>0</v>
+      </c>
+      <c r="I63" s="139" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" s="139">
+        <v>50</v>
+      </c>
+      <c r="K63" s="139">
+        <v>1</v>
+      </c>
+      <c r="L63" s="140">
+        <f>_xll.qlRateHelperEarliestDate($E63,Trigger)</f>
+        <v>41803</v>
+      </c>
+      <c r="M63" s="141">
+        <f>_xll.qlRateHelperLatestDate($E63,Trigger)</f>
+        <v>42170</v>
       </c>
       <c r="O63" s="142"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="120" t="b">
-        <v>1</v>
-      </c>
-      <c r="B64" s="131"/>
-      <c r="C64" s="120" t="str">
-        <f t="shared" si="2"/>
-        <v>FUT3M</v>
-      </c>
-      <c r="D64" s="121" t="str">
-        <v>Z0</v>
+    <row r="64" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="131">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C64" s="120" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" s="121" t="s">
+        <v>35</v>
       </c>
       <c r="E64" s="121" t="str">
-        <f>Futures!H37</f>
-        <v>obj_00363#0001</v>
+        <f>Swaps!K6</f>
+        <v>obj_00352#0001</v>
       </c>
       <c r="F64" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E64),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ0_Quote</v>
-      </c>
-      <c r="G64" s="134" t="e">
-        <f>_xll.qlRateHelperQuoteValue(E64,Trigger)</f>
+        <v>JPYSB6L15M_Quote</v>
+      </c>
+      <c r="G64" s="122" t="e">
+        <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H64" s="122" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment(E64,Trigger)</f>
-        <v>#NUM!</v>
+      <c r="H64" s="122">
+        <f>_xll.qlSwapRateHelperSpread($E64,Trigger)</f>
+        <v>0</v>
       </c>
       <c r="I64" s="65" t="b">
         <v>0</v>
       </c>
       <c r="J64" s="65">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K64" s="65">
         <v>1</v>
       </c>
-      <c r="L64" s="123" t="e">
-        <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M64" s="124" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="L64" s="123">
+        <f>_xll.qlRateHelperEarliestDate($E64,Trigger)</f>
+        <v>41803</v>
+      </c>
+      <c r="M64" s="124">
+        <f>_xll.qlRateHelperLatestDate($E64,Trigger)</f>
+        <v>42261</v>
       </c>
       <c r="O64" s="142"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="120" t="b">
-        <v>1</v>
-      </c>
-      <c r="B65" s="131"/>
-      <c r="C65" s="120" t="str">
-        <f t="shared" si="2"/>
-        <v>FUT3M</v>
-      </c>
-      <c r="D65" s="121" t="str">
-        <v>H1</v>
+    <row r="65" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="131">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C65" s="120" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" s="121" t="s">
+        <v>34</v>
       </c>
       <c r="E65" s="121" t="str">
-        <f>Futures!H38</f>
-        <v>obj_0033d#0001</v>
+        <f>Swaps!K7</f>
+        <v>obj_0034d#0001</v>
       </c>
       <c r="F65" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E65),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH1_Quote</v>
-      </c>
-      <c r="G65" s="134" t="e">
-        <f>_xll.qlRateHelperQuoteValue(E65,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H65" s="122" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment(E65,Trigger)</f>
-        <v>#NUM!</v>
+        <v>JPYSB6L18M_Quote</v>
+      </c>
+      <c r="G65" s="122">
+        <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
+        <v>1.8E-3</v>
+      </c>
+      <c r="H65" s="122">
+        <f>_xll.qlSwapRateHelperSpread($E65,Trigger)</f>
+        <v>0</v>
       </c>
       <c r="I65" s="65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" s="65">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K65" s="65">
         <v>1</v>
       </c>
-      <c r="L65" s="123" t="e">
-        <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M65" s="124" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="L65" s="123">
+        <f>_xll.qlRateHelperEarliestDate($E65,Trigger)</f>
+        <v>41803</v>
+      </c>
+      <c r="M65" s="124">
+        <f>_xll.qlRateHelperLatestDate($E65,Trigger)</f>
+        <v>42352</v>
       </c>
       <c r="O65" s="142"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="120" t="b">
-        <v>1</v>
-      </c>
-      <c r="B66" s="131"/>
-      <c r="C66" s="120" t="str">
-        <f t="shared" si="2"/>
-        <v>FUT3M</v>
-      </c>
-      <c r="D66" s="121" t="str">
-        <v>M1</v>
+    <row r="66" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="131">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C66" s="120" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" s="121" t="s">
+        <v>33</v>
       </c>
       <c r="E66" s="121" t="str">
-        <f>Futures!H39</f>
-        <v>obj_00370#0001</v>
+        <f>Swaps!K8</f>
+        <v>obj_00357#0001</v>
       </c>
       <c r="F66" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E66),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM1_Quote</v>
-      </c>
-      <c r="G66" s="134" t="e">
-        <f>_xll.qlRateHelperQuoteValue(E66,Trigger)</f>
+        <v>JPYSB6L21M_Quote</v>
+      </c>
+      <c r="G66" s="122" t="e">
+        <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H66" s="122" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment(E66,Trigger)</f>
-        <v>#NUM!</v>
+      <c r="H66" s="122">
+        <f>_xll.qlSwapRateHelperSpread($E66,Trigger)</f>
+        <v>0</v>
       </c>
       <c r="I66" s="65" t="b">
         <v>0</v>
       </c>
       <c r="J66" s="65">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K66" s="65">
         <v>1</v>
       </c>
-      <c r="L66" s="123" t="e">
-        <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M66" s="124" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="L66" s="123">
+        <f>_xll.qlRateHelperEarliestDate($E66,Trigger)</f>
+        <v>41803</v>
+      </c>
+      <c r="M66" s="124">
+        <f>_xll.qlRateHelperLatestDate($E66,Trigger)</f>
+        <v>42443</v>
       </c>
       <c r="O66" s="142"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="120" t="b">
-        <v>1</v>
-      </c>
-      <c r="B67" s="131"/>
-      <c r="C67" s="120" t="str">
-        <f t="shared" si="2"/>
-        <v>FUT3M</v>
-      </c>
-      <c r="D67" s="121" t="str">
-        <v>U1</v>
+    <row r="67" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="131">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C67" s="120" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67" s="121" t="s">
+        <v>32</v>
       </c>
       <c r="E67" s="121" t="str">
-        <f>Futures!H40</f>
-        <v>obj_0036e#0001</v>
+        <f>Swaps!K9</f>
+        <v>obj_0033b#0001</v>
       </c>
       <c r="F67" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E67),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU1_Quote</v>
-      </c>
-      <c r="G67" s="134" t="e">
-        <f>_xll.qlRateHelperQuoteValue(E67,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H67" s="122" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment(E67,Trigger)</f>
-        <v>#NUM!</v>
+        <v>JPYSB6L2Y_Quote</v>
+      </c>
+      <c r="G67" s="122">
+        <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
+        <v>1.825E-3</v>
+      </c>
+      <c r="H67" s="122">
+        <f>_xll.qlSwapRateHelperSpread($E67,Trigger)</f>
+        <v>0</v>
       </c>
       <c r="I67" s="65" t="b">
         <v>0</v>
       </c>
       <c r="J67" s="65">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K67" s="65">
         <v>1</v>
       </c>
-      <c r="L67" s="123" t="e">
-        <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M67" s="124" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="L67" s="123">
+        <f>_xll.qlRateHelperEarliestDate($E67,Trigger)</f>
+        <v>41803</v>
+      </c>
+      <c r="M67" s="124">
+        <f>_xll.qlRateHelperLatestDate($E67,Trigger)</f>
+        <v>42534</v>
       </c>
       <c r="O67" s="142"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="120" t="b">
-        <v>1</v>
-      </c>
-      <c r="B68" s="131"/>
-      <c r="C68" s="120" t="str">
-        <f t="shared" si="2"/>
-        <v>FUT3M</v>
-      </c>
-      <c r="D68" s="121" t="str">
-        <v>Z1</v>
+    <row r="68" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="131">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C68" s="120" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" s="121" t="s">
+        <v>31</v>
       </c>
       <c r="E68" s="121" t="str">
-        <f>Futures!H41</f>
-        <v>obj_00367#0001</v>
+        <f>Swaps!K10</f>
+        <v>obj_00359#0001</v>
       </c>
       <c r="F68" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E68),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ1_Quote</v>
-      </c>
-      <c r="G68" s="134" t="e">
-        <f>_xll.qlRateHelperQuoteValue(E68,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H68" s="122" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment(E68,Trigger)</f>
-        <v>#NUM!</v>
+        <v>JPYSB6L3Y_Quote</v>
+      </c>
+      <c r="G68" s="122">
+        <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="H68" s="122">
+        <f>_xll.qlSwapRateHelperSpread($E68,Trigger)</f>
+        <v>0</v>
       </c>
       <c r="I68" s="65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" s="65">
+        <v>50</v>
+      </c>
+      <c r="K68" s="65">
+        <v>1</v>
+      </c>
+      <c r="L68" s="123">
+        <f>_xll.qlRateHelperEarliestDate($E68,Trigger)</f>
+        <v>41803</v>
+      </c>
+      <c r="M68" s="124">
+        <f>_xll.qlRateHelperLatestDate($E68,Trigger)</f>
+        <v>42899</v>
+      </c>
+      <c r="O68" s="142"/>
+    </row>
+    <row r="69" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="131">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C69" s="120" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="K68" s="65">
-        <v>1</v>
-      </c>
-      <c r="L68" s="123" t="e">
-        <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M68" s="124" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O68" s="142"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="120" t="b">
-        <v>1</v>
-      </c>
-      <c r="B69" s="131"/>
-      <c r="C69" s="120" t="str">
-        <f t="shared" si="2"/>
-        <v>FUT3M</v>
-      </c>
-      <c r="D69" s="121" t="str">
-        <v>H2</v>
-      </c>
       <c r="E69" s="121" t="str">
-        <f>Futures!H42</f>
-        <v>obj_0036d#0001</v>
+        <f>Swaps!K11</f>
+        <v>obj_00333#0001</v>
       </c>
       <c r="F69" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E69),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH2_Quote</v>
-      </c>
-      <c r="G69" s="134" t="e">
-        <f>_xll.qlRateHelperQuoteValue(E69,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H69" s="122" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment(E69,Trigger)</f>
-        <v>#NUM!</v>
+        <v>JPYSB6L4Y_Quote</v>
+      </c>
+      <c r="G69" s="122">
+        <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
+        <v>2.4250000000000001E-3</v>
+      </c>
+      <c r="H69" s="122">
+        <f>_xll.qlSwapRateHelperSpread($E69,Trigger)</f>
+        <v>0</v>
       </c>
       <c r="I69" s="65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" s="65">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K69" s="65">
         <v>1</v>
       </c>
-      <c r="L69" s="123" t="e">
-        <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M69" s="124" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="L69" s="123">
+        <f>_xll.qlRateHelperEarliestDate($E69,Trigger)</f>
+        <v>41803</v>
+      </c>
+      <c r="M69" s="124">
+        <f>_xll.qlRateHelperLatestDate($E69,Trigger)</f>
+        <v>43264</v>
       </c>
       <c r="O69" s="142"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="120" t="b">
-        <v>1</v>
-      </c>
-      <c r="B70" s="131"/>
-      <c r="C70" s="120" t="str">
-        <f t="shared" si="2"/>
-        <v>FUT3M</v>
-      </c>
-      <c r="D70" s="121" t="str">
-        <v>M2</v>
+    <row r="70" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="131">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C70" s="120" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70" s="121" t="s">
+        <v>29</v>
       </c>
       <c r="E70" s="121" t="str">
-        <f>Futures!H43</f>
-        <v>obj_00328#0001</v>
+        <f>Swaps!K12</f>
+        <v>obj_00371#0001</v>
       </c>
       <c r="F70" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E70),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM2_Quote</v>
-      </c>
-      <c r="G70" s="134" t="e">
-        <f>_xll.qlRateHelperQuoteValue(E70,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H70" s="122" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment(E70,Trigger)</f>
-        <v>#NUM!</v>
+        <v>JPYSB6L5Y_Quote</v>
+      </c>
+      <c r="G70" s="122">
+        <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
+        <v>3.0249999999999999E-3</v>
+      </c>
+      <c r="H70" s="122">
+        <f>_xll.qlSwapRateHelperSpread($E70,Trigger)</f>
+        <v>0</v>
       </c>
       <c r="I70" s="65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" s="65">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K70" s="65">
         <v>1</v>
       </c>
-      <c r="L70" s="123" t="e">
-        <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M70" s="124" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="L70" s="123">
+        <f>_xll.qlRateHelperEarliestDate($E70,Trigger)</f>
+        <v>41803</v>
+      </c>
+      <c r="M70" s="124">
+        <f>_xll.qlRateHelperLatestDate($E70,Trigger)</f>
+        <v>43629</v>
       </c>
       <c r="O70" s="142"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="125" t="b">
-        <v>1</v>
-      </c>
-      <c r="B71" s="132"/>
-      <c r="C71" s="125" t="str">
-        <f t="shared" si="2"/>
-        <v>FUT3M</v>
-      </c>
-      <c r="D71" s="126" t="str">
-        <v>U2</v>
+    <row r="71" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="131">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C71" s="120" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" s="121" t="s">
+        <v>28</v>
       </c>
       <c r="E71" s="121" t="str">
-        <f>Futures!H44</f>
-        <v>obj_0034b#0001</v>
+        <f>Swaps!K13</f>
+        <v>obj_0033e#0001</v>
       </c>
       <c r="F71" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E71),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU2_Quote</v>
-      </c>
-      <c r="G71" s="134" t="e">
-        <f>_xll.qlRateHelperQuoteValue(E71,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H71" s="122" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment(E71,Trigger)</f>
-        <v>#NUM!</v>
+        <v>JPYSB6L6Y_Quote</v>
+      </c>
+      <c r="G71" s="122">
+        <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
+        <v>3.8249999999999994E-3</v>
+      </c>
+      <c r="H71" s="122">
+        <f>_xll.qlSwapRateHelperSpread($E71,Trigger)</f>
+        <v>0</v>
       </c>
       <c r="I71" s="65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" s="65">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K71" s="65">
         <v>1</v>
       </c>
-      <c r="L71" s="123" t="e">
-        <f>_xll.qlRateHelperEarliestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M71" s="124" t="e">
-        <f>_xll.qlRateHelperLatestDate(#REF!,Trigger)</f>
-        <v>#VALUE!</v>
+      <c r="L71" s="123">
+        <f>_xll.qlRateHelperEarliestDate($E71,Trigger)</f>
+        <v>41803</v>
+      </c>
+      <c r="M71" s="124">
+        <f>_xll.qlRateHelperLatestDate($E71,Trigger)</f>
+        <v>43997</v>
       </c>
       <c r="O71" s="142"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="131">
-        <f t="shared" ref="B72:B103" si="3">SwapFixedFreq</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C72" s="120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D72" s="121" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E72" s="121" t="str">
-        <f>Swaps!K5</f>
-        <v>obj_00322#0001</v>
-      </c>
-      <c r="F72" s="137" t="str">
+        <f>Swaps!K14</f>
+        <v>obj_00362#0001</v>
+      </c>
+      <c r="F72" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E72),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L1Y_Quote</v>
-      </c>
-      <c r="G72" s="138">
+        <v>JPYSB6L7Y_Quote</v>
+      </c>
+      <c r="G72" s="122">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
-        <v>1.8E-3</v>
-      </c>
-      <c r="H72" s="138">
+        <v>4.725E-3</v>
+      </c>
+      <c r="H72" s="122">
         <f>_xll.qlSwapRateHelperSpread($E72,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="I72" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="J72" s="139">
+      <c r="I72" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="J72" s="65">
         <v>50</v>
       </c>
-      <c r="K72" s="139">
-        <v>1</v>
-      </c>
-      <c r="L72" s="140">
+      <c r="K72" s="65">
+        <v>1</v>
+      </c>
+      <c r="L72" s="123">
         <f>_xll.qlRateHelperEarliestDate($E72,Trigger)</f>
-        <v>41802</v>
-      </c>
-      <c r="M72" s="141">
+        <v>41803</v>
+      </c>
+      <c r="M72" s="124">
         <f>_xll.qlRateHelperLatestDate($E72,Trigger)</f>
-        <v>42167</v>
+        <v>44361</v>
       </c>
       <c r="O72" s="142"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C73" s="120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D73" s="121" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E73" s="121" t="str">
-        <f>Swaps!K6</f>
-        <v>obj_0036f#0001</v>
+        <f>Swaps!K15</f>
+        <v>obj_00345#0001</v>
       </c>
       <c r="F73" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E73),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L15M_Quote</v>
-      </c>
-      <c r="G73" s="122" t="e">
+        <v>JPYSB6L8Y_Quote</v>
+      </c>
+      <c r="G73" s="122">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
-        <v>#NUM!</v>
+        <v>5.6499999999999996E-3</v>
       </c>
       <c r="H73" s="122">
         <f>_xll.qlSwapRateHelperSpread($E73,Trigger)</f>
         <v>0</v>
       </c>
       <c r="I73" s="65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" s="65">
         <v>50</v>
@@ -7704,36 +7758,36 @@
       </c>
       <c r="L73" s="123">
         <f>_xll.qlRateHelperEarliestDate($E73,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M73" s="124">
         <f>_xll.qlRateHelperLatestDate($E73,Trigger)</f>
-        <v>42261</v>
+        <v>44725</v>
       </c>
       <c r="O73" s="142"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C74" s="120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D74" s="121" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E74" s="121" t="str">
-        <f>Swaps!K7</f>
-        <v>obj_0034d#0001</v>
+        <f>Swaps!K16</f>
+        <v>obj_00348#0001</v>
       </c>
       <c r="F74" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E74),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L18M_Quote</v>
+        <v>JPYSB6L9Y_Quote</v>
       </c>
       <c r="G74" s="122">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
-        <v>1.8E-3</v>
+        <v>6.5999999999999991E-3</v>
       </c>
       <c r="H74" s="122">
         <f>_xll.qlSwapRateHelperSpread($E74,Trigger)</f>
@@ -7750,43 +7804,43 @@
       </c>
       <c r="L74" s="123">
         <f>_xll.qlRateHelperEarliestDate($E74,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M74" s="124">
         <f>_xll.qlRateHelperLatestDate($E74,Trigger)</f>
-        <v>42352</v>
+        <v>45090</v>
       </c>
       <c r="O74" s="142"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C75" s="120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D75" s="121" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E75" s="121" t="str">
-        <f>Swaps!K8</f>
-        <v>obj_00346#0001</v>
+        <f>Swaps!K17</f>
+        <v>obj_00326#0001</v>
       </c>
       <c r="F75" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E75),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L21M_Quote</v>
-      </c>
-      <c r="G75" s="122" t="e">
+        <v>JPYSB6L10Y_Quote</v>
+      </c>
+      <c r="G75" s="122">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
-        <v>#NUM!</v>
+        <v>7.5500000000000003E-3</v>
       </c>
       <c r="H75" s="122">
         <f>_xll.qlSwapRateHelperSpread($E75,Trigger)</f>
         <v>0</v>
       </c>
       <c r="I75" s="65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" s="65">
         <v>50</v>
@@ -7796,36 +7850,36 @@
       </c>
       <c r="L75" s="123">
         <f>_xll.qlRateHelperEarliestDate($E75,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M75" s="124">
         <f>_xll.qlRateHelperLatestDate($E75,Trigger)</f>
-        <v>42443</v>
+        <v>45456</v>
       </c>
       <c r="O75" s="142"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C76" s="120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D76" s="121" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E76" s="121" t="str">
-        <f>Swaps!K9</f>
-        <v>obj_0035e#0001</v>
+        <f>Swaps!K18</f>
+        <v>obj_00337#0001</v>
       </c>
       <c r="F76" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E76),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L2Y_Quote</v>
-      </c>
-      <c r="G76" s="122">
+        <v>JPYSB6L11Y_Quote</v>
+      </c>
+      <c r="G76" s="122" t="e">
         <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
-        <v>1.825E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="H76" s="122">
         <f>_xll.qlSwapRateHelperSpread($E76,Trigger)</f>
@@ -7842,36 +7896,36 @@
       </c>
       <c r="L76" s="123">
         <f>_xll.qlRateHelperEarliestDate($E76,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M76" s="124">
         <f>_xll.qlRateHelperLatestDate($E76,Trigger)</f>
-        <v>42534</v>
+        <v>45821</v>
       </c>
       <c r="O76" s="142"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C77" s="120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D77" s="121" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E77" s="121" t="str">
-        <f>Swaps!K10</f>
-        <v>obj_0032d#0001</v>
+        <f>Swaps!K19</f>
+        <v>obj_0036a#0001</v>
       </c>
       <c r="F77" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E77),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L3Y_Quote</v>
+        <v>JPYSB6L12Y_Quote</v>
       </c>
       <c r="G77" s="122">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
-        <v>2.0250000000000003E-3</v>
+        <v>9.4249999999999994E-3</v>
       </c>
       <c r="H77" s="122">
         <f>_xll.qlSwapRateHelperSpread($E77,Trigger)</f>
@@ -7888,43 +7942,43 @@
       </c>
       <c r="L77" s="123">
         <f>_xll.qlRateHelperEarliestDate($E77,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M77" s="124">
         <f>_xll.qlRateHelperLatestDate($E77,Trigger)</f>
-        <v>42898</v>
+        <v>46188</v>
       </c>
       <c r="O77" s="142"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C78" s="120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D78" s="121" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E78" s="121" t="str">
-        <f>Swaps!K11</f>
-        <v>obj_00357#0001</v>
+        <f>Swaps!K20</f>
+        <v>obj_0036f#0001</v>
       </c>
       <c r="F78" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E78),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L4Y_Quote</v>
-      </c>
-      <c r="G78" s="122">
+        <v>JPYSB6L13Y_Quote</v>
+      </c>
+      <c r="G78" s="122" t="e">
         <f>_xll.qlRateHelperQuoteValue($E78,Trigger)</f>
-        <v>2.4499999999999999E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="H78" s="122">
         <f>_xll.qlSwapRateHelperSpread($E78,Trigger)</f>
         <v>0</v>
       </c>
       <c r="I78" s="65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" s="65">
         <v>50</v>
@@ -7934,43 +7988,43 @@
       </c>
       <c r="L78" s="123">
         <f>_xll.qlRateHelperEarliestDate($E78,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M78" s="124">
         <f>_xll.qlRateHelperLatestDate($E78,Trigger)</f>
-        <v>43263</v>
+        <v>46552</v>
       </c>
       <c r="O78" s="142"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C79" s="120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D79" s="121" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E79" s="121" t="str">
-        <f>Swaps!K12</f>
-        <v>obj_0036c#0001</v>
+        <f>Swaps!K21</f>
+        <v>obj_0036b#0001</v>
       </c>
       <c r="F79" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E79),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L5Y_Quote</v>
-      </c>
-      <c r="G79" s="122">
+        <v>JPYSB6L14Y_Quote</v>
+      </c>
+      <c r="G79" s="122" t="e">
         <f>_xll.qlRateHelperQuoteValue($E79,Trigger)</f>
-        <v>3.0500000000000006E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="H79" s="122">
         <f>_xll.qlSwapRateHelperSpread($E79,Trigger)</f>
         <v>0</v>
       </c>
       <c r="I79" s="65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" s="65">
         <v>50</v>
@@ -7980,36 +8034,36 @@
       </c>
       <c r="L79" s="123">
         <f>_xll.qlRateHelperEarliestDate($E79,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M79" s="124">
         <f>_xll.qlRateHelperLatestDate($E79,Trigger)</f>
-        <v>43628</v>
+        <v>46917</v>
       </c>
       <c r="O79" s="142"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C80" s="120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D80" s="121" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E80" s="121" t="str">
-        <f>Swaps!K13</f>
-        <v>obj_00343#0001</v>
+        <f>Swaps!K22</f>
+        <v>obj_00344#0001</v>
       </c>
       <c r="F80" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E80),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L6Y_Quote</v>
+        <v>JPYSB6L15Y_Quote</v>
       </c>
       <c r="G80" s="122">
         <f>_xll.qlRateHelperQuoteValue($E80,Trigger)</f>
-        <v>3.8249999999999994E-3</v>
+        <v>1.2075000000000001E-2</v>
       </c>
       <c r="H80" s="122">
         <f>_xll.qlSwapRateHelperSpread($E80,Trigger)</f>
@@ -8026,43 +8080,43 @@
       </c>
       <c r="L80" s="123">
         <f>_xll.qlRateHelperEarliestDate($E80,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M80" s="124">
         <f>_xll.qlRateHelperLatestDate($E80,Trigger)</f>
-        <v>43994</v>
+        <v>47282</v>
       </c>
       <c r="O80" s="142"/>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C81" s="120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D81" s="121" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E81" s="121" t="str">
-        <f>Swaps!K14</f>
-        <v>obj_00339#0001</v>
+        <f>Swaps!K23</f>
+        <v>obj_00360#0001</v>
       </c>
       <c r="F81" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E81),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L7Y_Quote</v>
-      </c>
-      <c r="G81" s="122">
+        <v>JPYSB6L16Y_Quote</v>
+      </c>
+      <c r="G81" s="122" t="e">
         <f>_xll.qlRateHelperQuoteValue($E81,Trigger)</f>
-        <v>4.725E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="H81" s="122">
         <f>_xll.qlSwapRateHelperSpread($E81,Trigger)</f>
         <v>0</v>
       </c>
       <c r="I81" s="65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" s="65">
         <v>50</v>
@@ -8072,43 +8126,43 @@
       </c>
       <c r="L81" s="123">
         <f>_xll.qlRateHelperEarliestDate($E81,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M81" s="124">
         <f>_xll.qlRateHelperLatestDate($E81,Trigger)</f>
-        <v>44361</v>
+        <v>47647</v>
       </c>
       <c r="O81" s="142"/>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C82" s="120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D82" s="121" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E82" s="121" t="str">
-        <f>Swaps!K15</f>
-        <v>obj_00338#0001</v>
+        <f>Swaps!K24</f>
+        <v>obj_0032d#0001</v>
       </c>
       <c r="F82" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E82),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L8Y_Quote</v>
-      </c>
-      <c r="G82" s="122">
+        <v>JPYSB6L17Y_Quote</v>
+      </c>
+      <c r="G82" s="122" t="e">
         <f>_xll.qlRateHelperQuoteValue($E82,Trigger)</f>
-        <v>5.6499999999999996E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="H82" s="122">
         <f>_xll.qlSwapRateHelperSpread($E82,Trigger)</f>
         <v>0</v>
       </c>
       <c r="I82" s="65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" s="65">
         <v>50</v>
@@ -8118,43 +8172,43 @@
       </c>
       <c r="L82" s="123">
         <f>_xll.qlRateHelperEarliestDate($E82,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M82" s="124">
         <f>_xll.qlRateHelperLatestDate($E82,Trigger)</f>
-        <v>44725</v>
+        <v>48012</v>
       </c>
       <c r="O82" s="142"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C83" s="120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D83" s="121" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E83" s="121" t="str">
-        <f>Swaps!K16</f>
-        <v>obj_00366#0001</v>
+        <f>Swaps!K25</f>
+        <v>obj_0035e#0001</v>
       </c>
       <c r="F83" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E83),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L9Y_Quote</v>
-      </c>
-      <c r="G83" s="122">
+        <v>JPYSB6L18Y_Quote</v>
+      </c>
+      <c r="G83" s="122" t="e">
         <f>_xll.qlRateHelperQuoteValue($E83,Trigger)</f>
-        <v>6.5999999999999991E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="H83" s="122">
         <f>_xll.qlSwapRateHelperSpread($E83,Trigger)</f>
         <v>0</v>
       </c>
       <c r="I83" s="65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" s="65">
         <v>50</v>
@@ -8164,43 +8218,43 @@
       </c>
       <c r="L83" s="123">
         <f>_xll.qlRateHelperEarliestDate($E83,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M83" s="124">
         <f>_xll.qlRateHelperLatestDate($E83,Trigger)</f>
-        <v>45089</v>
+        <v>48379</v>
       </c>
       <c r="O83" s="142"/>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C84" s="120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D84" s="121" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E84" s="121" t="str">
-        <f>Swaps!K17</f>
-        <v>obj_00332#0001</v>
+        <f>Swaps!K26</f>
+        <v>obj_00338#0001</v>
       </c>
       <c r="F84" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E84),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L10Y_Quote</v>
-      </c>
-      <c r="G84" s="122">
+        <v>JPYSB6L19Y_Quote</v>
+      </c>
+      <c r="G84" s="122" t="e">
         <f>_xll.qlRateHelperQuoteValue($E84,Trigger)</f>
-        <v>7.5249999999999996E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="H84" s="122">
         <f>_xll.qlSwapRateHelperSpread($E84,Trigger)</f>
         <v>0</v>
       </c>
       <c r="I84" s="65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" s="65">
         <v>50</v>
@@ -8210,43 +8264,43 @@
       </c>
       <c r="L84" s="123">
         <f>_xll.qlRateHelperEarliestDate($E84,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M84" s="124">
         <f>_xll.qlRateHelperLatestDate($E84,Trigger)</f>
-        <v>45455</v>
+        <v>48743</v>
       </c>
       <c r="O84" s="142"/>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C85" s="120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D85" s="121" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E85" s="121" t="str">
-        <f>Swaps!K18</f>
-        <v>obj_0034e#0001</v>
+        <f>Swaps!K27</f>
+        <v>obj_0035c#0001</v>
       </c>
       <c r="F85" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E85),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L11Y_Quote</v>
-      </c>
-      <c r="G85" s="122" t="e">
+        <v>JPYSB6L20Y_Quote</v>
+      </c>
+      <c r="G85" s="122">
         <f>_xll.qlRateHelperQuoteValue($E85,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.5274999999999999E-2</v>
       </c>
       <c r="H85" s="122">
         <f>_xll.qlSwapRateHelperSpread($E85,Trigger)</f>
         <v>0</v>
       </c>
       <c r="I85" s="65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" s="65">
         <v>50</v>
@@ -8256,43 +8310,43 @@
       </c>
       <c r="L85" s="123">
         <f>_xll.qlRateHelperEarliestDate($E85,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M85" s="124">
         <f>_xll.qlRateHelperLatestDate($E85,Trigger)</f>
-        <v>45820</v>
+        <v>49108</v>
       </c>
       <c r="O85" s="142"/>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C86" s="120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D86" s="121" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E86" s="121" t="str">
-        <f>Swaps!K19</f>
-        <v>obj_00349#0001</v>
+        <f>Swaps!K28</f>
+        <v>obj_0032f#0001</v>
       </c>
       <c r="F86" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E86),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L12Y_Quote</v>
-      </c>
-      <c r="G86" s="122">
+        <v>JPYSB6L21Y_Quote</v>
+      </c>
+      <c r="G86" s="122" t="e">
         <f>_xll.qlRateHelperQuoteValue($E86,Trigger)</f>
-        <v>9.3999999999999986E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="H86" s="122">
         <f>_xll.qlSwapRateHelperSpread($E86,Trigger)</f>
         <v>0</v>
       </c>
       <c r="I86" s="65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" s="65">
         <v>50</v>
@@ -8302,32 +8356,32 @@
       </c>
       <c r="L86" s="123">
         <f>_xll.qlRateHelperEarliestDate($E86,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M86" s="124">
         <f>_xll.qlRateHelperLatestDate($E86,Trigger)</f>
-        <v>46185</v>
+        <v>49473</v>
       </c>
       <c r="O86" s="142"/>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C87" s="120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D87" s="121" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E87" s="121" t="str">
-        <f>Swaps!K20</f>
-        <v>obj_0036b#0001</v>
+        <f>Swaps!K29</f>
+        <v>obj_00368#0001</v>
       </c>
       <c r="F87" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E87),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L13Y_Quote</v>
+        <v>JPYSB6L22Y_Quote</v>
       </c>
       <c r="G87" s="122" t="e">
         <f>_xll.qlRateHelperQuoteValue($E87,Trigger)</f>
@@ -8348,32 +8402,32 @@
       </c>
       <c r="L87" s="123">
         <f>_xll.qlRateHelperEarliestDate($E87,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M87" s="124">
         <f>_xll.qlRateHelperLatestDate($E87,Trigger)</f>
-        <v>46552</v>
+        <v>49839</v>
       </c>
       <c r="O87" s="142"/>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C88" s="120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D88" s="121" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E88" s="121" t="str">
-        <f>Swaps!K21</f>
-        <v>obj_0034a#0001</v>
+        <f>Swaps!K30</f>
+        <v>obj_00325#0001</v>
       </c>
       <c r="F88" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E88),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L14Y_Quote</v>
+        <v>JPYSB6L23Y_Quote</v>
       </c>
       <c r="G88" s="122" t="e">
         <f>_xll.qlRateHelperQuoteValue($E88,Trigger)</f>
@@ -8394,43 +8448,43 @@
       </c>
       <c r="L88" s="123">
         <f>_xll.qlRateHelperEarliestDate($E88,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M88" s="124">
         <f>_xll.qlRateHelperLatestDate($E88,Trigger)</f>
-        <v>46916</v>
+        <v>50206</v>
       </c>
       <c r="O88" s="142"/>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C89" s="120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D89" s="121" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E89" s="121" t="str">
-        <f>Swaps!K22</f>
-        <v>obj_00353#0001</v>
+        <f>Swaps!K31</f>
+        <v>obj_0035b#0001</v>
       </c>
       <c r="F89" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E89),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L15Y_Quote</v>
-      </c>
-      <c r="G89" s="122">
+        <v>JPYSB6L24Y_Quote</v>
+      </c>
+      <c r="G89" s="122" t="e">
         <f>_xll.qlRateHelperQuoteValue($E89,Trigger)</f>
-        <v>1.205E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="H89" s="122">
         <f>_xll.qlSwapRateHelperSpread($E89,Trigger)</f>
         <v>0</v>
       </c>
       <c r="I89" s="65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" s="65">
         <v>50</v>
@@ -8440,43 +8494,43 @@
       </c>
       <c r="L89" s="123">
         <f>_xll.qlRateHelperEarliestDate($E89,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M89" s="124">
         <f>_xll.qlRateHelperLatestDate($E89,Trigger)</f>
-        <v>47281</v>
+        <v>50570</v>
       </c>
       <c r="O89" s="142"/>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C90" s="120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D90" s="121" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E90" s="121" t="str">
-        <f>Swaps!K23</f>
-        <v>obj_0036a#0001</v>
+        <f>Swaps!K32</f>
+        <v>obj_00354#0001</v>
       </c>
       <c r="F90" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E90),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L16Y_Quote</v>
-      </c>
-      <c r="G90" s="122" t="e">
+        <v>JPYSB6L25Y_Quote</v>
+      </c>
+      <c r="G90" s="122">
         <f>_xll.qlRateHelperQuoteValue($E90,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="H90" s="122">
         <f>_xll.qlSwapRateHelperSpread($E90,Trigger)</f>
         <v>0</v>
       </c>
       <c r="I90" s="65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" s="65">
         <v>50</v>
@@ -8486,32 +8540,31 @@
       </c>
       <c r="L90" s="123">
         <f>_xll.qlRateHelperEarliestDate($E90,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M90" s="124">
         <f>_xll.qlRateHelperLatestDate($E90,Trigger)</f>
-        <v>47646</v>
-      </c>
-      <c r="O90" s="142"/>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+        <v>50934</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C91" s="120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D91" s="121" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E91" s="121" t="str">
-        <f>Swaps!K24</f>
-        <v>obj_00344#0001</v>
+        <f>Swaps!K33</f>
+        <v>obj_00349#0001</v>
       </c>
       <c r="F91" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E91),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L17Y_Quote</v>
+        <v>JPYSB6L26Y_Quote</v>
       </c>
       <c r="G91" s="122" t="e">
         <f>_xll.qlRateHelperQuoteValue($E91,Trigger)</f>
@@ -8532,32 +8585,31 @@
       </c>
       <c r="L91" s="123">
         <f>_xll.qlRateHelperEarliestDate($E91,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M91" s="124">
         <f>_xll.qlRateHelperLatestDate($E91,Trigger)</f>
-        <v>48011</v>
-      </c>
-      <c r="O91" s="142"/>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+        <v>51300</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C92" s="120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D92" s="121" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E92" s="121" t="str">
-        <f>Swaps!K25</f>
-        <v>obj_0033f#0001</v>
+        <f>Swaps!K34</f>
+        <v>obj_00340#0001</v>
       </c>
       <c r="F92" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E92),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L18Y_Quote</v>
+        <v>JPYSB6L27Y_Quote</v>
       </c>
       <c r="G92" s="122" t="e">
         <f>_xll.qlRateHelperQuoteValue($E92,Trigger)</f>
@@ -8578,32 +8630,31 @@
       </c>
       <c r="L92" s="123">
         <f>_xll.qlRateHelperEarliestDate($E92,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M92" s="124">
         <f>_xll.qlRateHelperLatestDate($E92,Trigger)</f>
-        <v>48379</v>
-      </c>
-      <c r="O92" s="142"/>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+        <v>51665</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C93" s="120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D93" s="121" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E93" s="121" t="str">
-        <f>Swaps!K26</f>
-        <v>obj_00333#0001</v>
+        <f>Swaps!K35</f>
+        <v>obj_00369#0001</v>
       </c>
       <c r="F93" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E93),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L19Y_Quote</v>
+        <v>JPYSB6L28Y_Quote</v>
       </c>
       <c r="G93" s="122" t="e">
         <f>_xll.qlRateHelperQuoteValue($E93,Trigger)</f>
@@ -8624,43 +8675,42 @@
       </c>
       <c r="L93" s="123">
         <f>_xll.qlRateHelperEarliestDate($E93,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M93" s="124">
         <f>_xll.qlRateHelperLatestDate($E93,Trigger)</f>
-        <v>48743</v>
-      </c>
-      <c r="O93" s="142"/>
-    </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+        <v>52030</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C94" s="120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D94" s="121" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E94" s="121" t="str">
-        <f>Swaps!K27</f>
-        <v>obj_0032f#0001</v>
+        <f>Swaps!K36</f>
+        <v>obj_00324#0001</v>
       </c>
       <c r="F94" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E94),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L20Y_Quote</v>
-      </c>
-      <c r="G94" s="122">
+        <v>JPYSB6L29Y_Quote</v>
+      </c>
+      <c r="G94" s="122" t="e">
         <f>_xll.qlRateHelperQuoteValue($E94,Trigger)</f>
-        <v>1.5224999999999999E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="H94" s="122">
         <f>_xll.qlSwapRateHelperSpread($E94,Trigger)</f>
         <v>0</v>
       </c>
       <c r="I94" s="65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" s="65">
         <v>50</v>
@@ -8670,43 +8720,42 @@
       </c>
       <c r="L94" s="123">
         <f>_xll.qlRateHelperEarliestDate($E94,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M94" s="124">
         <f>_xll.qlRateHelperLatestDate($E94,Trigger)</f>
-        <v>49107</v>
-      </c>
-      <c r="O94" s="142"/>
-    </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+        <v>52397</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="131">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B95:B99" si="4">SwapFixedFreq</f>
         <v>0</v>
       </c>
       <c r="C95" s="120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D95" s="121" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E95" s="121" t="str">
-        <f>Swaps!K28</f>
-        <v>obj_00362#0001</v>
+        <f>Swaps!K37</f>
+        <v>obj_00332#0001</v>
       </c>
       <c r="F95" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E95),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L21Y_Quote</v>
-      </c>
-      <c r="G95" s="122" t="e">
+        <v>JPYSB6L30Y_Quote</v>
+      </c>
+      <c r="G95" s="122">
         <f>_xll.qlRateHelperQuoteValue($E95,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.7774999999999999E-2</v>
       </c>
       <c r="H95" s="122">
         <f>_xll.qlSwapRateHelperSpread($E95,Trigger)</f>
         <v>0</v>
       </c>
       <c r="I95" s="65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" s="65">
         <v>50</v>
@@ -8716,32 +8765,31 @@
       </c>
       <c r="L95" s="123">
         <f>_xll.qlRateHelperEarliestDate($E95,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M95" s="124">
         <f>_xll.qlRateHelperLatestDate($E95,Trigger)</f>
-        <v>49472</v>
-      </c>
-      <c r="O95" s="142"/>
-    </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+        <v>52761</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="131">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C96" s="120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D96" s="121" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E96" s="121" t="str">
-        <f>Swaps!K29</f>
-        <v>obj_00356#0001</v>
+        <f>Swaps!K38</f>
+        <v>obj_00367#0001</v>
       </c>
       <c r="F96" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E96),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L22Y_Quote</v>
+        <v>JPYSB6L35Y_Quote</v>
       </c>
       <c r="G96" s="122" t="e">
         <f>_xll.qlRateHelperQuoteValue($E96,Trigger)</f>
@@ -8762,32 +8810,31 @@
       </c>
       <c r="L96" s="123">
         <f>_xll.qlRateHelperEarliestDate($E96,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M96" s="124">
         <f>_xll.qlRateHelperLatestDate($E96,Trigger)</f>
-        <v>49838</v>
-      </c>
-      <c r="O96" s="142"/>
-    </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+        <v>54588</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="131">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C97" s="120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D97" s="121" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E97" s="121" t="str">
-        <f>Swaps!K30</f>
-        <v>obj_00324#0001</v>
+        <f>Swaps!K39</f>
+        <v>obj_00358#0001</v>
       </c>
       <c r="F97" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E97),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L23Y_Quote</v>
+        <v>JPYSB6L40Y_Quote</v>
       </c>
       <c r="G97" s="122" t="e">
         <f>_xll.qlRateHelperQuoteValue($E97,Trigger)</f>
@@ -8808,32 +8855,31 @@
       </c>
       <c r="L97" s="123">
         <f>_xll.qlRateHelperEarliestDate($E97,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M97" s="124">
         <f>_xll.qlRateHelperLatestDate($E97,Trigger)</f>
-        <v>50203</v>
-      </c>
-      <c r="O97" s="142"/>
-    </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+        <v>56415</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="131">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C98" s="120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D98" s="121" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E98" s="121" t="str">
-        <f>Swaps!K31</f>
-        <v>obj_00369#0001</v>
+        <f>Swaps!K40</f>
+        <v>obj_00366#0001</v>
       </c>
       <c r="F98" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E98),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L24Y_Quote</v>
+        <v>JPYSB6L50Y_Quote</v>
       </c>
       <c r="G98" s="122" t="e">
         <f>_xll.qlRateHelperQuoteValue($E98,Trigger)</f>
@@ -8854,468 +8900,62 @@
       </c>
       <c r="L98" s="123">
         <f>_xll.qlRateHelperEarliestDate($E98,Trigger)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="M98" s="124">
         <f>_xll.qlRateHelperLatestDate($E98,Trigger)</f>
-        <v>50570</v>
-      </c>
-      <c r="O98" s="142"/>
-    </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B99" s="131">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C99" s="120" t="s">
-        <v>113</v>
-      </c>
-      <c r="D99" s="121" t="s">
-        <v>9</v>
+        <v>60066</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="132">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C99" s="125" t="s">
+        <v>111</v>
+      </c>
+      <c r="D99" s="126" t="s">
+        <v>0</v>
       </c>
       <c r="E99" s="121" t="str">
-        <f>Swaps!K32</f>
-        <v>obj_00336#0001</v>
+        <f>Swaps!K41</f>
+        <v>obj_0034e#0001</v>
       </c>
       <c r="F99" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E99),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L25Y_Quote</v>
-      </c>
-      <c r="G99" s="122">
+        <v>JPYSB6L60Y_Quote</v>
+      </c>
+      <c r="G99" s="122" t="e">
         <f>_xll.qlRateHelperQuoteValue($E99,Trigger)</f>
-        <v>1.685E-2</v>
-      </c>
-      <c r="H99" s="122">
+        <v>#NUM!</v>
+      </c>
+      <c r="H99" s="127">
         <f>_xll.qlSwapRateHelperSpread($E99,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="I99" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="J99" s="65">
+      <c r="I99" s="128" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" s="128">
         <v>50</v>
       </c>
-      <c r="K99" s="65">
-        <v>1</v>
-      </c>
-      <c r="L99" s="123">
+      <c r="K99" s="128">
+        <v>1</v>
+      </c>
+      <c r="L99" s="129">
         <f>_xll.qlRateHelperEarliestDate($E99,Trigger)</f>
-        <v>41802</v>
-      </c>
-      <c r="M99" s="124">
+        <v>41803</v>
+      </c>
+      <c r="M99" s="130">
         <f>_xll.qlRateHelperLatestDate($E99,Trigger)</f>
-        <v>50934</v>
-      </c>
-    </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B100" s="131">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C100" s="120" t="s">
-        <v>113</v>
-      </c>
-      <c r="D100" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="121" t="str">
-        <f>Swaps!K33</f>
-        <v>obj_00358#0001</v>
-      </c>
-      <c r="F100" s="121" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E100),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L26Y_Quote</v>
-      </c>
-      <c r="G100" s="122" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E100,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H100" s="122">
-        <f>_xll.qlSwapRateHelperSpread($E100,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="I100" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" s="65">
-        <v>50</v>
-      </c>
-      <c r="K100" s="65">
-        <v>1</v>
-      </c>
-      <c r="L100" s="123">
-        <f>_xll.qlRateHelperEarliestDate($E100,Trigger)</f>
-        <v>41802</v>
-      </c>
-      <c r="M100" s="124">
-        <f>_xll.qlRateHelperLatestDate($E100,Trigger)</f>
-        <v>51299</v>
-      </c>
-    </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B101" s="131">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C101" s="120" t="s">
-        <v>113</v>
-      </c>
-      <c r="D101" s="121" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101" s="121" t="str">
-        <f>Swaps!K34</f>
-        <v>obj_00327#0001</v>
-      </c>
-      <c r="F101" s="121" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E101),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L27Y_Quote</v>
-      </c>
-      <c r="G101" s="122" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E101,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H101" s="122">
-        <f>_xll.qlSwapRateHelperSpread($E101,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="I101" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" s="65">
-        <v>50</v>
-      </c>
-      <c r="K101" s="65">
-        <v>1</v>
-      </c>
-      <c r="L101" s="123">
-        <f>_xll.qlRateHelperEarliestDate($E101,Trigger)</f>
-        <v>41802</v>
-      </c>
-      <c r="M101" s="124">
-        <f>_xll.qlRateHelperLatestDate($E101,Trigger)</f>
-        <v>51664</v>
-      </c>
-    </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B102" s="131">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C102" s="120" t="s">
-        <v>113</v>
-      </c>
-      <c r="D102" s="121" t="s">
-        <v>6</v>
-      </c>
-      <c r="E102" s="121" t="str">
-        <f>Swaps!K35</f>
-        <v>obj_00365#0001</v>
-      </c>
-      <c r="F102" s="121" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E102),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L28Y_Quote</v>
-      </c>
-      <c r="G102" s="122" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E102,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H102" s="122">
-        <f>_xll.qlSwapRateHelperSpread($E102,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="I102" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102" s="65">
-        <v>50</v>
-      </c>
-      <c r="K102" s="65">
-        <v>1</v>
-      </c>
-      <c r="L102" s="123">
-        <f>_xll.qlRateHelperEarliestDate($E102,Trigger)</f>
-        <v>41802</v>
-      </c>
-      <c r="M102" s="124">
-        <f>_xll.qlRateHelperLatestDate($E102,Trigger)</f>
-        <v>52029</v>
-      </c>
-    </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B103" s="131">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C103" s="120" t="s">
-        <v>113</v>
-      </c>
-      <c r="D103" s="121" t="s">
-        <v>5</v>
-      </c>
-      <c r="E103" s="121" t="str">
-        <f>Swaps!K36</f>
-        <v>obj_00325#0001</v>
-      </c>
-      <c r="F103" s="121" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E103),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L29Y_Quote</v>
-      </c>
-      <c r="G103" s="122" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E103,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H103" s="122">
-        <f>_xll.qlSwapRateHelperSpread($E103,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="I103" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" s="65">
-        <v>50</v>
-      </c>
-      <c r="K103" s="65">
-        <v>1</v>
-      </c>
-      <c r="L103" s="123">
-        <f>_xll.qlRateHelperEarliestDate($E103,Trigger)</f>
-        <v>41802</v>
-      </c>
-      <c r="M103" s="124">
-        <f>_xll.qlRateHelperLatestDate($E103,Trigger)</f>
-        <v>52394</v>
-      </c>
-    </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B104" s="131">
-        <f t="shared" ref="B104:B108" si="4">SwapFixedFreq</f>
-        <v>0</v>
-      </c>
-      <c r="C104" s="120" t="s">
-        <v>113</v>
-      </c>
-      <c r="D104" s="121" t="s">
-        <v>4</v>
-      </c>
-      <c r="E104" s="121" t="str">
-        <f>Swaps!K37</f>
-        <v>obj_0032c#0001</v>
-      </c>
-      <c r="F104" s="121" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E104),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L30Y_Quote</v>
-      </c>
-      <c r="G104" s="122">
-        <f>_xll.qlRateHelperQuoteValue($E104,Trigger)</f>
-        <v>1.7725000000000001E-2</v>
-      </c>
-      <c r="H104" s="122">
-        <f>_xll.qlSwapRateHelperSpread($E104,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="I104" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="J104" s="65">
-        <v>50</v>
-      </c>
-      <c r="K104" s="65">
-        <v>1</v>
-      </c>
-      <c r="L104" s="123">
-        <f>_xll.qlRateHelperEarliestDate($E104,Trigger)</f>
-        <v>41802</v>
-      </c>
-      <c r="M104" s="124">
-        <f>_xll.qlRateHelperLatestDate($E104,Trigger)</f>
-        <v>52761</v>
-      </c>
-    </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B105" s="131">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C105" s="120" t="s">
-        <v>113</v>
-      </c>
-      <c r="D105" s="121" t="s">
-        <v>3</v>
-      </c>
-      <c r="E105" s="121" t="str">
-        <f>Swaps!K38</f>
-        <v>obj_00348#0001</v>
-      </c>
-      <c r="F105" s="121" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E105),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L35Y_Quote</v>
-      </c>
-      <c r="G105" s="122" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E105,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H105" s="122">
-        <f>_xll.qlSwapRateHelperSpread($E105,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="I105" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" s="65">
-        <v>50</v>
-      </c>
-      <c r="K105" s="65">
-        <v>1</v>
-      </c>
-      <c r="L105" s="123">
-        <f>_xll.qlRateHelperEarliestDate($E105,Trigger)</f>
-        <v>41802</v>
-      </c>
-      <c r="M105" s="124">
-        <f>_xll.qlRateHelperLatestDate($E105,Trigger)</f>
-        <v>54588</v>
-      </c>
-    </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B106" s="131">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C106" s="120" t="s">
-        <v>113</v>
-      </c>
-      <c r="D106" s="121" t="s">
-        <v>2</v>
-      </c>
-      <c r="E106" s="121" t="str">
-        <f>Swaps!K39</f>
-        <v>obj_0033b#0001</v>
-      </c>
-      <c r="F106" s="121" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E106),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L40Y_Quote</v>
-      </c>
-      <c r="G106" s="122" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E106,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H106" s="122">
-        <f>_xll.qlSwapRateHelperSpread($E106,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="I106" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" s="65">
-        <v>50</v>
-      </c>
-      <c r="K106" s="65">
-        <v>1</v>
-      </c>
-      <c r="L106" s="123">
-        <f>_xll.qlRateHelperEarliestDate($E106,Trigger)</f>
-        <v>41802</v>
-      </c>
-      <c r="M106" s="124">
-        <f>_xll.qlRateHelperLatestDate($E106,Trigger)</f>
-        <v>56412</v>
-      </c>
-    </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B107" s="131">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C107" s="120" t="s">
-        <v>113</v>
-      </c>
-      <c r="D107" s="121" t="s">
-        <v>1</v>
-      </c>
-      <c r="E107" s="121" t="str">
-        <f>Swaps!K40</f>
-        <v>obj_0032b#0001</v>
-      </c>
-      <c r="F107" s="121" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E107),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L50Y_Quote</v>
-      </c>
-      <c r="G107" s="122" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E107,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H107" s="122">
-        <f>_xll.qlSwapRateHelperSpread($E107,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="I107" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" s="65">
-        <v>50</v>
-      </c>
-      <c r="K107" s="65">
-        <v>1</v>
-      </c>
-      <c r="L107" s="123">
-        <f>_xll.qlRateHelperEarliestDate($E107,Trigger)</f>
-        <v>41802</v>
-      </c>
-      <c r="M107" s="124">
-        <f>_xll.qlRateHelperLatestDate($E107,Trigger)</f>
-        <v>60065</v>
-      </c>
-    </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B108" s="132">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C108" s="125" t="s">
-        <v>113</v>
-      </c>
-      <c r="D108" s="126" t="s">
-        <v>0</v>
-      </c>
-      <c r="E108" s="121" t="str">
-        <f>Swaps!K41</f>
-        <v>obj_00331#0001</v>
-      </c>
-      <c r="F108" s="121" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E108),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L60Y_Quote</v>
-      </c>
-      <c r="G108" s="122" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E108,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H108" s="127">
-        <f>_xll.qlSwapRateHelperSpread($E108,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="I108" s="128" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" s="128">
-        <v>50</v>
-      </c>
-      <c r="K108" s="128">
-        <v>1</v>
-      </c>
-      <c r="L108" s="129">
-        <f>_xll.qlRateHelperEarliestDate($E108,Trigger)</f>
-        <v>41802</v>
-      </c>
-      <c r="M108" s="130">
-        <f>_xll.qlRateHelperLatestDate($E108,Trigger)</f>
-        <v>63717</v>
-      </c>
-    </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E109" s="190"/>
-      <c r="F109" s="190"/>
-      <c r="G109" s="190"/>
+        <v>63718</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E100" s="190"/>
+      <c r="F100" s="190"/>
+      <c r="G100" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9352,41 +8992,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="194" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="195"/>
+      <c r="A1" s="198" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="199"/>
       <c r="D1" s="189" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1" s="72" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F1" s="73" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G1" s="73"/>
       <c r="H1" s="73" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I1" s="74" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J1" s="75">
         <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>5.4313987369326768E-4</v>
+        <v>5.4313906545588734E-4</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="76" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="77">
         <v>0</v>
       </c>
       <c r="D2" s="78" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_00323</v>
+        <v>obj_00321</v>
       </c>
       <c r="E2" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D2),"LastFixing","D"),"Libor","")</f>
@@ -9402,26 +9042,26 @@
       </c>
       <c r="H2" s="90">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="I2" s="91">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41803</v>
+        <v>41806</v>
       </c>
       <c r="J2" s="75">
-        <v>5.4313987369326768E-4</v>
+        <v>5.4313906545588734E-4</v>
       </c>
       <c r="K2" s="80"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="81" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="82">
         <v>0</v>
       </c>
       <c r="D3" s="78" t="str">
-        <v>obj_00311</v>
+        <v>obj_0030e</v>
       </c>
       <c r="E3" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D3),"LastFixing","D"),"Libor","")</f>
@@ -9437,26 +9077,26 @@
       </c>
       <c r="H3" s="90">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="I3" s="91">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41809</v>
+        <v>41810</v>
       </c>
       <c r="J3" s="75">
-        <v>6.7270016591893054E-4</v>
+        <v>6.7269998630143637E-4</v>
       </c>
       <c r="K3" s="80"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="81" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" s="82">
         <v>2</v>
       </c>
       <c r="D4" s="78" t="str">
-        <v>obj_0030e</v>
+        <v>obj_00313</v>
       </c>
       <c r="E4" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D4),"LastFixing","D"),"Libor","")</f>
@@ -9472,26 +9112,26 @@
       </c>
       <c r="H4" s="90">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="I4" s="91">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
         <v>41834</v>
       </c>
       <c r="J4" s="75">
-        <v>9.657362424019836E-4</v>
+        <v>9.6493708818496185E-4</v>
       </c>
       <c r="K4" s="80"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="78" t="str">
-        <v>obj_0030f</v>
+        <v>obj_00314</v>
       </c>
       <c r="E5" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D5),"LastFixing","D"),"Libor","")</f>
@@ -9507,27 +9147,27 @@
       </c>
       <c r="H5" s="90">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="I5" s="91">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41863</v>
+        <v>41864</v>
       </c>
       <c r="J5" s="75">
-        <v>1.2232360120288833E-3</v>
+        <v>1.2232359863708323E-3</v>
       </c>
       <c r="K5" s="80"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="81" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="84" t="str">
         <f>_xll.ohRangeRetrieveError(Selected!D2)</f>
         <v/>
       </c>
       <c r="D6" s="78" t="str">
-        <v>obj_00310</v>
+        <v>obj_00315</v>
       </c>
       <c r="E6" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D6),"LastFixing","D"),"Libor","")</f>
@@ -9543,28 +9183,28 @@
       </c>
       <c r="H6" s="90">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="I6" s="91">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41894</v>
+        <v>41897</v>
       </c>
       <c r="J6" s="75">
-        <v>1.3509527944647957E-3</v>
+        <v>1.3513136113841135E-3</v>
       </c>
       <c r="K6" s="80"/>
     </row>
     <row r="7" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="85" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>JPY_YCSTDRH_RateHelpersSelected#0010</v>
+        <v>JPY_YCSTDRH_RateHelpersSelected#0004</v>
       </c>
       <c r="B7" s="86" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
         <v/>
       </c>
       <c r="D7" s="78" t="str">
-        <v>obj_00313</v>
+        <v>obj_00317</v>
       </c>
       <c r="E7" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D7),"LastFixing","D"),"Libor","")</f>
@@ -9580,14 +9220,14 @@
       </c>
       <c r="H7" s="90">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="I7" s="91">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41985</v>
+        <v>41988</v>
       </c>
       <c r="J7" s="75">
-        <v>1.8282525619439743E-3</v>
+        <v>1.8283935701914895E-3</v>
       </c>
       <c r="K7" s="80"/>
     </row>
@@ -9609,14 +9249,14 @@
       </c>
       <c r="H8" s="90">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="I8" s="91">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42167</v>
+        <v>42170</v>
       </c>
       <c r="J8" s="75">
-        <v>1.7923261180793992E-3</v>
+        <v>1.792358438093706E-3</v>
       </c>
       <c r="K8" s="80"/>
     </row>
@@ -9638,20 +9278,20 @@
       </c>
       <c r="H9" s="90">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="I9" s="91">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
         <v>42352</v>
       </c>
       <c r="J9" s="75">
-        <v>1.794622961815882E-3</v>
+        <v>1.7946158538218009E-3</v>
       </c>
       <c r="K9" s="80"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D10" s="78" t="str">
-        <v>obj_0032d</v>
+        <v>obj_00359</v>
       </c>
       <c r="E10" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D10),"LastFixing","D"),"Libor","")</f>
@@ -9659,7 +9299,7 @@
       </c>
       <c r="F10" s="79">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>2.0250000000000003E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="G10" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -9667,20 +9307,20 @@
       </c>
       <c r="H10" s="90">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="I10" s="91">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42898</v>
+        <v>42899</v>
       </c>
       <c r="J10" s="75">
-        <v>2.0216637182866376E-3</v>
+        <v>1.9966857028189109E-3</v>
       </c>
       <c r="K10" s="80"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D11" s="78" t="str">
-        <v>obj_00357</v>
+        <v>obj_00333</v>
       </c>
       <c r="E11" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D11),"LastFixing","D"),"Libor","")</f>
@@ -9688,7 +9328,7 @@
       </c>
       <c r="F11" s="79">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>2.4499999999999999E-3</v>
+        <v>2.4250000000000001E-3</v>
       </c>
       <c r="G11" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -9696,20 +9336,20 @@
       </c>
       <c r="H11" s="90">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="I11" s="91">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>43263</v>
+        <v>43264</v>
       </c>
       <c r="J11" s="75">
-        <v>2.4478426874757573E-3</v>
+        <v>2.4228473865638483E-3</v>
       </c>
       <c r="K11" s="80"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D12" s="78" t="str">
-        <v>obj_0036c</v>
+        <v>obj_00371</v>
       </c>
       <c r="E12" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D12),"LastFixing","D"),"Libor","")</f>
@@ -9717,7 +9357,7 @@
       </c>
       <c r="F12" s="79">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>3.0500000000000006E-3</v>
+        <v>3.0249999999999999E-3</v>
       </c>
       <c r="G12" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -9725,20 +9365,20 @@
       </c>
       <c r="H12" s="90">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="I12" s="91">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="J12" s="75">
-        <v>3.0505977247435702E-3</v>
+        <v>3.0255764348392569E-3</v>
       </c>
       <c r="K12" s="80"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D13" s="78" t="str">
-        <v>obj_00343</v>
+        <v>obj_0033e</v>
       </c>
       <c r="E13" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D13),"LastFixing","D"),"Libor","")</f>
@@ -9754,20 +9394,20 @@
       </c>
       <c r="H13" s="90">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="I13" s="91">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="J13" s="75">
-        <v>3.8318080580757629E-3</v>
+        <v>3.8319998772847115E-3</v>
       </c>
       <c r="K13" s="80"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D14" s="78" t="str">
-        <v>obj_00339</v>
+        <v>obj_00362</v>
       </c>
       <c r="E14" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D14),"LastFixing","D"),"Libor","")</f>
@@ -9783,20 +9423,20 @@
       </c>
       <c r="H14" s="90">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="I14" s="91">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
         <v>44361</v>
       </c>
       <c r="J14" s="75">
-        <v>4.743421668832187E-3</v>
+        <v>4.7436648439930186E-3</v>
       </c>
       <c r="K14" s="80"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D15" s="78" t="str">
-        <v>obj_00338</v>
+        <v>obj_00345</v>
       </c>
       <c r="E15" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D15),"LastFixing","D"),"Libor","")</f>
@@ -9812,20 +9452,20 @@
       </c>
       <c r="H15" s="90">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="I15" s="91">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
         <v>44725</v>
       </c>
       <c r="J15" s="75">
-        <v>5.6859059088861675E-3</v>
+        <v>5.6861535962751371E-3</v>
       </c>
       <c r="K15" s="80"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D16" s="78" t="str">
-        <v>obj_00366</v>
+        <v>obj_00348</v>
       </c>
       <c r="E16" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D16),"LastFixing","D"),"Libor","")</f>
@@ -9841,19 +9481,19 @@
       </c>
       <c r="H16" s="90">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="I16" s="91">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="J16" s="75">
-        <v>6.6606651198882674E-3</v>
+        <v>6.660893265230605E-3</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D17" s="78" t="str">
-        <v>obj_00332</v>
+        <v>obj_00326</v>
       </c>
       <c r="E17" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D17),"LastFixing","D"),"Libor","")</f>
@@ -9861,7 +9501,7 @@
       </c>
       <c r="F17" s="79">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>7.5249999999999996E-3</v>
+        <v>7.5500000000000003E-3</v>
       </c>
       <c r="G17" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -9869,19 +9509,19 @@
       </c>
       <c r="H17" s="90">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="I17" s="91">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>45455</v>
+        <v>45456</v>
       </c>
       <c r="J17" s="75">
-        <v>7.6170051650501407E-3</v>
+        <v>7.6433939179027504E-3</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D18" s="78" t="str">
-        <v>obj_00349</v>
+        <v>obj_0036a</v>
       </c>
       <c r="E18" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D18),"LastFixing","D"),"Libor","")</f>
@@ -9889,7 +9529,7 @@
       </c>
       <c r="F18" s="79">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>9.3999999999999986E-3</v>
+        <v>9.4249999999999994E-3</v>
       </c>
       <c r="G18" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -9897,19 +9537,19 @@
       </c>
       <c r="H18" s="90">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="I18" s="91">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>46185</v>
+        <v>46188</v>
       </c>
       <c r="J18" s="75">
-        <v>9.5831410039367241E-3</v>
+        <v>9.6097110591591584E-3</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D19" s="78" t="str">
-        <v>obj_00353</v>
+        <v>obj_00344</v>
       </c>
       <c r="E19" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D19),"LastFixing","D"),"Libor","")</f>
@@ -9917,7 +9557,7 @@
       </c>
       <c r="F19" s="79">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.205E-2</v>
+        <v>1.2075000000000001E-2</v>
       </c>
       <c r="G19" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -9925,19 +9565,19 @@
       </c>
       <c r="H19" s="90">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="I19" s="91">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>47281</v>
+        <v>47282</v>
       </c>
       <c r="J19" s="75">
-        <v>1.2439148266127771E-2</v>
+        <v>1.2466330088318607E-2</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D20" s="78" t="str">
-        <v>obj_0032f</v>
+        <v>obj_0035c</v>
       </c>
       <c r="E20" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D20),"LastFixing","D"),"Libor","")</f>
@@ -9945,7 +9585,7 @@
       </c>
       <c r="F20" s="79">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.5224999999999999E-2</v>
+        <v>1.5274999999999999E-2</v>
       </c>
       <c r="G20" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -9953,19 +9593,19 @@
       </c>
       <c r="H20" s="90">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="I20" s="91">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>49107</v>
+        <v>49108</v>
       </c>
       <c r="J20" s="75">
-        <v>1.6008935157585672E-2</v>
+        <v>1.6066457317624565E-2</v>
       </c>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D21" s="78" t="str">
-        <v>obj_00336</v>
+        <v>obj_00354</v>
       </c>
       <c r="E21" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D21),"LastFixing","D"),"Libor","")</f>
@@ -9973,7 +9613,7 @@
       </c>
       <c r="F21" s="79">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.685E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="G21" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -9981,19 +9621,19 @@
       </c>
       <c r="H21" s="90">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="I21" s="91">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
         <v>50934</v>
       </c>
       <c r="J21" s="75">
-        <v>1.7876729919604969E-2</v>
+        <v>1.7934555283627942E-2</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D22" s="78" t="str">
-        <v>obj_0032c</v>
+        <v>obj_00332</v>
       </c>
       <c r="E22" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D22),"LastFixing","D"),"Libor","")</f>
@@ -10001,7 +9641,7 @@
       </c>
       <c r="F22" s="79">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.7725000000000001E-2</v>
+        <v>1.7774999999999999E-2</v>
       </c>
       <c r="G22" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -10009,14 +9649,14 @@
       </c>
       <c r="H22" s="90">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="I22" s="91">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
         <v>52761</v>
       </c>
       <c r="J22" s="75">
-        <v>1.8871222169023899E-2</v>
+        <v>1.8928831220685265E-2</v>
       </c>
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.2">
@@ -12970,7 +12610,7 @@
       <c r="A1" s="67"/>
       <c r="B1" s="66"/>
       <c r="C1" s="65" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D1" s="64" t="str">
         <f>Currency&amp;"_YC"&amp;$C$1&amp;"RH"</f>
@@ -12987,10 +12627,10 @@
       <c r="A2" s="55"/>
       <c r="B2" s="62"/>
       <c r="C2" s="62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E2" s="60" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(E3:E15,SerializationPath&amp;E1,FileOverwrite,Serialize),"---")</f>
@@ -13005,7 +12645,7 @@
     <row r="3" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="55"/>
       <c r="B3" s="58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C3" s="57" t="str">
         <f>PROPER(Currency)&amp;"Tonar"</f>
@@ -13017,7 +12657,7 @@
       </c>
       <c r="E3" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00321#0001</v>
+        <v>obj_00323#0001</v>
       </c>
       <c r="F3" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E3)</f>
@@ -13028,11 +12668,11 @@
     <row r="4" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="55"/>
       <c r="B4" s="54" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C4" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B4,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031c#0001</v>
+        <v>obj_00312#0001</v>
       </c>
       <c r="D4" s="52" t="str">
         <f t="shared" ref="D4:D19" si="0">PROPER(Currency)&amp;FamilyName&amp;$B4&amp;"LastFixing"&amp;QuoteSuffix</f>
@@ -13040,7 +12680,7 @@
       </c>
       <c r="E4" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00323#0001</v>
+        <v>obj_00321#0001</v>
       </c>
       <c r="F4" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E4)</f>
@@ -13051,11 +12691,11 @@
     <row r="5" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="55"/>
       <c r="B5" s="54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B5,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030b#0001</v>
+        <v>obj_00309#0001</v>
       </c>
       <c r="D5" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13063,7 +12703,7 @@
       </c>
       <c r="E5" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00311#0001</v>
+        <v>obj_0030e#0001</v>
       </c>
       <c r="F5" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -13074,11 +12714,11 @@
     <row r="6" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55"/>
       <c r="B6" s="54" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C6" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B6,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00302#0001</v>
+        <v>obj_00306#0001</v>
       </c>
       <c r="D6" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13094,11 +12734,11 @@
     <row r="7" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55"/>
       <c r="B7" s="54" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B7,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030c#0001</v>
+        <v>obj_0030d#0001</v>
       </c>
       <c r="D7" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13114,11 +12754,11 @@
     <row r="8" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55"/>
       <c r="B8" s="54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C8" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B8,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00304#0001</v>
+        <v>obj_00307#0001</v>
       </c>
       <c r="D8" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13126,7 +12766,7 @@
       </c>
       <c r="E8" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030e#0001</v>
+        <v>obj_00313#0001</v>
       </c>
       <c r="F8" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -13137,11 +12777,11 @@
     <row r="9" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55"/>
       <c r="B9" s="54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C9" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B9,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00309#0001</v>
+        <v>obj_00308#0001</v>
       </c>
       <c r="D9" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13149,7 +12789,7 @@
       </c>
       <c r="E9" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030f#0001</v>
+        <v>obj_00314#0001</v>
       </c>
       <c r="F9" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -13160,11 +12800,11 @@
     <row r="10" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55"/>
       <c r="B10" s="54" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C10" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B10,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00303#0001</v>
+        <v>obj_00301#0001</v>
       </c>
       <c r="D10" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13172,7 +12812,7 @@
       </c>
       <c r="E10" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00310#0001</v>
+        <v>obj_00315#0001</v>
       </c>
       <c r="F10" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -13183,11 +12823,11 @@
     <row r="11" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55"/>
       <c r="B11" s="54" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C11" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B11,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030a#0001</v>
+        <v>obj_00303#0001</v>
       </c>
       <c r="D11" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13203,11 +12843,11 @@
     <row r="12" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55"/>
       <c r="B12" s="54" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C12" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B12,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030d#0001</v>
+        <v>obj_002ff#0001</v>
       </c>
       <c r="D12" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13223,11 +12863,11 @@
     <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55"/>
       <c r="B13" s="54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C13" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B13,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00305#0001</v>
+        <v>obj_00302#0001</v>
       </c>
       <c r="D13" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13235,7 +12875,7 @@
       </c>
       <c r="E13" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D13,C13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00313#0001</v>
+        <v>obj_00317#0001</v>
       </c>
       <c r="F13" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -13246,11 +12886,11 @@
     <row r="14" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55"/>
       <c r="B14" s="54" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B14,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00307#0001</v>
+        <v>obj_0030b#0001</v>
       </c>
       <c r="D14" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13266,11 +12906,11 @@
     <row r="15" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55"/>
       <c r="B15" s="58" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C15" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B15,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00308#0001</v>
+        <v>obj_0030c#0001</v>
       </c>
       <c r="D15" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13286,11 +12926,11 @@
     <row r="16" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55"/>
       <c r="B16" s="54" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C16" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B16,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_002ff#0001</v>
+        <v>obj_00304#0001</v>
       </c>
       <c r="D16" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13306,11 +12946,11 @@
     <row r="17" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="54" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C17" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B17,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00300#0001</v>
+        <v>obj_00305#0001</v>
       </c>
       <c r="D17" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13326,11 +12966,11 @@
     <row r="18" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55"/>
       <c r="B18" s="54" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C18" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B18,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00306#0001</v>
+        <v>obj_0030a#0001</v>
       </c>
       <c r="D18" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13350,7 +12990,7 @@
       </c>
       <c r="C19" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B19,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00301#0001</v>
+        <v>obj_00300#0001</v>
       </c>
       <c r="D19" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13358,7 +12998,7 @@
       </c>
       <c r="E19" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D19,C19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00312#0001</v>
+        <v>obj_00316#0001</v>
       </c>
       <c r="F19" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
@@ -13411,7 +13051,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="145" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F1" s="146" t="str">
         <f>Currency&amp;"_YC"&amp;$E$1&amp;"RH"</f>
@@ -13430,10 +13070,10 @@
       <c r="C2" s="149"/>
       <c r="D2" s="150"/>
       <c r="E2" s="62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G2" s="60" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(G3:G13,SerializationPath&amp;G1,FileOverwrite,Serialize),"---")</f>
@@ -13447,30 +13087,30 @@
     </row>
     <row r="3" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55"/>
-      <c r="B3" s="196" t="str">
+      <c r="B3" s="191" t="str">
         <f>C3&amp;"M"</f>
         <v>1M</v>
       </c>
-      <c r="C3" s="199">
-        <v>1</v>
-      </c>
-      <c r="D3" s="198" t="str">
+      <c r="C3" s="194">
+        <v>1</v>
+      </c>
+      <c r="D3" s="193" t="str">
         <f>"x"&amp;C3+$D$1&amp;"F"</f>
         <v>x4F</v>
       </c>
-      <c r="E3" s="196" t="str">
+      <c r="E3" s="191" t="str">
         <f t="shared" ref="E3:E13" si="0">PROPER(Currency)&amp;FamilyName&amp;"3M"</f>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F3" s="196" t="str">
+      <c r="F3" s="191" t="str">
         <f t="shared" ref="F3:F13" si="1">Currency&amp;C3&amp;D3&amp;"_Quote"</f>
         <v>JPY1x4F_Quote</v>
       </c>
-      <c r="G3" s="196" t="str">
+      <c r="G3" s="191" t="str">
         <f>_xll.qlFraRateHelper(,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00316#0001</v>
-      </c>
-      <c r="H3" s="197" t="str">
+        <v>obj_00318#0001</v>
+      </c>
+      <c r="H3" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(G3)</f>
         <v/>
       </c>
@@ -13478,30 +13118,30 @@
     </row>
     <row r="4" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="55"/>
-      <c r="B4" s="196" t="str">
+      <c r="B4" s="191" t="str">
         <f t="shared" ref="B4:B13" si="2">C4&amp;"M"</f>
         <v>2M</v>
       </c>
-      <c r="C4" s="199">
+      <c r="C4" s="194">
         <v>2</v>
       </c>
-      <c r="D4" s="198" t="str">
+      <c r="D4" s="193" t="str">
         <f t="shared" ref="D4:D13" si="3">"x"&amp;C4+$D$1&amp;"F"</f>
         <v>x5F</v>
       </c>
-      <c r="E4" s="196" t="str">
+      <c r="E4" s="191" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F4" s="196" t="str">
+      <c r="F4" s="191" t="str">
         <f t="shared" si="1"/>
         <v>JPY2x5F_Quote</v>
       </c>
-      <c r="G4" s="196" t="str">
+      <c r="G4" s="191" t="str">
         <f>_xll.qlFraRateHelper(,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00317#0001</v>
-      </c>
-      <c r="H4" s="197" t="str">
+        <v>obj_00319#0001</v>
+      </c>
+      <c r="H4" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(G4)</f>
         <v/>
       </c>
@@ -13509,30 +13149,30 @@
     </row>
     <row r="5" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="55"/>
-      <c r="B5" s="196" t="str">
+      <c r="B5" s="191" t="str">
         <f t="shared" si="2"/>
         <v>3M</v>
       </c>
-      <c r="C5" s="199">
+      <c r="C5" s="194">
         <v>3</v>
       </c>
-      <c r="D5" s="198" t="str">
+      <c r="D5" s="193" t="str">
         <f t="shared" si="3"/>
         <v>x6F</v>
       </c>
-      <c r="E5" s="196" t="str">
+      <c r="E5" s="191" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F5" s="196" t="str">
+      <c r="F5" s="191" t="str">
         <f t="shared" si="1"/>
         <v>JPY3x6F_Quote</v>
       </c>
-      <c r="G5" s="196" t="str">
+      <c r="G5" s="191" t="str">
         <f>_xll.qlFraRateHelper(,F5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00318#0001</v>
-      </c>
-      <c r="H5" s="197" t="str">
+        <v>obj_0031f#0001</v>
+      </c>
+      <c r="H5" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(G5)</f>
         <v/>
       </c>
@@ -13540,30 +13180,30 @@
     </row>
     <row r="6" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="55"/>
-      <c r="B6" s="196" t="str">
+      <c r="B6" s="191" t="str">
         <f t="shared" si="2"/>
         <v>4M</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="194">
         <v>4</v>
       </c>
-      <c r="D6" s="198" t="str">
+      <c r="D6" s="193" t="str">
         <f t="shared" si="3"/>
         <v>x7F</v>
       </c>
-      <c r="E6" s="196" t="str">
+      <c r="E6" s="191" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F6" s="196" t="str">
+      <c r="F6" s="191" t="str">
         <f t="shared" si="1"/>
         <v>JPY4x7F_Quote</v>
       </c>
-      <c r="G6" s="196" t="str">
+      <c r="G6" s="191" t="str">
         <f>_xll.qlFraRateHelper(,F6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
         <v>obj_0031b#0001</v>
       </c>
-      <c r="H6" s="197" t="str">
+      <c r="H6" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(G6)</f>
         <v/>
       </c>
@@ -13571,30 +13211,30 @@
     </row>
     <row r="7" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="55"/>
-      <c r="B7" s="196" t="str">
+      <c r="B7" s="191" t="str">
         <f t="shared" si="2"/>
         <v>5M</v>
       </c>
-      <c r="C7" s="199">
+      <c r="C7" s="194">
         <v>5</v>
       </c>
-      <c r="D7" s="198" t="str">
+      <c r="D7" s="193" t="str">
         <f t="shared" si="3"/>
         <v>x8F</v>
       </c>
-      <c r="E7" s="196" t="str">
+      <c r="E7" s="191" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F7" s="196" t="str">
+      <c r="F7" s="191" t="str">
         <f t="shared" si="1"/>
         <v>JPY5x8F_Quote</v>
       </c>
-      <c r="G7" s="196" t="str">
+      <c r="G7" s="191" t="str">
         <f>_xll.qlFraRateHelper(,F7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00319#0001</v>
-      </c>
-      <c r="H7" s="197" t="str">
+        <v>obj_0031a#0001</v>
+      </c>
+      <c r="H7" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(G7)</f>
         <v/>
       </c>
@@ -13602,30 +13242,30 @@
     </row>
     <row r="8" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="55"/>
-      <c r="B8" s="196" t="str">
+      <c r="B8" s="191" t="str">
         <f t="shared" si="2"/>
         <v>6M</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="194">
         <v>6</v>
       </c>
-      <c r="D8" s="198" t="str">
+      <c r="D8" s="193" t="str">
         <f t="shared" si="3"/>
         <v>x9F</v>
       </c>
-      <c r="E8" s="196" t="str">
+      <c r="E8" s="191" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F8" s="196" t="str">
+      <c r="F8" s="191" t="str">
         <f t="shared" si="1"/>
         <v>JPY6x9F_Quote</v>
       </c>
-      <c r="G8" s="196" t="str">
+      <c r="G8" s="191" t="str">
         <f>_xll.qlFraRateHelper(,F8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031d#0001</v>
-      </c>
-      <c r="H8" s="197" t="str">
+        <v>obj_0031c#0001</v>
+      </c>
+      <c r="H8" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(G8)</f>
         <v/>
       </c>
@@ -13633,30 +13273,30 @@
     </row>
     <row r="9" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55"/>
-      <c r="B9" s="196" t="str">
+      <c r="B9" s="191" t="str">
         <f t="shared" si="2"/>
         <v>9M</v>
       </c>
-      <c r="C9" s="199">
+      <c r="C9" s="194">
         <v>9</v>
       </c>
-      <c r="D9" s="198" t="str">
+      <c r="D9" s="193" t="str">
         <f t="shared" si="3"/>
         <v>x12F</v>
       </c>
-      <c r="E9" s="196" t="str">
+      <c r="E9" s="191" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F9" s="196" t="str">
+      <c r="F9" s="191" t="str">
         <f t="shared" si="1"/>
         <v>JPY9x12F_Quote</v>
       </c>
-      <c r="G9" s="196" t="str">
+      <c r="G9" s="191" t="str">
         <f>_xll.qlFraRateHelper(,F9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031a#0001</v>
-      </c>
-      <c r="H9" s="197" t="str">
+        <v>obj_00311#0001</v>
+      </c>
+      <c r="H9" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(G9)</f>
         <v/>
       </c>
@@ -13664,30 +13304,30 @@
     </row>
     <row r="10" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55"/>
-      <c r="B10" s="196" t="str">
+      <c r="B10" s="191" t="str">
         <f t="shared" si="2"/>
         <v>12M</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="194">
         <v>12</v>
       </c>
-      <c r="D10" s="198" t="str">
+      <c r="D10" s="193" t="str">
         <f t="shared" si="3"/>
         <v>x15F</v>
       </c>
-      <c r="E10" s="196" t="str">
+      <c r="E10" s="191" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F10" s="196" t="str">
+      <c r="F10" s="191" t="str">
         <f t="shared" si="1"/>
         <v>JPY12x15F_Quote</v>
       </c>
-      <c r="G10" s="196" t="str">
+      <c r="G10" s="191" t="str">
         <f>_xll.qlFraRateHelper(,F10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00314#0001</v>
-      </c>
-      <c r="H10" s="197" t="str">
+        <v>obj_0030f#0001</v>
+      </c>
+      <c r="H10" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(G10)</f>
         <v/>
       </c>
@@ -13695,30 +13335,30 @@
     </row>
     <row r="11" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="55"/>
-      <c r="B11" s="196" t="str">
+      <c r="B11" s="191" t="str">
         <f t="shared" si="2"/>
         <v>15M</v>
       </c>
-      <c r="C11" s="199">
+      <c r="C11" s="194">
         <v>15</v>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="193" t="str">
         <f t="shared" si="3"/>
         <v>x18F</v>
       </c>
-      <c r="E11" s="196" t="str">
+      <c r="E11" s="191" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F11" s="196" t="str">
+      <c r="F11" s="191" t="str">
         <f t="shared" si="1"/>
         <v>JPY15x18F_Quote</v>
       </c>
-      <c r="G11" s="196" t="str">
+      <c r="G11" s="191" t="str">
         <f>_xll.qlFraRateHelper(,F11,B11,E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031e#0001</v>
-      </c>
-      <c r="H11" s="197" t="str">
+        <v>obj_0031d#0001</v>
+      </c>
+      <c r="H11" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(G11)</f>
         <v/>
       </c>
@@ -13726,30 +13366,30 @@
     </row>
     <row r="12" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55"/>
-      <c r="B12" s="196" t="str">
+      <c r="B12" s="191" t="str">
         <f t="shared" si="2"/>
         <v>18M</v>
       </c>
-      <c r="C12" s="199">
+      <c r="C12" s="194">
         <v>18</v>
       </c>
-      <c r="D12" s="198" t="str">
+      <c r="D12" s="193" t="str">
         <f t="shared" si="3"/>
         <v>x21F</v>
       </c>
-      <c r="E12" s="196" t="str">
+      <c r="E12" s="191" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F12" s="196" t="str">
+      <c r="F12" s="191" t="str">
         <f t="shared" si="1"/>
         <v>JPY18x21F_Quote</v>
       </c>
-      <c r="G12" s="196" t="str">
+      <c r="G12" s="191" t="str">
         <f>_xll.qlFraRateHelper(,F12,B12,E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031f#0001</v>
-      </c>
-      <c r="H12" s="197" t="str">
+        <v>obj_0031e#0001</v>
+      </c>
+      <c r="H12" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(G12)</f>
         <v/>
       </c>
@@ -13757,30 +13397,30 @@
     </row>
     <row r="13" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55"/>
-      <c r="B13" s="196" t="str">
+      <c r="B13" s="191" t="str">
         <f t="shared" si="2"/>
         <v>21M</v>
       </c>
-      <c r="C13" s="199">
+      <c r="C13" s="194">
         <v>21</v>
       </c>
-      <c r="D13" s="198" t="str">
+      <c r="D13" s="193" t="str">
         <f t="shared" si="3"/>
         <v>x24F</v>
       </c>
-      <c r="E13" s="196" t="str">
+      <c r="E13" s="191" t="str">
         <f t="shared" si="0"/>
         <v>JpyLibor3M</v>
       </c>
-      <c r="F13" s="196" t="str">
+      <c r="F13" s="191" t="str">
         <f t="shared" si="1"/>
         <v>JPY21x24F_Quote</v>
       </c>
-      <c r="G13" s="196" t="str">
+      <c r="G13" s="191" t="str">
         <f>_xll.qlFraRateHelper(,F13,B13,E13,Permanent,Trigger,ObjectOverwrite)</f>
         <v>obj_00320#0001</v>
       </c>
-      <c r="H13" s="197" t="str">
+      <c r="H13" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(G13)</f>
         <v/>
       </c>
@@ -13835,7 +13475,7 @@
       <c r="C1" s="154"/>
       <c r="D1" s="154"/>
       <c r="E1" s="65" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F1" s="155"/>
       <c r="G1" s="156" t="str">
@@ -13852,22 +13492,22 @@
     <row r="2" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="67"/>
       <c r="B2" s="149" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" s="158" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G2" s="149" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H2" s="151" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H44,SerializationPath&amp;H1,FileOverwrite,Serialize),"---")</f>
@@ -13905,7 +13545,7 @@
       </c>
       <c r="H3" s="162" t="str">
         <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0033e#0001</v>
+        <v>obj_0036d#0001</v>
       </c>
       <c r="I3" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -13939,7 +13579,7 @@
       </c>
       <c r="H4" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00345#0001</v>
+        <v>obj_00356#0001</v>
       </c>
       <c r="I4" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -13973,7 +13613,7 @@
       </c>
       <c r="H5" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00364#0001</v>
+        <v>obj_00365#0001</v>
       </c>
       <c r="I5" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -14007,7 +13647,7 @@
       </c>
       <c r="H6" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00360#0001</v>
+        <v>obj_0032c#0001</v>
       </c>
       <c r="I6" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -14041,7 +13681,7 @@
       </c>
       <c r="H7" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00342#0001</v>
+        <v>obj_00350#0001</v>
       </c>
       <c r="I7" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -14075,7 +13715,7 @@
       </c>
       <c r="H8" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00350#0001</v>
+        <v>obj_0033a#0001</v>
       </c>
       <c r="I8" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -14109,7 +13749,7 @@
       </c>
       <c r="H9" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035b#0001</v>
+        <v>obj_0036e#0001</v>
       </c>
       <c r="I9" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -14143,7 +13783,7 @@
       </c>
       <c r="H10" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00371#0001</v>
+        <v>obj_00342#0001</v>
       </c>
       <c r="I10" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -14177,7 +13817,7 @@
       </c>
       <c r="H11" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00341#0001</v>
+        <v>obj_00339#0001</v>
       </c>
       <c r="I11" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -14211,7 +13851,7 @@
       </c>
       <c r="H12" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034f#0001</v>
+        <v>obj_00328#0001</v>
       </c>
       <c r="I12" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -14245,7 +13885,7 @@
       </c>
       <c r="H13" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00337#0001</v>
+        <v>obj_0032e#0001</v>
       </c>
       <c r="I13" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -14279,7 +13919,7 @@
       </c>
       <c r="H14" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00351#0001</v>
+        <v>obj_00353#0001</v>
       </c>
       <c r="I14" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
@@ -14313,7 +13953,7 @@
       </c>
       <c r="H15" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00368#0001</v>
+        <v>obj_00335#0001</v>
       </c>
       <c r="I15" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
@@ -14347,7 +13987,7 @@
       </c>
       <c r="H16" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0032a#0001</v>
+        <v>obj_00361#0001</v>
       </c>
       <c r="I16" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
@@ -14381,7 +14021,7 @@
       </c>
       <c r="H17" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00355#0001</v>
+        <v>obj_00364#0001</v>
       </c>
       <c r="I17" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
@@ -14415,7 +14055,7 @@
       </c>
       <c r="H18" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00361#0001</v>
+        <v>obj_00355#0001</v>
       </c>
       <c r="I18" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
@@ -14449,7 +14089,7 @@
       </c>
       <c r="H19" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0032e#0001</v>
+        <v>obj_0034b#0001</v>
       </c>
       <c r="I19" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
@@ -14483,7 +14123,7 @@
       </c>
       <c r="H20" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00347#0001</v>
+        <v>obj_00363#0001</v>
       </c>
       <c r="I20" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
@@ -14517,7 +14157,7 @@
       </c>
       <c r="H21" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00329#0001</v>
+        <v>obj_00330#0001</v>
       </c>
       <c r="I21" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
@@ -14551,7 +14191,7 @@
       </c>
       <c r="H22" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00359#0001</v>
+        <v>obj_0035a#0001</v>
       </c>
       <c r="I22" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
@@ -14585,7 +14225,7 @@
       </c>
       <c r="H23" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0033c#0001</v>
+        <v>obj_00336#0001</v>
       </c>
       <c r="I23" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H23)</f>
@@ -14619,7 +14259,7 @@
       </c>
       <c r="H24" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00352#0001</v>
+        <v>obj_00341#0001</v>
       </c>
       <c r="I24" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H24)</f>
@@ -14653,7 +14293,7 @@
       </c>
       <c r="H25" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00354#0001</v>
+        <v>obj_00331#0001</v>
       </c>
       <c r="I25" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H25)</f>
@@ -14687,7 +14327,7 @@
       </c>
       <c r="H26" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034c#0001</v>
+        <v>obj_0035f#0001</v>
       </c>
       <c r="I26" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H26)</f>
@@ -14721,7 +14361,7 @@
       </c>
       <c r="H27" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035f#0001</v>
+        <v>obj_00351#0001</v>
       </c>
       <c r="I27" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
@@ -14755,7 +14395,7 @@
       </c>
       <c r="H28" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00330#0001</v>
+        <v>obj_0034c#0001</v>
       </c>
       <c r="I28" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
@@ -14789,7 +14429,7 @@
       </c>
       <c r="H29" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035d#0001</v>
+        <v>obj_00329#0001</v>
       </c>
       <c r="I29" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H29)</f>
@@ -14823,7 +14463,7 @@
       </c>
       <c r="H30" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00334#0001</v>
+        <v>obj_0034f#0001</v>
       </c>
       <c r="I30" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H30)</f>
@@ -14857,7 +14497,7 @@
       </c>
       <c r="H31" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0033a#0001</v>
+        <v>obj_00347#0001</v>
       </c>
       <c r="I31" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H31)</f>
@@ -14891,7 +14531,7 @@
       </c>
       <c r="H32" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035c#0001</v>
+        <v>obj_00370#0001</v>
       </c>
       <c r="I32" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H32)</f>
@@ -14925,7 +14565,7 @@
       </c>
       <c r="H33" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00326#0001</v>
+        <v>obj_0033d#0001</v>
       </c>
       <c r="I33" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
@@ -14959,7 +14599,7 @@
       </c>
       <c r="H34" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00335#0001</v>
+        <v>obj_0032b#0001</v>
       </c>
       <c r="I34" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
@@ -14993,7 +14633,7 @@
       </c>
       <c r="H35" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00340#0001</v>
+        <v>obj_00327#0001</v>
       </c>
       <c r="I35" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H35)</f>
@@ -15027,7 +14667,7 @@
       </c>
       <c r="H36" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035a#0001</v>
+        <v>obj_0035d#0001</v>
       </c>
       <c r="I36" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H36)</f>
@@ -15061,7 +14701,7 @@
       </c>
       <c r="H37" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00363#0001</v>
+        <v>obj_00346#0001</v>
       </c>
       <c r="I37" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H37)</f>
@@ -15095,7 +14735,7 @@
       </c>
       <c r="H38" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0033d#0001</v>
+        <v>obj_0036c#0001</v>
       </c>
       <c r="I38" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H38)</f>
@@ -15129,7 +14769,7 @@
       </c>
       <c r="H39" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00370#0001</v>
+        <v>obj_0033f#0001</v>
       </c>
       <c r="I39" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H39)</f>
@@ -15163,7 +14803,7 @@
       </c>
       <c r="H40" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036e#0001</v>
+        <v>obj_0033c#0001</v>
       </c>
       <c r="I40" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H40)</f>
@@ -15196,7 +14836,7 @@
       </c>
       <c r="H41" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00367#0001</v>
+        <v>obj_00334#0001</v>
       </c>
       <c r="I41" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H41)</f>
@@ -15229,7 +14869,7 @@
       </c>
       <c r="H42" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036d#0001</v>
+        <v>obj_0032a#0001</v>
       </c>
       <c r="I42" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H42)</f>
@@ -15262,7 +14902,7 @@
       </c>
       <c r="H43" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00328#0001</v>
+        <v>obj_00343#0001</v>
       </c>
       <c r="I43" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H43)</f>
@@ -15295,7 +14935,7 @@
       </c>
       <c r="H44" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034b#0001</v>
+        <v>obj_0034a#0001</v>
       </c>
       <c r="I44" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H44)</f>
@@ -15360,7 +15000,7 @@
       <c r="G1" s="66"/>
       <c r="H1" s="66"/>
       <c r="I1" s="65" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J1" s="65" t="str">
         <f>Currency&amp;"_YC"&amp;"STDRH"</f>
@@ -15376,25 +15016,25 @@
     <row r="2" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2" s="55"/>
       <c r="B2" s="62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
       <c r="E2" s="62"/>
       <c r="F2" s="62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G2" s="62" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H2" s="62" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I2" s="62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J2" s="62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K2" s="151" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(K3:K41,SerializationPath&amp;K1,FileOverwrite,Serialize),"---")</f>
@@ -15419,7 +15059,7 @@
       <c r="J3" s="66"/>
       <c r="K3" s="172" t="str">
         <f>_xll.qlLibor(,Currency,$I$1,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00315#0001</v>
+        <v>obj_00310#0001</v>
       </c>
       <c r="L3" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
@@ -15445,7 +15085,7 @@
     <row r="5" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="55"/>
       <c r="B5" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="174" t="s">
         <v>36</v>
@@ -15463,7 +15103,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G5" s="164" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H5" s="164" t="str">
         <f t="shared" ref="H5:H41" si="1">IF(UPPER(RIGHT($D5))="B",BondBasisDayCounter,IF(UPPER(RIGHT($D5))="M",MoneyMarketDayCounter,"--"))</f>
@@ -15486,7 +15126,7 @@
       </c>
       <c r="M5" s="171"/>
       <c r="O5" s="178" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P5" s="146"/>
       <c r="Q5" s="179"/>
@@ -15494,7 +15134,7 @@
     <row r="6" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55"/>
       <c r="B6" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" s="174" t="s">
         <v>35</v>
@@ -15510,7 +15150,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G6" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H6" s="160" t="str">
         <f t="shared" si="1"/>
@@ -15525,7 +15165,7 @@
       </c>
       <c r="K6" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$3,$I6,B6,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036f#0001</v>
+        <v>obj_00352#0001</v>
       </c>
       <c r="L6" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -15533,19 +15173,19 @@
       </c>
       <c r="M6" s="171"/>
       <c r="O6" s="181" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P6" s="182" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="183" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55"/>
       <c r="B7" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" s="174" t="s">
         <v>34</v>
@@ -15561,7 +15201,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G7" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H7" s="160" t="str">
         <f t="shared" si="1"/>
@@ -15584,19 +15224,19 @@
       </c>
       <c r="M7" s="171"/>
       <c r="O7" s="181" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P7" s="182" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="183" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55"/>
       <c r="B8" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" s="174" t="s">
         <v>33</v>
@@ -15612,7 +15252,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G8" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H8" s="160" t="str">
         <f t="shared" si="1"/>
@@ -15627,7 +15267,7 @@
       </c>
       <c r="K8" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$3,$I8,B8,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00346#0001</v>
+        <v>obj_00357#0001</v>
       </c>
       <c r="L8" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -15635,19 +15275,19 @@
       </c>
       <c r="M8" s="171"/>
       <c r="O8" s="181" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P8" s="182" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="183" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="55"/>
       <c r="B9" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C9" s="174" t="s">
         <v>32</v>
@@ -15663,7 +15303,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G9" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H9" s="160" t="str">
         <f t="shared" si="1"/>
@@ -15678,7 +15318,7 @@
       </c>
       <c r="K9" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$3,$I9,B9,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0035e#0001</v>
+        <v>obj_0033b#0001</v>
       </c>
       <c r="L9" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -15686,19 +15326,19 @@
       </c>
       <c r="M9" s="171"/>
       <c r="O9" s="184" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P9" s="185" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="186" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55"/>
       <c r="B10" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C10" s="174" t="s">
         <v>31</v>
@@ -15714,7 +15354,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G10" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H10" s="160" t="str">
         <f t="shared" si="1"/>
@@ -15729,7 +15369,7 @@
       </c>
       <c r="K10" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$3,$I10,B10,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0032d#0001</v>
+        <v>obj_00359#0001</v>
       </c>
       <c r="L10" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -15740,7 +15380,7 @@
     <row r="11" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55"/>
       <c r="B11" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C11" s="174" t="s">
         <v>30</v>
@@ -15756,7 +15396,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G11" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H11" s="160" t="str">
         <f t="shared" si="1"/>
@@ -15771,7 +15411,7 @@
       </c>
       <c r="K11" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$3,$I11,B11,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00357#0001</v>
+        <v>obj_00333#0001</v>
       </c>
       <c r="L11" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -15782,7 +15422,7 @@
     <row r="12" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55"/>
       <c r="B12" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C12" s="174" t="s">
         <v>29</v>
@@ -15798,7 +15438,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G12" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H12" s="160" t="str">
         <f t="shared" si="1"/>
@@ -15813,7 +15453,7 @@
       </c>
       <c r="K12" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$3,$I12,B12,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036c#0001</v>
+        <v>obj_00371#0001</v>
       </c>
       <c r="L12" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -15824,7 +15464,7 @@
     <row r="13" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55"/>
       <c r="B13" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C13" s="174" t="s">
         <v>28</v>
@@ -15840,7 +15480,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G13" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H13" s="160" t="str">
         <f t="shared" si="1"/>
@@ -15855,7 +15495,7 @@
       </c>
       <c r="K13" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$3,$I13,B13,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00343#0001</v>
+        <v>obj_0033e#0001</v>
       </c>
       <c r="L13" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -15866,7 +15506,7 @@
     <row r="14" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55"/>
       <c r="B14" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C14" s="174" t="s">
         <v>27</v>
@@ -15882,7 +15522,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G14" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H14" s="160" t="str">
         <f t="shared" si="1"/>
@@ -15897,7 +15537,7 @@
       </c>
       <c r="K14" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$3,$I14,B14,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00339#0001</v>
+        <v>obj_00362#0001</v>
       </c>
       <c r="L14" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -15908,7 +15548,7 @@
     <row r="15" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55"/>
       <c r="B15" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C15" s="174" t="s">
         <v>26</v>
@@ -15924,7 +15564,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G15" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H15" s="160" t="str">
         <f t="shared" si="1"/>
@@ -15939,7 +15579,7 @@
       </c>
       <c r="K15" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$3,$I15,B15,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00338#0001</v>
+        <v>obj_00345#0001</v>
       </c>
       <c r="L15" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
@@ -15950,7 +15590,7 @@
     <row r="16" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55"/>
       <c r="B16" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C16" s="174" t="s">
         <v>25</v>
@@ -15966,7 +15606,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G16" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H16" s="160" t="str">
         <f t="shared" si="1"/>
@@ -15981,7 +15621,7 @@
       </c>
       <c r="K16" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$3,$I16,B16,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00366#0001</v>
+        <v>obj_00348#0001</v>
       </c>
       <c r="L16" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
@@ -15992,7 +15632,7 @@
     <row r="17" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C17" s="174" t="s">
         <v>24</v>
@@ -16008,7 +15648,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G17" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H17" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16023,7 +15663,7 @@
       </c>
       <c r="K17" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$3,$I17,B17,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00332#0001</v>
+        <v>obj_00326#0001</v>
       </c>
       <c r="L17" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
@@ -16034,7 +15674,7 @@
     <row r="18" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55"/>
       <c r="B18" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C18" s="174" t="s">
         <v>23</v>
@@ -16050,7 +15690,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G18" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H18" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16065,7 +15705,7 @@
       </c>
       <c r="K18" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$3,$I18,B18,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0034e#0001</v>
+        <v>obj_00337#0001</v>
       </c>
       <c r="L18" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
@@ -16076,7 +15716,7 @@
     <row r="19" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55"/>
       <c r="B19" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C19" s="174" t="s">
         <v>22</v>
@@ -16092,7 +15732,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G19" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H19" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16107,7 +15747,7 @@
       </c>
       <c r="K19" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$3,$I19,B19,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00349#0001</v>
+        <v>obj_0036a#0001</v>
       </c>
       <c r="L19" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
@@ -16118,7 +15758,7 @@
     <row r="20" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55"/>
       <c r="B20" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C20" s="174" t="s">
         <v>21</v>
@@ -16134,7 +15774,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G20" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H20" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16149,7 +15789,7 @@
       </c>
       <c r="K20" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$3,$I20,B20,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036b#0001</v>
+        <v>obj_0036f#0001</v>
       </c>
       <c r="L20" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
@@ -16160,7 +15800,7 @@
     <row r="21" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55"/>
       <c r="B21" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C21" s="174" t="s">
         <v>20</v>
@@ -16176,7 +15816,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G21" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H21" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16191,7 +15831,7 @@
       </c>
       <c r="K21" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$3,$I21,B21,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0034a#0001</v>
+        <v>obj_0036b#0001</v>
       </c>
       <c r="L21" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
@@ -16202,7 +15842,7 @@
     <row r="22" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55"/>
       <c r="B22" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C22" s="174" t="s">
         <v>19</v>
@@ -16218,7 +15858,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G22" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H22" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16233,7 +15873,7 @@
       </c>
       <c r="K22" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$3,$I22,B22,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00353#0001</v>
+        <v>obj_00344#0001</v>
       </c>
       <c r="L22" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
@@ -16244,7 +15884,7 @@
     <row r="23" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55"/>
       <c r="B23" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C23" s="174" t="s">
         <v>18</v>
@@ -16260,7 +15900,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G23" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H23" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16275,7 +15915,7 @@
       </c>
       <c r="K23" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$3,$I23,B23,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036a#0001</v>
+        <v>obj_00360#0001</v>
       </c>
       <c r="L23" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
@@ -16286,7 +15926,7 @@
     <row r="24" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55"/>
       <c r="B24" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C24" s="174" t="s">
         <v>17</v>
@@ -16302,7 +15942,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G24" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H24" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16317,7 +15957,7 @@
       </c>
       <c r="K24" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$3,$I24,B24,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00344#0001</v>
+        <v>obj_0032d#0001</v>
       </c>
       <c r="L24" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
@@ -16328,7 +15968,7 @@
     <row r="25" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55"/>
       <c r="B25" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C25" s="174" t="s">
         <v>16</v>
@@ -16344,7 +15984,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G25" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H25" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16359,7 +15999,7 @@
       </c>
       <c r="K25" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$3,$I25,B25,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0033f#0001</v>
+        <v>obj_0035e#0001</v>
       </c>
       <c r="L25" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
@@ -16370,7 +16010,7 @@
     <row r="26" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55"/>
       <c r="B26" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C26" s="174" t="s">
         <v>15</v>
@@ -16386,7 +16026,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G26" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H26" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16401,7 +16041,7 @@
       </c>
       <c r="K26" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$3,$I26,B26,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00333#0001</v>
+        <v>obj_00338#0001</v>
       </c>
       <c r="L26" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
@@ -16412,7 +16052,7 @@
     <row r="27" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55"/>
       <c r="B27" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C27" s="174" t="s">
         <v>14</v>
@@ -16428,7 +16068,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G27" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H27" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16443,7 +16083,7 @@
       </c>
       <c r="K27" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$3,$I27,B27,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0032f#0001</v>
+        <v>obj_0035c#0001</v>
       </c>
       <c r="L27" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K27)</f>
@@ -16454,7 +16094,7 @@
     <row r="28" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55"/>
       <c r="B28" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C28" s="174" t="s">
         <v>13</v>
@@ -16470,7 +16110,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G28" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H28" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16485,7 +16125,7 @@
       </c>
       <c r="K28" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$3,$I28,B28,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00362#0001</v>
+        <v>obj_0032f#0001</v>
       </c>
       <c r="L28" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K28)</f>
@@ -16496,7 +16136,7 @@
     <row r="29" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55"/>
       <c r="B29" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C29" s="174" t="s">
         <v>12</v>
@@ -16512,7 +16152,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G29" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H29" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16527,7 +16167,7 @@
       </c>
       <c r="K29" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J29,$C29,Calendar,$F29,$G29,$H29,$K$3,$I29,B29,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00356#0001</v>
+        <v>obj_00368#0001</v>
       </c>
       <c r="L29" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K29)</f>
@@ -16538,7 +16178,7 @@
     <row r="30" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55"/>
       <c r="B30" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C30" s="174" t="s">
         <v>11</v>
@@ -16554,7 +16194,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G30" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H30" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16569,7 +16209,7 @@
       </c>
       <c r="K30" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J30,$C30,Calendar,$F30,$G30,$H30,$K$3,$I30,B30,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00324#0001</v>
+        <v>obj_00325#0001</v>
       </c>
       <c r="L30" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K30)</f>
@@ -16580,7 +16220,7 @@
     <row r="31" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55"/>
       <c r="B31" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C31" s="174" t="s">
         <v>10</v>
@@ -16596,7 +16236,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G31" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H31" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16611,7 +16251,7 @@
       </c>
       <c r="K31" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J31,$C31,Calendar,$F31,$G31,$H31,$K$3,$I31,B31,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00369#0001</v>
+        <v>obj_0035b#0001</v>
       </c>
       <c r="L31" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K31)</f>
@@ -16622,7 +16262,7 @@
     <row r="32" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55"/>
       <c r="B32" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C32" s="174" t="s">
         <v>9</v>
@@ -16638,7 +16278,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G32" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H32" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16653,7 +16293,7 @@
       </c>
       <c r="K32" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J32,$C32,Calendar,$F32,$G32,$H32,$K$3,$I32,B32,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00336#0001</v>
+        <v>obj_00354#0001</v>
       </c>
       <c r="L32" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K32)</f>
@@ -16664,7 +16304,7 @@
     <row r="33" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55"/>
       <c r="B33" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C33" s="174" t="s">
         <v>8</v>
@@ -16680,7 +16320,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G33" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H33" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16695,7 +16335,7 @@
       </c>
       <c r="K33" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J33,$C33,Calendar,$F33,$G33,$H33,$K$3,$I33,B33,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00358#0001</v>
+        <v>obj_00349#0001</v>
       </c>
       <c r="L33" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K33)</f>
@@ -16706,7 +16346,7 @@
     <row r="34" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55"/>
       <c r="B34" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C34" s="174" t="s">
         <v>7</v>
@@ -16722,7 +16362,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G34" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H34" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16737,7 +16377,7 @@
       </c>
       <c r="K34" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J34,$C34,Calendar,$F34,$G34,$H34,$K$3,$I34,B34,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00327#0001</v>
+        <v>obj_00340#0001</v>
       </c>
       <c r="L34" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K34)</f>
@@ -16748,7 +16388,7 @@
     <row r="35" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55"/>
       <c r="B35" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C35" s="174" t="s">
         <v>6</v>
@@ -16764,7 +16404,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G35" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H35" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16779,7 +16419,7 @@
       </c>
       <c r="K35" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J35,$C35,Calendar,$F35,$G35,$H35,$K$3,$I35,B35,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00365#0001</v>
+        <v>obj_00369#0001</v>
       </c>
       <c r="L35" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K35)</f>
@@ -16790,7 +16430,7 @@
     <row r="36" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55"/>
       <c r="B36" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C36" s="174" t="s">
         <v>5</v>
@@ -16806,7 +16446,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G36" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H36" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16821,7 +16461,7 @@
       </c>
       <c r="K36" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J36,$C36,Calendar,$F36,$G36,$H36,$K$3,$I36,B36,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00325#0001</v>
+        <v>obj_00324#0001</v>
       </c>
       <c r="L36" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K36)</f>
@@ -16832,7 +16472,7 @@
     <row r="37" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55"/>
       <c r="B37" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C37" s="174" t="s">
         <v>4</v>
@@ -16848,7 +16488,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G37" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H37" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16863,7 +16503,7 @@
       </c>
       <c r="K37" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J37,$C37,Calendar,$F37,$G37,$H37,$K$3,$I37,B37,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0032c#0001</v>
+        <v>obj_00332#0001</v>
       </c>
       <c r="L37" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K37)</f>
@@ -16874,7 +16514,7 @@
     <row r="38" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55"/>
       <c r="B38" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C38" s="174" t="s">
         <v>3</v>
@@ -16890,7 +16530,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G38" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H38" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16905,7 +16545,7 @@
       </c>
       <c r="K38" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J38,$C38,Calendar,$F38,$G38,$H38,$K$3,$I38,B38,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00348#0001</v>
+        <v>obj_00367#0001</v>
       </c>
       <c r="L38" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K38)</f>
@@ -16916,7 +16556,7 @@
     <row r="39" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55"/>
       <c r="B39" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C39" s="174" t="s">
         <v>2</v>
@@ -16932,7 +16572,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G39" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H39" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16947,7 +16587,7 @@
       </c>
       <c r="K39" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J39,$C39,Calendar,$F39,$G39,$H39,$K$3,$I39,B39,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0033b#0001</v>
+        <v>obj_00358#0001</v>
       </c>
       <c r="L39" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K39)</f>
@@ -16958,7 +16598,7 @@
     <row r="40" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55"/>
       <c r="B40" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C40" s="174" t="s">
         <v>1</v>
@@ -16974,7 +16614,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G40" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H40" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16989,7 +16629,7 @@
       </c>
       <c r="K40" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J40,$C40,Calendar,$F40,$G40,$H40,$K$3,$I40,B40,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0032b#0001</v>
+        <v>obj_00366#0001</v>
       </c>
       <c r="L40" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K40)</f>
@@ -17000,7 +16640,7 @@
     <row r="41" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55"/>
       <c r="B41" s="174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C41" s="174" t="s">
         <v>0</v>
@@ -17016,7 +16656,7 @@
         <v>Semiannual</v>
       </c>
       <c r="G41" s="160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H41" s="160" t="str">
         <f t="shared" si="1"/>
@@ -17031,7 +16671,7 @@
       </c>
       <c r="K41" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J41,$C41,Calendar,$F41,$G41,$H41,$K$3,$I41,B41,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00331#0001</v>
+        <v>obj_0034e#0001</v>
       </c>
       <c r="L41" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K41)</f>

--- a/QuantLibXL/Data2/XLS/JPY_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/JPY_YCSTDBootstrapping.xlsx
@@ -15,6 +15,9 @@
     <sheet name="Futures" sheetId="9" r:id="rId6"/>
     <sheet name="Swaps" sheetId="13" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <definedNames>
     <definedName name="Accuracy">'General Settings'!$D$19</definedName>
     <definedName name="BondBasisDayCounter">'General Settings'!$M$13</definedName>
@@ -1779,6 +1782,65 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="General Settings"/>
+      <sheetName val="Libor"/>
+      <sheetName val="Tibor"/>
+      <sheetName val="LiborSwapIsdaFixAm"/>
+      <sheetName val="LiborSwapForBasisCalc"/>
+      <sheetName val="LiborSwapIsdaFixPm"/>
+      <sheetName val="Deposits"/>
+      <sheetName val="OIS"/>
+      <sheetName val="FRA"/>
+      <sheetName val="Futures3M_TIBOR"/>
+      <sheetName val="Futures3M"/>
+      <sheetName val="FuturesHWConvAdj"/>
+      <sheetName val="BasisSwap1MxM"/>
+      <sheetName val="BasisSwap3M6M"/>
+      <sheetName val="Swap3M_TIBOR"/>
+      <sheetName val="Swap6M"/>
+      <sheetName val="Swaps1M"/>
+      <sheetName val="Swap3M"/>
+      <sheetName val="ON"/>
+      <sheetName val="1M (2)"/>
+      <sheetName val="3M (2)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="14">
+          <cell r="D14" t="str">
+            <v>JPYSTD#0000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2092,7 +2154,7 @@
     <row r="1" spans="1:33" s="3" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Apr 29 2014 14:47:17</v>
+        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Oct 13 2014 15:51:57</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2579,7 +2641,7 @@
       </c>
       <c r="D14" s="22" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_JPYYCSTD#0004</v>
+        <v>_JPYYCSTD#0001</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2933,11 +2995,11 @@
       <c r="B23" s="5"/>
       <c r="C23" s="9">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41801</v>
+        <v>41943</v>
       </c>
       <c r="D23" s="8">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>1.8928831220685265E-2</v>
+        <v>1.6428896230469198E-2</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2974,11 +3036,11 @@
       <c r="B24" s="5"/>
       <c r="C24" s="7">
         <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>52761</v>
+        <v>52908</v>
       </c>
       <c r="D24" s="6">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>5.4313906545588734E-4</v>
+        <v>4.3455251908258843E-4</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -3054,8 +3116,8 @@
       <c r="A26" s="3"/>
       <c r="B26" s="5"/>
       <c r="C26" s="7" t="str">
-        <f>Currency&amp;"STD"</f>
-        <v>JPYSTD</v>
+        <f>[1]Libor!$D$14</f>
+        <v>JPYSTD#0000</v>
       </c>
       <c r="D26" s="6" t="b">
         <f>_xll.qlRelinkableHandleLinkTo(C26,YieldCurve)</f>
@@ -4534,7 +4596,7 @@
       </c>
       <c r="E2" s="121" t="str">
         <f>Deposits!E3</f>
-        <v>obj_00323#0001</v>
+        <v>obj_0032a#0001</v>
       </c>
       <c r="F2" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E2),"LastFixing","D"),"Libor","")</f>
@@ -4557,11 +4619,11 @@
       </c>
       <c r="L2" s="123">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41801</v>
+        <v>41943</v>
       </c>
       <c r="M2" s="124">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41802</v>
+        <v>41947</v>
       </c>
       <c r="N2" s="63">
         <v>10</v>
@@ -4578,7 +4640,7 @@
       </c>
       <c r="E3" s="121" t="str">
         <f>Deposits!E4</f>
-        <v>obj_00321#0001</v>
+        <v>obj_00328#0001</v>
       </c>
       <c r="F3" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E3),"LastFixing","D"),"Libor","")</f>
@@ -4586,7 +4648,7 @@
       </c>
       <c r="G3" s="122">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
-        <v>5.3569999999999996E-4</v>
+        <v>4.2860000000000001E-4</v>
       </c>
       <c r="H3" s="122"/>
       <c r="I3" s="65" t="b">
@@ -4601,11 +4663,11 @@
       </c>
       <c r="L3" s="123">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M3" s="124">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41806</v>
+        <v>41949</v>
       </c>
       <c r="N3" s="63">
         <v>20</v>
@@ -4622,7 +4684,7 @@
       </c>
       <c r="E4" s="121" t="str">
         <f>Deposits!E5</f>
-        <v>obj_0030e#0001</v>
+        <v>obj_00322#0001</v>
       </c>
       <c r="F4" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E4),"LastFixing","D"),"Libor","")</f>
@@ -4630,7 +4692,7 @@
       </c>
       <c r="G4" s="122">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>7.000000000000001E-4</v>
+        <v>5.1429999999999998E-4</v>
       </c>
       <c r="H4" s="122"/>
       <c r="I4" s="65" t="b">
@@ -4645,11 +4707,11 @@
       </c>
       <c r="L4" s="123">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41803</v>
+        <v>41947</v>
       </c>
       <c r="M4" s="124">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41810</v>
+        <v>41954</v>
       </c>
       <c r="N4" s="63">
         <v>30</v>
@@ -4666,7 +4728,7 @@
       </c>
       <c r="E5" s="121" t="str">
         <f>Deposits!E8</f>
-        <v>obj_00313#0001</v>
+        <v>obj_0031d#0001</v>
       </c>
       <c r="F5" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E5),"LastFixing","D"),"Libor","")</f>
@@ -4674,7 +4736,7 @@
       </c>
       <c r="G5" s="122">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>9.7860000000000004E-4</v>
+        <v>8.3000000000000001E-4</v>
       </c>
       <c r="H5" s="122"/>
       <c r="I5" s="65" t="b">
@@ -4689,11 +4751,11 @@
       </c>
       <c r="L5" s="123">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41803</v>
+        <v>41947</v>
       </c>
       <c r="M5" s="124">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41834</v>
+        <v>41977</v>
       </c>
       <c r="N5" s="63">
         <v>60</v>
@@ -4710,7 +4772,7 @@
       </c>
       <c r="E6" s="121" t="str">
         <f>Deposits!E9</f>
-        <v>obj_00314#0001</v>
+        <v>obj_00320#0001</v>
       </c>
       <c r="F6" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E6),"LastFixing","D"),"Libor","")</f>
@@ -4718,7 +4780,7 @@
       </c>
       <c r="G6" s="122">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>1.2286E-3</v>
+        <v>9.9290000000000012E-4</v>
       </c>
       <c r="H6" s="122"/>
       <c r="I6" s="65" t="b">
@@ -4733,11 +4795,11 @@
       </c>
       <c r="L6" s="123">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41803</v>
+        <v>41947</v>
       </c>
       <c r="M6" s="124">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41864</v>
+        <v>42009</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4748,7 +4810,7 @@
       </c>
       <c r="E7" s="121" t="str">
         <f>Deposits!E10</f>
-        <v>obj_00315#0001</v>
+        <v>obj_00323#0001</v>
       </c>
       <c r="F7" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E7),"LastFixing","D"),"Libor","")</f>
@@ -4756,7 +4818,7 @@
       </c>
       <c r="G7" s="122">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
-        <v>1.3500000000000001E-3</v>
+        <v>1.1357000000000001E-3</v>
       </c>
       <c r="H7" s="122"/>
       <c r="I7" s="65" t="b">
@@ -4771,11 +4833,11 @@
       </c>
       <c r="L7" s="123">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41803</v>
+        <v>41947</v>
       </c>
       <c r="M7" s="124">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41897</v>
+        <v>42039</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4786,7 +4848,7 @@
       </c>
       <c r="E8" s="121" t="str">
         <f>Deposits!E13</f>
-        <v>obj_00317#0001</v>
+        <v>obj_00316#0001</v>
       </c>
       <c r="F8" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E8),"LastFixing","D"),"Libor","")</f>
@@ -4794,7 +4856,7 @@
       </c>
       <c r="G8" s="122">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
-        <v>1.8179000000000001E-3</v>
+        <v>1.6142999999999999E-3</v>
       </c>
       <c r="H8" s="122"/>
       <c r="I8" s="65" t="b">
@@ -4809,11 +4871,11 @@
       </c>
       <c r="L8" s="123">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41803</v>
+        <v>41947</v>
       </c>
       <c r="M8" s="124">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41988</v>
+        <v>42129</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4824,7 +4886,7 @@
       </c>
       <c r="E9" s="121" t="str">
         <f>Deposits!E19</f>
-        <v>obj_00316#0001</v>
+        <v>obj_00326#0001</v>
       </c>
       <c r="F9" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E9),"LastFixing","D"),"Libor","")</f>
@@ -4832,7 +4894,7 @@
       </c>
       <c r="G9" s="122">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
-        <v>3.3356999999999996E-3</v>
+        <v>3.0042999999999997E-3</v>
       </c>
       <c r="H9" s="122"/>
       <c r="I9" s="65" t="b">
@@ -4847,11 +4909,11 @@
       </c>
       <c r="L9" s="123">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41803</v>
+        <v>41947</v>
       </c>
       <c r="M9" s="124">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>42170</v>
+        <v>42312</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4867,7 +4929,7 @@
       </c>
       <c r="E10" s="137" t="str">
         <f>FRAs!G3</f>
-        <v>obj_00318#0001</v>
+        <v>obj_0031a#0001</v>
       </c>
       <c r="F10" s="137" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E10),"LastFixing","D"),"Libor","")</f>
@@ -4875,7 +4937,7 @@
       </c>
       <c r="G10" s="138">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
-        <v>1.3500000000000001E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="H10" s="138"/>
       <c r="I10" s="139" t="b">
@@ -4889,11 +4951,11 @@
       </c>
       <c r="L10" s="140">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41834</v>
+        <v>41977</v>
       </c>
       <c r="M10" s="141">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41926</v>
+        <v>42067</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4909,7 +4971,7 @@
       </c>
       <c r="E11" s="121" t="str">
         <f>FRAs!G4</f>
-        <v>obj_00319#0001</v>
+        <v>obj_0031c#0001</v>
       </c>
       <c r="F11" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E11),"LastFixing","D"),"Libor","")</f>
@@ -4917,7 +4979,7 @@
       </c>
       <c r="G11" s="122">
         <f>_xll.qlRateHelperQuoteValue($E11,Trigger)</f>
-        <v>1.3500000000000001E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="H11" s="122"/>
       <c r="I11" s="65" t="b">
@@ -4931,11 +4993,11 @@
       </c>
       <c r="L11" s="123">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>41864</v>
+        <v>42009</v>
       </c>
       <c r="M11" s="124">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>41956</v>
+        <v>42101</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4951,7 +5013,7 @@
       </c>
       <c r="E12" s="121" t="str">
         <f>FRAs!G5</f>
-        <v>obj_0031f#0001</v>
+        <v>obj_00318#0001</v>
       </c>
       <c r="F12" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E12),"LastFixing","D"),"Libor","")</f>
@@ -4959,7 +5021,7 @@
       </c>
       <c r="G12" s="122">
         <f>_xll.qlRateHelperQuoteValue($E12,Trigger)</f>
-        <v>1.3500000000000001E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="H12" s="122"/>
       <c r="I12" s="65" t="b">
@@ -4973,11 +5035,11 @@
       </c>
       <c r="L12" s="123">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>41897</v>
+        <v>42039</v>
       </c>
       <c r="M12" s="124">
         <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>41988</v>
+        <v>42131</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4993,7 +5055,7 @@
       </c>
       <c r="E13" s="121" t="str">
         <f>FRAs!G6</f>
-        <v>obj_0031b#0001</v>
+        <v>obj_00321#0001</v>
       </c>
       <c r="F13" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E13),"LastFixing","D"),"Libor","")</f>
@@ -5001,7 +5063,7 @@
       </c>
       <c r="G13" s="122">
         <f>_xll.qlRateHelperQuoteValue($E13,Trigger)</f>
-        <v>1.3500000000000001E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="H13" s="122"/>
       <c r="I13" s="65" t="b">
@@ -5015,11 +5077,11 @@
       </c>
       <c r="L13" s="123">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>41925</v>
+        <v>42067</v>
       </c>
       <c r="M13" s="124">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>42017</v>
+        <v>42159</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5035,7 +5097,7 @@
       </c>
       <c r="E14" s="121" t="str">
         <f>FRAs!G7</f>
-        <v>obj_0031a#0001</v>
+        <v>obj_0031e#0001</v>
       </c>
       <c r="F14" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E14),"LastFixing","D"),"Libor","")</f>
@@ -5043,7 +5105,7 @@
       </c>
       <c r="G14" s="122">
         <f>_xll.qlRateHelperQuoteValue($E14,Trigger)</f>
-        <v>1.2999999999999999E-3</v>
+        <v>1.0500000000000002E-3</v>
       </c>
       <c r="H14" s="122"/>
       <c r="I14" s="65" t="b">
@@ -5057,11 +5119,11 @@
       </c>
       <c r="L14" s="123">
         <f>_xll.qlRateHelperEarliestDate($E14,Trigger)</f>
-        <v>41956</v>
+        <v>42101</v>
       </c>
       <c r="M14" s="124">
         <f>_xll.qlRateHelperLatestDate($E14,Trigger)</f>
-        <v>42048</v>
+        <v>42192</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5077,7 +5139,7 @@
       </c>
       <c r="E15" s="121" t="str">
         <f>FRAs!G8</f>
-        <v>obj_0031c#0001</v>
+        <v>obj_00324#0001</v>
       </c>
       <c r="F15" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E15),"LastFixing","D"),"Libor","")</f>
@@ -5085,7 +5147,7 @@
       </c>
       <c r="G15" s="122">
         <f>_xll.qlRateHelperQuoteValue($E15,Trigger)</f>
-        <v>1.2999999999999999E-3</v>
+        <v>1.0500000000000002E-3</v>
       </c>
       <c r="H15" s="122"/>
       <c r="I15" s="65" t="b">
@@ -5099,11 +5161,11 @@
       </c>
       <c r="L15" s="123">
         <f>_xll.qlRateHelperEarliestDate($E15,Trigger)</f>
-        <v>41988</v>
+        <v>42129</v>
       </c>
       <c r="M15" s="124">
         <f>_xll.qlRateHelperLatestDate($E15,Trigger)</f>
-        <v>42079</v>
+        <v>42221</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5119,7 +5181,7 @@
       </c>
       <c r="E16" s="121" t="str">
         <f>FRAs!G9</f>
-        <v>obj_00311#0001</v>
+        <v>obj_00319#0001</v>
       </c>
       <c r="F16" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E16),"LastFixing","D"),"Libor","")</f>
@@ -5127,7 +5189,7 @@
       </c>
       <c r="G16" s="122">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
-        <v>1.2999999999999999E-3</v>
+        <v>1.0500000000000002E-3</v>
       </c>
       <c r="H16" s="122"/>
       <c r="I16" s="65" t="b">
@@ -5141,11 +5203,11 @@
       </c>
       <c r="L16" s="123">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>42076</v>
+        <v>42220</v>
       </c>
       <c r="M16" s="124">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>42170</v>
+        <v>42312</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5161,7 +5223,7 @@
       </c>
       <c r="E17" s="121" t="str">
         <f>FRAs!G10</f>
-        <v>obj_0030f#0001</v>
+        <v>obj_00325#0001</v>
       </c>
       <c r="F17" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E17),"LastFixing","D"),"Libor","")</f>
@@ -5169,7 +5231,7 @@
       </c>
       <c r="G17" s="122">
         <f>_xll.qlRateHelperQuoteValue($E17,Trigger)</f>
-        <v>1.25E-3</v>
+        <v>1.0500000000000002E-3</v>
       </c>
       <c r="H17" s="122"/>
       <c r="I17" s="65" t="b">
@@ -5183,11 +5245,11 @@
       </c>
       <c r="L17" s="123">
         <f>_xll.qlRateHelperEarliestDate($E17,Trigger)</f>
-        <v>42170</v>
+        <v>42312</v>
       </c>
       <c r="M17" s="124">
         <f>_xll.qlRateHelperLatestDate($E17,Trigger)</f>
-        <v>42262</v>
+        <v>42404</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5203,7 +5265,7 @@
       </c>
       <c r="E18" s="121" t="str">
         <f>FRAs!G11</f>
-        <v>obj_0031d#0001</v>
+        <v>obj_00327#0001</v>
       </c>
       <c r="F18" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E18),"LastFixing","D"),"Libor","")</f>
@@ -5211,7 +5273,7 @@
       </c>
       <c r="G18" s="122">
         <f>_xll.qlRateHelperQuoteValue($E18,Trigger)</f>
-        <v>1.25E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="H18" s="122"/>
       <c r="I18" s="65" t="b">
@@ -5225,11 +5287,11 @@
       </c>
       <c r="L18" s="123">
         <f>_xll.qlRateHelperEarliestDate($E18,Trigger)</f>
-        <v>42261</v>
+        <v>42404</v>
       </c>
       <c r="M18" s="124">
         <f>_xll.qlRateHelperLatestDate($E18,Trigger)</f>
-        <v>42352</v>
+        <v>42496</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5245,7 +5307,7 @@
       </c>
       <c r="E19" s="121" t="str">
         <f>FRAs!G12</f>
-        <v>obj_0031e#0001</v>
+        <v>obj_00317#0001</v>
       </c>
       <c r="F19" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E19),"LastFixing","D"),"Libor","")</f>
@@ -5253,7 +5315,7 @@
       </c>
       <c r="G19" s="122">
         <f>_xll.qlRateHelperQuoteValue($E19,Trigger)</f>
-        <v>1.2999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="H19" s="122"/>
       <c r="I19" s="65" t="b">
@@ -5267,11 +5329,11 @@
       </c>
       <c r="L19" s="123">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>42352</v>
+        <v>42494</v>
       </c>
       <c r="M19" s="124">
         <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
-        <v>42443</v>
+        <v>42586</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5287,7 +5349,7 @@
       </c>
       <c r="E20" s="126" t="str">
         <f>FRAs!G13</f>
-        <v>obj_00320#0001</v>
+        <v>obj_0031f#0001</v>
       </c>
       <c r="F20" s="126" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E20),"LastFixing","D"),"Libor","")</f>
@@ -5295,7 +5357,7 @@
       </c>
       <c r="G20" s="127">
         <f>_xll.qlRateHelperQuoteValue($E20,Trigger)</f>
-        <v>1.3500000000000001E-3</v>
+        <v>1.0500000000000002E-3</v>
       </c>
       <c r="H20" s="127"/>
       <c r="I20" s="128" t="b">
@@ -5309,11 +5371,11 @@
       </c>
       <c r="L20" s="129">
         <f>_xll.qlRateHelperEarliestDate($E20,Trigger)</f>
-        <v>42443</v>
+        <v>42586</v>
       </c>
       <c r="M20" s="130">
         <f>_xll.qlRateHelperLatestDate($E20,Trigger)</f>
-        <v>42535</v>
+        <v>42678</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5327,15 +5389,15 @@
       </c>
       <c r="D21" s="121" t="str">
         <f t="array" ref="D21:D62">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A21:$A62)</f>
-        <v>M4</v>
+        <v>X4</v>
       </c>
       <c r="E21" s="121" t="str">
         <f>Futures!H3</f>
-        <v>obj_0036d#0001</v>
+        <v>obj_00335#0001</v>
       </c>
       <c r="F21" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E21),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM4_Quote</v>
+        <v>JPYFUT3MX4_Quote</v>
       </c>
       <c r="G21" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E21,Trigger)</f>
@@ -5373,15 +5435,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D22" s="121" t="str">
-        <v>N4</v>
+        <v>Z4</v>
       </c>
       <c r="E22" s="121" t="str">
         <f>Futures!H4</f>
-        <v>obj_00356#0001</v>
+        <v>obj_0034f#0001</v>
       </c>
       <c r="F22" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E22),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MN4_Quote</v>
+        <v>JPYFUT3MZ4_Quote</v>
       </c>
       <c r="G22" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E22,Trigger)</f>
@@ -5419,15 +5481,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D23" s="121" t="str">
-        <v>Q4</v>
+        <v>F5</v>
       </c>
       <c r="E23" s="121" t="str">
         <f>Futures!H5</f>
-        <v>obj_00365#0001</v>
+        <v>obj_0034d#0001</v>
       </c>
       <c r="F23" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E23),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MQ4_Quote</v>
+        <v>JPYFUT3MF5_Quote</v>
       </c>
       <c r="G23" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E23,Trigger)</f>
@@ -5465,15 +5527,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D24" s="121" t="str">
-        <v>U4</v>
+        <v>G5</v>
       </c>
       <c r="E24" s="121" t="str">
         <f>Futures!H6</f>
-        <v>obj_0032c#0001</v>
+        <v>obj_00336#0001</v>
       </c>
       <c r="F24" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E24),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU4_Quote</v>
+        <v>JPYFUT3MG5_Quote</v>
       </c>
       <c r="G24" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E24,Trigger)</f>
@@ -5511,15 +5573,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D25" s="121" t="str">
-        <v>V4</v>
+        <v>H5</v>
       </c>
       <c r="E25" s="121" t="str">
         <f>Futures!H7</f>
-        <v>obj_00350#0001</v>
+        <v>obj_00332#0001</v>
       </c>
       <c r="F25" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E25),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MV4_Quote</v>
+        <v>JPYFUT3MH5_Quote</v>
       </c>
       <c r="G25" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E25,Trigger)</f>
@@ -5557,15 +5619,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D26" s="121" t="str">
-        <v>X4</v>
+        <v>J5</v>
       </c>
       <c r="E26" s="121" t="str">
         <f>Futures!H8</f>
-        <v>obj_0033a#0001</v>
+        <v>obj_0032f#0001</v>
       </c>
       <c r="F26" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E26),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MX4_Quote</v>
+        <v>JPYFUT3MJ5_Quote</v>
       </c>
       <c r="G26" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E26,Trigger)</f>
@@ -5603,15 +5665,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D27" s="121" t="str">
-        <v>Z4</v>
+        <v>K5</v>
       </c>
       <c r="E27" s="121" t="str">
         <f>Futures!H9</f>
-        <v>obj_0036e#0001</v>
+        <v>obj_00353#0001</v>
       </c>
       <c r="F27" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E27),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ4_Quote</v>
+        <v>JPYFUT3MK5_Quote</v>
       </c>
       <c r="G27" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E27,Trigger)</f>
@@ -5649,15 +5711,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D28" s="121" t="str">
-        <v>F5</v>
+        <v>M5</v>
       </c>
       <c r="E28" s="121" t="str">
         <f>Futures!H10</f>
-        <v>obj_00342#0001</v>
+        <v>obj_00330#0001</v>
       </c>
       <c r="F28" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E28),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MF5_Quote</v>
+        <v>JPYFUT3MM5_Quote</v>
       </c>
       <c r="G28" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E28,Trigger)</f>
@@ -5695,15 +5757,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D29" s="121" t="str">
-        <v>G5</v>
+        <v>N5</v>
       </c>
       <c r="E29" s="121" t="str">
         <f>Futures!H11</f>
-        <v>obj_00339#0001</v>
+        <v>obj_00374#0001</v>
       </c>
       <c r="F29" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E29),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MG5_Quote</v>
+        <v>JPYFUT3MN5_Quote</v>
       </c>
       <c r="G29" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E29,Trigger)</f>
@@ -5741,15 +5803,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D30" s="121" t="str">
-        <v>H5</v>
+        <v>Q5</v>
       </c>
       <c r="E30" s="121" t="str">
         <f>Futures!H12</f>
-        <v>obj_00328#0001</v>
+        <v>obj_0035f#0001</v>
       </c>
       <c r="F30" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E30),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH5_Quote</v>
+        <v>JPYFUT3MQ5_Quote</v>
       </c>
       <c r="G30" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E30,Trigger)</f>
@@ -5787,15 +5849,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D31" s="121" t="str">
-        <v>J5</v>
+        <v>U5</v>
       </c>
       <c r="E31" s="121" t="str">
         <f>Futures!H13</f>
-        <v>obj_0032e#0001</v>
+        <v>obj_00368#0001</v>
       </c>
       <c r="F31" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E31),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MJ5_Quote</v>
+        <v>JPYFUT3MU5_Quote</v>
       </c>
       <c r="G31" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E31,Trigger)</f>
@@ -5833,15 +5895,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D32" s="121" t="str">
-        <v>K5</v>
+        <v>V5</v>
       </c>
       <c r="E32" s="121" t="str">
         <f>Futures!H14</f>
-        <v>obj_00353#0001</v>
+        <v>obj_00345#0001</v>
       </c>
       <c r="F32" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E32),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MK5_Quote</v>
+        <v>JPYFUT3MV5_Quote</v>
       </c>
       <c r="G32" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E32,Trigger)</f>
@@ -5879,15 +5941,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D33" s="121" t="str">
-        <v>M5</v>
+        <v>Z5</v>
       </c>
       <c r="E33" s="121" t="str">
         <f>Futures!H15</f>
-        <v>obj_00335#0001</v>
+        <v>obj_00358#0001</v>
       </c>
       <c r="F33" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E33),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM5_Quote</v>
+        <v>JPYFUT3MZ5_Quote</v>
       </c>
       <c r="G33" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E33,Trigger)</f>
@@ -5925,15 +5987,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D34" s="121" t="str">
-        <v>U5</v>
+        <v>H6</v>
       </c>
       <c r="E34" s="121" t="str">
         <f>Futures!H16</f>
-        <v>obj_00361#0001</v>
+        <v>obj_00367#0001</v>
       </c>
       <c r="F34" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E34),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU5_Quote</v>
+        <v>JPYFUT3MH6_Quote</v>
       </c>
       <c r="G34" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E34,Trigger)</f>
@@ -5971,15 +6033,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D35" s="121" t="str">
-        <v>Z5</v>
+        <v>M6</v>
       </c>
       <c r="E35" s="121" t="str">
         <f>Futures!H17</f>
-        <v>obj_00364#0001</v>
+        <v>obj_00349#0001</v>
       </c>
       <c r="F35" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E35),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ5_Quote</v>
+        <v>JPYFUT3MM6_Quote</v>
       </c>
       <c r="G35" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E35,Trigger)</f>
@@ -6017,15 +6079,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D36" s="121" t="str">
-        <v>H6</v>
+        <v>U6</v>
       </c>
       <c r="E36" s="121" t="str">
         <f>Futures!H18</f>
-        <v>obj_00355#0001</v>
+        <v>obj_0034c#0001</v>
       </c>
       <c r="F36" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E36),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH6_Quote</v>
+        <v>JPYFUT3MU6_Quote</v>
       </c>
       <c r="G36" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E36,Trigger)</f>
@@ -6063,15 +6125,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D37" s="121" t="str">
-        <v>M6</v>
+        <v>Z6</v>
       </c>
       <c r="E37" s="121" t="str">
         <f>Futures!H19</f>
-        <v>obj_0034b#0001</v>
+        <v>obj_0033d#0001</v>
       </c>
       <c r="F37" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E37),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM6_Quote</v>
+        <v>JPYFUT3MZ6_Quote</v>
       </c>
       <c r="G37" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E37,Trigger)</f>
@@ -6109,15 +6171,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D38" s="121" t="str">
-        <v>U6</v>
+        <v>H7</v>
       </c>
       <c r="E38" s="121" t="str">
         <f>Futures!H20</f>
-        <v>obj_00363#0001</v>
+        <v>obj_0035d#0001</v>
       </c>
       <c r="F38" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E38),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU6_Quote</v>
+        <v>JPYFUT3MH7_Quote</v>
       </c>
       <c r="G38" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E38,Trigger)</f>
@@ -6155,15 +6217,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D39" s="121" t="str">
-        <v>Z6</v>
+        <v>M7</v>
       </c>
       <c r="E39" s="121" t="str">
         <f>Futures!H21</f>
-        <v>obj_00330#0001</v>
+        <v>obj_00347#0001</v>
       </c>
       <c r="F39" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E39),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ6_Quote</v>
+        <v>JPYFUT3MM7_Quote</v>
       </c>
       <c r="G39" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E39,Trigger)</f>
@@ -6201,15 +6263,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D40" s="121" t="str">
-        <v>H7</v>
+        <v>U7</v>
       </c>
       <c r="E40" s="121" t="str">
         <f>Futures!H22</f>
-        <v>obj_0035a#0001</v>
+        <v>obj_00359#0001</v>
       </c>
       <c r="F40" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E40),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH7_Quote</v>
+        <v>JPYFUT3MU7_Quote</v>
       </c>
       <c r="G40" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E40,Trigger)</f>
@@ -6247,15 +6309,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D41" s="121" t="str">
-        <v>M7</v>
+        <v>Z7</v>
       </c>
       <c r="E41" s="121" t="str">
         <f>Futures!H23</f>
-        <v>obj_00336#0001</v>
+        <v>obj_0035b#0001</v>
       </c>
       <c r="F41" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E41),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM7_Quote</v>
+        <v>JPYFUT3MZ7_Quote</v>
       </c>
       <c r="G41" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E41,Trigger)</f>
@@ -6293,15 +6355,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D42" s="121" t="str">
-        <v>U7</v>
+        <v>H8</v>
       </c>
       <c r="E42" s="121" t="str">
         <f>Futures!H24</f>
-        <v>obj_00341#0001</v>
+        <v>obj_0034e#0001</v>
       </c>
       <c r="F42" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E42),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU7_Quote</v>
+        <v>JPYFUT3MH8_Quote</v>
       </c>
       <c r="G42" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E42,Trigger)</f>
@@ -6339,15 +6401,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D43" s="121" t="str">
-        <v>Z7</v>
+        <v>M8</v>
       </c>
       <c r="E43" s="121" t="str">
         <f>Futures!H25</f>
-        <v>obj_00331#0001</v>
+        <v>obj_0034a#0001</v>
       </c>
       <c r="F43" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E43),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ7_Quote</v>
+        <v>JPYFUT3MM8_Quote</v>
       </c>
       <c r="G43" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E43,Trigger)</f>
@@ -6385,15 +6447,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D44" s="121" t="str">
-        <v>H8</v>
+        <v>U8</v>
       </c>
       <c r="E44" s="121" t="str">
         <f>Futures!H26</f>
-        <v>obj_0035f#0001</v>
+        <v>obj_00334#0001</v>
       </c>
       <c r="F44" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E44),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH8_Quote</v>
+        <v>JPYFUT3MU8_Quote</v>
       </c>
       <c r="G44" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E44,Trigger)</f>
@@ -6431,15 +6493,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D45" s="121" t="str">
-        <v>M8</v>
+        <v>Z8</v>
       </c>
       <c r="E45" s="121" t="str">
         <f>Futures!H27</f>
-        <v>obj_00351#0001</v>
+        <v>obj_00355#0001</v>
       </c>
       <c r="F45" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E45),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM8_Quote</v>
+        <v>JPYFUT3MZ8_Quote</v>
       </c>
       <c r="G45" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E45,Trigger)</f>
@@ -6477,15 +6539,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D46" s="121" t="str">
-        <v>U8</v>
+        <v>H9</v>
       </c>
       <c r="E46" s="121" t="str">
         <f>Futures!H28</f>
-        <v>obj_0034c#0001</v>
+        <v>obj_0035c#0001</v>
       </c>
       <c r="F46" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E46),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU8_Quote</v>
+        <v>JPYFUT3MH9_Quote</v>
       </c>
       <c r="G46" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E46,Trigger)</f>
@@ -6523,15 +6585,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D47" s="121" t="str">
-        <v>Z8</v>
+        <v>M9</v>
       </c>
       <c r="E47" s="121" t="str">
         <f>Futures!H29</f>
-        <v>obj_00329#0001</v>
+        <v>obj_00371#0001</v>
       </c>
       <c r="F47" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E47),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ8_Quote</v>
+        <v>JPYFUT3MM9_Quote</v>
       </c>
       <c r="G47" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E47,Trigger)</f>
@@ -6569,15 +6631,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D48" s="121" t="str">
-        <v>H9</v>
+        <v>U9</v>
       </c>
       <c r="E48" s="121" t="str">
         <f>Futures!H30</f>
-        <v>obj_0034f#0001</v>
+        <v>obj_00364#0001</v>
       </c>
       <c r="F48" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E48),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH9_Quote</v>
+        <v>JPYFUT3MU9_Quote</v>
       </c>
       <c r="G48" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E48,Trigger)</f>
@@ -6615,15 +6677,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D49" s="121" t="str">
-        <v>M9</v>
+        <v>Z9</v>
       </c>
       <c r="E49" s="121" t="str">
         <f>Futures!H31</f>
-        <v>obj_00347#0001</v>
+        <v>obj_00360#0001</v>
       </c>
       <c r="F49" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E49),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM9_Quote</v>
+        <v>JPYFUT3MZ9_Quote</v>
       </c>
       <c r="G49" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E49,Trigger)</f>
@@ -6661,15 +6723,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D50" s="121" t="str">
-        <v>U9</v>
+        <v>H0</v>
       </c>
       <c r="E50" s="121" t="str">
         <f>Futures!H32</f>
-        <v>obj_00370#0001</v>
+        <v>obj_0035a#0001</v>
       </c>
       <c r="F50" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E50),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU9_Quote</v>
+        <v>JPYFUT3MH0_Quote</v>
       </c>
       <c r="G50" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E50,Trigger)</f>
@@ -6707,15 +6769,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D51" s="121" t="str">
-        <v>Z9</v>
+        <v>M0</v>
       </c>
       <c r="E51" s="121" t="str">
         <f>Futures!H33</f>
-        <v>obj_0033d#0001</v>
+        <v>obj_00340#0001</v>
       </c>
       <c r="F51" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E51),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ9_Quote</v>
+        <v>JPYFUT3MM0_Quote</v>
       </c>
       <c r="G51" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E51,Trigger)</f>
@@ -6753,15 +6815,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D52" s="121" t="str">
-        <v>H0</v>
+        <v>U0</v>
       </c>
       <c r="E52" s="121" t="str">
         <f>Futures!H34</f>
-        <v>obj_0032b#0001</v>
+        <v>obj_0032d#0001</v>
       </c>
       <c r="F52" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E52),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH0_Quote</v>
+        <v>JPYFUT3MU0_Quote</v>
       </c>
       <c r="G52" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E52,Trigger)</f>
@@ -6800,15 +6862,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D53" s="121" t="str">
-        <v>M0</v>
+        <v>Z0</v>
       </c>
       <c r="E53" s="121" t="str">
         <f>Futures!H35</f>
-        <v>obj_00327#0001</v>
+        <v>obj_00343#0001</v>
       </c>
       <c r="F53" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E53),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM0_Quote</v>
+        <v>JPYFUT3MZ0_Quote</v>
       </c>
       <c r="G53" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E53,Trigger)</f>
@@ -6847,15 +6909,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D54" s="121" t="str">
-        <v>U0</v>
+        <v>H1</v>
       </c>
       <c r="E54" s="121" t="str">
         <f>Futures!H36</f>
-        <v>obj_0035d#0001</v>
+        <v>obj_00373#0001</v>
       </c>
       <c r="F54" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E54),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU0_Quote</v>
+        <v>JPYFUT3MH1_Quote</v>
       </c>
       <c r="G54" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E54,Trigger)</f>
@@ -6894,15 +6956,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D55" s="121" t="str">
-        <v>Z0</v>
+        <v>M1</v>
       </c>
       <c r="E55" s="121" t="str">
         <f>Futures!H37</f>
-        <v>obj_00346#0001</v>
+        <v>obj_0036c#0001</v>
       </c>
       <c r="F55" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E55),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ0_Quote</v>
+        <v>JPYFUT3MM1_Quote</v>
       </c>
       <c r="G55" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E55,Trigger)</f>
@@ -6941,15 +7003,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D56" s="121" t="str">
-        <v>H1</v>
+        <v>U1</v>
       </c>
       <c r="E56" s="121" t="str">
         <f>Futures!H38</f>
-        <v>obj_0036c#0001</v>
+        <v>obj_00350#0001</v>
       </c>
       <c r="F56" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E56),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH1_Quote</v>
+        <v>JPYFUT3MU1_Quote</v>
       </c>
       <c r="G56" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E56,Trigger)</f>
@@ -6988,15 +7050,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D57" s="121" t="str">
-        <v>M1</v>
+        <v>Z1</v>
       </c>
       <c r="E57" s="121" t="str">
         <f>Futures!H39</f>
-        <v>obj_0033f#0001</v>
+        <v>obj_00376#0001</v>
       </c>
       <c r="F57" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E57),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM1_Quote</v>
+        <v>JPYFUT3MZ1_Quote</v>
       </c>
       <c r="G57" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E57,Trigger)</f>
@@ -7035,7 +7097,7 @@
         <v>FUT3M</v>
       </c>
       <c r="D58" s="121" t="str">
-        <v>U1</v>
+        <v>H2</v>
       </c>
       <c r="E58" s="121" t="str">
         <f>Futures!H40</f>
@@ -7043,7 +7105,7 @@
       </c>
       <c r="F58" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E58),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU1_Quote</v>
+        <v>JPYFUT3MH2_Quote</v>
       </c>
       <c r="G58" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E58,Trigger)</f>
@@ -7082,15 +7144,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D59" s="121" t="str">
-        <v>Z1</v>
+        <v>M2</v>
       </c>
       <c r="E59" s="121" t="str">
         <f>Futures!H41</f>
-        <v>obj_00334#0001</v>
+        <v>obj_00337#0001</v>
       </c>
       <c r="F59" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E59),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ1_Quote</v>
+        <v>JPYFUT3MM2_Quote</v>
       </c>
       <c r="G59" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E59,Trigger)</f>
@@ -7129,15 +7191,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D60" s="121" t="str">
-        <v>H2</v>
+        <v>U2</v>
       </c>
       <c r="E60" s="121" t="str">
         <f>Futures!H42</f>
-        <v>obj_0032a#0001</v>
+        <v>obj_00378#0001</v>
       </c>
       <c r="F60" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E60),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH2_Quote</v>
+        <v>JPYFUT3MU2_Quote</v>
       </c>
       <c r="G60" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E60,Trigger)</f>
@@ -7176,15 +7238,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D61" s="121" t="str">
-        <v>M2</v>
+        <v>Z2</v>
       </c>
       <c r="E61" s="121" t="str">
         <f>Futures!H43</f>
-        <v>obj_00343#0001</v>
+        <v>obj_00338#0001</v>
       </c>
       <c r="F61" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E61),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM2_Quote</v>
+        <v>JPYFUT3MZ2_Quote</v>
       </c>
       <c r="G61" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E61,Trigger)</f>
@@ -7223,15 +7285,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D62" s="126" t="str">
-        <v>U2</v>
+        <v>H3</v>
       </c>
       <c r="E62" s="121" t="str">
         <f>Futures!H44</f>
-        <v>obj_0034a#0001</v>
+        <v>obj_00339#0001</v>
       </c>
       <c r="F62" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E62),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU2_Quote</v>
+        <v>JPYFUT3MH3_Quote</v>
       </c>
       <c r="G62" s="134" t="e">
         <f>_xll.qlRateHelperQuoteValue(E62,Trigger)</f>
@@ -7273,7 +7335,7 @@
       </c>
       <c r="E63" s="121" t="str">
         <f>Swaps!K5</f>
-        <v>obj_00322#0001</v>
+        <v>obj_00329#0001</v>
       </c>
       <c r="F63" s="137" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E63),"LastFixing","D"),"Libor","")</f>
@@ -7281,7 +7343,7 @@
       </c>
       <c r="G63" s="138">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
-        <v>1.8E-3</v>
+        <v>1.575E-3</v>
       </c>
       <c r="H63" s="138">
         <f>_xll.qlSwapRateHelperSpread($E63,Trigger)</f>
@@ -7298,11 +7360,11 @@
       </c>
       <c r="L63" s="140">
         <f>_xll.qlRateHelperEarliestDate($E63,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M63" s="141">
         <f>_xll.qlRateHelperLatestDate($E63,Trigger)</f>
-        <v>42170</v>
+        <v>42313</v>
       </c>
       <c r="O63" s="142"/>
     </row>
@@ -7319,7 +7381,7 @@
       </c>
       <c r="E64" s="121" t="str">
         <f>Swaps!K6</f>
-        <v>obj_00352#0001</v>
+        <v>obj_00341#0001</v>
       </c>
       <c r="F64" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E64),"LastFixing","D"),"Libor","")</f>
@@ -7344,11 +7406,11 @@
       </c>
       <c r="L64" s="123">
         <f>_xll.qlRateHelperEarliestDate($E64,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M64" s="124">
         <f>_xll.qlRateHelperLatestDate($E64,Trigger)</f>
-        <v>42261</v>
+        <v>42405</v>
       </c>
       <c r="O64" s="142"/>
     </row>
@@ -7365,7 +7427,7 @@
       </c>
       <c r="E65" s="121" t="str">
         <f>Swaps!K7</f>
-        <v>obj_0034d#0001</v>
+        <v>obj_00348#0001</v>
       </c>
       <c r="F65" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E65),"LastFixing","D"),"Libor","")</f>
@@ -7373,7 +7435,7 @@
       </c>
       <c r="G65" s="122">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
-        <v>1.8E-3</v>
+        <v>1.5499999999999999E-3</v>
       </c>
       <c r="H65" s="122">
         <f>_xll.qlSwapRateHelperSpread($E65,Trigger)</f>
@@ -7390,11 +7452,11 @@
       </c>
       <c r="L65" s="123">
         <f>_xll.qlRateHelperEarliestDate($E65,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M65" s="124">
         <f>_xll.qlRateHelperLatestDate($E65,Trigger)</f>
-        <v>42352</v>
+        <v>42496</v>
       </c>
       <c r="O65" s="142"/>
     </row>
@@ -7411,7 +7473,7 @@
       </c>
       <c r="E66" s="121" t="str">
         <f>Swaps!K8</f>
-        <v>obj_00357#0001</v>
+        <v>obj_00333#0001</v>
       </c>
       <c r="F66" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E66),"LastFixing","D"),"Libor","")</f>
@@ -7436,11 +7498,11 @@
       </c>
       <c r="L66" s="123">
         <f>_xll.qlRateHelperEarliestDate($E66,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M66" s="124">
         <f>_xll.qlRateHelperLatestDate($E66,Trigger)</f>
-        <v>42443</v>
+        <v>42587</v>
       </c>
       <c r="O66" s="142"/>
     </row>
@@ -7457,7 +7519,7 @@
       </c>
       <c r="E67" s="121" t="str">
         <f>Swaps!K9</f>
-        <v>obj_0033b#0001</v>
+        <v>obj_00351#0001</v>
       </c>
       <c r="F67" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E67),"LastFixing","D"),"Libor","")</f>
@@ -7465,7 +7527,7 @@
       </c>
       <c r="G67" s="122">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
-        <v>1.825E-3</v>
+        <v>1.5499999999999999E-3</v>
       </c>
       <c r="H67" s="122">
         <f>_xll.qlSwapRateHelperSpread($E67,Trigger)</f>
@@ -7482,11 +7544,11 @@
       </c>
       <c r="L67" s="123">
         <f>_xll.qlRateHelperEarliestDate($E67,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M67" s="124">
         <f>_xll.qlRateHelperLatestDate($E67,Trigger)</f>
-        <v>42534</v>
+        <v>42681</v>
       </c>
       <c r="O67" s="142"/>
     </row>
@@ -7503,7 +7565,7 @@
       </c>
       <c r="E68" s="121" t="str">
         <f>Swaps!K10</f>
-        <v>obj_00359#0001</v>
+        <v>obj_0033e#0001</v>
       </c>
       <c r="F68" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E68),"LastFixing","D"),"Libor","")</f>
@@ -7511,7 +7573,7 @@
       </c>
       <c r="G68" s="122">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
-        <v>2E-3</v>
+        <v>1.65E-3</v>
       </c>
       <c r="H68" s="122">
         <f>_xll.qlSwapRateHelperSpread($E68,Trigger)</f>
@@ -7528,11 +7590,11 @@
       </c>
       <c r="L68" s="123">
         <f>_xll.qlRateHelperEarliestDate($E68,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M68" s="124">
         <f>_xll.qlRateHelperLatestDate($E68,Trigger)</f>
-        <v>42899</v>
+        <v>43045</v>
       </c>
       <c r="O68" s="142"/>
     </row>
@@ -7549,7 +7611,7 @@
       </c>
       <c r="E69" s="121" t="str">
         <f>Swaps!K11</f>
-        <v>obj_00333#0001</v>
+        <v>obj_0032e#0001</v>
       </c>
       <c r="F69" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E69),"LastFixing","D"),"Libor","")</f>
@@ -7557,7 +7619,7 @@
       </c>
       <c r="G69" s="122">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
-        <v>2.4250000000000001E-3</v>
+        <v>1.9250000000000001E-3</v>
       </c>
       <c r="H69" s="122">
         <f>_xll.qlSwapRateHelperSpread($E69,Trigger)</f>
@@ -7574,11 +7636,11 @@
       </c>
       <c r="L69" s="123">
         <f>_xll.qlRateHelperEarliestDate($E69,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M69" s="124">
         <f>_xll.qlRateHelperLatestDate($E69,Trigger)</f>
-        <v>43264</v>
+        <v>43409</v>
       </c>
       <c r="O69" s="142"/>
     </row>
@@ -7595,7 +7657,7 @@
       </c>
       <c r="E70" s="121" t="str">
         <f>Swaps!K12</f>
-        <v>obj_00371#0001</v>
+        <v>obj_0035e#0001</v>
       </c>
       <c r="F70" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E70),"LastFixing","D"),"Libor","")</f>
@@ -7603,7 +7665,7 @@
       </c>
       <c r="G70" s="122">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
-        <v>3.0249999999999999E-3</v>
+        <v>2.3749999999999999E-3</v>
       </c>
       <c r="H70" s="122">
         <f>_xll.qlSwapRateHelperSpread($E70,Trigger)</f>
@@ -7620,11 +7682,11 @@
       </c>
       <c r="L70" s="123">
         <f>_xll.qlRateHelperEarliestDate($E70,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M70" s="124">
         <f>_xll.qlRateHelperLatestDate($E70,Trigger)</f>
-        <v>43629</v>
+        <v>43774</v>
       </c>
       <c r="O70" s="142"/>
     </row>
@@ -7641,7 +7703,7 @@
       </c>
       <c r="E71" s="121" t="str">
         <f>Swaps!K13</f>
-        <v>obj_0033e#0001</v>
+        <v>obj_00344#0001</v>
       </c>
       <c r="F71" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E71),"LastFixing","D"),"Libor","")</f>
@@ -7649,7 +7711,7 @@
       </c>
       <c r="G71" s="122">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
-        <v>3.8249999999999994E-3</v>
+        <v>2.9749999999999998E-3</v>
       </c>
       <c r="H71" s="122">
         <f>_xll.qlSwapRateHelperSpread($E71,Trigger)</f>
@@ -7666,11 +7728,11 @@
       </c>
       <c r="L71" s="123">
         <f>_xll.qlRateHelperEarliestDate($E71,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M71" s="124">
         <f>_xll.qlRateHelperLatestDate($E71,Trigger)</f>
-        <v>43997</v>
+        <v>44140</v>
       </c>
       <c r="O71" s="142"/>
     </row>
@@ -7687,7 +7749,7 @@
       </c>
       <c r="E72" s="121" t="str">
         <f>Swaps!K14</f>
-        <v>obj_00362#0001</v>
+        <v>obj_0036a#0001</v>
       </c>
       <c r="F72" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E72),"LastFixing","D"),"Libor","")</f>
@@ -7695,7 +7757,7 @@
       </c>
       <c r="G72" s="122">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
-        <v>4.725E-3</v>
+        <v>3.6750000000000003E-3</v>
       </c>
       <c r="H72" s="122">
         <f>_xll.qlSwapRateHelperSpread($E72,Trigger)</f>
@@ -7712,11 +7774,11 @@
       </c>
       <c r="L72" s="123">
         <f>_xll.qlRateHelperEarliestDate($E72,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M72" s="124">
         <f>_xll.qlRateHelperLatestDate($E72,Trigger)</f>
-        <v>44361</v>
+        <v>44505</v>
       </c>
       <c r="O72" s="142"/>
     </row>
@@ -7733,7 +7795,7 @@
       </c>
       <c r="E73" s="121" t="str">
         <f>Swaps!K15</f>
-        <v>obj_00345#0001</v>
+        <v>obj_00369#0001</v>
       </c>
       <c r="F73" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E73),"LastFixing","D"),"Libor","")</f>
@@ -7741,7 +7803,7 @@
       </c>
       <c r="G73" s="122">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
-        <v>5.6499999999999996E-3</v>
+        <v>4.3999999999999994E-3</v>
       </c>
       <c r="H73" s="122">
         <f>_xll.qlSwapRateHelperSpread($E73,Trigger)</f>
@@ -7758,11 +7820,11 @@
       </c>
       <c r="L73" s="123">
         <f>_xll.qlRateHelperEarliestDate($E73,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M73" s="124">
         <f>_xll.qlRateHelperLatestDate($E73,Trigger)</f>
-        <v>44725</v>
+        <v>44872</v>
       </c>
       <c r="O73" s="142"/>
     </row>
@@ -7779,7 +7841,7 @@
       </c>
       <c r="E74" s="121" t="str">
         <f>Swaps!K16</f>
-        <v>obj_00348#0001</v>
+        <v>obj_0034b#0001</v>
       </c>
       <c r="F74" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E74),"LastFixing","D"),"Libor","")</f>
@@ -7787,7 +7849,7 @@
       </c>
       <c r="G74" s="122">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
-        <v>6.5999999999999991E-3</v>
+        <v>5.1749999999999999E-3</v>
       </c>
       <c r="H74" s="122">
         <f>_xll.qlSwapRateHelperSpread($E74,Trigger)</f>
@@ -7804,11 +7866,11 @@
       </c>
       <c r="L74" s="123">
         <f>_xll.qlRateHelperEarliestDate($E74,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M74" s="124">
         <f>_xll.qlRateHelperLatestDate($E74,Trigger)</f>
-        <v>45090</v>
+        <v>45236</v>
       </c>
       <c r="O74" s="142"/>
     </row>
@@ -7825,7 +7887,7 @@
       </c>
       <c r="E75" s="121" t="str">
         <f>Swaps!K17</f>
-        <v>obj_00326#0001</v>
+        <v>obj_00357#0001</v>
       </c>
       <c r="F75" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E75),"LastFixing","D"),"Libor","")</f>
@@ -7833,7 +7895,7 @@
       </c>
       <c r="G75" s="122">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
-        <v>7.5500000000000003E-3</v>
+        <v>5.9250000000000006E-3</v>
       </c>
       <c r="H75" s="122">
         <f>_xll.qlSwapRateHelperSpread($E75,Trigger)</f>
@@ -7850,11 +7912,11 @@
       </c>
       <c r="L75" s="123">
         <f>_xll.qlRateHelperEarliestDate($E75,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M75" s="124">
         <f>_xll.qlRateHelperLatestDate($E75,Trigger)</f>
-        <v>45456</v>
+        <v>45601</v>
       </c>
       <c r="O75" s="142"/>
     </row>
@@ -7871,7 +7933,7 @@
       </c>
       <c r="E76" s="121" t="str">
         <f>Swaps!K18</f>
-        <v>obj_00337#0001</v>
+        <v>obj_0036e#0001</v>
       </c>
       <c r="F76" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E76),"LastFixing","D"),"Libor","")</f>
@@ -7896,11 +7958,11 @@
       </c>
       <c r="L76" s="123">
         <f>_xll.qlRateHelperEarliestDate($E76,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M76" s="124">
         <f>_xll.qlRateHelperLatestDate($E76,Trigger)</f>
-        <v>45821</v>
+        <v>45966</v>
       </c>
       <c r="O76" s="142"/>
     </row>
@@ -7917,7 +7979,7 @@
       </c>
       <c r="E77" s="121" t="str">
         <f>Swaps!K19</f>
-        <v>obj_0036a#0001</v>
+        <v>obj_00346#0001</v>
       </c>
       <c r="F77" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E77),"LastFixing","D"),"Libor","")</f>
@@ -7925,7 +7987,7 @@
       </c>
       <c r="G77" s="122">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
-        <v>9.4249999999999994E-3</v>
+        <v>7.5500000000000003E-3</v>
       </c>
       <c r="H77" s="122">
         <f>_xll.qlSwapRateHelperSpread($E77,Trigger)</f>
@@ -7942,11 +8004,11 @@
       </c>
       <c r="L77" s="123">
         <f>_xll.qlRateHelperEarliestDate($E77,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M77" s="124">
         <f>_xll.qlRateHelperLatestDate($E77,Trigger)</f>
-        <v>46188</v>
+        <v>46331</v>
       </c>
       <c r="O77" s="142"/>
     </row>
@@ -7963,7 +8025,7 @@
       </c>
       <c r="E78" s="121" t="str">
         <f>Swaps!K20</f>
-        <v>obj_0036f#0001</v>
+        <v>obj_0033f#0001</v>
       </c>
       <c r="F78" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E78),"LastFixing","D"),"Libor","")</f>
@@ -7988,11 +8050,11 @@
       </c>
       <c r="L78" s="123">
         <f>_xll.qlRateHelperEarliestDate($E78,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M78" s="124">
         <f>_xll.qlRateHelperLatestDate($E78,Trigger)</f>
-        <v>46552</v>
+        <v>46696</v>
       </c>
       <c r="O78" s="142"/>
     </row>
@@ -8009,7 +8071,7 @@
       </c>
       <c r="E79" s="121" t="str">
         <f>Swaps!K21</f>
-        <v>obj_0036b#0001</v>
+        <v>obj_00370#0001</v>
       </c>
       <c r="F79" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E79),"LastFixing","D"),"Libor","")</f>
@@ -8034,11 +8096,11 @@
       </c>
       <c r="L79" s="123">
         <f>_xll.qlRateHelperEarliestDate($E79,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M79" s="124">
         <f>_xll.qlRateHelperLatestDate($E79,Trigger)</f>
-        <v>46917</v>
+        <v>47063</v>
       </c>
       <c r="O79" s="142"/>
     </row>
@@ -8055,7 +8117,7 @@
       </c>
       <c r="E80" s="121" t="str">
         <f>Swaps!K22</f>
-        <v>obj_00344#0001</v>
+        <v>obj_00354#0001</v>
       </c>
       <c r="F80" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E80),"LastFixing","D"),"Libor","")</f>
@@ -8063,7 +8125,7 @@
       </c>
       <c r="G80" s="122">
         <f>_xll.qlRateHelperQuoteValue($E80,Trigger)</f>
-        <v>1.2075000000000001E-2</v>
+        <v>9.9750000000000012E-3</v>
       </c>
       <c r="H80" s="122">
         <f>_xll.qlSwapRateHelperSpread($E80,Trigger)</f>
@@ -8080,11 +8142,11 @@
       </c>
       <c r="L80" s="123">
         <f>_xll.qlRateHelperEarliestDate($E80,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M80" s="124">
         <f>_xll.qlRateHelperLatestDate($E80,Trigger)</f>
-        <v>47282</v>
+        <v>47427</v>
       </c>
       <c r="O80" s="142"/>
     </row>
@@ -8101,7 +8163,7 @@
       </c>
       <c r="E81" s="121" t="str">
         <f>Swaps!K23</f>
-        <v>obj_00360#0001</v>
+        <v>obj_00352#0001</v>
       </c>
       <c r="F81" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E81),"LastFixing","D"),"Libor","")</f>
@@ -8126,11 +8188,11 @@
       </c>
       <c r="L81" s="123">
         <f>_xll.qlRateHelperEarliestDate($E81,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M81" s="124">
         <f>_xll.qlRateHelperLatestDate($E81,Trigger)</f>
-        <v>47647</v>
+        <v>47792</v>
       </c>
       <c r="O81" s="142"/>
     </row>
@@ -8147,7 +8209,7 @@
       </c>
       <c r="E82" s="121" t="str">
         <f>Swaps!K24</f>
-        <v>obj_0032d#0001</v>
+        <v>obj_00366#0001</v>
       </c>
       <c r="F82" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E82),"LastFixing","D"),"Libor","")</f>
@@ -8172,11 +8234,11 @@
       </c>
       <c r="L82" s="123">
         <f>_xll.qlRateHelperEarliestDate($E82,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M82" s="124">
         <f>_xll.qlRateHelperLatestDate($E82,Trigger)</f>
-        <v>48012</v>
+        <v>48157</v>
       </c>
       <c r="O82" s="142"/>
     </row>
@@ -8193,7 +8255,7 @@
       </c>
       <c r="E83" s="121" t="str">
         <f>Swaps!K25</f>
-        <v>obj_0035e#0001</v>
+        <v>obj_00375#0001</v>
       </c>
       <c r="F83" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E83),"LastFixing","D"),"Libor","")</f>
@@ -8218,11 +8280,11 @@
       </c>
       <c r="L83" s="123">
         <f>_xll.qlRateHelperEarliestDate($E83,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M83" s="124">
         <f>_xll.qlRateHelperLatestDate($E83,Trigger)</f>
-        <v>48379</v>
+        <v>48523</v>
       </c>
       <c r="O83" s="142"/>
     </row>
@@ -8239,7 +8301,7 @@
       </c>
       <c r="E84" s="121" t="str">
         <f>Swaps!K26</f>
-        <v>obj_00338#0001</v>
+        <v>obj_00362#0001</v>
       </c>
       <c r="F84" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E84),"LastFixing","D"),"Libor","")</f>
@@ -8264,11 +8326,11 @@
       </c>
       <c r="L84" s="123">
         <f>_xll.qlRateHelperEarliestDate($E84,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M84" s="124">
         <f>_xll.qlRateHelperLatestDate($E84,Trigger)</f>
-        <v>48743</v>
+        <v>48890</v>
       </c>
       <c r="O84" s="142"/>
     </row>
@@ -8285,7 +8347,7 @@
       </c>
       <c r="E85" s="121" t="str">
         <f>Swaps!K27</f>
-        <v>obj_0035c#0001</v>
+        <v>obj_00361#0001</v>
       </c>
       <c r="F85" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E85),"LastFixing","D"),"Libor","")</f>
@@ -8293,7 +8355,7 @@
       </c>
       <c r="G85" s="122">
         <f>_xll.qlRateHelperQuoteValue($E85,Trigger)</f>
-        <v>1.5274999999999999E-2</v>
+        <v>1.3025E-2</v>
       </c>
       <c r="H85" s="122">
         <f>_xll.qlSwapRateHelperSpread($E85,Trigger)</f>
@@ -8310,11 +8372,11 @@
       </c>
       <c r="L85" s="123">
         <f>_xll.qlRateHelperEarliestDate($E85,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M85" s="124">
         <f>_xll.qlRateHelperLatestDate($E85,Trigger)</f>
-        <v>49108</v>
+        <v>49254</v>
       </c>
       <c r="O85" s="142"/>
     </row>
@@ -8331,7 +8393,7 @@
       </c>
       <c r="E86" s="121" t="str">
         <f>Swaps!K28</f>
-        <v>obj_0032f#0001</v>
+        <v>obj_0036b#0001</v>
       </c>
       <c r="F86" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E86),"LastFixing","D"),"Libor","")</f>
@@ -8356,11 +8418,11 @@
       </c>
       <c r="L86" s="123">
         <f>_xll.qlRateHelperEarliestDate($E86,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M86" s="124">
         <f>_xll.qlRateHelperLatestDate($E86,Trigger)</f>
-        <v>49473</v>
+        <v>49618</v>
       </c>
       <c r="O86" s="142"/>
     </row>
@@ -8377,7 +8439,7 @@
       </c>
       <c r="E87" s="121" t="str">
         <f>Swaps!K29</f>
-        <v>obj_00368#0001</v>
+        <v>obj_00356#0001</v>
       </c>
       <c r="F87" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E87),"LastFixing","D"),"Libor","")</f>
@@ -8402,11 +8464,11 @@
       </c>
       <c r="L87" s="123">
         <f>_xll.qlRateHelperEarliestDate($E87,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M87" s="124">
         <f>_xll.qlRateHelperLatestDate($E87,Trigger)</f>
-        <v>49839</v>
+        <v>49984</v>
       </c>
       <c r="O87" s="142"/>
     </row>
@@ -8423,7 +8485,7 @@
       </c>
       <c r="E88" s="121" t="str">
         <f>Swaps!K30</f>
-        <v>obj_00325#0001</v>
+        <v>obj_0032b#0001</v>
       </c>
       <c r="F88" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E88),"LastFixing","D"),"Libor","")</f>
@@ -8448,11 +8510,11 @@
       </c>
       <c r="L88" s="123">
         <f>_xll.qlRateHelperEarliestDate($E88,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M88" s="124">
         <f>_xll.qlRateHelperLatestDate($E88,Trigger)</f>
-        <v>50206</v>
+        <v>50349</v>
       </c>
       <c r="O88" s="142"/>
     </row>
@@ -8469,7 +8531,7 @@
       </c>
       <c r="E89" s="121" t="str">
         <f>Swaps!K31</f>
-        <v>obj_0035b#0001</v>
+        <v>obj_0036d#0001</v>
       </c>
       <c r="F89" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E89),"LastFixing","D"),"Libor","")</f>
@@ -8494,11 +8556,11 @@
       </c>
       <c r="L89" s="123">
         <f>_xll.qlRateHelperEarliestDate($E89,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M89" s="124">
         <f>_xll.qlRateHelperLatestDate($E89,Trigger)</f>
-        <v>50570</v>
+        <v>50714</v>
       </c>
       <c r="O89" s="142"/>
     </row>
@@ -8515,7 +8577,7 @@
       </c>
       <c r="E90" s="121" t="str">
         <f>Swaps!K32</f>
-        <v>obj_00354#0001</v>
+        <v>obj_0036f#0001</v>
       </c>
       <c r="F90" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E90),"LastFixing","D"),"Libor","")</f>
@@ -8523,7 +8585,7 @@
       </c>
       <c r="G90" s="122">
         <f>_xll.qlRateHelperQuoteValue($E90,Trigger)</f>
-        <v>1.6899999999999998E-2</v>
+        <v>1.4649999999999998E-2</v>
       </c>
       <c r="H90" s="122">
         <f>_xll.qlSwapRateHelperSpread($E90,Trigger)</f>
@@ -8540,11 +8602,11 @@
       </c>
       <c r="L90" s="123">
         <f>_xll.qlRateHelperEarliestDate($E90,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M90" s="124">
         <f>_xll.qlRateHelperLatestDate($E90,Trigger)</f>
-        <v>50934</v>
+        <v>51081</v>
       </c>
     </row>
     <row r="91" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8560,7 +8622,7 @@
       </c>
       <c r="E91" s="121" t="str">
         <f>Swaps!K33</f>
-        <v>obj_00349#0001</v>
+        <v>obj_00331#0001</v>
       </c>
       <c r="F91" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E91),"LastFixing","D"),"Libor","")</f>
@@ -8585,11 +8647,11 @@
       </c>
       <c r="L91" s="123">
         <f>_xll.qlRateHelperEarliestDate($E91,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M91" s="124">
         <f>_xll.qlRateHelperLatestDate($E91,Trigger)</f>
-        <v>51300</v>
+        <v>51445</v>
       </c>
     </row>
     <row r="92" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8605,7 +8667,7 @@
       </c>
       <c r="E92" s="121" t="str">
         <f>Swaps!K34</f>
-        <v>obj_00340#0001</v>
+        <v>obj_00372#0001</v>
       </c>
       <c r="F92" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E92),"LastFixing","D"),"Libor","")</f>
@@ -8630,11 +8692,11 @@
       </c>
       <c r="L92" s="123">
         <f>_xll.qlRateHelperEarliestDate($E92,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M92" s="124">
         <f>_xll.qlRateHelperLatestDate($E92,Trigger)</f>
-        <v>51665</v>
+        <v>51810</v>
       </c>
     </row>
     <row r="93" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8650,7 +8712,7 @@
       </c>
       <c r="E93" s="121" t="str">
         <f>Swaps!K35</f>
-        <v>obj_00369#0001</v>
+        <v>obj_00342#0001</v>
       </c>
       <c r="F93" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E93),"LastFixing","D"),"Libor","")</f>
@@ -8675,11 +8737,11 @@
       </c>
       <c r="L93" s="123">
         <f>_xll.qlRateHelperEarliestDate($E93,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M93" s="124">
         <f>_xll.qlRateHelperLatestDate($E93,Trigger)</f>
-        <v>52030</v>
+        <v>52175</v>
       </c>
     </row>
     <row r="94" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8695,7 +8757,7 @@
       </c>
       <c r="E94" s="121" t="str">
         <f>Swaps!K36</f>
-        <v>obj_00324#0001</v>
+        <v>obj_0032c#0001</v>
       </c>
       <c r="F94" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E94),"LastFixing","D"),"Libor","")</f>
@@ -8720,11 +8782,11 @@
       </c>
       <c r="L94" s="123">
         <f>_xll.qlRateHelperEarliestDate($E94,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M94" s="124">
         <f>_xll.qlRateHelperLatestDate($E94,Trigger)</f>
-        <v>52397</v>
+        <v>52540</v>
       </c>
     </row>
     <row r="95" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8740,7 +8802,7 @@
       </c>
       <c r="E95" s="121" t="str">
         <f>Swaps!K37</f>
-        <v>obj_00332#0001</v>
+        <v>obj_00377#0001</v>
       </c>
       <c r="F95" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E95),"LastFixing","D"),"Libor","")</f>
@@ -8748,7 +8810,7 @@
       </c>
       <c r="G95" s="122">
         <f>_xll.qlRateHelperQuoteValue($E95,Trigger)</f>
-        <v>1.7774999999999999E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="H95" s="122">
         <f>_xll.qlSwapRateHelperSpread($E95,Trigger)</f>
@@ -8765,11 +8827,11 @@
       </c>
       <c r="L95" s="123">
         <f>_xll.qlRateHelperEarliestDate($E95,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M95" s="124">
         <f>_xll.qlRateHelperLatestDate($E95,Trigger)</f>
-        <v>52761</v>
+        <v>52908</v>
       </c>
     </row>
     <row r="96" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8785,7 +8847,7 @@
       </c>
       <c r="E96" s="121" t="str">
         <f>Swaps!K38</f>
-        <v>obj_00367#0001</v>
+        <v>obj_0033b#0001</v>
       </c>
       <c r="F96" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E96),"LastFixing","D"),"Libor","")</f>
@@ -8810,11 +8872,11 @@
       </c>
       <c r="L96" s="123">
         <f>_xll.qlRateHelperEarliestDate($E96,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M96" s="124">
         <f>_xll.qlRateHelperLatestDate($E96,Trigger)</f>
-        <v>54588</v>
+        <v>54732</v>
       </c>
     </row>
     <row r="97" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8830,7 +8892,7 @@
       </c>
       <c r="E97" s="121" t="str">
         <f>Swaps!K39</f>
-        <v>obj_00358#0001</v>
+        <v>obj_0033a#0001</v>
       </c>
       <c r="F97" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E97),"LastFixing","D"),"Libor","")</f>
@@ -8855,11 +8917,11 @@
       </c>
       <c r="L97" s="123">
         <f>_xll.qlRateHelperEarliestDate($E97,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M97" s="124">
         <f>_xll.qlRateHelperLatestDate($E97,Trigger)</f>
-        <v>56415</v>
+        <v>56558</v>
       </c>
     </row>
     <row r="98" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8875,7 +8937,7 @@
       </c>
       <c r="E98" s="121" t="str">
         <f>Swaps!K40</f>
-        <v>obj_00366#0001</v>
+        <v>obj_00365#0001</v>
       </c>
       <c r="F98" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E98),"LastFixing","D"),"Libor","")</f>
@@ -8900,11 +8962,11 @@
       </c>
       <c r="L98" s="123">
         <f>_xll.qlRateHelperEarliestDate($E98,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M98" s="124">
         <f>_xll.qlRateHelperLatestDate($E98,Trigger)</f>
-        <v>60066</v>
+        <v>60211</v>
       </c>
     </row>
     <row r="99" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8920,7 +8982,7 @@
       </c>
       <c r="E99" s="121" t="str">
         <f>Swaps!K41</f>
-        <v>obj_0034e#0001</v>
+        <v>obj_00363#0001</v>
       </c>
       <c r="F99" s="121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E99),"LastFixing","D"),"Libor","")</f>
@@ -8945,11 +9007,11 @@
       </c>
       <c r="L99" s="129">
         <f>_xll.qlRateHelperEarliestDate($E99,Trigger)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="M99" s="130">
         <f>_xll.qlRateHelperLatestDate($E99,Trigger)</f>
-        <v>63718</v>
+        <v>63863</v>
       </c>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
@@ -9014,7 +9076,7 @@
       </c>
       <c r="J1" s="75">
         <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>5.4313906545588734E-4</v>
+        <v>4.3455251908258843E-4</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -9026,7 +9088,7 @@
       </c>
       <c r="D2" s="78" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_00321</v>
+        <v>obj_00328</v>
       </c>
       <c r="E2" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D2),"LastFixing","D"),"Libor","")</f>
@@ -9034,7 +9096,7 @@
       </c>
       <c r="F2" s="79">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>5.3569999999999996E-4</v>
+        <v>4.2860000000000001E-4</v>
       </c>
       <c r="G2" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -9042,14 +9104,14 @@
       </c>
       <c r="H2" s="90">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="I2" s="91">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41806</v>
+        <v>41949</v>
       </c>
       <c r="J2" s="75">
-        <v>5.4313906545588734E-4</v>
+        <v>4.3455251908258843E-4</v>
       </c>
       <c r="K2" s="80"/>
     </row>
@@ -9061,7 +9123,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="78" t="str">
-        <v>obj_0030e</v>
+        <v>obj_00322</v>
       </c>
       <c r="E3" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D3),"LastFixing","D"),"Libor","")</f>
@@ -9069,7 +9131,7 @@
       </c>
       <c r="F3" s="79">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>7.000000000000001E-4</v>
+        <v>5.1429999999999998E-4</v>
       </c>
       <c r="G3" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -9077,14 +9139,14 @@
       </c>
       <c r="H3" s="90">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41803</v>
+        <v>41947</v>
       </c>
       <c r="I3" s="91">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41810</v>
+        <v>41954</v>
       </c>
       <c r="J3" s="75">
-        <v>6.7269998630143637E-4</v>
+        <v>4.8984483768213429E-4</v>
       </c>
       <c r="K3" s="80"/>
     </row>
@@ -9096,7 +9158,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="78" t="str">
-        <v>obj_00313</v>
+        <v>obj_0031d</v>
       </c>
       <c r="E4" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D4),"LastFixing","D"),"Libor","")</f>
@@ -9104,7 +9166,7 @@
       </c>
       <c r="F4" s="79">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>9.7860000000000004E-4</v>
+        <v>8.3000000000000001E-4</v>
       </c>
       <c r="G4" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -9112,14 +9174,14 @@
       </c>
       <c r="H4" s="90">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41803</v>
+        <v>41947</v>
       </c>
       <c r="I4" s="91">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41834</v>
+        <v>41977</v>
       </c>
       <c r="J4" s="75">
-        <v>9.6493708818496185E-4</v>
+        <v>7.9362265760573539E-4</v>
       </c>
       <c r="K4" s="80"/>
     </row>
@@ -9131,7 +9193,7 @@
         <v>52</v>
       </c>
       <c r="D5" s="78" t="str">
-        <v>obj_00314</v>
+        <v>obj_00320</v>
       </c>
       <c r="E5" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D5),"LastFixing","D"),"Libor","")</f>
@@ -9139,7 +9201,7 @@
       </c>
       <c r="F5" s="79">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>1.2286E-3</v>
+        <v>9.9290000000000012E-4</v>
       </c>
       <c r="G5" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -9147,14 +9209,14 @@
       </c>
       <c r="H5" s="90">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41803</v>
+        <v>41947</v>
       </c>
       <c r="I5" s="91">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41864</v>
+        <v>42009</v>
       </c>
       <c r="J5" s="75">
-        <v>1.2232359863708323E-3</v>
+        <v>9.7193441604513371E-4</v>
       </c>
       <c r="K5" s="80"/>
     </row>
@@ -9167,7 +9229,7 @@
         <v/>
       </c>
       <c r="D6" s="78" t="str">
-        <v>obj_00315</v>
+        <v>obj_00323</v>
       </c>
       <c r="E6" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D6),"LastFixing","D"),"Libor","")</f>
@@ -9175,7 +9237,7 @@
       </c>
       <c r="F6" s="79">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>1.3500000000000001E-3</v>
+        <v>1.1357000000000001E-3</v>
       </c>
       <c r="G6" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -9183,28 +9245,28 @@
       </c>
       <c r="H6" s="90">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41803</v>
+        <v>41947</v>
       </c>
       <c r="I6" s="91">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41897</v>
+        <v>42039</v>
       </c>
       <c r="J6" s="75">
-        <v>1.3513136113841135E-3</v>
+        <v>1.1214417937127617E-3</v>
       </c>
       <c r="K6" s="80"/>
     </row>
     <row r="7" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="85" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>JPY_YCSTDRH_RateHelpersSelected#0004</v>
+        <v>JPY_YCSTDRH_RateHelpersSelected#0001</v>
       </c>
       <c r="B7" s="86" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
         <v/>
       </c>
       <c r="D7" s="78" t="str">
-        <v>obj_00317</v>
+        <v>obj_00316</v>
       </c>
       <c r="E7" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D7),"LastFixing","D"),"Libor","")</f>
@@ -9212,7 +9274,7 @@
       </c>
       <c r="F7" s="79">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>1.8179000000000001E-3</v>
+        <v>1.6142999999999999E-3</v>
       </c>
       <c r="G7" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -9220,28 +9282,28 @@
       </c>
       <c r="H7" s="90">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41803</v>
+        <v>41947</v>
       </c>
       <c r="I7" s="91">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41988</v>
+        <v>42129</v>
       </c>
       <c r="J7" s="75">
-        <v>1.8283935701914895E-3</v>
+        <v>1.6102145907018525E-3</v>
       </c>
       <c r="K7" s="80"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D8" s="78" t="str">
-        <v>obj_00322</v>
+        <v>obj_00326</v>
       </c>
       <c r="E8" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D8),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L1Y_Quote</v>
+        <v>Jpy1YD_Quote</v>
       </c>
       <c r="F8" s="79">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>1.8E-3</v>
+        <v>3.0042999999999997E-3</v>
       </c>
       <c r="G8" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -9249,28 +9311,28 @@
       </c>
       <c r="H8" s="90">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41803</v>
+        <v>41947</v>
       </c>
       <c r="I8" s="91">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42170</v>
+        <v>42312</v>
       </c>
       <c r="J8" s="75">
-        <v>1.792358438093706E-3</v>
+        <v>3.0131381767037934E-3</v>
       </c>
       <c r="K8" s="80"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D9" s="78" t="str">
-        <v>obj_0034d</v>
+        <v>obj_00329</v>
       </c>
       <c r="E9" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D9),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L18M_Quote</v>
+        <v>JPYSB6L1Y_Quote</v>
       </c>
       <c r="F9" s="79">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>1.8E-3</v>
+        <v>1.575E-3</v>
       </c>
       <c r="G9" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -9278,28 +9340,28 @@
       </c>
       <c r="H9" s="90">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="I9" s="91">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42352</v>
+        <v>42313</v>
       </c>
       <c r="J9" s="75">
-        <v>1.7946158538218009E-3</v>
+        <v>1.5589443952968626E-3</v>
       </c>
       <c r="K9" s="80"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D10" s="78" t="str">
-        <v>obj_00359</v>
+        <v>obj_00348</v>
       </c>
       <c r="E10" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D10),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L3Y_Quote</v>
+        <v>JPYSB6L18M_Quote</v>
       </c>
       <c r="F10" s="79">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>2E-3</v>
+        <v>1.5499999999999999E-3</v>
       </c>
       <c r="G10" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -9307,28 +9369,28 @@
       </c>
       <c r="H10" s="90">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="I10" s="91">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42899</v>
+        <v>42496</v>
       </c>
       <c r="J10" s="75">
-        <v>1.9966857028189109E-3</v>
+        <v>1.5392784472094045E-3</v>
       </c>
       <c r="K10" s="80"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D11" s="78" t="str">
-        <v>obj_00333</v>
+        <v>obj_0033e</v>
       </c>
       <c r="E11" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D11),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L4Y_Quote</v>
+        <v>JPYSB6L3Y_Quote</v>
       </c>
       <c r="F11" s="79">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>2.4250000000000001E-3</v>
+        <v>1.65E-3</v>
       </c>
       <c r="G11" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -9336,28 +9398,28 @@
       </c>
       <c r="H11" s="90">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="I11" s="91">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>43264</v>
+        <v>43045</v>
       </c>
       <c r="J11" s="75">
-        <v>2.4228473865638483E-3</v>
+        <v>1.6439276078693695E-3</v>
       </c>
       <c r="K11" s="80"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D12" s="78" t="str">
-        <v>obj_00371</v>
+        <v>obj_0032e</v>
       </c>
       <c r="E12" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D12),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L5Y_Quote</v>
+        <v>JPYSB6L4Y_Quote</v>
       </c>
       <c r="F12" s="79">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>3.0249999999999999E-3</v>
+        <v>1.9250000000000001E-3</v>
       </c>
       <c r="G12" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -9365,28 +9427,28 @@
       </c>
       <c r="H12" s="90">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="I12" s="91">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>43629</v>
+        <v>43409</v>
       </c>
       <c r="J12" s="75">
-        <v>3.0255764348392569E-3</v>
+        <v>1.9197219253806084E-3</v>
       </c>
       <c r="K12" s="80"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D13" s="78" t="str">
-        <v>obj_0033e</v>
+        <v>obj_0035e</v>
       </c>
       <c r="E13" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D13),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L6Y_Quote</v>
+        <v>JPYSB6L5Y_Quote</v>
       </c>
       <c r="F13" s="79">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>3.8249999999999994E-3</v>
+        <v>2.3749999999999999E-3</v>
       </c>
       <c r="G13" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -9394,28 +9456,28 @@
       </c>
       <c r="H13" s="90">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="I13" s="91">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>43997</v>
+        <v>43774</v>
       </c>
       <c r="J13" s="75">
-        <v>3.8319998772847115E-3</v>
+        <v>2.3712170391703351E-3</v>
       </c>
       <c r="K13" s="80"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D14" s="78" t="str">
-        <v>obj_00362</v>
+        <v>obj_00344</v>
       </c>
       <c r="E14" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D14),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L7Y_Quote</v>
+        <v>JPYSB6L6Y_Quote</v>
       </c>
       <c r="F14" s="79">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>4.725E-3</v>
+        <v>2.9749999999999998E-3</v>
       </c>
       <c r="G14" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -9423,28 +9485,28 @@
       </c>
       <c r="H14" s="90">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="I14" s="91">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>44361</v>
+        <v>44140</v>
       </c>
       <c r="J14" s="75">
-        <v>4.7436648439930186E-3</v>
+        <v>2.9746142944420831E-3</v>
       </c>
       <c r="K14" s="80"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D15" s="78" t="str">
-        <v>obj_00345</v>
+        <v>obj_0036a</v>
       </c>
       <c r="E15" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D15),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L8Y_Quote</v>
+        <v>JPYSB6L7Y_Quote</v>
       </c>
       <c r="F15" s="79">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>5.6499999999999996E-3</v>
+        <v>3.6750000000000003E-3</v>
       </c>
       <c r="G15" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -9452,28 +9514,28 @@
       </c>
       <c r="H15" s="90">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="I15" s="91">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>44725</v>
+        <v>44505</v>
       </c>
       <c r="J15" s="75">
-        <v>5.6861535962751371E-3</v>
+        <v>3.6812325476530501E-3</v>
       </c>
       <c r="K15" s="80"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D16" s="78" t="str">
-        <v>obj_00348</v>
+        <v>obj_00369</v>
       </c>
       <c r="E16" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D16),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L9Y_Quote</v>
+        <v>JPYSB6L8Y_Quote</v>
       </c>
       <c r="F16" s="79">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>6.5999999999999991E-3</v>
+        <v>4.3999999999999994E-3</v>
       </c>
       <c r="G16" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -9481,27 +9543,27 @@
       </c>
       <c r="H16" s="90">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="I16" s="91">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>45090</v>
+        <v>44872</v>
       </c>
       <c r="J16" s="75">
-        <v>6.660893265230605E-3</v>
+        <v>4.4164958332825509E-3</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D17" s="78" t="str">
-        <v>obj_00326</v>
+        <v>obj_0034b</v>
       </c>
       <c r="E17" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D17),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L10Y_Quote</v>
+        <v>JPYSB6L9Y_Quote</v>
       </c>
       <c r="F17" s="79">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>7.5500000000000003E-3</v>
+        <v>5.1749999999999999E-3</v>
       </c>
       <c r="G17" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -9509,27 +9571,27 @@
       </c>
       <c r="H17" s="90">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="I17" s="91">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>45456</v>
+        <v>45236</v>
       </c>
       <c r="J17" s="75">
-        <v>7.6433939179027504E-3</v>
+        <v>5.2070368623572645E-3</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D18" s="78" t="str">
-        <v>obj_0036a</v>
+        <v>obj_00357</v>
       </c>
       <c r="E18" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D18),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L12Y_Quote</v>
+        <v>JPYSB6L10Y_Quote</v>
       </c>
       <c r="F18" s="79">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>9.4249999999999994E-3</v>
+        <v>5.9250000000000006E-3</v>
       </c>
       <c r="G18" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -9537,27 +9599,27 @@
       </c>
       <c r="H18" s="90">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="I18" s="91">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>46188</v>
+        <v>45601</v>
       </c>
       <c r="J18" s="75">
-        <v>9.6097110591591584E-3</v>
+        <v>5.9768030626634848E-3</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D19" s="78" t="str">
-        <v>obj_00344</v>
+        <v>obj_00346</v>
       </c>
       <c r="E19" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D19),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L15Y_Quote</v>
+        <v>JPYSB6L12Y_Quote</v>
       </c>
       <c r="F19" s="79">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.2075000000000001E-2</v>
+        <v>7.5500000000000003E-3</v>
       </c>
       <c r="G19" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -9565,27 +9627,27 @@
       </c>
       <c r="H19" s="90">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="I19" s="91">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>47282</v>
+        <v>46331</v>
       </c>
       <c r="J19" s="75">
-        <v>1.2466330088318607E-2</v>
+        <v>7.6650934142276188E-3</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D20" s="78" t="str">
-        <v>obj_0035c</v>
+        <v>obj_00354</v>
       </c>
       <c r="E20" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D20),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L20Y_Quote</v>
+        <v>JPYSB6L15Y_Quote</v>
       </c>
       <c r="F20" s="79">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.5274999999999999E-2</v>
+        <v>9.9750000000000012E-3</v>
       </c>
       <c r="G20" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -9593,27 +9655,27 @@
       </c>
       <c r="H20" s="90">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="I20" s="91">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>49108</v>
+        <v>47427</v>
       </c>
       <c r="J20" s="75">
-        <v>1.6066457317624565E-2</v>
+        <v>1.0246690379446342E-2</v>
       </c>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D21" s="78" t="str">
-        <v>obj_00354</v>
+        <v>obj_00361</v>
       </c>
       <c r="E21" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D21),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L25Y_Quote</v>
+        <v>JPYSB6L20Y_Quote</v>
       </c>
       <c r="F21" s="79">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.6899999999999998E-2</v>
+        <v>1.3025E-2</v>
       </c>
       <c r="G21" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -9621,27 +9683,27 @@
       </c>
       <c r="H21" s="90">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="I21" s="91">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>50934</v>
+        <v>49254</v>
       </c>
       <c r="J21" s="75">
-        <v>1.7934555283627942E-2</v>
+        <v>1.3625504000897166E-2</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D22" s="78" t="str">
-        <v>obj_00332</v>
+        <v>obj_0036f</v>
       </c>
       <c r="E22" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D22),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L30Y_Quote</v>
+        <v>JPYSB6L25Y_Quote</v>
       </c>
       <c r="F22" s="79">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.7774999999999999E-2</v>
+        <v>1.4649999999999998E-2</v>
       </c>
       <c r="G22" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -9649,42 +9711,42 @@
       </c>
       <c r="H22" s="90">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41803</v>
+        <v>41948</v>
       </c>
       <c r="I22" s="91">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>52761</v>
+        <v>51081</v>
       </c>
       <c r="J22" s="75">
-        <v>1.8928831220685265E-2</v>
+        <v>1.5472949255235699E-2</v>
       </c>
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D23" s="78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E23" s="78" t="e">
+      <c r="D23" s="78" t="str">
+        <v>obj_00377</v>
+      </c>
+      <c r="E23" s="78" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D23),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F23" s="79" t="e">
+        <v>JPYSB6L30Y_Quote</v>
+      </c>
+      <c r="F23" s="79">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>#VALUE!</v>
+        <v>1.55E-2</v>
       </c>
       <c r="G23" s="79">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
         <v>0</v>
       </c>
-      <c r="H23" s="90" t="e">
+      <c r="H23" s="90">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I23" s="91" t="e">
+        <v>41948</v>
+      </c>
+      <c r="I23" s="91">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J23" s="75" t="e">
-        <v>#N/A</v>
+        <v>52908</v>
+      </c>
+      <c r="J23" s="75">
+        <v>1.6428896230469198E-2</v>
       </c>
     </row>
     <row r="24" spans="4:10" x14ac:dyDescent="0.2">
@@ -12657,7 +12719,7 @@
       </c>
       <c r="E3" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00323#0001</v>
+        <v>obj_0032a#0001</v>
       </c>
       <c r="F3" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E3)</f>
@@ -12672,7 +12734,7 @@
       </c>
       <c r="C4" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B4,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00312#0001</v>
+        <v>obj_0031b#0001</v>
       </c>
       <c r="D4" s="52" t="str">
         <f t="shared" ref="D4:D19" si="0">PROPER(Currency)&amp;FamilyName&amp;$B4&amp;"LastFixing"&amp;QuoteSuffix</f>
@@ -12680,7 +12742,7 @@
       </c>
       <c r="E4" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00321#0001</v>
+        <v>obj_00328#0001</v>
       </c>
       <c r="F4" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E4)</f>
@@ -12695,7 +12757,7 @@
       </c>
       <c r="C5" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B5,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00309#0001</v>
+        <v>obj_0030e#0001</v>
       </c>
       <c r="D5" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12703,7 +12765,7 @@
       </c>
       <c r="E5" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030e#0001</v>
+        <v>obj_00322#0001</v>
       </c>
       <c r="F5" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -12718,7 +12780,7 @@
       </c>
       <c r="C6" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B6,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00306#0001</v>
+        <v>obj_00308#0001</v>
       </c>
       <c r="D6" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12738,7 +12800,7 @@
       </c>
       <c r="C7" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B7,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030d#0001</v>
+        <v>obj_00307#0001</v>
       </c>
       <c r="D7" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12758,7 +12820,7 @@
       </c>
       <c r="C8" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B8,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00307#0001</v>
+        <v>obj_0030a#0001</v>
       </c>
       <c r="D8" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12766,7 +12828,7 @@
       </c>
       <c r="E8" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00313#0001</v>
+        <v>obj_0031d#0001</v>
       </c>
       <c r="F8" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -12781,7 +12843,7 @@
       </c>
       <c r="C9" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B9,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00308#0001</v>
+        <v>obj_0030c#0001</v>
       </c>
       <c r="D9" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12789,7 +12851,7 @@
       </c>
       <c r="E9" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00314#0001</v>
+        <v>obj_00320#0001</v>
       </c>
       <c r="F9" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -12804,7 +12866,7 @@
       </c>
       <c r="C10" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B10,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00301#0001</v>
+        <v>obj_0030d#0001</v>
       </c>
       <c r="D10" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12812,7 +12874,7 @@
       </c>
       <c r="E10" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00315#0001</v>
+        <v>obj_00323#0001</v>
       </c>
       <c r="F10" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -12827,7 +12889,7 @@
       </c>
       <c r="C11" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B11,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00303#0001</v>
+        <v>obj_00311#0001</v>
       </c>
       <c r="D11" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12847,7 +12909,7 @@
       </c>
       <c r="C12" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B12,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_002ff#0001</v>
+        <v>obj_00309#0001</v>
       </c>
       <c r="D12" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12867,7 +12929,7 @@
       </c>
       <c r="C13" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B13,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00302#0001</v>
+        <v>obj_0030f#0001</v>
       </c>
       <c r="D13" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12875,7 +12937,7 @@
       </c>
       <c r="E13" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D13,C13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00317#0001</v>
+        <v>obj_00316#0001</v>
       </c>
       <c r="F13" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -12890,7 +12952,7 @@
       </c>
       <c r="C14" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B14,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030b#0001</v>
+        <v>obj_00312#0001</v>
       </c>
       <c r="D14" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12910,7 +12972,7 @@
       </c>
       <c r="C15" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B15,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030c#0001</v>
+        <v>obj_00314#0001</v>
       </c>
       <c r="D15" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12930,7 +12992,7 @@
       </c>
       <c r="C16" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B16,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00304#0001</v>
+        <v>obj_00313#0001</v>
       </c>
       <c r="D16" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12950,7 +13012,7 @@
       </c>
       <c r="C17" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B17,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00305#0001</v>
+        <v>obj_00306#0001</v>
       </c>
       <c r="D17" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12970,7 +13032,7 @@
       </c>
       <c r="C18" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B18,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030a#0001</v>
+        <v>obj_00310#0001</v>
       </c>
       <c r="D18" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12990,7 +13052,7 @@
       </c>
       <c r="C19" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B19,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00300#0001</v>
+        <v>obj_0030b#0001</v>
       </c>
       <c r="D19" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12998,7 +13060,7 @@
       </c>
       <c r="E19" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D19,C19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00316#0001</v>
+        <v>obj_00326#0001</v>
       </c>
       <c r="F19" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
@@ -13108,7 +13170,7 @@
       </c>
       <c r="G3" s="191" t="str">
         <f>_xll.qlFraRateHelper(,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00318#0001</v>
+        <v>obj_0031a#0001</v>
       </c>
       <c r="H3" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(G3)</f>
@@ -13139,7 +13201,7 @@
       </c>
       <c r="G4" s="191" t="str">
         <f>_xll.qlFraRateHelper(,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00319#0001</v>
+        <v>obj_0031c#0001</v>
       </c>
       <c r="H4" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(G4)</f>
@@ -13170,7 +13232,7 @@
       </c>
       <c r="G5" s="191" t="str">
         <f>_xll.qlFraRateHelper(,F5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031f#0001</v>
+        <v>obj_00318#0001</v>
       </c>
       <c r="H5" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(G5)</f>
@@ -13201,7 +13263,7 @@
       </c>
       <c r="G6" s="191" t="str">
         <f>_xll.qlFraRateHelper(,F6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031b#0001</v>
+        <v>obj_00321#0001</v>
       </c>
       <c r="H6" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(G6)</f>
@@ -13232,7 +13294,7 @@
       </c>
       <c r="G7" s="191" t="str">
         <f>_xll.qlFraRateHelper(,F7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031a#0001</v>
+        <v>obj_0031e#0001</v>
       </c>
       <c r="H7" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(G7)</f>
@@ -13263,7 +13325,7 @@
       </c>
       <c r="G8" s="191" t="str">
         <f>_xll.qlFraRateHelper(,F8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031c#0001</v>
+        <v>obj_00324#0001</v>
       </c>
       <c r="H8" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(G8)</f>
@@ -13294,7 +13356,7 @@
       </c>
       <c r="G9" s="191" t="str">
         <f>_xll.qlFraRateHelper(,F9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00311#0001</v>
+        <v>obj_00319#0001</v>
       </c>
       <c r="H9" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(G9)</f>
@@ -13325,7 +13387,7 @@
       </c>
       <c r="G10" s="191" t="str">
         <f>_xll.qlFraRateHelper(,F10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030f#0001</v>
+        <v>obj_00325#0001</v>
       </c>
       <c r="H10" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(G10)</f>
@@ -13356,7 +13418,7 @@
       </c>
       <c r="G11" s="191" t="str">
         <f>_xll.qlFraRateHelper(,F11,B11,E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031d#0001</v>
+        <v>obj_00327#0001</v>
       </c>
       <c r="H11" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(G11)</f>
@@ -13387,7 +13449,7 @@
       </c>
       <c r="G12" s="191" t="str">
         <f>_xll.qlFraRateHelper(,F12,B12,E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031e#0001</v>
+        <v>obj_00317#0001</v>
       </c>
       <c r="H12" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(G12)</f>
@@ -13418,7 +13480,7 @@
       </c>
       <c r="G13" s="191" t="str">
         <f>_xll.qlFraRateHelper(,F13,B13,E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00320#0001</v>
+        <v>obj_0031f#0001</v>
       </c>
       <c r="H13" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(G13)</f>
@@ -13529,7 +13591,7 @@
       </c>
       <c r="D3" s="160" t="str">
         <f t="array" ref="D3:D44">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C3:$C44)</f>
-        <v>M4</v>
+        <v>X4</v>
       </c>
       <c r="E3" s="160" t="str">
         <f t="shared" ref="E3:E34" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
@@ -13537,15 +13599,15 @@
       </c>
       <c r="F3" s="161" t="str">
         <f t="shared" ref="F3:F34" si="1">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
-        <v>JPYFUT3MM4_Quote</v>
+        <v>JPYFUT3MX4_Quote</v>
       </c>
       <c r="G3" s="161" t="str">
         <f t="shared" ref="G3:G34" si="2">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>JPYFUT3MM4ConvAdj_Quote</v>
+        <v>JPYFUT3MX4ConvAdj_Quote</v>
       </c>
       <c r="H3" s="162" t="str">
         <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036d#0001</v>
+        <v>obj_00335#0001</v>
       </c>
       <c r="I3" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -13563,7 +13625,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="164" t="str">
-        <v>N4</v>
+        <v>Z4</v>
       </c>
       <c r="E4" s="160" t="str">
         <f t="shared" si="0"/>
@@ -13571,15 +13633,15 @@
       </c>
       <c r="F4" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MN4_Quote</v>
+        <v>JPYFUT3MZ4_Quote</v>
       </c>
       <c r="G4" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MN4ConvAdj_Quote</v>
+        <v>JPYFUT3MZ4ConvAdj_Quote</v>
       </c>
       <c r="H4" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00356#0001</v>
+        <v>obj_0034f#0001</v>
       </c>
       <c r="I4" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -13597,7 +13659,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="164" t="str">
-        <v>Q4</v>
+        <v>F5</v>
       </c>
       <c r="E5" s="160" t="str">
         <f t="shared" si="0"/>
@@ -13605,15 +13667,15 @@
       </c>
       <c r="F5" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MQ4_Quote</v>
+        <v>JPYFUT3MF5_Quote</v>
       </c>
       <c r="G5" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MQ4ConvAdj_Quote</v>
+        <v>JPYFUT3MF5ConvAdj_Quote</v>
       </c>
       <c r="H5" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00365#0001</v>
+        <v>obj_0034d#0001</v>
       </c>
       <c r="I5" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -13631,7 +13693,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="164" t="str">
-        <v>U4</v>
+        <v>G5</v>
       </c>
       <c r="E6" s="160" t="str">
         <f t="shared" si="0"/>
@@ -13639,15 +13701,15 @@
       </c>
       <c r="F6" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU4_Quote</v>
+        <v>JPYFUT3MG5_Quote</v>
       </c>
       <c r="G6" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MU4ConvAdj_Quote</v>
+        <v>JPYFUT3MG5ConvAdj_Quote</v>
       </c>
       <c r="H6" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0032c#0001</v>
+        <v>obj_00336#0001</v>
       </c>
       <c r="I6" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -13665,7 +13727,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="164" t="str">
-        <v>V4</v>
+        <v>H5</v>
       </c>
       <c r="E7" s="160" t="str">
         <f t="shared" si="0"/>
@@ -13673,15 +13735,15 @@
       </c>
       <c r="F7" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MV4_Quote</v>
+        <v>JPYFUT3MH5_Quote</v>
       </c>
       <c r="G7" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MV4ConvAdj_Quote</v>
+        <v>JPYFUT3MH5ConvAdj_Quote</v>
       </c>
       <c r="H7" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00350#0001</v>
+        <v>obj_00332#0001</v>
       </c>
       <c r="I7" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -13699,7 +13761,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="164" t="str">
-        <v>X4</v>
+        <v>J5</v>
       </c>
       <c r="E8" s="160" t="str">
         <f t="shared" si="0"/>
@@ -13707,15 +13769,15 @@
       </c>
       <c r="F8" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MX4_Quote</v>
+        <v>JPYFUT3MJ5_Quote</v>
       </c>
       <c r="G8" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MX4ConvAdj_Quote</v>
+        <v>JPYFUT3MJ5ConvAdj_Quote</v>
       </c>
       <c r="H8" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0033a#0001</v>
+        <v>obj_0032f#0001</v>
       </c>
       <c r="I8" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -13733,7 +13795,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="164" t="str">
-        <v>Z4</v>
+        <v>K5</v>
       </c>
       <c r="E9" s="160" t="str">
         <f t="shared" si="0"/>
@@ -13741,15 +13803,15 @@
       </c>
       <c r="F9" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ4_Quote</v>
+        <v>JPYFUT3MK5_Quote</v>
       </c>
       <c r="G9" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MZ4ConvAdj_Quote</v>
+        <v>JPYFUT3MK5ConvAdj_Quote</v>
       </c>
       <c r="H9" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036e#0001</v>
+        <v>obj_00353#0001</v>
       </c>
       <c r="I9" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -13767,7 +13829,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="164" t="str">
-        <v>F5</v>
+        <v>M5</v>
       </c>
       <c r="E10" s="160" t="str">
         <f t="shared" si="0"/>
@@ -13775,15 +13837,15 @@
       </c>
       <c r="F10" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MF5_Quote</v>
+        <v>JPYFUT3MM5_Quote</v>
       </c>
       <c r="G10" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MF5ConvAdj_Quote</v>
+        <v>JPYFUT3MM5ConvAdj_Quote</v>
       </c>
       <c r="H10" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00342#0001</v>
+        <v>obj_00330#0001</v>
       </c>
       <c r="I10" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -13801,7 +13863,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="164" t="str">
-        <v>G5</v>
+        <v>N5</v>
       </c>
       <c r="E11" s="160" t="str">
         <f t="shared" si="0"/>
@@ -13809,15 +13871,15 @@
       </c>
       <c r="F11" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MG5_Quote</v>
+        <v>JPYFUT3MN5_Quote</v>
       </c>
       <c r="G11" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MG5ConvAdj_Quote</v>
+        <v>JPYFUT3MN5ConvAdj_Quote</v>
       </c>
       <c r="H11" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00339#0001</v>
+        <v>obj_00374#0001</v>
       </c>
       <c r="I11" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -13835,7 +13897,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="164" t="str">
-        <v>H5</v>
+        <v>Q5</v>
       </c>
       <c r="E12" s="160" t="str">
         <f t="shared" si="0"/>
@@ -13843,15 +13905,15 @@
       </c>
       <c r="F12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH5_Quote</v>
+        <v>JPYFUT3MQ5_Quote</v>
       </c>
       <c r="G12" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MH5ConvAdj_Quote</v>
+        <v>JPYFUT3MQ5ConvAdj_Quote</v>
       </c>
       <c r="H12" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00328#0001</v>
+        <v>obj_0035f#0001</v>
       </c>
       <c r="I12" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -13869,7 +13931,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="164" t="str">
-        <v>J5</v>
+        <v>U5</v>
       </c>
       <c r="E13" s="160" t="str">
         <f t="shared" si="0"/>
@@ -13877,15 +13939,15 @@
       </c>
       <c r="F13" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MJ5_Quote</v>
+        <v>JPYFUT3MU5_Quote</v>
       </c>
       <c r="G13" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MJ5ConvAdj_Quote</v>
+        <v>JPYFUT3MU5ConvAdj_Quote</v>
       </c>
       <c r="H13" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0032e#0001</v>
+        <v>obj_00368#0001</v>
       </c>
       <c r="I13" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -13903,7 +13965,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="164" t="str">
-        <v>K5</v>
+        <v>V5</v>
       </c>
       <c r="E14" s="160" t="str">
         <f t="shared" si="0"/>
@@ -13911,15 +13973,15 @@
       </c>
       <c r="F14" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MK5_Quote</v>
+        <v>JPYFUT3MV5_Quote</v>
       </c>
       <c r="G14" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MK5ConvAdj_Quote</v>
+        <v>JPYFUT3MV5ConvAdj_Quote</v>
       </c>
       <c r="H14" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00353#0001</v>
+        <v>obj_00345#0001</v>
       </c>
       <c r="I14" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
@@ -13937,7 +13999,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="164" t="str">
-        <v>M5</v>
+        <v>Z5</v>
       </c>
       <c r="E15" s="160" t="str">
         <f t="shared" si="0"/>
@@ -13945,15 +14007,15 @@
       </c>
       <c r="F15" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM5_Quote</v>
+        <v>JPYFUT3MZ5_Quote</v>
       </c>
       <c r="G15" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MM5ConvAdj_Quote</v>
+        <v>JPYFUT3MZ5ConvAdj_Quote</v>
       </c>
       <c r="H15" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00335#0001</v>
+        <v>obj_00358#0001</v>
       </c>
       <c r="I15" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
@@ -13971,7 +14033,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="164" t="str">
-        <v>U5</v>
+        <v>H6</v>
       </c>
       <c r="E16" s="160" t="str">
         <f t="shared" si="0"/>
@@ -13979,15 +14041,15 @@
       </c>
       <c r="F16" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU5_Quote</v>
+        <v>JPYFUT3MH6_Quote</v>
       </c>
       <c r="G16" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MU5ConvAdj_Quote</v>
+        <v>JPYFUT3MH6ConvAdj_Quote</v>
       </c>
       <c r="H16" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00361#0001</v>
+        <v>obj_00367#0001</v>
       </c>
       <c r="I16" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
@@ -14005,7 +14067,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="164" t="str">
-        <v>Z5</v>
+        <v>M6</v>
       </c>
       <c r="E17" s="160" t="str">
         <f t="shared" si="0"/>
@@ -14013,15 +14075,15 @@
       </c>
       <c r="F17" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ5_Quote</v>
+        <v>JPYFUT3MM6_Quote</v>
       </c>
       <c r="G17" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MZ5ConvAdj_Quote</v>
+        <v>JPYFUT3MM6ConvAdj_Quote</v>
       </c>
       <c r="H17" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00364#0001</v>
+        <v>obj_00349#0001</v>
       </c>
       <c r="I17" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
@@ -14039,7 +14101,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="164" t="str">
-        <v>H6</v>
+        <v>U6</v>
       </c>
       <c r="E18" s="160" t="str">
         <f t="shared" si="0"/>
@@ -14047,15 +14109,15 @@
       </c>
       <c r="F18" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH6_Quote</v>
+        <v>JPYFUT3MU6_Quote</v>
       </c>
       <c r="G18" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MH6ConvAdj_Quote</v>
+        <v>JPYFUT3MU6ConvAdj_Quote</v>
       </c>
       <c r="H18" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00355#0001</v>
+        <v>obj_0034c#0001</v>
       </c>
       <c r="I18" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
@@ -14073,7 +14135,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="164" t="str">
-        <v>M6</v>
+        <v>Z6</v>
       </c>
       <c r="E19" s="160" t="str">
         <f t="shared" si="0"/>
@@ -14081,15 +14143,15 @@
       </c>
       <c r="F19" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM6_Quote</v>
+        <v>JPYFUT3MZ6_Quote</v>
       </c>
       <c r="G19" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MM6ConvAdj_Quote</v>
+        <v>JPYFUT3MZ6ConvAdj_Quote</v>
       </c>
       <c r="H19" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034b#0001</v>
+        <v>obj_0033d#0001</v>
       </c>
       <c r="I19" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
@@ -14107,7 +14169,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="164" t="str">
-        <v>U6</v>
+        <v>H7</v>
       </c>
       <c r="E20" s="160" t="str">
         <f t="shared" si="0"/>
@@ -14115,15 +14177,15 @@
       </c>
       <c r="F20" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU6_Quote</v>
+        <v>JPYFUT3MH7_Quote</v>
       </c>
       <c r="G20" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MU6ConvAdj_Quote</v>
+        <v>JPYFUT3MH7ConvAdj_Quote</v>
       </c>
       <c r="H20" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00363#0001</v>
+        <v>obj_0035d#0001</v>
       </c>
       <c r="I20" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
@@ -14141,7 +14203,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="164" t="str">
-        <v>Z6</v>
+        <v>M7</v>
       </c>
       <c r="E21" s="160" t="str">
         <f t="shared" si="0"/>
@@ -14149,15 +14211,15 @@
       </c>
       <c r="F21" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ6_Quote</v>
+        <v>JPYFUT3MM7_Quote</v>
       </c>
       <c r="G21" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MZ6ConvAdj_Quote</v>
+        <v>JPYFUT3MM7ConvAdj_Quote</v>
       </c>
       <c r="H21" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00330#0001</v>
+        <v>obj_00347#0001</v>
       </c>
       <c r="I21" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
@@ -14175,7 +14237,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="164" t="str">
-        <v>H7</v>
+        <v>U7</v>
       </c>
       <c r="E22" s="160" t="str">
         <f t="shared" si="0"/>
@@ -14183,15 +14245,15 @@
       </c>
       <c r="F22" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH7_Quote</v>
+        <v>JPYFUT3MU7_Quote</v>
       </c>
       <c r="G22" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MH7ConvAdj_Quote</v>
+        <v>JPYFUT3MU7ConvAdj_Quote</v>
       </c>
       <c r="H22" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035a#0001</v>
+        <v>obj_00359#0001</v>
       </c>
       <c r="I22" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
@@ -14209,7 +14271,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="164" t="str">
-        <v>M7</v>
+        <v>Z7</v>
       </c>
       <c r="E23" s="160" t="str">
         <f t="shared" si="0"/>
@@ -14217,15 +14279,15 @@
       </c>
       <c r="F23" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM7_Quote</v>
+        <v>JPYFUT3MZ7_Quote</v>
       </c>
       <c r="G23" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MM7ConvAdj_Quote</v>
+        <v>JPYFUT3MZ7ConvAdj_Quote</v>
       </c>
       <c r="H23" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00336#0001</v>
+        <v>obj_0035b#0001</v>
       </c>
       <c r="I23" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H23)</f>
@@ -14243,7 +14305,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="164" t="str">
-        <v>U7</v>
+        <v>H8</v>
       </c>
       <c r="E24" s="160" t="str">
         <f t="shared" si="0"/>
@@ -14251,15 +14313,15 @@
       </c>
       <c r="F24" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU7_Quote</v>
+        <v>JPYFUT3MH8_Quote</v>
       </c>
       <c r="G24" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MU7ConvAdj_Quote</v>
+        <v>JPYFUT3MH8ConvAdj_Quote</v>
       </c>
       <c r="H24" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00341#0001</v>
+        <v>obj_0034e#0001</v>
       </c>
       <c r="I24" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H24)</f>
@@ -14277,7 +14339,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="164" t="str">
-        <v>Z7</v>
+        <v>M8</v>
       </c>
       <c r="E25" s="160" t="str">
         <f t="shared" si="0"/>
@@ -14285,15 +14347,15 @@
       </c>
       <c r="F25" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ7_Quote</v>
+        <v>JPYFUT3MM8_Quote</v>
       </c>
       <c r="G25" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MZ7ConvAdj_Quote</v>
+        <v>JPYFUT3MM8ConvAdj_Quote</v>
       </c>
       <c r="H25" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00331#0001</v>
+        <v>obj_0034a#0001</v>
       </c>
       <c r="I25" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H25)</f>
@@ -14311,7 +14373,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="164" t="str">
-        <v>H8</v>
+        <v>U8</v>
       </c>
       <c r="E26" s="160" t="str">
         <f t="shared" si="0"/>
@@ -14319,15 +14381,15 @@
       </c>
       <c r="F26" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH8_Quote</v>
+        <v>JPYFUT3MU8_Quote</v>
       </c>
       <c r="G26" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MH8ConvAdj_Quote</v>
+        <v>JPYFUT3MU8ConvAdj_Quote</v>
       </c>
       <c r="H26" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035f#0001</v>
+        <v>obj_00334#0001</v>
       </c>
       <c r="I26" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H26)</f>
@@ -14345,7 +14407,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="164" t="str">
-        <v>M8</v>
+        <v>Z8</v>
       </c>
       <c r="E27" s="160" t="str">
         <f t="shared" si="0"/>
@@ -14353,15 +14415,15 @@
       </c>
       <c r="F27" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM8_Quote</v>
+        <v>JPYFUT3MZ8_Quote</v>
       </c>
       <c r="G27" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MM8ConvAdj_Quote</v>
+        <v>JPYFUT3MZ8ConvAdj_Quote</v>
       </c>
       <c r="H27" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00351#0001</v>
+        <v>obj_00355#0001</v>
       </c>
       <c r="I27" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
@@ -14379,7 +14441,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="164" t="str">
-        <v>U8</v>
+        <v>H9</v>
       </c>
       <c r="E28" s="160" t="str">
         <f t="shared" si="0"/>
@@ -14387,15 +14449,15 @@
       </c>
       <c r="F28" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU8_Quote</v>
+        <v>JPYFUT3MH9_Quote</v>
       </c>
       <c r="G28" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MU8ConvAdj_Quote</v>
+        <v>JPYFUT3MH9ConvAdj_Quote</v>
       </c>
       <c r="H28" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034c#0001</v>
+        <v>obj_0035c#0001</v>
       </c>
       <c r="I28" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
@@ -14413,7 +14475,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="164" t="str">
-        <v>Z8</v>
+        <v>M9</v>
       </c>
       <c r="E29" s="160" t="str">
         <f t="shared" si="0"/>
@@ -14421,15 +14483,15 @@
       </c>
       <c r="F29" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ8_Quote</v>
+        <v>JPYFUT3MM9_Quote</v>
       </c>
       <c r="G29" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MZ8ConvAdj_Quote</v>
+        <v>JPYFUT3MM9ConvAdj_Quote</v>
       </c>
       <c r="H29" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00329#0001</v>
+        <v>obj_00371#0001</v>
       </c>
       <c r="I29" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H29)</f>
@@ -14447,7 +14509,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="164" t="str">
-        <v>H9</v>
+        <v>U9</v>
       </c>
       <c r="E30" s="160" t="str">
         <f t="shared" si="0"/>
@@ -14455,15 +14517,15 @@
       </c>
       <c r="F30" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH9_Quote</v>
+        <v>JPYFUT3MU9_Quote</v>
       </c>
       <c r="G30" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MH9ConvAdj_Quote</v>
+        <v>JPYFUT3MU9ConvAdj_Quote</v>
       </c>
       <c r="H30" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034f#0001</v>
+        <v>obj_00364#0001</v>
       </c>
       <c r="I30" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H30)</f>
@@ -14481,7 +14543,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="164" t="str">
-        <v>M9</v>
+        <v>Z9</v>
       </c>
       <c r="E31" s="160" t="str">
         <f t="shared" si="0"/>
@@ -14489,15 +14551,15 @@
       </c>
       <c r="F31" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM9_Quote</v>
+        <v>JPYFUT3MZ9_Quote</v>
       </c>
       <c r="G31" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MM9ConvAdj_Quote</v>
+        <v>JPYFUT3MZ9ConvAdj_Quote</v>
       </c>
       <c r="H31" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00347#0001</v>
+        <v>obj_00360#0001</v>
       </c>
       <c r="I31" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H31)</f>
@@ -14515,7 +14577,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="164" t="str">
-        <v>U9</v>
+        <v>H0</v>
       </c>
       <c r="E32" s="160" t="str">
         <f t="shared" si="0"/>
@@ -14523,15 +14585,15 @@
       </c>
       <c r="F32" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU9_Quote</v>
+        <v>JPYFUT3MH0_Quote</v>
       </c>
       <c r="G32" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MU9ConvAdj_Quote</v>
+        <v>JPYFUT3MH0ConvAdj_Quote</v>
       </c>
       <c r="H32" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00370#0001</v>
+        <v>obj_0035a#0001</v>
       </c>
       <c r="I32" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H32)</f>
@@ -14549,7 +14611,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="164" t="str">
-        <v>Z9</v>
+        <v>M0</v>
       </c>
       <c r="E33" s="160" t="str">
         <f t="shared" si="0"/>
@@ -14557,15 +14619,15 @@
       </c>
       <c r="F33" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ9_Quote</v>
+        <v>JPYFUT3MM0_Quote</v>
       </c>
       <c r="G33" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MZ9ConvAdj_Quote</v>
+        <v>JPYFUT3MM0ConvAdj_Quote</v>
       </c>
       <c r="H33" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0033d#0001</v>
+        <v>obj_00340#0001</v>
       </c>
       <c r="I33" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
@@ -14583,7 +14645,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="164" t="str">
-        <v>H0</v>
+        <v>U0</v>
       </c>
       <c r="E34" s="160" t="str">
         <f t="shared" si="0"/>
@@ -14591,15 +14653,15 @@
       </c>
       <c r="F34" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH0_Quote</v>
+        <v>JPYFUT3MU0_Quote</v>
       </c>
       <c r="G34" s="161" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MH0ConvAdj_Quote</v>
+        <v>JPYFUT3MU0ConvAdj_Quote</v>
       </c>
       <c r="H34" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0032b#0001</v>
+        <v>obj_0032d#0001</v>
       </c>
       <c r="I34" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
@@ -14617,7 +14679,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="164" t="str">
-        <v>M0</v>
+        <v>Z0</v>
       </c>
       <c r="E35" s="160" t="str">
         <f t="shared" ref="E35:E44" si="3">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
@@ -14625,15 +14687,15 @@
       </c>
       <c r="F35" s="161" t="str">
         <f t="shared" ref="F35:F44" si="4">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;QuoteSuffix</f>
-        <v>JPYFUT3MM0_Quote</v>
+        <v>JPYFUT3MZ0_Quote</v>
       </c>
       <c r="G35" s="161" t="str">
         <f t="shared" ref="G35:G44" si="5">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>JPYFUT3MM0ConvAdj_Quote</v>
+        <v>JPYFUT3MZ0ConvAdj_Quote</v>
       </c>
       <c r="H35" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00327#0001</v>
+        <v>obj_00343#0001</v>
       </c>
       <c r="I35" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H35)</f>
@@ -14651,7 +14713,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="164" t="str">
-        <v>U0</v>
+        <v>H1</v>
       </c>
       <c r="E36" s="160" t="str">
         <f t="shared" si="3"/>
@@ -14659,15 +14721,15 @@
       </c>
       <c r="F36" s="161" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MU0_Quote</v>
+        <v>JPYFUT3MH1_Quote</v>
       </c>
       <c r="G36" s="161" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MU0ConvAdj_Quote</v>
+        <v>JPYFUT3MH1ConvAdj_Quote</v>
       </c>
       <c r="H36" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035d#0001</v>
+        <v>obj_00373#0001</v>
       </c>
       <c r="I36" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H36)</f>
@@ -14685,7 +14747,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="164" t="str">
-        <v>Z0</v>
+        <v>M1</v>
       </c>
       <c r="E37" s="160" t="str">
         <f t="shared" si="3"/>
@@ -14693,15 +14755,15 @@
       </c>
       <c r="F37" s="161" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MZ0_Quote</v>
+        <v>JPYFUT3MM1_Quote</v>
       </c>
       <c r="G37" s="161" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MZ0ConvAdj_Quote</v>
+        <v>JPYFUT3MM1ConvAdj_Quote</v>
       </c>
       <c r="H37" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00346#0001</v>
+        <v>obj_0036c#0001</v>
       </c>
       <c r="I37" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H37)</f>
@@ -14719,7 +14781,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="164" t="str">
-        <v>H1</v>
+        <v>U1</v>
       </c>
       <c r="E38" s="160" t="str">
         <f t="shared" si="3"/>
@@ -14727,15 +14789,15 @@
       </c>
       <c r="F38" s="161" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MH1_Quote</v>
+        <v>JPYFUT3MU1_Quote</v>
       </c>
       <c r="G38" s="161" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MH1ConvAdj_Quote</v>
+        <v>JPYFUT3MU1ConvAdj_Quote</v>
       </c>
       <c r="H38" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036c#0001</v>
+        <v>obj_00350#0001</v>
       </c>
       <c r="I38" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H38)</f>
@@ -14753,7 +14815,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="164" t="str">
-        <v>M1</v>
+        <v>Z1</v>
       </c>
       <c r="E39" s="160" t="str">
         <f t="shared" si="3"/>
@@ -14761,15 +14823,15 @@
       </c>
       <c r="F39" s="161" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MM1_Quote</v>
+        <v>JPYFUT3MZ1_Quote</v>
       </c>
       <c r="G39" s="161" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MM1ConvAdj_Quote</v>
+        <v>JPYFUT3MZ1ConvAdj_Quote</v>
       </c>
       <c r="H39" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0033f#0001</v>
+        <v>obj_00376#0001</v>
       </c>
       <c r="I39" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H39)</f>
@@ -14787,7 +14849,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="164" t="str">
-        <v>U1</v>
+        <v>H2</v>
       </c>
       <c r="E40" s="160" t="str">
         <f t="shared" si="3"/>
@@ -14795,11 +14857,11 @@
       </c>
       <c r="F40" s="161" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MU1_Quote</v>
+        <v>JPYFUT3MH2_Quote</v>
       </c>
       <c r="G40" s="161" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MU1ConvAdj_Quote</v>
+        <v>JPYFUT3MH2ConvAdj_Quote</v>
       </c>
       <c r="H40" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
@@ -14820,7 +14882,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="164" t="str">
-        <v>Z1</v>
+        <v>M2</v>
       </c>
       <c r="E41" s="160" t="str">
         <f t="shared" si="3"/>
@@ -14828,15 +14890,15 @@
       </c>
       <c r="F41" s="161" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MZ1_Quote</v>
+        <v>JPYFUT3MM2_Quote</v>
       </c>
       <c r="G41" s="161" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MZ1ConvAdj_Quote</v>
+        <v>JPYFUT3MM2ConvAdj_Quote</v>
       </c>
       <c r="H41" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00334#0001</v>
+        <v>obj_00337#0001</v>
       </c>
       <c r="I41" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H41)</f>
@@ -14853,7 +14915,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="164" t="str">
-        <v>H2</v>
+        <v>U2</v>
       </c>
       <c r="E42" s="160" t="str">
         <f t="shared" si="3"/>
@@ -14861,15 +14923,15 @@
       </c>
       <c r="F42" s="161" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MH2_Quote</v>
+        <v>JPYFUT3MU2_Quote</v>
       </c>
       <c r="G42" s="161" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MH2ConvAdj_Quote</v>
+        <v>JPYFUT3MU2ConvAdj_Quote</v>
       </c>
       <c r="H42" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0032a#0001</v>
+        <v>obj_00378#0001</v>
       </c>
       <c r="I42" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H42)</f>
@@ -14886,7 +14948,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="164" t="str">
-        <v>M2</v>
+        <v>Z2</v>
       </c>
       <c r="E43" s="160" t="str">
         <f t="shared" si="3"/>
@@ -14894,15 +14956,15 @@
       </c>
       <c r="F43" s="161" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MM2_Quote</v>
+        <v>JPYFUT3MZ2_Quote</v>
       </c>
       <c r="G43" s="161" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MM2ConvAdj_Quote</v>
+        <v>JPYFUT3MZ2ConvAdj_Quote</v>
       </c>
       <c r="H43" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00343#0001</v>
+        <v>obj_00338#0001</v>
       </c>
       <c r="I43" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H43)</f>
@@ -14919,7 +14981,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="164" t="str">
-        <v>U2</v>
+        <v>H3</v>
       </c>
       <c r="E44" s="160" t="str">
         <f t="shared" si="3"/>
@@ -14927,15 +14989,15 @@
       </c>
       <c r="F44" s="161" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MU2_Quote</v>
+        <v>JPYFUT3MH3_Quote</v>
       </c>
       <c r="G44" s="161" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MU2ConvAdj_Quote</v>
+        <v>JPYFUT3MH3ConvAdj_Quote</v>
       </c>
       <c r="H44" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034a#0001</v>
+        <v>obj_00339#0001</v>
       </c>
       <c r="I44" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H44)</f>
@@ -15059,7 +15121,7 @@
       <c r="J3" s="66"/>
       <c r="K3" s="172" t="str">
         <f>_xll.qlLibor(,Currency,$I$1,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00310#0001</v>
+        <v>obj_00315#0001</v>
       </c>
       <c r="L3" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
@@ -15118,7 +15180,7 @@
       </c>
       <c r="K5" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J5,$C5,Calendar,$F5,$G5,$H5,$K$3,$I5,B5,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00322#0001</v>
+        <v>obj_00329#0001</v>
       </c>
       <c r="L5" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
@@ -15165,7 +15227,7 @@
       </c>
       <c r="K6" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$3,$I6,B6,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00352#0001</v>
+        <v>obj_00341#0001</v>
       </c>
       <c r="L6" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -15216,7 +15278,7 @@
       </c>
       <c r="K7" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$3,$I7,B7,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0034d#0001</v>
+        <v>obj_00348#0001</v>
       </c>
       <c r="L7" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -15267,7 +15329,7 @@
       </c>
       <c r="K8" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$3,$I8,B8,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00357#0001</v>
+        <v>obj_00333#0001</v>
       </c>
       <c r="L8" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -15318,7 +15380,7 @@
       </c>
       <c r="K9" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$3,$I9,B9,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0033b#0001</v>
+        <v>obj_00351#0001</v>
       </c>
       <c r="L9" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -15369,7 +15431,7 @@
       </c>
       <c r="K10" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$3,$I10,B10,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00359#0001</v>
+        <v>obj_0033e#0001</v>
       </c>
       <c r="L10" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -15411,7 +15473,7 @@
       </c>
       <c r="K11" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$3,$I11,B11,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00333#0001</v>
+        <v>obj_0032e#0001</v>
       </c>
       <c r="L11" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -15453,7 +15515,7 @@
       </c>
       <c r="K12" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$3,$I12,B12,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00371#0001</v>
+        <v>obj_0035e#0001</v>
       </c>
       <c r="L12" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -15495,7 +15557,7 @@
       </c>
       <c r="K13" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$3,$I13,B13,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0033e#0001</v>
+        <v>obj_00344#0001</v>
       </c>
       <c r="L13" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -15537,7 +15599,7 @@
       </c>
       <c r="K14" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$3,$I14,B14,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00362#0001</v>
+        <v>obj_0036a#0001</v>
       </c>
       <c r="L14" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -15579,7 +15641,7 @@
       </c>
       <c r="K15" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$3,$I15,B15,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00345#0001</v>
+        <v>obj_00369#0001</v>
       </c>
       <c r="L15" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
@@ -15621,7 +15683,7 @@
       </c>
       <c r="K16" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$3,$I16,B16,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00348#0001</v>
+        <v>obj_0034b#0001</v>
       </c>
       <c r="L16" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
@@ -15663,7 +15725,7 @@
       </c>
       <c r="K17" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$3,$I17,B17,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00326#0001</v>
+        <v>obj_00357#0001</v>
       </c>
       <c r="L17" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
@@ -15705,7 +15767,7 @@
       </c>
       <c r="K18" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$3,$I18,B18,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00337#0001</v>
+        <v>obj_0036e#0001</v>
       </c>
       <c r="L18" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
@@ -15747,7 +15809,7 @@
       </c>
       <c r="K19" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$3,$I19,B19,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036a#0001</v>
+        <v>obj_00346#0001</v>
       </c>
       <c r="L19" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
@@ -15789,7 +15851,7 @@
       </c>
       <c r="K20" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$3,$I20,B20,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036f#0001</v>
+        <v>obj_0033f#0001</v>
       </c>
       <c r="L20" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
@@ -15831,7 +15893,7 @@
       </c>
       <c r="K21" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$3,$I21,B21,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036b#0001</v>
+        <v>obj_00370#0001</v>
       </c>
       <c r="L21" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
@@ -15873,7 +15935,7 @@
       </c>
       <c r="K22" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$3,$I22,B22,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00344#0001</v>
+        <v>obj_00354#0001</v>
       </c>
       <c r="L22" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
@@ -15915,7 +15977,7 @@
       </c>
       <c r="K23" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$3,$I23,B23,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00360#0001</v>
+        <v>obj_00352#0001</v>
       </c>
       <c r="L23" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
@@ -15957,7 +16019,7 @@
       </c>
       <c r="K24" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$3,$I24,B24,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0032d#0001</v>
+        <v>obj_00366#0001</v>
       </c>
       <c r="L24" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
@@ -15999,7 +16061,7 @@
       </c>
       <c r="K25" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$3,$I25,B25,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0035e#0001</v>
+        <v>obj_00375#0001</v>
       </c>
       <c r="L25" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
@@ -16041,7 +16103,7 @@
       </c>
       <c r="K26" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$3,$I26,B26,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00338#0001</v>
+        <v>obj_00362#0001</v>
       </c>
       <c r="L26" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
@@ -16083,7 +16145,7 @@
       </c>
       <c r="K27" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$3,$I27,B27,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0035c#0001</v>
+        <v>obj_00361#0001</v>
       </c>
       <c r="L27" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K27)</f>
@@ -16125,7 +16187,7 @@
       </c>
       <c r="K28" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$3,$I28,B28,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0032f#0001</v>
+        <v>obj_0036b#0001</v>
       </c>
       <c r="L28" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K28)</f>
@@ -16167,7 +16229,7 @@
       </c>
       <c r="K29" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J29,$C29,Calendar,$F29,$G29,$H29,$K$3,$I29,B29,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00368#0001</v>
+        <v>obj_00356#0001</v>
       </c>
       <c r="L29" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K29)</f>
@@ -16209,7 +16271,7 @@
       </c>
       <c r="K30" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J30,$C30,Calendar,$F30,$G30,$H30,$K$3,$I30,B30,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00325#0001</v>
+        <v>obj_0032b#0001</v>
       </c>
       <c r="L30" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K30)</f>
@@ -16251,7 +16313,7 @@
       </c>
       <c r="K31" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J31,$C31,Calendar,$F31,$G31,$H31,$K$3,$I31,B31,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0035b#0001</v>
+        <v>obj_0036d#0001</v>
       </c>
       <c r="L31" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K31)</f>
@@ -16293,7 +16355,7 @@
       </c>
       <c r="K32" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J32,$C32,Calendar,$F32,$G32,$H32,$K$3,$I32,B32,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00354#0001</v>
+        <v>obj_0036f#0001</v>
       </c>
       <c r="L32" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K32)</f>
@@ -16335,7 +16397,7 @@
       </c>
       <c r="K33" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J33,$C33,Calendar,$F33,$G33,$H33,$K$3,$I33,B33,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00349#0001</v>
+        <v>obj_00331#0001</v>
       </c>
       <c r="L33" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K33)</f>
@@ -16377,7 +16439,7 @@
       </c>
       <c r="K34" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J34,$C34,Calendar,$F34,$G34,$H34,$K$3,$I34,B34,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00340#0001</v>
+        <v>obj_00372#0001</v>
       </c>
       <c r="L34" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K34)</f>
@@ -16419,7 +16481,7 @@
       </c>
       <c r="K35" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J35,$C35,Calendar,$F35,$G35,$H35,$K$3,$I35,B35,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00369#0001</v>
+        <v>obj_00342#0001</v>
       </c>
       <c r="L35" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K35)</f>
@@ -16461,7 +16523,7 @@
       </c>
       <c r="K36" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J36,$C36,Calendar,$F36,$G36,$H36,$K$3,$I36,B36,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00324#0001</v>
+        <v>obj_0032c#0001</v>
       </c>
       <c r="L36" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K36)</f>
@@ -16503,7 +16565,7 @@
       </c>
       <c r="K37" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J37,$C37,Calendar,$F37,$G37,$H37,$K$3,$I37,B37,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00332#0001</v>
+        <v>obj_00377#0001</v>
       </c>
       <c r="L37" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K37)</f>
@@ -16545,7 +16607,7 @@
       </c>
       <c r="K38" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J38,$C38,Calendar,$F38,$G38,$H38,$K$3,$I38,B38,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00367#0001</v>
+        <v>obj_0033b#0001</v>
       </c>
       <c r="L38" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K38)</f>
@@ -16587,7 +16649,7 @@
       </c>
       <c r="K39" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J39,$C39,Calendar,$F39,$G39,$H39,$K$3,$I39,B39,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00358#0001</v>
+        <v>obj_0033a#0001</v>
       </c>
       <c r="L39" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K39)</f>
@@ -16629,7 +16691,7 @@
       </c>
       <c r="K40" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J40,$C40,Calendar,$F40,$G40,$H40,$K$3,$I40,B40,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00366#0001</v>
+        <v>obj_00365#0001</v>
       </c>
       <c r="L40" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K40)</f>
@@ -16671,7 +16733,7 @@
       </c>
       <c r="K41" s="177" t="str">
         <f>_xll.qlSwapRateHelper2(,$J41,$C41,Calendar,$F41,$G41,$H41,$K$3,$I41,B41,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0034e#0001</v>
+        <v>obj_00363#0001</v>
       </c>
       <c r="L41" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(K41)</f>

--- a/QuantLibXL/Data2/XLS/JPY_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/JPY_YCSTDBootstrapping.xlsx
@@ -1738,6 +1738,15 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="6" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1752,15 +1761,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="6" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2643,8 +2643,8 @@
         <v>68</v>
       </c>
       <c r="D14" s="22" t="e">
-        <f ca="1">qlPiecewiseYieldCurve(D16,NDays,Calendar,ohPack(Selected!D2:D126),,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,_xll.ohPack(Selected!D2:D126),,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
+        <v>#NUM!</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2686,9 +2686,9 @@
       <c r="C15" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="21" t="e">
+      <c r="D15" s="21" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(YieldCurve)</f>
-        <v>#NAME?</v>
+        <v>qlPiecewiseYieldCurve - operToVectorImpl: error converting parameter 'RateHelpers' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to typ</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>122</v>
@@ -2997,12 +2997,12 @@
       <c r="A23" s="3"/>
       <c r="B23" s="5"/>
       <c r="C23" s="9" t="e">
-        <f ca="1">_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D23" s="8" t="e">
-        <f ca="1">MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>#NAME?</v>
+        <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -3037,13 +3037,13 @@
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="7">
+      <c r="C24" s="7" t="e">
         <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>52908</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D24" s="6" t="e">
-        <f ca="1">MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>#NAME?</v>
+        <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -3081,9 +3081,9 @@
       <c r="C25" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="71" t="e">
+      <c r="D25" s="71" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(Selected!J1)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -3123,8 +3123,8 @@
         <v>JPYSTD#0000</v>
       </c>
       <c r="D26" s="6" t="e">
-        <f ca="1">_xll.qlRelinkableHandleLinkTo(C26,YieldCurve)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRelinkableHandleLinkTo(C26,YieldCurve)</f>
+        <v>#NUM!</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -3163,8 +3163,8 @@
         <v>123</v>
       </c>
       <c r="D27" s="44" t="e">
-        <f ca="1">_xll.qlExtrapolatorEnableExtrapolation(YieldCurve,TRUE)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlExtrapolatorEnableExtrapolation(YieldCurve,TRUE)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -4558,11 +4558,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="191" t="s">
+      <c r="B1" s="194" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="192"/>
-      <c r="D1" s="193"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="196"/>
       <c r="E1" s="114" t="s">
         <v>49</v>
       </c>
@@ -4611,7 +4611,6 @@
       </c>
       <c r="H2" s="118"/>
       <c r="I2" s="65" t="b">
-        <f>IF(ISERROR(G2),FALSE,TRUE)</f>
         <v>0</v>
       </c>
       <c r="J2" s="65">
@@ -4655,8 +4654,7 @@
       </c>
       <c r="H3" s="118"/>
       <c r="I3" s="65" t="b">
-        <f t="shared" ref="I3:I9" si="0">IF(ISERROR(G3),FALSE,TRUE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="65">
         <v>10</v>
@@ -4699,7 +4697,6 @@
       </c>
       <c r="H4" s="118"/>
       <c r="I4" s="65" t="b">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J4" s="65">
@@ -4743,7 +4740,6 @@
       </c>
       <c r="H5" s="118"/>
       <c r="I5" s="65" t="b">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J5" s="65">
@@ -4787,7 +4783,6 @@
       </c>
       <c r="H6" s="118"/>
       <c r="I6" s="65" t="b">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J6" s="65">
@@ -4825,7 +4820,6 @@
       </c>
       <c r="H7" s="118"/>
       <c r="I7" s="65" t="b">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J7" s="65">
@@ -4863,7 +4857,6 @@
       </c>
       <c r="H8" s="118"/>
       <c r="I8" s="65" t="b">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J8" s="65">
@@ -4901,7 +4894,6 @@
       </c>
       <c r="H9" s="118"/>
       <c r="I9" s="65" t="b">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J9" s="65">
@@ -4927,7 +4919,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="133" t="str">
-        <f t="shared" ref="D10:D20" si="1">(B10+Months)&amp;"F"</f>
+        <f t="shared" ref="D10:D20" si="0">(B10+Months)&amp;"F"</f>
         <v>4F</v>
       </c>
       <c r="E10" s="133" t="str">
@@ -4969,7 +4961,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="117" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5F</v>
       </c>
       <c r="E11" s="117" t="str">
@@ -5011,7 +5003,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="117" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6F</v>
       </c>
       <c r="E12" s="117" t="str">
@@ -5053,7 +5045,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="117" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7F</v>
       </c>
       <c r="E13" s="117" t="str">
@@ -5095,7 +5087,7 @@
         <v>37</v>
       </c>
       <c r="D14" s="117" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8F</v>
       </c>
       <c r="E14" s="117" t="str">
@@ -5137,7 +5129,7 @@
         <v>37</v>
       </c>
       <c r="D15" s="117" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9F</v>
       </c>
       <c r="E15" s="117" t="str">
@@ -5179,7 +5171,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="117" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10F</v>
       </c>
       <c r="E16" s="117" t="str">
@@ -5221,7 +5213,7 @@
         <v>37</v>
       </c>
       <c r="D17" s="117" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11F</v>
       </c>
       <c r="E17" s="117" t="str">
@@ -5263,7 +5255,7 @@
         <v>37</v>
       </c>
       <c r="D18" s="117" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12F</v>
       </c>
       <c r="E18" s="117" t="str">
@@ -5305,7 +5297,7 @@
         <v>37</v>
       </c>
       <c r="D19" s="117" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13F</v>
       </c>
       <c r="E19" s="117" t="str">
@@ -5347,7 +5339,7 @@
         <v>37</v>
       </c>
       <c r="D20" s="122" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14F</v>
       </c>
       <c r="E20" s="122" t="str">
@@ -5387,7 +5379,7 @@
       </c>
       <c r="B21" s="127"/>
       <c r="C21" s="116" t="str">
-        <f t="shared" ref="C21:C62" si="2">"FUT"&amp;IndexTenor</f>
+        <f t="shared" ref="C21:C62" si="1">"FUT"&amp;IndexTenor</f>
         <v>FUT3M</v>
       </c>
       <c r="D21" s="117" t="str">
@@ -5434,7 +5426,7 @@
       </c>
       <c r="B22" s="127"/>
       <c r="C22" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D22" s="117" t="str">
@@ -5480,7 +5472,7 @@
       </c>
       <c r="B23" s="127"/>
       <c r="C23" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D23" s="117" t="str">
@@ -5526,7 +5518,7 @@
       </c>
       <c r="B24" s="127"/>
       <c r="C24" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D24" s="117" t="str">
@@ -5572,7 +5564,7 @@
       </c>
       <c r="B25" s="127"/>
       <c r="C25" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D25" s="117" t="str">
@@ -5618,7 +5610,7 @@
       </c>
       <c r="B26" s="127"/>
       <c r="C26" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D26" s="117" t="str">
@@ -5664,7 +5656,7 @@
       </c>
       <c r="B27" s="127"/>
       <c r="C27" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D27" s="117" t="str">
@@ -5710,7 +5702,7 @@
       </c>
       <c r="B28" s="127"/>
       <c r="C28" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D28" s="117" t="str">
@@ -5756,7 +5748,7 @@
       </c>
       <c r="B29" s="127"/>
       <c r="C29" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D29" s="117" t="str">
@@ -5802,7 +5794,7 @@
       </c>
       <c r="B30" s="127"/>
       <c r="C30" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D30" s="117" t="str">
@@ -5848,7 +5840,7 @@
       </c>
       <c r="B31" s="127"/>
       <c r="C31" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D31" s="117" t="str">
@@ -5894,7 +5886,7 @@
       </c>
       <c r="B32" s="127"/>
       <c r="C32" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D32" s="117" t="str">
@@ -5940,7 +5932,7 @@
       </c>
       <c r="B33" s="127"/>
       <c r="C33" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D33" s="117" t="str">
@@ -5986,7 +5978,7 @@
       </c>
       <c r="B34" s="127"/>
       <c r="C34" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D34" s="117" t="str">
@@ -6032,7 +6024,7 @@
       </c>
       <c r="B35" s="127"/>
       <c r="C35" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D35" s="117" t="str">
@@ -6078,7 +6070,7 @@
       </c>
       <c r="B36" s="127"/>
       <c r="C36" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D36" s="117" t="str">
@@ -6124,7 +6116,7 @@
       </c>
       <c r="B37" s="127"/>
       <c r="C37" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D37" s="117" t="str">
@@ -6170,7 +6162,7 @@
       </c>
       <c r="B38" s="127"/>
       <c r="C38" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D38" s="117" t="str">
@@ -6216,7 +6208,7 @@
       </c>
       <c r="B39" s="127"/>
       <c r="C39" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D39" s="117" t="str">
@@ -6262,7 +6254,7 @@
       </c>
       <c r="B40" s="127"/>
       <c r="C40" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D40" s="117" t="str">
@@ -6308,7 +6300,7 @@
       </c>
       <c r="B41" s="127"/>
       <c r="C41" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D41" s="117" t="str">
@@ -6354,7 +6346,7 @@
       </c>
       <c r="B42" s="127"/>
       <c r="C42" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D42" s="117" t="str">
@@ -6400,7 +6392,7 @@
       </c>
       <c r="B43" s="127"/>
       <c r="C43" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D43" s="117" t="str">
@@ -6446,7 +6438,7 @@
       </c>
       <c r="B44" s="127"/>
       <c r="C44" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D44" s="117" t="str">
@@ -6492,7 +6484,7 @@
       </c>
       <c r="B45" s="127"/>
       <c r="C45" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D45" s="117" t="str">
@@ -6538,7 +6530,7 @@
       </c>
       <c r="B46" s="127"/>
       <c r="C46" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D46" s="117" t="str">
@@ -6584,7 +6576,7 @@
       </c>
       <c r="B47" s="127"/>
       <c r="C47" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D47" s="117" t="str">
@@ -6630,7 +6622,7 @@
       </c>
       <c r="B48" s="127"/>
       <c r="C48" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D48" s="117" t="str">
@@ -6676,7 +6668,7 @@
       </c>
       <c r="B49" s="127"/>
       <c r="C49" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D49" s="117" t="str">
@@ -6722,7 +6714,7 @@
       </c>
       <c r="B50" s="127"/>
       <c r="C50" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D50" s="117" t="str">
@@ -6768,7 +6760,7 @@
       </c>
       <c r="B51" s="127"/>
       <c r="C51" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D51" s="117" t="str">
@@ -6814,7 +6806,7 @@
       </c>
       <c r="B52" s="127"/>
       <c r="C52" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D52" s="117" t="str">
@@ -6861,7 +6853,7 @@
       </c>
       <c r="B53" s="127"/>
       <c r="C53" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D53" s="117" t="str">
@@ -6908,7 +6900,7 @@
       </c>
       <c r="B54" s="127"/>
       <c r="C54" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D54" s="117" t="str">
@@ -6955,7 +6947,7 @@
       </c>
       <c r="B55" s="127"/>
       <c r="C55" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D55" s="117" t="str">
@@ -7002,7 +6994,7 @@
       </c>
       <c r="B56" s="127"/>
       <c r="C56" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D56" s="117" t="str">
@@ -7049,7 +7041,7 @@
       </c>
       <c r="B57" s="127"/>
       <c r="C57" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D57" s="117" t="str">
@@ -7096,7 +7088,7 @@
       </c>
       <c r="B58" s="127"/>
       <c r="C58" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D58" s="117" t="str">
@@ -7143,7 +7135,7 @@
       </c>
       <c r="B59" s="127"/>
       <c r="C59" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D59" s="117" t="str">
@@ -7190,7 +7182,7 @@
       </c>
       <c r="B60" s="127"/>
       <c r="C60" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D60" s="117" t="str">
@@ -7237,7 +7229,7 @@
       </c>
       <c r="B61" s="127"/>
       <c r="C61" s="116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D61" s="117" t="str">
@@ -7284,7 +7276,7 @@
       </c>
       <c r="B62" s="128"/>
       <c r="C62" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>FUT3M</v>
       </c>
       <c r="D62" s="122" t="str">
@@ -7327,7 +7319,7 @@
     </row>
     <row r="63" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="127">
-        <f t="shared" ref="B63:B94" si="3">SwapFixedFreq</f>
+        <f t="shared" ref="B63:B94" si="2">SwapFixedFreq</f>
         <v>0</v>
       </c>
       <c r="C63" s="116" t="s">
@@ -7373,7 +7365,7 @@
     </row>
     <row r="64" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C64" s="116" t="s">
@@ -7419,7 +7411,7 @@
     </row>
     <row r="65" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C65" s="116" t="s">
@@ -7465,7 +7457,7 @@
     </row>
     <row r="66" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C66" s="116" t="s">
@@ -7511,7 +7503,7 @@
     </row>
     <row r="67" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C67" s="116" t="s">
@@ -7557,7 +7549,7 @@
     </row>
     <row r="68" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C68" s="116" t="s">
@@ -7603,7 +7595,7 @@
     </row>
     <row r="69" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C69" s="116" t="s">
@@ -7649,7 +7641,7 @@
     </row>
     <row r="70" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C70" s="116" t="s">
@@ -7695,7 +7687,7 @@
     </row>
     <row r="71" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C71" s="116" t="s">
@@ -7741,7 +7733,7 @@
     </row>
     <row r="72" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C72" s="116" t="s">
@@ -7787,7 +7779,7 @@
     </row>
     <row r="73" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C73" s="116" t="s">
@@ -7833,7 +7825,7 @@
     </row>
     <row r="74" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C74" s="116" t="s">
@@ -7879,7 +7871,7 @@
     </row>
     <row r="75" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C75" s="116" t="s">
@@ -7925,7 +7917,7 @@
     </row>
     <row r="76" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C76" s="116" t="s">
@@ -7971,7 +7963,7 @@
     </row>
     <row r="77" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C77" s="116" t="s">
@@ -8017,7 +8009,7 @@
     </row>
     <row r="78" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C78" s="116" t="s">
@@ -8063,7 +8055,7 @@
     </row>
     <row r="79" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C79" s="116" t="s">
@@ -8109,7 +8101,7 @@
     </row>
     <row r="80" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C80" s="116" t="s">
@@ -8155,7 +8147,7 @@
     </row>
     <row r="81" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C81" s="116" t="s">
@@ -8201,7 +8193,7 @@
     </row>
     <row r="82" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C82" s="116" t="s">
@@ -8247,7 +8239,7 @@
     </row>
     <row r="83" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C83" s="116" t="s">
@@ -8293,7 +8285,7 @@
     </row>
     <row r="84" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C84" s="116" t="s">
@@ -8339,7 +8331,7 @@
     </row>
     <row r="85" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C85" s="116" t="s">
@@ -8385,7 +8377,7 @@
     </row>
     <row r="86" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C86" s="116" t="s">
@@ -8431,7 +8423,7 @@
     </row>
     <row r="87" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C87" s="116" t="s">
@@ -8477,7 +8469,7 @@
     </row>
     <row r="88" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C88" s="116" t="s">
@@ -8523,7 +8515,7 @@
     </row>
     <row r="89" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C89" s="116" t="s">
@@ -8569,7 +8561,7 @@
     </row>
     <row r="90" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C90" s="116" t="s">
@@ -8614,7 +8606,7 @@
     </row>
     <row r="91" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C91" s="116" t="s">
@@ -8659,7 +8651,7 @@
     </row>
     <row r="92" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C92" s="116" t="s">
@@ -8704,7 +8696,7 @@
     </row>
     <row r="93" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C93" s="116" t="s">
@@ -8749,7 +8741,7 @@
     </row>
     <row r="94" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C94" s="116" t="s">
@@ -8794,7 +8786,7 @@
     </row>
     <row r="95" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="127">
-        <f t="shared" ref="B95:B99" si="4">SwapFixedFreq</f>
+        <f t="shared" ref="B95:B99" si="3">SwapFixedFreq</f>
         <v>0</v>
       </c>
       <c r="C95" s="116" t="s">
@@ -8839,7 +8831,7 @@
     </row>
     <row r="96" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C96" s="116" t="s">
@@ -8884,7 +8876,7 @@
     </row>
     <row r="97" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C97" s="116" t="s">
@@ -8929,7 +8921,7 @@
     </row>
     <row r="98" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C98" s="116" t="s">
@@ -8974,7 +8966,7 @@
     </row>
     <row r="99" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C99" s="121" t="s">
@@ -9057,10 +9049,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="197" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="195"/>
+      <c r="B1" s="198"/>
       <c r="D1" s="185" t="s">
         <v>57</v>
       </c>
@@ -9078,44 +9070,43 @@
         <v>42</v>
       </c>
       <c r="J1" s="75" t="e">
-        <f t="array" aca="1" ref="J1:J126" ca="1">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>#NAME?</v>
+        <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="191" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="197">
-        <v>0</v>
-      </c>
-      <c r="D2" s="76" t="str">
+      <c r="B2" s="192">
+        <v>0</v>
+      </c>
+      <c r="D2" s="76" t="e">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_00328</v>
-      </c>
-      <c r="E2" s="76" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="E2" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D2),"LastFixing","D"),"Libor","")</f>
-        <v>JpySND_Quote</v>
-      </c>
-      <c r="F2" s="77">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F2" s="77" t="e">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>4.2860000000000001E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G2" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
         <v>0</v>
       </c>
-      <c r="H2" s="86">
+      <c r="H2" s="86" t="e">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41948</v>
-      </c>
-      <c r="I2" s="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I2" s="87" t="e">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41949</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J2" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K2" s="78"/>
     </row>
@@ -9126,32 +9117,31 @@
       <c r="B3" s="80">
         <v>0</v>
       </c>
-      <c r="D3" s="76" t="str">
-        <v>obj_00322</v>
-      </c>
-      <c r="E3" s="76" t="str">
+      <c r="D3" s="76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E3" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D3),"LastFixing","D"),"Libor","")</f>
-        <v>JpySWD_Quote</v>
-      </c>
-      <c r="F3" s="77">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F3" s="77" t="e">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>5.1429999999999998E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G3" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
         <v>0</v>
       </c>
-      <c r="H3" s="86">
+      <c r="H3" s="86" t="e">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41947</v>
-      </c>
-      <c r="I3" s="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I3" s="87" t="e">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41954</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J3" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K3" s="78"/>
     </row>
@@ -9162,32 +9152,31 @@
       <c r="B4" s="80">
         <v>2</v>
       </c>
-      <c r="D4" s="76" t="str">
-        <v>obj_0031d</v>
-      </c>
-      <c r="E4" s="76" t="str">
+      <c r="D4" s="76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E4" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D4),"LastFixing","D"),"Libor","")</f>
-        <v>Jpy1MD_Quote</v>
-      </c>
-      <c r="F4" s="77">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F4" s="77" t="e">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>8.3000000000000001E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G4" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
         <v>0</v>
       </c>
-      <c r="H4" s="86">
+      <c r="H4" s="86" t="e">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41947</v>
-      </c>
-      <c r="I4" s="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I4" s="87" t="e">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41977</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J4" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K4" s="78"/>
     </row>
@@ -9198,577 +9187,558 @@
       <c r="B5" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="76" t="str">
-        <v>obj_00320</v>
-      </c>
-      <c r="E5" s="76" t="str">
+      <c r="D5" s="76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E5" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D5),"LastFixing","D"),"Libor","")</f>
-        <v>Jpy2MD_Quote</v>
-      </c>
-      <c r="F5" s="77">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F5" s="77" t="e">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>9.9290000000000012E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G5" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
         <v>0</v>
       </c>
-      <c r="H5" s="86">
+      <c r="H5" s="86" t="e">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41947</v>
-      </c>
-      <c r="I5" s="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I5" s="87" t="e">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>42009</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J5" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K5" s="78"/>
     </row>
     <row r="6" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="198" t="s">
+      <c r="A6" s="193" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="82" t="str">
-        <f>_xll.ohRangeRetrieveError(Selected!D2)</f>
-        <v/>
-      </c>
-      <c r="D6" s="76" t="str">
-        <v>obj_00323</v>
-      </c>
-      <c r="E6" s="76" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(Selected!D2)</f>
+        <v>qlRateHelperSelection - ObjectHandler error: attempt to retrieve object with unknown ID 'obj_00322'</v>
+      </c>
+      <c r="D6" s="76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E6" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D6),"LastFixing","D"),"Libor","")</f>
-        <v>Jpy3MD_Quote</v>
-      </c>
-      <c r="F6" s="77">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F6" s="77" t="e">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>1.1357000000000001E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G6" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
         <v>0</v>
       </c>
-      <c r="H6" s="86">
+      <c r="H6" s="86" t="e">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41947</v>
-      </c>
-      <c r="I6" s="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I6" s="87" t="e">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>42039</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J6" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K6" s="78"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D7" s="76" t="str">
-        <v>obj_00316</v>
-      </c>
-      <c r="E7" s="76" t="str">
+      <c r="D7" s="76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E7" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D7),"LastFixing","D"),"Libor","")</f>
-        <v>Jpy6MD_Quote</v>
-      </c>
-      <c r="F7" s="77">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F7" s="77" t="e">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>1.6142999999999999E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G7" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
         <v>0</v>
       </c>
-      <c r="H7" s="86">
+      <c r="H7" s="86" t="e">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41947</v>
-      </c>
-      <c r="I7" s="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I7" s="87" t="e">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>42129</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J7" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K7" s="78"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D8" s="76" t="str">
-        <v>obj_00326</v>
-      </c>
-      <c r="E8" s="76" t="str">
+      <c r="D8" s="76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E8" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D8),"LastFixing","D"),"Libor","")</f>
-        <v>Jpy1YD_Quote</v>
-      </c>
-      <c r="F8" s="77">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F8" s="77" t="e">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>3.0042999999999997E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G8" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
         <v>0</v>
       </c>
-      <c r="H8" s="86">
+      <c r="H8" s="86" t="e">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41947</v>
-      </c>
-      <c r="I8" s="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I8" s="87" t="e">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42312</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J8" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K8" s="78"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D9" s="76" t="str">
-        <v>obj_00329</v>
-      </c>
-      <c r="E9" s="76" t="str">
+      <c r="D9" s="76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E9" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D9),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L1Y_Quote</v>
-      </c>
-      <c r="F9" s="77">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F9" s="77" t="e">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>1.575E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G9" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
         <v>0</v>
       </c>
-      <c r="H9" s="86">
+      <c r="H9" s="86" t="e">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41948</v>
-      </c>
-      <c r="I9" s="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I9" s="87" t="e">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42313</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J9" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K9" s="78"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D10" s="76" t="str">
-        <v>obj_00348</v>
-      </c>
-      <c r="E10" s="76" t="str">
+      <c r="D10" s="76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E10" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D10),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L18M_Quote</v>
-      </c>
-      <c r="F10" s="77">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F10" s="77" t="e">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>1.5499999999999999E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G10" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
         <v>0</v>
       </c>
-      <c r="H10" s="86">
+      <c r="H10" s="86" t="e">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41948</v>
-      </c>
-      <c r="I10" s="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I10" s="87" t="e">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42496</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J10" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K10" s="78"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D11" s="76" t="str">
-        <v>obj_0033e</v>
-      </c>
-      <c r="E11" s="76" t="str">
+      <c r="D11" s="76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D11),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L3Y_Quote</v>
-      </c>
-      <c r="F11" s="77">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F11" s="77" t="e">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>1.65E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G11" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
         <v>0</v>
       </c>
-      <c r="H11" s="86">
+      <c r="H11" s="86" t="e">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41948</v>
-      </c>
-      <c r="I11" s="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I11" s="87" t="e">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>43045</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J11" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K11" s="78"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D12" s="76" t="str">
-        <v>obj_0032e</v>
-      </c>
-      <c r="E12" s="76" t="str">
+      <c r="D12" s="76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E12" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D12),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L4Y_Quote</v>
-      </c>
-      <c r="F12" s="77">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F12" s="77" t="e">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>1.9250000000000001E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G12" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
         <v>0</v>
       </c>
-      <c r="H12" s="86">
+      <c r="H12" s="86" t="e">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41948</v>
-      </c>
-      <c r="I12" s="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I12" s="87" t="e">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>43409</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J12" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K12" s="78"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D13" s="76" t="str">
-        <v>obj_0035e</v>
-      </c>
-      <c r="E13" s="76" t="str">
+      <c r="D13" s="76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E13" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D13),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L5Y_Quote</v>
-      </c>
-      <c r="F13" s="77">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F13" s="77" t="e">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>2.3749999999999999E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G13" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
         <v>0</v>
       </c>
-      <c r="H13" s="86">
+      <c r="H13" s="86" t="e">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41948</v>
-      </c>
-      <c r="I13" s="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I13" s="87" t="e">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>43774</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J13" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K13" s="78"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D14" s="76" t="str">
-        <v>obj_00344</v>
-      </c>
-      <c r="E14" s="76" t="str">
+      <c r="D14" s="76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E14" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D14),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L6Y_Quote</v>
-      </c>
-      <c r="F14" s="77">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14" s="77" t="e">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>2.9749999999999998E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G14" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
         <v>0</v>
       </c>
-      <c r="H14" s="86">
+      <c r="H14" s="86" t="e">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41948</v>
-      </c>
-      <c r="I14" s="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I14" s="87" t="e">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>44140</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J14" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K14" s="78"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D15" s="76" t="str">
-        <v>obj_0036a</v>
-      </c>
-      <c r="E15" s="76" t="str">
+      <c r="D15" s="76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E15" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D15),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L7Y_Quote</v>
-      </c>
-      <c r="F15" s="77">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F15" s="77" t="e">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>3.6750000000000003E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G15" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
         <v>0</v>
       </c>
-      <c r="H15" s="86">
+      <c r="H15" s="86" t="e">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41948</v>
-      </c>
-      <c r="I15" s="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I15" s="87" t="e">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>44505</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J15" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K15" s="78"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D16" s="76" t="str">
-        <v>obj_00369</v>
-      </c>
-      <c r="E16" s="76" t="str">
+      <c r="D16" s="76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E16" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D16),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L8Y_Quote</v>
-      </c>
-      <c r="F16" s="77">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F16" s="77" t="e">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>4.3999999999999994E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G16" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
         <v>0</v>
       </c>
-      <c r="H16" s="86">
+      <c r="H16" s="86" t="e">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41948</v>
-      </c>
-      <c r="I16" s="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I16" s="87" t="e">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>44872</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J16" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D17" s="76" t="str">
-        <v>obj_0034b</v>
-      </c>
-      <c r="E17" s="76" t="str">
+      <c r="D17" s="76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E17" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D17),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L9Y_Quote</v>
-      </c>
-      <c r="F17" s="77">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F17" s="77" t="e">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>5.1749999999999999E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G17" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
         <v>0</v>
       </c>
-      <c r="H17" s="86">
+      <c r="H17" s="86" t="e">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41948</v>
-      </c>
-      <c r="I17" s="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I17" s="87" t="e">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>45236</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J17" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D18" s="76" t="str">
-        <v>obj_00357</v>
-      </c>
-      <c r="E18" s="76" t="str">
+      <c r="D18" s="76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E18" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D18),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L10Y_Quote</v>
-      </c>
-      <c r="F18" s="77">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F18" s="77" t="e">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>5.9250000000000006E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G18" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
         <v>0</v>
       </c>
-      <c r="H18" s="86">
+      <c r="H18" s="86" t="e">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41948</v>
-      </c>
-      <c r="I18" s="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I18" s="87" t="e">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>45601</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J18" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D19" s="76" t="str">
-        <v>obj_00346</v>
-      </c>
-      <c r="E19" s="76" t="str">
+      <c r="D19" s="76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E19" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D19),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L12Y_Quote</v>
-      </c>
-      <c r="F19" s="77">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F19" s="77" t="e">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>7.5500000000000003E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G19" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
         <v>0</v>
       </c>
-      <c r="H19" s="86">
+      <c r="H19" s="86" t="e">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41948</v>
-      </c>
-      <c r="I19" s="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I19" s="87" t="e">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>46331</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J19" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D20" s="76" t="str">
-        <v>obj_00354</v>
-      </c>
-      <c r="E20" s="76" t="str">
+      <c r="D20" s="76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E20" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D20),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L15Y_Quote</v>
-      </c>
-      <c r="F20" s="77">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F20" s="77" t="e">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>9.9750000000000012E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G20" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
         <v>0</v>
       </c>
-      <c r="H20" s="86">
+      <c r="H20" s="86" t="e">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41948</v>
-      </c>
-      <c r="I20" s="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I20" s="87" t="e">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>47427</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J20" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D21" s="76" t="str">
-        <v>obj_00361</v>
-      </c>
-      <c r="E21" s="76" t="str">
+      <c r="D21" s="76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E21" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D21),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L20Y_Quote</v>
-      </c>
-      <c r="F21" s="77">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F21" s="77" t="e">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.3025E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G21" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
         <v>0</v>
       </c>
-      <c r="H21" s="86">
+      <c r="H21" s="86" t="e">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41948</v>
-      </c>
-      <c r="I21" s="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I21" s="87" t="e">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>49254</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J21" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D22" s="76" t="str">
-        <v>obj_0036f</v>
-      </c>
-      <c r="E22" s="76" t="str">
+      <c r="D22" s="76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E22" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D22),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L25Y_Quote</v>
-      </c>
-      <c r="F22" s="77">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F22" s="77" t="e">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.4649999999999998E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G22" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
         <v>0</v>
       </c>
-      <c r="H22" s="86">
+      <c r="H22" s="86" t="e">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41948</v>
-      </c>
-      <c r="I22" s="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I22" s="87" t="e">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>51081</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J22" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D23" s="76" t="str">
-        <v>obj_00377</v>
-      </c>
-      <c r="E23" s="76" t="str">
+      <c r="D23" s="76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E23" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D23),"LastFixing","D"),"Libor","")</f>
-        <v>JPYSB6L30Y_Quote</v>
-      </c>
-      <c r="F23" s="77">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F23" s="77" t="e">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>1.55E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G23" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
         <v>0</v>
       </c>
-      <c r="H23" s="86">
+      <c r="H23" s="86" t="e">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41948</v>
-      </c>
-      <c r="I23" s="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I23" s="87" t="e">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>52908</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J23" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="24" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D24" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E24" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D24),"LastFixing","D"),"Libor","")</f>
@@ -9791,13 +9761,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J24" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="25" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D25" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E25" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D25),"LastFixing","D"),"Libor","")</f>
@@ -9820,13 +9789,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J25" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="26" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D26" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E26" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D26),"LastFixing","D"),"Libor","")</f>
@@ -9849,13 +9817,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J26" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="27" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D27" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E27" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D27),"LastFixing","D"),"Libor","")</f>
@@ -9878,13 +9845,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J27" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="28" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D28" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E28" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D28),"LastFixing","D"),"Libor","")</f>
@@ -9907,13 +9873,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J28" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="29" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D29" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E29" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D29),"LastFixing","D"),"Libor","")</f>
@@ -9936,13 +9901,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J29" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="30" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D30" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E30" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D30),"LastFixing","D"),"Libor","")</f>
@@ -9965,13 +9929,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J30" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="31" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D31" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E31" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D31),"LastFixing","D"),"Libor","")</f>
@@ -9994,13 +9957,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J31" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="32" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D32" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E32" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D32),"LastFixing","D"),"Libor","")</f>
@@ -10023,13 +9985,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J32" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D33" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E33" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D33),"LastFixing","D"),"Libor","")</f>
@@ -10052,13 +10013,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J33" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D34" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E34" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D34),"LastFixing","D"),"Libor","")</f>
@@ -10081,13 +10041,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J34" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="35" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D35" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E35" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D35),"LastFixing","D"),"Libor","")</f>
@@ -10110,13 +10069,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J35" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D36" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E36" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D36),"LastFixing","D"),"Libor","")</f>
@@ -10139,13 +10097,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J36" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D37" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E37" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D37),"LastFixing","D"),"Libor","")</f>
@@ -10168,13 +10125,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J37" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D38" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E38" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D38),"LastFixing","D"),"Libor","")</f>
@@ -10197,13 +10153,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J38" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D39" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E39" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D39),"LastFixing","D"),"Libor","")</f>
@@ -10226,13 +10181,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J39" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D40" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E40" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D40),"LastFixing","D"),"Libor","")</f>
@@ -10255,13 +10209,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J40" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="41" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D41" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E41" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D41),"LastFixing","D"),"Libor","")</f>
@@ -10284,13 +10237,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J41" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="42" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D42" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E42" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D42),"LastFixing","D"),"Libor","")</f>
@@ -10313,13 +10265,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J42" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="43" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D43" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E43" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D43),"LastFixing","D"),"Libor","")</f>
@@ -10342,13 +10293,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J43" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="44" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D44" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E44" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D44),"LastFixing","D"),"Libor","")</f>
@@ -10371,13 +10321,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J44" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="45" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D45" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E45" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D45),"LastFixing","D"),"Libor","")</f>
@@ -10400,13 +10349,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J45" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="46" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D46" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E46" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D46),"LastFixing","D"),"Libor","")</f>
@@ -10429,13 +10377,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J46" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="47" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D47" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E47" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D47),"LastFixing","D"),"Libor","")</f>
@@ -10458,13 +10405,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J47" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="48" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D48" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E48" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D48),"LastFixing","D"),"Libor","")</f>
@@ -10487,13 +10433,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J48" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="49" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D49" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E49" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D49),"LastFixing","D"),"Libor","")</f>
@@ -10516,13 +10461,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J49" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="50" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D50" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E50" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D50),"LastFixing","D"),"Libor","")</f>
@@ -10545,13 +10489,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J50" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="51" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D51" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E51" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D51),"LastFixing","D"),"Libor","")</f>
@@ -10574,13 +10517,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J51" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="52" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D52" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E52" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D52),"LastFixing","D"),"Libor","")</f>
@@ -10603,13 +10545,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J52" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="53" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D53" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E53" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D53),"LastFixing","D"),"Libor","")</f>
@@ -10632,13 +10573,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J53" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="54" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D54" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E54" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D54),"LastFixing","D"),"Libor","")</f>
@@ -10661,13 +10601,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J54" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="55" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D55" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E55" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D55),"LastFixing","D"),"Libor","")</f>
@@ -10690,13 +10629,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J55" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="56" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D56" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E56" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D56),"LastFixing","D"),"Libor","")</f>
@@ -10719,13 +10657,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J56" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="57" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D57" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E57" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D57),"LastFixing","D"),"Libor","")</f>
@@ -10748,13 +10685,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J57" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="58" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D58" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E58" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D58),"LastFixing","D"),"Libor","")</f>
@@ -10777,13 +10713,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J58" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="59" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D59" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E59" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D59),"LastFixing","D"),"Libor","")</f>
@@ -10806,13 +10741,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J59" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="60" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D60" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E60" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D60),"LastFixing","D"),"Libor","")</f>
@@ -10835,13 +10769,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J60" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="61" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D61" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E61" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D61),"LastFixing","D"),"Libor","")</f>
@@ -10864,13 +10797,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J61" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="62" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D62" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E62" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D62),"LastFixing","D"),"Libor","")</f>
@@ -10893,13 +10825,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J62" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="63" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D63" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E63" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D63),"LastFixing","D"),"Libor","")</f>
@@ -10922,13 +10853,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J63" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="64" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D64" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E64" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D64),"LastFixing","D"),"Libor","")</f>
@@ -10951,13 +10881,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J64" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="65" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D65" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E65" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D65),"LastFixing","D"),"Libor","")</f>
@@ -10980,13 +10909,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J65" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="66" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D66" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E66" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D66),"LastFixing","D"),"Libor","")</f>
@@ -11009,13 +10937,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J66" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="67" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D67" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E67" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D67),"LastFixing","D"),"Libor","")</f>
@@ -11038,13 +10965,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J67" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="68" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D68" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E68" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D68),"LastFixing","D"),"Libor","")</f>
@@ -11067,13 +10993,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J68" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="69" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D69" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E69" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D69),"LastFixing","D"),"Libor","")</f>
@@ -11096,13 +11021,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J69" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="70" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D70" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E70" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D70),"LastFixing","D"),"Libor","")</f>
@@ -11125,13 +11049,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J70" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="71" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D71" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E71" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D71),"LastFixing","D"),"Libor","")</f>
@@ -11154,13 +11077,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J71" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="72" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D72" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E72" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D72),"LastFixing","D"),"Libor","")</f>
@@ -11183,13 +11105,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J72" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="73" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D73" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E73" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D73),"LastFixing","D"),"Libor","")</f>
@@ -11212,13 +11133,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J73" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="74" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D74" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E74" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D74),"LastFixing","D"),"Libor","")</f>
@@ -11241,13 +11161,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J74" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="75" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D75" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E75" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D75),"LastFixing","D"),"Libor","")</f>
@@ -11270,13 +11189,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J75" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="76" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D76" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E76" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D76),"LastFixing","D"),"Libor","")</f>
@@ -11299,13 +11217,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J76" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="77" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D77" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E77" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D77),"LastFixing","D"),"Libor","")</f>
@@ -11328,13 +11245,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J77" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="78" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D78" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E78" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D78),"LastFixing","D"),"Libor","")</f>
@@ -11357,13 +11273,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J78" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="79" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D79" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E79" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D79),"LastFixing","D"),"Libor","")</f>
@@ -11386,13 +11301,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J79" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="80" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D80" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E80" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D80),"LastFixing","D"),"Libor","")</f>
@@ -11415,13 +11329,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="81" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D81" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E81" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D81),"LastFixing","D"),"Libor","")</f>
@@ -11444,13 +11357,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J81" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="82" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D82" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E82" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D82),"LastFixing","D"),"Libor","")</f>
@@ -11473,13 +11385,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J82" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="83" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D83" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E83" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D83),"LastFixing","D"),"Libor","")</f>
@@ -11502,13 +11413,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J83" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="84" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D84" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E84" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D84),"LastFixing","D"),"Libor","")</f>
@@ -11531,13 +11441,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J84" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="85" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D85" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E85" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D85),"LastFixing","D"),"Libor","")</f>
@@ -11560,13 +11469,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J85" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="86" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D86" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E86" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D86),"LastFixing","D"),"Libor","")</f>
@@ -11589,13 +11497,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J86" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="87" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D87" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E87" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D87),"LastFixing","D"),"Libor","")</f>
@@ -11618,13 +11525,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J87" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="88" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D88" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E88" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D88),"LastFixing","D"),"Libor","")</f>
@@ -11647,13 +11553,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J88" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="89" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D89" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E89" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D89),"LastFixing","D"),"Libor","")</f>
@@ -11676,13 +11581,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J89" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="90" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D90" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E90" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D90),"LastFixing","D"),"Libor","")</f>
@@ -11705,13 +11609,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J90" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="91" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D91" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E91" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D91),"LastFixing","D"),"Libor","")</f>
@@ -11734,13 +11637,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J91" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="92" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D92" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E92" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D92),"LastFixing","D"),"Libor","")</f>
@@ -11763,13 +11665,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J92" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="93" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D93" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E93" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D93),"LastFixing","D"),"Libor","")</f>
@@ -11792,13 +11693,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J93" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="94" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D94" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E94" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D94),"LastFixing","D"),"Libor","")</f>
@@ -11821,13 +11721,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J94" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="95" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D95" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E95" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D95),"LastFixing","D"),"Libor","")</f>
@@ -11850,13 +11749,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J95" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="96" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D96" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E96" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D96),"LastFixing","D"),"Libor","")</f>
@@ -11879,13 +11777,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J96" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="97" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D97" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E97" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D97),"LastFixing","D"),"Libor","")</f>
@@ -11908,13 +11805,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J97" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="98" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D98" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E98" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D98),"LastFixing","D"),"Libor","")</f>
@@ -11937,13 +11833,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J98" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="99" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D99" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E99" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D99),"LastFixing","D"),"Libor","")</f>
@@ -11966,13 +11861,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J99" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="100" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D100" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E100" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D100),"LastFixing","D"),"Libor","")</f>
@@ -11995,13 +11889,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J100" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="101" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D101" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E101" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D101),"LastFixing","D"),"Libor","")</f>
@@ -12024,13 +11917,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J101" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="102" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D102" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E102" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D102),"LastFixing","D"),"Libor","")</f>
@@ -12053,13 +11945,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J102" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="103" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D103" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E103" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D103),"LastFixing","D"),"Libor","")</f>
@@ -12082,13 +11973,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J103" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="104" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D104" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E104" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D104),"LastFixing","D"),"Libor","")</f>
@@ -12111,13 +12001,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J104" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="105" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D105" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E105" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D105),"LastFixing","D"),"Libor","")</f>
@@ -12140,13 +12029,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J105" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="106" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D106" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E106" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D106),"LastFixing","D"),"Libor","")</f>
@@ -12169,13 +12057,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J106" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="107" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D107" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E107" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D107),"LastFixing","D"),"Libor","")</f>
@@ -12198,13 +12085,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J107" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="108" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D108" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E108" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D108),"LastFixing","D"),"Libor","")</f>
@@ -12227,13 +12113,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J108" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="109" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D109" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E109" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D109),"LastFixing","D"),"Libor","")</f>
@@ -12256,13 +12141,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J109" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="110" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D110" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E110" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D110),"LastFixing","D"),"Libor","")</f>
@@ -12285,13 +12169,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J110" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="111" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D111" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E111" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D111),"LastFixing","D"),"Libor","")</f>
@@ -12314,13 +12197,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J111" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="112" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D112" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E112" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D112),"LastFixing","D"),"Libor","")</f>
@@ -12343,13 +12225,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J112" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="113" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D113" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E113" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D113),"LastFixing","D"),"Libor","")</f>
@@ -12372,13 +12253,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J113" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="114" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D114" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E114" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D114),"LastFixing","D"),"Libor","")</f>
@@ -12401,13 +12281,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J114" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="115" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D115" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E115" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D115),"LastFixing","D"),"Libor","")</f>
@@ -12430,13 +12309,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J115" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="116" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D116" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E116" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D116),"LastFixing","D"),"Libor","")</f>
@@ -12459,13 +12337,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J116" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="117" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D117" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E117" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D117),"LastFixing","D"),"Libor","")</f>
@@ -12488,13 +12365,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J117" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="118" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D118" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E118" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D118),"LastFixing","D"),"Libor","")</f>
@@ -12517,13 +12393,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J118" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="119" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D119" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E119" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D119),"LastFixing","D"),"Libor","")</f>
@@ -12546,13 +12421,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J119" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="120" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D120" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E120" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D120),"LastFixing","D"),"Libor","")</f>
@@ -12575,13 +12449,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J120" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="121" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D121" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E121" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D121),"LastFixing","D"),"Libor","")</f>
@@ -12604,13 +12477,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J121" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="122" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D122" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E122" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D122),"LastFixing","D"),"Libor","")</f>
@@ -12633,13 +12505,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J122" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="123" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D123" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E123" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D123),"LastFixing","D"),"Libor","")</f>
@@ -12662,13 +12533,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J123" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="124" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D124" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E124" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D124),"LastFixing","D"),"Libor","")</f>
@@ -12691,13 +12561,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J124" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="125" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D125" s="76" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E125" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D125),"LastFixing","D"),"Libor","")</f>
@@ -12720,13 +12589,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J125" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="126" spans="4:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D126" s="83" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="E126" s="83" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D126),"LastFixing","D"),"Libor","")</f>
@@ -12749,8 +12617,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J126" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>

--- a/QuantLibXL/Data2/XLS/JPY_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/JPY_YCSTDBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15195" yWindow="-15" windowWidth="15255" windowHeight="8280" tabRatio="726" activeTab="2"/>
+    <workbookView xWindow="15225" yWindow="-15" windowWidth="15270" windowHeight="7680" tabRatio="726" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -48,6 +48,7 @@
     <definedName name="RateHelpersSelected">Selected!$A$7</definedName>
     <definedName name="SerializationPath">'General Settings'!$M$5</definedName>
     <definedName name="Serialize">'General Settings'!$M$4</definedName>
+    <definedName name="SwapCalendar">'General Settings'!$M$22</definedName>
     <definedName name="SwapFixedFreq">'General Settings'!$D$8</definedName>
     <definedName name="TraitsID">'General Settings'!$D$20</definedName>
     <definedName name="Trigger">'General Settings'!$D$11</definedName>
@@ -219,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="144">
   <si>
     <t>60Y</t>
   </si>
@@ -630,6 +631,27 @@
   </si>
   <si>
     <t>11M</t>
+  </si>
+  <si>
+    <t>CALENDAR SETTINGS</t>
+  </si>
+  <si>
+    <t>Calendar 1</t>
+  </si>
+  <si>
+    <t>Calendar 2</t>
+  </si>
+  <si>
+    <t>Join Calendar Rule</t>
+  </si>
+  <si>
+    <t>Swap Calendar</t>
+  </si>
+  <si>
+    <t>JoinHolidays</t>
+  </si>
+  <si>
+    <t>UnitedKingdom::Exchange</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +2179,7 @@
     <row r="1" spans="1:33" s="3" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Oct 13 2014 15:51:57</v>
+        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov 18 2014 09:26:00</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2519,7 +2541,9 @@
       <c r="C11" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="25">
+        <v>41996.382222222222</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="28"/>
@@ -2642,9 +2666,9 @@
       <c r="C14" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="22" t="e">
+      <c r="D14" s="22" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,_xll.ohPack(Selected!D2:D126),,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>_JPYYCSTD#0005</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2687,8 +2711,8 @@
         <v>51</v>
       </c>
       <c r="D15" s="21" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(YieldCurve)</f>
-        <v>qlPiecewiseYieldCurve - operToVectorImpl: error converting parameter 'RateHelpers' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to typ</v>
+        <f>_xll.ohRangeRetrieveError(YieldCurve)</f>
+        <v/>
       </c>
       <c r="E15" s="4" t="s">
         <v>122</v>
@@ -2722,7 +2746,7 @@
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="5"/>
       <c r="C16" s="20" t="s">
@@ -2764,7 +2788,7 @@
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="5"/>
       <c r="C17" s="14" t="s">
@@ -2777,10 +2801,12 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="K17" s="102" t="s">
+        <v>137</v>
+      </c>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="104"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
@@ -2816,10 +2842,10 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="107"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -2840,7 +2866,7 @@
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="5"/>
       <c r="C19" s="14" t="s">
@@ -2856,10 +2882,14 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="M19" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="N19" s="32"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -2880,7 +2910,7 @@
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="5"/>
       <c r="C20" s="14" t="s">
@@ -2895,10 +2925,14 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="M20" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="N20" s="32"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -2919,7 +2953,7 @@
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="5"/>
       <c r="C21" s="12" t="s">
@@ -2934,10 +2968,14 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="N21" s="32"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -2958,7 +2996,7 @@
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="5"/>
       <c r="C22" s="10"/>
@@ -2969,10 +3007,15 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="M22" s="36" t="str">
+        <f>M21&amp;"("&amp;M19&amp;","&amp;M20&amp;")"</f>
+        <v>JoinHolidays(Japan,UnitedKingdom::Exchange)</v>
+      </c>
+      <c r="N22" s="68"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -2993,16 +3036,16 @@
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
     </row>
-    <row r="23" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="9" t="e">
+      <c r="C23" s="9">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D23" s="8" t="e">
+        <v>41997</v>
+      </c>
+      <c r="D23" s="8">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>#VALUE!</v>
+        <v>1.4556954057314556E-2</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -3010,10 +3053,10 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="37"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -3037,13 +3080,13 @@
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="7" t="e">
+      <c r="C24" s="7">
         <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D24" s="6" t="e">
+        <v>52961</v>
+      </c>
+      <c r="D24" s="6">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>#VALUE!</v>
+        <v>5.3593891239512345E-4</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -3082,7 +3125,7 @@
         <v>51</v>
       </c>
       <c r="D25" s="71" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(Selected!J1)</f>
+        <f>_xll.ohRangeRetrieveError(Selected!J1)</f>
         <v/>
       </c>
       <c r="E25" s="4"/>
@@ -3122,9 +3165,9 @@
         <f>[1]Libor!$D$14</f>
         <v>JPYSTD#0000</v>
       </c>
-      <c r="D26" s="6" t="e">
+      <c r="D26" s="6" t="b">
         <f>_xll.qlRelinkableHandleLinkTo(C26,YieldCurve)</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -3162,9 +3205,9 @@
       <c r="C27" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="44" t="e">
+      <c r="D27" s="44" t="b">
         <f>_xll.qlExtrapolatorEnableExtrapolation(YieldCurve,TRUE)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -4499,7 +4542,7 @@
       <c r="F65" s="3"/>
     </row>
   </sheetData>
-  <dataValidations count="7">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21">
       <formula1>"Linear,BackwardFlat,ForwardFlat,Linear,LogLinear,CubicNaturalSpline,LogCubicNaturalSpline,MonotonicCubicNaturalSpline,MonotonicLogCubicNaturalSpline,FritschButlandCubic,FritschButlandLogCubic,KrugerCubic,KrugerLogCubic"</formula1>
     </dataValidation>
@@ -4521,6 +4564,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M13:M14">
       <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),1/1,30/360 (Italian),Simple"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M19 M20">
+      <formula1>"TARGET,UnitedKingdom::Exchange,UnitedKingdom::Metals,UnitedKingdom::Settlement,UnitedStates::GovernmentBond,UnitedStates::NERC,UnitedStates::NYSE,UnitedStates::Settlement,Switzerland,Japan,Italy::Exchange,NullCalendar,Australia,China,HongKong::HKEx"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M21">
+      <formula1>"JoinBusinessDays,JoinHolidays"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4535,7 +4584,7 @@
   <dimension ref="A1:O100"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4599,7 +4648,7 @@
       </c>
       <c r="E2" s="117" t="str">
         <f>Deposits!E3</f>
-        <v>obj_0032a#0001</v>
+        <v>obj_0032a#0000</v>
       </c>
       <c r="F2" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E2),"LastFixing","D"),"Libor","")</f>
@@ -4621,11 +4670,11 @@
       </c>
       <c r="L2" s="119">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41943</v>
+        <v>41997</v>
       </c>
       <c r="M2" s="120">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41947</v>
+        <v>41998</v>
       </c>
       <c r="N2" s="63">
         <v>10</v>
@@ -4642,7 +4691,7 @@
       </c>
       <c r="E3" s="117" t="str">
         <f>Deposits!E4</f>
-        <v>obj_00328#0001</v>
+        <v>obj_00328#0000</v>
       </c>
       <c r="F3" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E3),"LastFixing","D"),"Libor","")</f>
@@ -4664,11 +4713,11 @@
       </c>
       <c r="L3" s="119">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M3" s="120">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41949</v>
+        <v>42009</v>
       </c>
       <c r="N3" s="63">
         <v>20</v>
@@ -4685,7 +4734,7 @@
       </c>
       <c r="E4" s="117" t="str">
         <f>Deposits!E5</f>
-        <v>obj_00322#0001</v>
+        <v>obj_00320#0000</v>
       </c>
       <c r="F4" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E4),"LastFixing","D"),"Libor","")</f>
@@ -4693,7 +4742,7 @@
       </c>
       <c r="G4" s="118">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>5.1429999999999998E-4</v>
+        <v>5.2859999999999995E-4</v>
       </c>
       <c r="H4" s="118"/>
       <c r="I4" s="65" t="b">
@@ -4707,11 +4756,11 @@
       </c>
       <c r="L4" s="119">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41947</v>
+        <v>42003</v>
       </c>
       <c r="M4" s="120">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41954</v>
+        <v>42010</v>
       </c>
       <c r="N4" s="63">
         <v>30</v>
@@ -4728,7 +4777,7 @@
       </c>
       <c r="E5" s="117" t="str">
         <f>Deposits!E8</f>
-        <v>obj_0031d#0001</v>
+        <v>obj_00326#0000</v>
       </c>
       <c r="F5" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E5),"LastFixing","D"),"Libor","")</f>
@@ -4736,7 +4785,7 @@
       </c>
       <c r="G5" s="118">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>8.3000000000000001E-4</v>
+        <v>8.5000000000000006E-4</v>
       </c>
       <c r="H5" s="118"/>
       <c r="I5" s="65" t="b">
@@ -4750,11 +4799,11 @@
       </c>
       <c r="L5" s="119">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41947</v>
+        <v>42003</v>
       </c>
       <c r="M5" s="120">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41977</v>
+        <v>42034</v>
       </c>
       <c r="N5" s="63">
         <v>60</v>
@@ -4771,7 +4820,7 @@
       </c>
       <c r="E6" s="117" t="str">
         <f>Deposits!E9</f>
-        <v>obj_00320#0001</v>
+        <v>obj_0031c#0000</v>
       </c>
       <c r="F6" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E6),"LastFixing","D"),"Libor","")</f>
@@ -4779,7 +4828,7 @@
       </c>
       <c r="G6" s="118">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>9.9290000000000012E-4</v>
+        <v>1.0571000000000001E-3</v>
       </c>
       <c r="H6" s="118"/>
       <c r="I6" s="65" t="b">
@@ -4793,11 +4842,11 @@
       </c>
       <c r="L6" s="119">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41947</v>
+        <v>42003</v>
       </c>
       <c r="M6" s="120">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>42009</v>
+        <v>42062</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4808,7 +4857,7 @@
       </c>
       <c r="E7" s="117" t="str">
         <f>Deposits!E10</f>
-        <v>obj_00323#0001</v>
+        <v>obj_00322#0000</v>
       </c>
       <c r="F7" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E7),"LastFixing","D"),"Libor","")</f>
@@ -4816,7 +4865,7 @@
       </c>
       <c r="G7" s="118">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
-        <v>1.1357000000000001E-3</v>
+        <v>1.1286E-3</v>
       </c>
       <c r="H7" s="118"/>
       <c r="I7" s="65" t="b">
@@ -4830,11 +4879,11 @@
       </c>
       <c r="L7" s="119">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41947</v>
+        <v>42003</v>
       </c>
       <c r="M7" s="120">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>42039</v>
+        <v>42093</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4845,7 +4894,7 @@
       </c>
       <c r="E8" s="117" t="str">
         <f>Deposits!E13</f>
-        <v>obj_00316#0001</v>
+        <v>obj_00325#0000</v>
       </c>
       <c r="F8" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E8),"LastFixing","D"),"Libor","")</f>
@@ -4853,7 +4902,7 @@
       </c>
       <c r="G8" s="118">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
-        <v>1.6142999999999999E-3</v>
+        <v>1.6286E-3</v>
       </c>
       <c r="H8" s="118"/>
       <c r="I8" s="65" t="b">
@@ -4867,11 +4916,11 @@
       </c>
       <c r="L8" s="119">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41947</v>
+        <v>42003</v>
       </c>
       <c r="M8" s="120">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>42129</v>
+        <v>42185</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4882,7 +4931,7 @@
       </c>
       <c r="E9" s="117" t="str">
         <f>Deposits!E19</f>
-        <v>obj_00326#0001</v>
+        <v>obj_00317#0000</v>
       </c>
       <c r="F9" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E9),"LastFixing","D"),"Libor","")</f>
@@ -4890,7 +4939,7 @@
       </c>
       <c r="G9" s="118">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
-        <v>3.0042999999999997E-3</v>
+        <v>3.2042999999999998E-3</v>
       </c>
       <c r="H9" s="118"/>
       <c r="I9" s="65" t="b">
@@ -4904,11 +4953,11 @@
       </c>
       <c r="L9" s="119">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41947</v>
+        <v>42003</v>
       </c>
       <c r="M9" s="120">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>42312</v>
+        <v>42368</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4924,7 +4973,7 @@
       </c>
       <c r="E10" s="133" t="str">
         <f>FRAs!G3</f>
-        <v>obj_0031a#0001</v>
+        <v>obj_0031d#0000</v>
       </c>
       <c r="F10" s="133" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E10),"LastFixing","D"),"Libor","")</f>
@@ -4932,7 +4981,7 @@
       </c>
       <c r="G10" s="134">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
-        <v>1.1000000000000001E-3</v>
+        <v>1.15E-3</v>
       </c>
       <c r="H10" s="134"/>
       <c r="I10" s="135" t="b">
@@ -4946,11 +4995,11 @@
       </c>
       <c r="L10" s="136">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41977</v>
+        <v>42034</v>
       </c>
       <c r="M10" s="137">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>42067</v>
+        <v>42124</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4966,7 +5015,7 @@
       </c>
       <c r="E11" s="117" t="str">
         <f>FRAs!G4</f>
-        <v>obj_0031c#0001</v>
+        <v>obj_00321#0000</v>
       </c>
       <c r="F11" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E11),"LastFixing","D"),"Libor","")</f>
@@ -4974,7 +5023,7 @@
       </c>
       <c r="G11" s="118">
         <f>_xll.qlRateHelperQuoteValue($E11,Trigger)</f>
-        <v>1.1000000000000001E-3</v>
+        <v>1.15E-3</v>
       </c>
       <c r="H11" s="118"/>
       <c r="I11" s="65" t="b">
@@ -4988,11 +5037,11 @@
       </c>
       <c r="L11" s="119">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>42009</v>
+        <v>42062</v>
       </c>
       <c r="M11" s="120">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>42101</v>
+        <v>42153</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5008,7 +5057,7 @@
       </c>
       <c r="E12" s="117" t="str">
         <f>FRAs!G5</f>
-        <v>obj_00318#0001</v>
+        <v>obj_00318#0000</v>
       </c>
       <c r="F12" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E12),"LastFixing","D"),"Libor","")</f>
@@ -5016,7 +5065,7 @@
       </c>
       <c r="G12" s="118">
         <f>_xll.qlRateHelperQuoteValue($E12,Trigger)</f>
-        <v>1.1000000000000001E-3</v>
+        <v>1.15E-3</v>
       </c>
       <c r="H12" s="118"/>
       <c r="I12" s="65" t="b">
@@ -5030,11 +5079,11 @@
       </c>
       <c r="L12" s="119">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>42039</v>
+        <v>42093</v>
       </c>
       <c r="M12" s="120">
         <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>42131</v>
+        <v>42185</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5050,7 +5099,7 @@
       </c>
       <c r="E13" s="117" t="str">
         <f>FRAs!G6</f>
-        <v>obj_00321#0001</v>
+        <v>obj_0031e#0000</v>
       </c>
       <c r="F13" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E13),"LastFixing","D"),"Libor","")</f>
@@ -5058,7 +5107,7 @@
       </c>
       <c r="G13" s="118">
         <f>_xll.qlRateHelperQuoteValue($E13,Trigger)</f>
-        <v>1.1000000000000001E-3</v>
+        <v>1.15E-3</v>
       </c>
       <c r="H13" s="118"/>
       <c r="I13" s="65" t="b">
@@ -5072,11 +5121,11 @@
       </c>
       <c r="L13" s="119">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>42067</v>
+        <v>42124</v>
       </c>
       <c r="M13" s="120">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>42159</v>
+        <v>42216</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5092,7 +5141,7 @@
       </c>
       <c r="E14" s="117" t="str">
         <f>FRAs!G7</f>
-        <v>obj_0031e#0001</v>
+        <v>obj_00316#0000</v>
       </c>
       <c r="F14" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E14),"LastFixing","D"),"Libor","")</f>
@@ -5100,7 +5149,7 @@
       </c>
       <c r="G14" s="118">
         <f>_xll.qlRateHelperQuoteValue($E14,Trigger)</f>
-        <v>1.0500000000000002E-3</v>
+        <v>1.15E-3</v>
       </c>
       <c r="H14" s="118"/>
       <c r="I14" s="65" t="b">
@@ -5114,11 +5163,11 @@
       </c>
       <c r="L14" s="119">
         <f>_xll.qlRateHelperEarliestDate($E14,Trigger)</f>
-        <v>42101</v>
+        <v>42153</v>
       </c>
       <c r="M14" s="120">
         <f>_xll.qlRateHelperLatestDate($E14,Trigger)</f>
-        <v>42192</v>
+        <v>42244</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5134,7 +5183,7 @@
       </c>
       <c r="E15" s="117" t="str">
         <f>FRAs!G8</f>
-        <v>obj_00324#0001</v>
+        <v>obj_00324#0000</v>
       </c>
       <c r="F15" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E15),"LastFixing","D"),"Libor","")</f>
@@ -5142,7 +5191,7 @@
       </c>
       <c r="G15" s="118">
         <f>_xll.qlRateHelperQuoteValue($E15,Trigger)</f>
-        <v>1.0500000000000002E-3</v>
+        <v>1.15E-3</v>
       </c>
       <c r="H15" s="118"/>
       <c r="I15" s="65" t="b">
@@ -5156,11 +5205,11 @@
       </c>
       <c r="L15" s="119">
         <f>_xll.qlRateHelperEarliestDate($E15,Trigger)</f>
-        <v>42129</v>
+        <v>42185</v>
       </c>
       <c r="M15" s="120">
         <f>_xll.qlRateHelperLatestDate($E15,Trigger)</f>
-        <v>42221</v>
+        <v>42277</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5176,7 +5225,7 @@
       </c>
       <c r="E16" s="117" t="str">
         <f>FRAs!G9</f>
-        <v>obj_00319#0001</v>
+        <v>obj_0031b#0000</v>
       </c>
       <c r="F16" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E16),"LastFixing","D"),"Libor","")</f>
@@ -5184,7 +5233,7 @@
       </c>
       <c r="G16" s="118">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
-        <v>1.0500000000000002E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="H16" s="118"/>
       <c r="I16" s="65" t="b">
@@ -5198,11 +5247,11 @@
       </c>
       <c r="L16" s="119">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>42220</v>
+        <v>42277</v>
       </c>
       <c r="M16" s="120">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>42312</v>
+        <v>42368</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5218,7 +5267,7 @@
       </c>
       <c r="E17" s="117" t="str">
         <f>FRAs!G10</f>
-        <v>obj_00325#0001</v>
+        <v>obj_00327#0000</v>
       </c>
       <c r="F17" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E17),"LastFixing","D"),"Libor","")</f>
@@ -5226,7 +5275,7 @@
       </c>
       <c r="G17" s="118">
         <f>_xll.qlRateHelperQuoteValue($E17,Trigger)</f>
-        <v>1.0500000000000002E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="H17" s="118"/>
       <c r="I17" s="65" t="b">
@@ -5240,11 +5289,11 @@
       </c>
       <c r="L17" s="119">
         <f>_xll.qlRateHelperEarliestDate($E17,Trigger)</f>
-        <v>42312</v>
+        <v>42368</v>
       </c>
       <c r="M17" s="120">
         <f>_xll.qlRateHelperLatestDate($E17,Trigger)</f>
-        <v>42404</v>
+        <v>42460</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5260,7 +5309,7 @@
       </c>
       <c r="E18" s="117" t="str">
         <f>FRAs!G11</f>
-        <v>obj_00327#0001</v>
+        <v>obj_0031a#0000</v>
       </c>
       <c r="F18" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E18),"LastFixing","D"),"Libor","")</f>
@@ -5268,7 +5317,7 @@
       </c>
       <c r="G18" s="118">
         <f>_xll.qlRateHelperQuoteValue($E18,Trigger)</f>
-        <v>1E-3</v>
+        <v>1.0500000000000002E-3</v>
       </c>
       <c r="H18" s="118"/>
       <c r="I18" s="65" t="b">
@@ -5282,11 +5331,11 @@
       </c>
       <c r="L18" s="119">
         <f>_xll.qlRateHelperEarliestDate($E18,Trigger)</f>
-        <v>42404</v>
+        <v>42459</v>
       </c>
       <c r="M18" s="120">
         <f>_xll.qlRateHelperLatestDate($E18,Trigger)</f>
-        <v>42496</v>
+        <v>42551</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5302,7 +5351,7 @@
       </c>
       <c r="E19" s="117" t="str">
         <f>FRAs!G12</f>
-        <v>obj_00317#0001</v>
+        <v>obj_00315#0000</v>
       </c>
       <c r="F19" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E19),"LastFixing","D"),"Libor","")</f>
@@ -5310,7 +5359,7 @@
       </c>
       <c r="G19" s="118">
         <f>_xll.qlRateHelperQuoteValue($E19,Trigger)</f>
-        <v>1E-3</v>
+        <v>1.0500000000000002E-3</v>
       </c>
       <c r="H19" s="118"/>
       <c r="I19" s="65" t="b">
@@ -5324,11 +5373,11 @@
       </c>
       <c r="L19" s="119">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>42494</v>
+        <v>42551</v>
       </c>
       <c r="M19" s="120">
         <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
-        <v>42586</v>
+        <v>42643</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5344,7 +5393,7 @@
       </c>
       <c r="E20" s="122" t="str">
         <f>FRAs!G13</f>
-        <v>obj_0031f#0001</v>
+        <v>obj_00319#0000</v>
       </c>
       <c r="F20" s="122" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E20),"LastFixing","D"),"Libor","")</f>
@@ -5352,7 +5401,7 @@
       </c>
       <c r="G20" s="123">
         <f>_xll.qlRateHelperQuoteValue($E20,Trigger)</f>
-        <v>1.0500000000000002E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="H20" s="123"/>
       <c r="I20" s="124" t="b">
@@ -5366,11 +5415,11 @@
       </c>
       <c r="L20" s="125">
         <f>_xll.qlRateHelperEarliestDate($E20,Trigger)</f>
-        <v>42586</v>
+        <v>42643</v>
       </c>
       <c r="M20" s="126">
         <f>_xll.qlRateHelperLatestDate($E20,Trigger)</f>
-        <v>42678</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5384,15 +5433,15 @@
       </c>
       <c r="D21" s="117" t="str">
         <f t="array" ref="D21:D62">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A21:$A62)</f>
-        <v>X4</v>
+        <v>F5</v>
       </c>
       <c r="E21" s="117" t="str">
         <f>Futures!H3</f>
-        <v>obj_00335#0001</v>
+        <v>obj_00342#0000</v>
       </c>
       <c r="F21" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E21),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MX4_Quote</v>
+        <v>JPYFUT3MF5_Quote</v>
       </c>
       <c r="G21" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E21,Trigger)</f>
@@ -5430,15 +5479,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D22" s="117" t="str">
-        <v>Z4</v>
+        <v>G5</v>
       </c>
       <c r="E22" s="117" t="str">
         <f>Futures!H4</f>
-        <v>obj_0034f#0001</v>
+        <v>obj_00365#0000</v>
       </c>
       <c r="F22" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E22),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ4_Quote</v>
+        <v>JPYFUT3MG5_Quote</v>
       </c>
       <c r="G22" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E22,Trigger)</f>
@@ -5476,15 +5525,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D23" s="117" t="str">
-        <v>F5</v>
+        <v>H5</v>
       </c>
       <c r="E23" s="117" t="str">
         <f>Futures!H5</f>
-        <v>obj_0034d#0001</v>
+        <v>obj_0035d#0000</v>
       </c>
       <c r="F23" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E23),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MF5_Quote</v>
+        <v>JPYFUT3MH5_Quote</v>
       </c>
       <c r="G23" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E23,Trigger)</f>
@@ -5522,15 +5571,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D24" s="117" t="str">
-        <v>G5</v>
+        <v>J5</v>
       </c>
       <c r="E24" s="117" t="str">
         <f>Futures!H6</f>
-        <v>obj_00336#0001</v>
+        <v>obj_0035c#0000</v>
       </c>
       <c r="F24" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E24),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MG5_Quote</v>
+        <v>JPYFUT3MJ5_Quote</v>
       </c>
       <c r="G24" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E24,Trigger)</f>
@@ -5568,15 +5617,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D25" s="117" t="str">
-        <v>H5</v>
+        <v>K5</v>
       </c>
       <c r="E25" s="117" t="str">
         <f>Futures!H7</f>
-        <v>obj_00332#0001</v>
+        <v>obj_0036d#0000</v>
       </c>
       <c r="F25" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E25),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH5_Quote</v>
+        <v>JPYFUT3MK5_Quote</v>
       </c>
       <c r="G25" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E25,Trigger)</f>
@@ -5614,15 +5663,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D26" s="117" t="str">
-        <v>J5</v>
+        <v>M5</v>
       </c>
       <c r="E26" s="117" t="str">
         <f>Futures!H8</f>
-        <v>obj_0032f#0001</v>
+        <v>obj_00348#0000</v>
       </c>
       <c r="F26" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E26),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MJ5_Quote</v>
+        <v>JPYFUT3MM5_Quote</v>
       </c>
       <c r="G26" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E26,Trigger)</f>
@@ -5660,15 +5709,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D27" s="117" t="str">
-        <v>K5</v>
+        <v>N5</v>
       </c>
       <c r="E27" s="117" t="str">
         <f>Futures!H9</f>
-        <v>obj_00353#0001</v>
+        <v>obj_00355#0000</v>
       </c>
       <c r="F27" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E27),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MK5_Quote</v>
+        <v>JPYFUT3MN5_Quote</v>
       </c>
       <c r="G27" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E27,Trigger)</f>
@@ -5706,15 +5755,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D28" s="117" t="str">
-        <v>M5</v>
+        <v>Q5</v>
       </c>
       <c r="E28" s="117" t="str">
         <f>Futures!H10</f>
-        <v>obj_00330#0001</v>
+        <v>obj_00360#0000</v>
       </c>
       <c r="F28" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E28),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM5_Quote</v>
+        <v>JPYFUT3MQ5_Quote</v>
       </c>
       <c r="G28" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E28,Trigger)</f>
@@ -5752,15 +5801,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D29" s="117" t="str">
-        <v>N5</v>
+        <v>U5</v>
       </c>
       <c r="E29" s="117" t="str">
         <f>Futures!H11</f>
-        <v>obj_00374#0001</v>
+        <v>obj_00376#0000</v>
       </c>
       <c r="F29" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E29),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MN5_Quote</v>
+        <v>JPYFUT3MU5_Quote</v>
       </c>
       <c r="G29" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E29,Trigger)</f>
@@ -5798,15 +5847,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D30" s="117" t="str">
-        <v>Q5</v>
+        <v>V5</v>
       </c>
       <c r="E30" s="117" t="str">
         <f>Futures!H12</f>
-        <v>obj_0035f#0001</v>
+        <v>obj_00332#0000</v>
       </c>
       <c r="F30" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E30),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MQ5_Quote</v>
+        <v>JPYFUT3MV5_Quote</v>
       </c>
       <c r="G30" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E30,Trigger)</f>
@@ -5844,15 +5893,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D31" s="117" t="str">
-        <v>U5</v>
+        <v>X5</v>
       </c>
       <c r="E31" s="117" t="str">
         <f>Futures!H13</f>
-        <v>obj_00368#0001</v>
+        <v>obj_00346#0000</v>
       </c>
       <c r="F31" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E31),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU5_Quote</v>
+        <v>JPYFUT3MX5_Quote</v>
       </c>
       <c r="G31" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E31,Trigger)</f>
@@ -5890,15 +5939,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D32" s="117" t="str">
-        <v>V5</v>
+        <v>Z5</v>
       </c>
       <c r="E32" s="117" t="str">
         <f>Futures!H14</f>
-        <v>obj_00345#0001</v>
+        <v>obj_0034a#0000</v>
       </c>
       <c r="F32" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E32),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MV5_Quote</v>
+        <v>JPYFUT3MZ5_Quote</v>
       </c>
       <c r="G32" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E32,Trigger)</f>
@@ -5936,15 +5985,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D33" s="117" t="str">
-        <v>Z5</v>
+        <v>H6</v>
       </c>
       <c r="E33" s="117" t="str">
         <f>Futures!H15</f>
-        <v>obj_00358#0001</v>
+        <v>obj_00331#0000</v>
       </c>
       <c r="F33" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E33),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ5_Quote</v>
+        <v>JPYFUT3MH6_Quote</v>
       </c>
       <c r="G33" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E33,Trigger)</f>
@@ -5982,15 +6031,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D34" s="117" t="str">
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="E34" s="117" t="str">
         <f>Futures!H16</f>
-        <v>obj_00367#0001</v>
+        <v>obj_00340#0000</v>
       </c>
       <c r="F34" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E34),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH6_Quote</v>
+        <v>JPYFUT3MM6_Quote</v>
       </c>
       <c r="G34" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E34,Trigger)</f>
@@ -6028,15 +6077,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D35" s="117" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="E35" s="117" t="str">
         <f>Futures!H17</f>
-        <v>obj_00349#0001</v>
+        <v>obj_0032f#0000</v>
       </c>
       <c r="F35" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E35),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM6_Quote</v>
+        <v>JPYFUT3MU6_Quote</v>
       </c>
       <c r="G35" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E35,Trigger)</f>
@@ -6074,15 +6123,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D36" s="117" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="E36" s="117" t="str">
         <f>Futures!H18</f>
-        <v>obj_0034c#0001</v>
+        <v>obj_00344#0000</v>
       </c>
       <c r="F36" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E36),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU6_Quote</v>
+        <v>JPYFUT3MZ6_Quote</v>
       </c>
       <c r="G36" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E36,Trigger)</f>
@@ -6120,15 +6169,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D37" s="117" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="E37" s="117" t="str">
         <f>Futures!H19</f>
-        <v>obj_0033d#0001</v>
+        <v>obj_00349#0000</v>
       </c>
       <c r="F37" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E37),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ6_Quote</v>
+        <v>JPYFUT3MH7_Quote</v>
       </c>
       <c r="G37" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E37,Trigger)</f>
@@ -6166,15 +6215,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D38" s="117" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="E38" s="117" t="str">
         <f>Futures!H20</f>
-        <v>obj_0035d#0001</v>
+        <v>obj_00378#0000</v>
       </c>
       <c r="F38" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E38),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH7_Quote</v>
+        <v>JPYFUT3MM7_Quote</v>
       </c>
       <c r="G38" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E38,Trigger)</f>
@@ -6212,15 +6261,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D39" s="117" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="E39" s="117" t="str">
         <f>Futures!H21</f>
-        <v>obj_00347#0001</v>
+        <v>obj_00377#0000</v>
       </c>
       <c r="F39" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E39),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM7_Quote</v>
+        <v>JPYFUT3MU7_Quote</v>
       </c>
       <c r="G39" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E39,Trigger)</f>
@@ -6258,15 +6307,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D40" s="117" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="E40" s="117" t="str">
         <f>Futures!H22</f>
-        <v>obj_00359#0001</v>
+        <v>obj_0033f#0000</v>
       </c>
       <c r="F40" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E40),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU7_Quote</v>
+        <v>JPYFUT3MZ7_Quote</v>
       </c>
       <c r="G40" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E40,Trigger)</f>
@@ -6304,15 +6353,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D41" s="117" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="E41" s="117" t="str">
         <f>Futures!H23</f>
-        <v>obj_0035b#0001</v>
+        <v>obj_0035e#0000</v>
       </c>
       <c r="F41" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E41),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ7_Quote</v>
+        <v>JPYFUT3MH8_Quote</v>
       </c>
       <c r="G41" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E41,Trigger)</f>
@@ -6350,15 +6399,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D42" s="117" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="E42" s="117" t="str">
         <f>Futures!H24</f>
-        <v>obj_0034e#0001</v>
+        <v>obj_00368#0000</v>
       </c>
       <c r="F42" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E42),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH8_Quote</v>
+        <v>JPYFUT3MM8_Quote</v>
       </c>
       <c r="G42" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E42,Trigger)</f>
@@ -6396,15 +6445,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D43" s="117" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="E43" s="117" t="str">
         <f>Futures!H25</f>
-        <v>obj_0034a#0001</v>
+        <v>obj_00351#0000</v>
       </c>
       <c r="F43" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E43),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM8_Quote</v>
+        <v>JPYFUT3MU8_Quote</v>
       </c>
       <c r="G43" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E43,Trigger)</f>
@@ -6442,15 +6491,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D44" s="117" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="E44" s="117" t="str">
         <f>Futures!H26</f>
-        <v>obj_00334#0001</v>
+        <v>obj_00336#0000</v>
       </c>
       <c r="F44" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E44),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU8_Quote</v>
+        <v>JPYFUT3MZ8_Quote</v>
       </c>
       <c r="G44" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E44,Trigger)</f>
@@ -6488,15 +6537,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D45" s="117" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="E45" s="117" t="str">
         <f>Futures!H27</f>
-        <v>obj_00355#0001</v>
+        <v>obj_00362#0000</v>
       </c>
       <c r="F45" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E45),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ8_Quote</v>
+        <v>JPYFUT3MH9_Quote</v>
       </c>
       <c r="G45" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E45,Trigger)</f>
@@ -6534,15 +6583,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D46" s="117" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="E46" s="117" t="str">
         <f>Futures!H28</f>
-        <v>obj_0035c#0001</v>
+        <v>obj_0034e#0000</v>
       </c>
       <c r="F46" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E46),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH9_Quote</v>
+        <v>JPYFUT3MM9_Quote</v>
       </c>
       <c r="G46" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E46,Trigger)</f>
@@ -6580,15 +6629,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D47" s="117" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="E47" s="117" t="str">
         <f>Futures!H29</f>
-        <v>obj_00371#0001</v>
+        <v>obj_0034c#0000</v>
       </c>
       <c r="F47" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E47),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM9_Quote</v>
+        <v>JPYFUT3MU9_Quote</v>
       </c>
       <c r="G47" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E47,Trigger)</f>
@@ -6626,15 +6675,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D48" s="117" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="E48" s="117" t="str">
         <f>Futures!H30</f>
-        <v>obj_00364#0001</v>
+        <v>obj_00374#0000</v>
       </c>
       <c r="F48" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E48),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU9_Quote</v>
+        <v>JPYFUT3MZ9_Quote</v>
       </c>
       <c r="G48" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E48,Trigger)</f>
@@ -6672,15 +6721,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D49" s="117" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="E49" s="117" t="str">
         <f>Futures!H31</f>
-        <v>obj_00360#0001</v>
+        <v>obj_0033a#0000</v>
       </c>
       <c r="F49" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E49),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ9_Quote</v>
+        <v>JPYFUT3MH0_Quote</v>
       </c>
       <c r="G49" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E49,Trigger)</f>
@@ -6718,15 +6767,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D50" s="117" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="E50" s="117" t="str">
         <f>Futures!H32</f>
-        <v>obj_0035a#0001</v>
+        <v>obj_00345#0000</v>
       </c>
       <c r="F50" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E50),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH0_Quote</v>
+        <v>JPYFUT3MM0_Quote</v>
       </c>
       <c r="G50" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E50,Trigger)</f>
@@ -6764,15 +6813,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D51" s="117" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="E51" s="117" t="str">
         <f>Futures!H33</f>
-        <v>obj_00340#0001</v>
+        <v>obj_0036f#0000</v>
       </c>
       <c r="F51" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E51),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM0_Quote</v>
+        <v>JPYFUT3MU0_Quote</v>
       </c>
       <c r="G51" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E51,Trigger)</f>
@@ -6810,15 +6859,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D52" s="117" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="E52" s="117" t="str">
         <f>Futures!H34</f>
-        <v>obj_0032d#0001</v>
+        <v>obj_00353#0000</v>
       </c>
       <c r="F52" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E52),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU0_Quote</v>
+        <v>JPYFUT3MZ0_Quote</v>
       </c>
       <c r="G52" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E52,Trigger)</f>
@@ -6857,15 +6906,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D53" s="117" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="E53" s="117" t="str">
         <f>Futures!H35</f>
-        <v>obj_00343#0001</v>
+        <v>obj_00354#0000</v>
       </c>
       <c r="F53" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E53),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ0_Quote</v>
+        <v>JPYFUT3MH1_Quote</v>
       </c>
       <c r="G53" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E53,Trigger)</f>
@@ -6904,15 +6953,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D54" s="117" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="E54" s="117" t="str">
         <f>Futures!H36</f>
-        <v>obj_00373#0001</v>
+        <v>obj_0036c#0000</v>
       </c>
       <c r="F54" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E54),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH1_Quote</v>
+        <v>JPYFUT3MM1_Quote</v>
       </c>
       <c r="G54" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E54,Trigger)</f>
@@ -6951,15 +7000,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D55" s="117" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="E55" s="117" t="str">
         <f>Futures!H37</f>
-        <v>obj_0036c#0001</v>
+        <v>obj_00375#0000</v>
       </c>
       <c r="F55" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E55),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM1_Quote</v>
+        <v>JPYFUT3MU1_Quote</v>
       </c>
       <c r="G55" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E55,Trigger)</f>
@@ -6998,15 +7047,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D56" s="117" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="E56" s="117" t="str">
         <f>Futures!H38</f>
-        <v>obj_00350#0001</v>
+        <v>obj_00371#0000</v>
       </c>
       <c r="F56" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E56),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU1_Quote</v>
+        <v>JPYFUT3MZ1_Quote</v>
       </c>
       <c r="G56" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E56,Trigger)</f>
@@ -7045,15 +7094,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D57" s="117" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="E57" s="117" t="str">
         <f>Futures!H39</f>
-        <v>obj_00376#0001</v>
+        <v>obj_00352#0000</v>
       </c>
       <c r="F57" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E57),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ1_Quote</v>
+        <v>JPYFUT3MH2_Quote</v>
       </c>
       <c r="G57" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E57,Trigger)</f>
@@ -7092,15 +7141,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D58" s="117" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="E58" s="117" t="str">
         <f>Futures!H40</f>
-        <v>obj_0033c#0001</v>
+        <v>obj_00343#0000</v>
       </c>
       <c r="F58" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E58),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH2_Quote</v>
+        <v>JPYFUT3MM2_Quote</v>
       </c>
       <c r="G58" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E58,Trigger)</f>
@@ -7139,15 +7188,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D59" s="117" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="E59" s="117" t="str">
         <f>Futures!H41</f>
-        <v>obj_00337#0001</v>
+        <v>obj_00367#0000</v>
       </c>
       <c r="F59" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E59),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MM2_Quote</v>
+        <v>JPYFUT3MU2_Quote</v>
       </c>
       <c r="G59" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E59,Trigger)</f>
@@ -7186,15 +7235,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D60" s="117" t="str">
-        <v>U2</v>
+        <v>Z2</v>
       </c>
       <c r="E60" s="117" t="str">
         <f>Futures!H42</f>
-        <v>obj_00378#0001</v>
+        <v>obj_00347#0000</v>
       </c>
       <c r="F60" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E60),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MU2_Quote</v>
+        <v>JPYFUT3MZ2_Quote</v>
       </c>
       <c r="G60" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E60,Trigger)</f>
@@ -7233,15 +7282,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D61" s="117" t="str">
-        <v>Z2</v>
+        <v>H3</v>
       </c>
       <c r="E61" s="117" t="str">
         <f>Futures!H43</f>
-        <v>obj_00338#0001</v>
+        <v>obj_0034f#0000</v>
       </c>
       <c r="F61" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E61),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MZ2_Quote</v>
+        <v>JPYFUT3MH3_Quote</v>
       </c>
       <c r="G61" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E61,Trigger)</f>
@@ -7280,15 +7329,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D62" s="122" t="str">
-        <v>H3</v>
+        <v>M3</v>
       </c>
       <c r="E62" s="117" t="str">
         <f>Futures!H44</f>
-        <v>obj_00339#0001</v>
+        <v>obj_0036e#0000</v>
       </c>
       <c r="F62" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E62),"LastFixing","D"),"Libor","")</f>
-        <v>JPYFUT3MH3_Quote</v>
+        <v>JPYFUT3MM3_Quote</v>
       </c>
       <c r="G62" s="130" t="e">
         <f>_xll.qlRateHelperQuoteValue(E62,Trigger)</f>
@@ -7330,7 +7379,7 @@
       </c>
       <c r="E63" s="117" t="str">
         <f>Swaps!K5</f>
-        <v>obj_00329#0001</v>
+        <v>obj_00329#0008</v>
       </c>
       <c r="F63" s="133" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E63),"LastFixing","D"),"Libor","")</f>
@@ -7338,7 +7387,7 @@
       </c>
       <c r="G63" s="134">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
-        <v>1.575E-3</v>
+        <v>1.4250000000000001E-3</v>
       </c>
       <c r="H63" s="134">
         <f>_xll.qlSwapRateHelperSpread($E63,Trigger)</f>
@@ -7355,11 +7404,11 @@
       </c>
       <c r="L63" s="136">
         <f>_xll.qlRateHelperEarliestDate($E63,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M63" s="137">
         <f>_xll.qlRateHelperLatestDate($E63,Trigger)</f>
-        <v>42313</v>
+        <v>42368</v>
       </c>
       <c r="O63" s="138"/>
     </row>
@@ -7376,7 +7425,7 @@
       </c>
       <c r="E64" s="117" t="str">
         <f>Swaps!K6</f>
-        <v>obj_00341#0001</v>
+        <v>obj_0032e#0002</v>
       </c>
       <c r="F64" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E64),"LastFixing","D"),"Libor","")</f>
@@ -7401,11 +7450,11 @@
       </c>
       <c r="L64" s="119">
         <f>_xll.qlRateHelperEarliestDate($E64,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M64" s="120">
         <f>_xll.qlRateHelperLatestDate($E64,Trigger)</f>
-        <v>42405</v>
+        <v>42459</v>
       </c>
       <c r="O64" s="138"/>
     </row>
@@ -7422,7 +7471,7 @@
       </c>
       <c r="E65" s="117" t="str">
         <f>Swaps!K7</f>
-        <v>obj_00348#0001</v>
+        <v>obj_00370#0002</v>
       </c>
       <c r="F65" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E65),"LastFixing","D"),"Libor","")</f>
@@ -7430,7 +7479,7 @@
       </c>
       <c r="G65" s="118">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
-        <v>1.5499999999999999E-3</v>
+        <v>1.4250000000000001E-3</v>
       </c>
       <c r="H65" s="118">
         <f>_xll.qlSwapRateHelperSpread($E65,Trigger)</f>
@@ -7447,11 +7496,11 @@
       </c>
       <c r="L65" s="119">
         <f>_xll.qlRateHelperEarliestDate($E65,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M65" s="120">
         <f>_xll.qlRateHelperLatestDate($E65,Trigger)</f>
-        <v>42496</v>
+        <v>42551</v>
       </c>
       <c r="O65" s="138"/>
     </row>
@@ -7468,7 +7517,7 @@
       </c>
       <c r="E66" s="117" t="str">
         <f>Swaps!K8</f>
-        <v>obj_00333#0001</v>
+        <v>obj_0032d#0002</v>
       </c>
       <c r="F66" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E66),"LastFixing","D"),"Libor","")</f>
@@ -7493,11 +7542,11 @@
       </c>
       <c r="L66" s="119">
         <f>_xll.qlRateHelperEarliestDate($E66,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M66" s="120">
         <f>_xll.qlRateHelperLatestDate($E66,Trigger)</f>
-        <v>42587</v>
+        <v>42643</v>
       </c>
       <c r="O66" s="138"/>
     </row>
@@ -7514,7 +7563,7 @@
       </c>
       <c r="E67" s="117" t="str">
         <f>Swaps!K9</f>
-        <v>obj_00351#0001</v>
+        <v>obj_00330#0002</v>
       </c>
       <c r="F67" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E67),"LastFixing","D"),"Libor","")</f>
@@ -7522,7 +7571,7 @@
       </c>
       <c r="G67" s="118">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
-        <v>1.5499999999999999E-3</v>
+        <v>1.4250000000000001E-3</v>
       </c>
       <c r="H67" s="118">
         <f>_xll.qlSwapRateHelperSpread($E67,Trigger)</f>
@@ -7539,11 +7588,11 @@
       </c>
       <c r="L67" s="119">
         <f>_xll.qlRateHelperEarliestDate($E67,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M67" s="120">
         <f>_xll.qlRateHelperLatestDate($E67,Trigger)</f>
-        <v>42681</v>
+        <v>42734</v>
       </c>
       <c r="O67" s="138"/>
     </row>
@@ -7560,7 +7609,7 @@
       </c>
       <c r="E68" s="117" t="str">
         <f>Swaps!K10</f>
-        <v>obj_0033e#0001</v>
+        <v>obj_00361#0002</v>
       </c>
       <c r="F68" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E68),"LastFixing","D"),"Libor","")</f>
@@ -7568,7 +7617,7 @@
       </c>
       <c r="G68" s="118">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
-        <v>1.65E-3</v>
+        <v>1.5249999999999999E-3</v>
       </c>
       <c r="H68" s="118">
         <f>_xll.qlSwapRateHelperSpread($E68,Trigger)</f>
@@ -7585,11 +7634,11 @@
       </c>
       <c r="L68" s="119">
         <f>_xll.qlRateHelperEarliestDate($E68,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M68" s="120">
         <f>_xll.qlRateHelperLatestDate($E68,Trigger)</f>
-        <v>43045</v>
+        <v>43098</v>
       </c>
       <c r="O68" s="138"/>
     </row>
@@ -7606,7 +7655,7 @@
       </c>
       <c r="E69" s="117" t="str">
         <f>Swaps!K11</f>
-        <v>obj_0032e#0001</v>
+        <v>obj_00358#0002</v>
       </c>
       <c r="F69" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E69),"LastFixing","D"),"Libor","")</f>
@@ -7614,7 +7663,7 @@
       </c>
       <c r="G69" s="118">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
-        <v>1.9250000000000001E-3</v>
+        <v>1.7750000000000001E-3</v>
       </c>
       <c r="H69" s="118">
         <f>_xll.qlSwapRateHelperSpread($E69,Trigger)</f>
@@ -7631,11 +7680,11 @@
       </c>
       <c r="L69" s="119">
         <f>_xll.qlRateHelperEarliestDate($E69,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M69" s="120">
         <f>_xll.qlRateHelperLatestDate($E69,Trigger)</f>
-        <v>43409</v>
+        <v>43462</v>
       </c>
       <c r="O69" s="138"/>
     </row>
@@ -7652,7 +7701,7 @@
       </c>
       <c r="E70" s="117" t="str">
         <f>Swaps!K12</f>
-        <v>obj_0035e#0001</v>
+        <v>obj_00373#0002</v>
       </c>
       <c r="F70" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E70),"LastFixing","D"),"Libor","")</f>
@@ -7660,7 +7709,7 @@
       </c>
       <c r="G70" s="118">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
-        <v>2.3749999999999999E-3</v>
+        <v>2.1749999999999999E-3</v>
       </c>
       <c r="H70" s="118">
         <f>_xll.qlSwapRateHelperSpread($E70,Trigger)</f>
@@ -7677,11 +7726,11 @@
       </c>
       <c r="L70" s="119">
         <f>_xll.qlRateHelperEarliestDate($E70,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M70" s="120">
         <f>_xll.qlRateHelperLatestDate($E70,Trigger)</f>
-        <v>43774</v>
+        <v>43829</v>
       </c>
       <c r="O70" s="138"/>
     </row>
@@ -7698,7 +7747,7 @@
       </c>
       <c r="E71" s="117" t="str">
         <f>Swaps!K13</f>
-        <v>obj_00344#0001</v>
+        <v>obj_00359#0002</v>
       </c>
       <c r="F71" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E71),"LastFixing","D"),"Libor","")</f>
@@ -7706,7 +7755,7 @@
       </c>
       <c r="G71" s="118">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
-        <v>2.9749999999999998E-3</v>
+        <v>2.6749999999999994E-3</v>
       </c>
       <c r="H71" s="118">
         <f>_xll.qlSwapRateHelperSpread($E71,Trigger)</f>
@@ -7723,11 +7772,11 @@
       </c>
       <c r="L71" s="119">
         <f>_xll.qlRateHelperEarliestDate($E71,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M71" s="120">
         <f>_xll.qlRateHelperLatestDate($E71,Trigger)</f>
-        <v>44140</v>
+        <v>44195</v>
       </c>
       <c r="O71" s="138"/>
     </row>
@@ -7744,7 +7793,7 @@
       </c>
       <c r="E72" s="117" t="str">
         <f>Swaps!K14</f>
-        <v>obj_0036a#0001</v>
+        <v>obj_00363#0002</v>
       </c>
       <c r="F72" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E72),"LastFixing","D"),"Libor","")</f>
@@ -7752,7 +7801,7 @@
       </c>
       <c r="G72" s="118">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
-        <v>3.6750000000000003E-3</v>
+        <v>3.2500000000000003E-3</v>
       </c>
       <c r="H72" s="118">
         <f>_xll.qlSwapRateHelperSpread($E72,Trigger)</f>
@@ -7769,11 +7818,11 @@
       </c>
       <c r="L72" s="119">
         <f>_xll.qlRateHelperEarliestDate($E72,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M72" s="120">
         <f>_xll.qlRateHelperLatestDate($E72,Trigger)</f>
-        <v>44505</v>
+        <v>44560</v>
       </c>
       <c r="O72" s="138"/>
     </row>
@@ -7790,7 +7839,7 @@
       </c>
       <c r="E73" s="117" t="str">
         <f>Swaps!K15</f>
-        <v>obj_00369#0001</v>
+        <v>obj_0035f#0002</v>
       </c>
       <c r="F73" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E73),"LastFixing","D"),"Libor","")</f>
@@ -7798,7 +7847,7 @@
       </c>
       <c r="G73" s="118">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
-        <v>4.3999999999999994E-3</v>
+        <v>3.875E-3</v>
       </c>
       <c r="H73" s="118">
         <f>_xll.qlSwapRateHelperSpread($E73,Trigger)</f>
@@ -7815,11 +7864,11 @@
       </c>
       <c r="L73" s="119">
         <f>_xll.qlRateHelperEarliestDate($E73,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M73" s="120">
         <f>_xll.qlRateHelperLatestDate($E73,Trigger)</f>
-        <v>44872</v>
+        <v>44925</v>
       </c>
       <c r="O73" s="138"/>
     </row>
@@ -7836,7 +7885,7 @@
       </c>
       <c r="E74" s="117" t="str">
         <f>Swaps!K16</f>
-        <v>obj_0034b#0001</v>
+        <v>obj_0033e#0002</v>
       </c>
       <c r="F74" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E74),"LastFixing","D"),"Libor","")</f>
@@ -7844,7 +7893,7 @@
       </c>
       <c r="G74" s="118">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
-        <v>5.1749999999999999E-3</v>
+        <v>4.5499999999999994E-3</v>
       </c>
       <c r="H74" s="118">
         <f>_xll.qlSwapRateHelperSpread($E74,Trigger)</f>
@@ -7861,11 +7910,11 @@
       </c>
       <c r="L74" s="119">
         <f>_xll.qlRateHelperEarliestDate($E74,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M74" s="120">
         <f>_xll.qlRateHelperLatestDate($E74,Trigger)</f>
-        <v>45236</v>
+        <v>45289</v>
       </c>
       <c r="O74" s="138"/>
     </row>
@@ -7882,7 +7931,7 @@
       </c>
       <c r="E75" s="117" t="str">
         <f>Swaps!K17</f>
-        <v>obj_00357#0001</v>
+        <v>obj_00372#0002</v>
       </c>
       <c r="F75" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E75),"LastFixing","D"),"Libor","")</f>
@@ -7890,7 +7939,7 @@
       </c>
       <c r="G75" s="118">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
-        <v>5.9250000000000006E-3</v>
+        <v>5.2249999999999996E-3</v>
       </c>
       <c r="H75" s="118">
         <f>_xll.qlSwapRateHelperSpread($E75,Trigger)</f>
@@ -7907,11 +7956,11 @@
       </c>
       <c r="L75" s="119">
         <f>_xll.qlRateHelperEarliestDate($E75,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M75" s="120">
         <f>_xll.qlRateHelperLatestDate($E75,Trigger)</f>
-        <v>45601</v>
+        <v>45656</v>
       </c>
       <c r="O75" s="138"/>
     </row>
@@ -7928,7 +7977,7 @@
       </c>
       <c r="E76" s="117" t="str">
         <f>Swaps!K18</f>
-        <v>obj_0036e#0001</v>
+        <v>obj_0033c#0002</v>
       </c>
       <c r="F76" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E76),"LastFixing","D"),"Libor","")</f>
@@ -7953,11 +8002,11 @@
       </c>
       <c r="L76" s="119">
         <f>_xll.qlRateHelperEarliestDate($E76,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M76" s="120">
         <f>_xll.qlRateHelperLatestDate($E76,Trigger)</f>
-        <v>45966</v>
+        <v>46021</v>
       </c>
       <c r="O76" s="138"/>
     </row>
@@ -7974,7 +8023,7 @@
       </c>
       <c r="E77" s="117" t="str">
         <f>Swaps!K19</f>
-        <v>obj_00346#0001</v>
+        <v>obj_0034d#0002</v>
       </c>
       <c r="F77" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E77),"LastFixing","D"),"Libor","")</f>
@@ -7982,7 +8031,7 @@
       </c>
       <c r="G77" s="118">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
-        <v>7.5500000000000003E-3</v>
+        <v>6.5999999999999991E-3</v>
       </c>
       <c r="H77" s="118">
         <f>_xll.qlSwapRateHelperSpread($E77,Trigger)</f>
@@ -7999,11 +8048,11 @@
       </c>
       <c r="L77" s="119">
         <f>_xll.qlRateHelperEarliestDate($E77,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M77" s="120">
         <f>_xll.qlRateHelperLatestDate($E77,Trigger)</f>
-        <v>46331</v>
+        <v>46386</v>
       </c>
       <c r="O77" s="138"/>
     </row>
@@ -8020,7 +8069,7 @@
       </c>
       <c r="E78" s="117" t="str">
         <f>Swaps!K20</f>
-        <v>obj_0033f#0001</v>
+        <v>obj_0036a#0002</v>
       </c>
       <c r="F78" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E78),"LastFixing","D"),"Libor","")</f>
@@ -8045,11 +8094,11 @@
       </c>
       <c r="L78" s="119">
         <f>_xll.qlRateHelperEarliestDate($E78,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M78" s="120">
         <f>_xll.qlRateHelperLatestDate($E78,Trigger)</f>
-        <v>46696</v>
+        <v>46751</v>
       </c>
       <c r="O78" s="138"/>
     </row>
@@ -8066,7 +8115,7 @@
       </c>
       <c r="E79" s="117" t="str">
         <f>Swaps!K21</f>
-        <v>obj_00370#0001</v>
+        <v>obj_0035b#0002</v>
       </c>
       <c r="F79" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E79),"LastFixing","D"),"Libor","")</f>
@@ -8091,11 +8140,11 @@
       </c>
       <c r="L79" s="119">
         <f>_xll.qlRateHelperEarliestDate($E79,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M79" s="120">
         <f>_xll.qlRateHelperLatestDate($E79,Trigger)</f>
-        <v>47063</v>
+        <v>47116</v>
       </c>
       <c r="O79" s="138"/>
     </row>
@@ -8112,7 +8161,7 @@
       </c>
       <c r="E80" s="117" t="str">
         <f>Swaps!K22</f>
-        <v>obj_00354#0001</v>
+        <v>obj_0034b#0002</v>
       </c>
       <c r="F80" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E80),"LastFixing","D"),"Libor","")</f>
@@ -8120,7 +8169,7 @@
       </c>
       <c r="G80" s="118">
         <f>_xll.qlRateHelperQuoteValue($E80,Trigger)</f>
-        <v>9.9750000000000012E-3</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="H80" s="118">
         <f>_xll.qlSwapRateHelperSpread($E80,Trigger)</f>
@@ -8137,11 +8186,11 @@
       </c>
       <c r="L80" s="119">
         <f>_xll.qlRateHelperEarliestDate($E80,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M80" s="120">
         <f>_xll.qlRateHelperLatestDate($E80,Trigger)</f>
-        <v>47427</v>
+        <v>47480</v>
       </c>
       <c r="O80" s="138"/>
     </row>
@@ -8158,7 +8207,7 @@
       </c>
       <c r="E81" s="117" t="str">
         <f>Swaps!K23</f>
-        <v>obj_00352#0001</v>
+        <v>obj_00339#0002</v>
       </c>
       <c r="F81" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E81),"LastFixing","D"),"Libor","")</f>
@@ -8183,11 +8232,11 @@
       </c>
       <c r="L81" s="119">
         <f>_xll.qlRateHelperEarliestDate($E81,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M81" s="120">
         <f>_xll.qlRateHelperLatestDate($E81,Trigger)</f>
-        <v>47792</v>
+        <v>47847</v>
       </c>
       <c r="O81" s="138"/>
     </row>
@@ -8204,7 +8253,7 @@
       </c>
       <c r="E82" s="117" t="str">
         <f>Swaps!K24</f>
-        <v>obj_00366#0001</v>
+        <v>obj_0033b#0002</v>
       </c>
       <c r="F82" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E82),"LastFixing","D"),"Libor","")</f>
@@ -8229,11 +8278,11 @@
       </c>
       <c r="L82" s="119">
         <f>_xll.qlRateHelperEarliestDate($E82,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M82" s="120">
         <f>_xll.qlRateHelperLatestDate($E82,Trigger)</f>
-        <v>48157</v>
+        <v>48212</v>
       </c>
       <c r="O82" s="138"/>
     </row>
@@ -8250,7 +8299,7 @@
       </c>
       <c r="E83" s="117" t="str">
         <f>Swaps!K25</f>
-        <v>obj_00375#0001</v>
+        <v>obj_00335#0002</v>
       </c>
       <c r="F83" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E83),"LastFixing","D"),"Libor","")</f>
@@ -8275,11 +8324,11 @@
       </c>
       <c r="L83" s="119">
         <f>_xll.qlRateHelperEarliestDate($E83,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M83" s="120">
         <f>_xll.qlRateHelperLatestDate($E83,Trigger)</f>
-        <v>48523</v>
+        <v>48578</v>
       </c>
       <c r="O83" s="138"/>
     </row>
@@ -8296,7 +8345,7 @@
       </c>
       <c r="E84" s="117" t="str">
         <f>Swaps!K26</f>
-        <v>obj_00362#0001</v>
+        <v>obj_0035a#0002</v>
       </c>
       <c r="F84" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E84),"LastFixing","D"),"Libor","")</f>
@@ -8321,11 +8370,11 @@
       </c>
       <c r="L84" s="119">
         <f>_xll.qlRateHelperEarliestDate($E84,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M84" s="120">
         <f>_xll.qlRateHelperLatestDate($E84,Trigger)</f>
-        <v>48890</v>
+        <v>48943</v>
       </c>
       <c r="O84" s="138"/>
     </row>
@@ -8342,7 +8391,7 @@
       </c>
       <c r="E85" s="117" t="str">
         <f>Swaps!K27</f>
-        <v>obj_00361#0001</v>
+        <v>obj_00356#0002</v>
       </c>
       <c r="F85" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E85),"LastFixing","D"),"Libor","")</f>
@@ -8350,7 +8399,7 @@
       </c>
       <c r="G85" s="118">
         <f>_xll.qlRateHelperQuoteValue($E85,Trigger)</f>
-        <v>1.3025E-2</v>
+        <v>1.1575E-2</v>
       </c>
       <c r="H85" s="118">
         <f>_xll.qlSwapRateHelperSpread($E85,Trigger)</f>
@@ -8367,11 +8416,11 @@
       </c>
       <c r="L85" s="119">
         <f>_xll.qlRateHelperEarliestDate($E85,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M85" s="120">
         <f>_xll.qlRateHelperLatestDate($E85,Trigger)</f>
-        <v>49254</v>
+        <v>49307</v>
       </c>
       <c r="O85" s="138"/>
     </row>
@@ -8388,7 +8437,7 @@
       </c>
       <c r="E86" s="117" t="str">
         <f>Swaps!K28</f>
-        <v>obj_0036b#0001</v>
+        <v>obj_0036b#0002</v>
       </c>
       <c r="F86" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E86),"LastFixing","D"),"Libor","")</f>
@@ -8413,11 +8462,11 @@
       </c>
       <c r="L86" s="119">
         <f>_xll.qlRateHelperEarliestDate($E86,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M86" s="120">
         <f>_xll.qlRateHelperLatestDate($E86,Trigger)</f>
-        <v>49618</v>
+        <v>49671</v>
       </c>
       <c r="O86" s="138"/>
     </row>
@@ -8434,7 +8483,7 @@
       </c>
       <c r="E87" s="117" t="str">
         <f>Swaps!K29</f>
-        <v>obj_00356#0001</v>
+        <v>obj_00350#0002</v>
       </c>
       <c r="F87" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E87),"LastFixing","D"),"Libor","")</f>
@@ -8459,11 +8508,11 @@
       </c>
       <c r="L87" s="119">
         <f>_xll.qlRateHelperEarliestDate($E87,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M87" s="120">
         <f>_xll.qlRateHelperLatestDate($E87,Trigger)</f>
-        <v>49984</v>
+        <v>50039</v>
       </c>
       <c r="O87" s="138"/>
     </row>
@@ -8480,7 +8529,7 @@
       </c>
       <c r="E88" s="117" t="str">
         <f>Swaps!K30</f>
-        <v>obj_0032b#0001</v>
+        <v>obj_0032b#0002</v>
       </c>
       <c r="F88" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E88),"LastFixing","D"),"Libor","")</f>
@@ -8505,11 +8554,11 @@
       </c>
       <c r="L88" s="119">
         <f>_xll.qlRateHelperEarliestDate($E88,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M88" s="120">
         <f>_xll.qlRateHelperLatestDate($E88,Trigger)</f>
-        <v>50349</v>
+        <v>50404</v>
       </c>
       <c r="O88" s="138"/>
     </row>
@@ -8526,7 +8575,7 @@
       </c>
       <c r="E89" s="117" t="str">
         <f>Swaps!K31</f>
-        <v>obj_0036d#0001</v>
+        <v>obj_00334#0002</v>
       </c>
       <c r="F89" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E89),"LastFixing","D"),"Libor","")</f>
@@ -8551,11 +8600,11 @@
       </c>
       <c r="L89" s="119">
         <f>_xll.qlRateHelperEarliestDate($E89,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M89" s="120">
         <f>_xll.qlRateHelperLatestDate($E89,Trigger)</f>
-        <v>50714</v>
+        <v>50769</v>
       </c>
       <c r="O89" s="138"/>
     </row>
@@ -8572,7 +8621,7 @@
       </c>
       <c r="E90" s="117" t="str">
         <f>Swaps!K32</f>
-        <v>obj_0036f#0001</v>
+        <v>obj_00357#0002</v>
       </c>
       <c r="F90" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E90),"LastFixing","D"),"Libor","")</f>
@@ -8580,7 +8629,7 @@
       </c>
       <c r="G90" s="118">
         <f>_xll.qlRateHelperQuoteValue($E90,Trigger)</f>
-        <v>1.4649999999999998E-2</v>
+        <v>1.3050000000000001E-2</v>
       </c>
       <c r="H90" s="118">
         <f>_xll.qlSwapRateHelperSpread($E90,Trigger)</f>
@@ -8597,11 +8646,11 @@
       </c>
       <c r="L90" s="119">
         <f>_xll.qlRateHelperEarliestDate($E90,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M90" s="120">
         <f>_xll.qlRateHelperLatestDate($E90,Trigger)</f>
-        <v>51081</v>
+        <v>51134</v>
       </c>
     </row>
     <row r="91" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8617,7 +8666,7 @@
       </c>
       <c r="E91" s="117" t="str">
         <f>Swaps!K33</f>
-        <v>obj_00331#0001</v>
+        <v>obj_00364#0002</v>
       </c>
       <c r="F91" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E91),"LastFixing","D"),"Libor","")</f>
@@ -8642,11 +8691,11 @@
       </c>
       <c r="L91" s="119">
         <f>_xll.qlRateHelperEarliestDate($E91,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M91" s="120">
         <f>_xll.qlRateHelperLatestDate($E91,Trigger)</f>
-        <v>51445</v>
+        <v>51498</v>
       </c>
     </row>
     <row r="92" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8662,7 +8711,7 @@
       </c>
       <c r="E92" s="117" t="str">
         <f>Swaps!K34</f>
-        <v>obj_00372#0001</v>
+        <v>obj_00369#0002</v>
       </c>
       <c r="F92" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E92),"LastFixing","D"),"Libor","")</f>
@@ -8687,11 +8736,11 @@
       </c>
       <c r="L92" s="119">
         <f>_xll.qlRateHelperEarliestDate($E92,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M92" s="120">
         <f>_xll.qlRateHelperLatestDate($E92,Trigger)</f>
-        <v>51810</v>
+        <v>51865</v>
       </c>
     </row>
     <row r="93" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8707,7 +8756,7 @@
       </c>
       <c r="E93" s="117" t="str">
         <f>Swaps!K35</f>
-        <v>obj_00342#0001</v>
+        <v>obj_00338#0002</v>
       </c>
       <c r="F93" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E93),"LastFixing","D"),"Libor","")</f>
@@ -8732,11 +8781,11 @@
       </c>
       <c r="L93" s="119">
         <f>_xll.qlRateHelperEarliestDate($E93,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M93" s="120">
         <f>_xll.qlRateHelperLatestDate($E93,Trigger)</f>
-        <v>52175</v>
+        <v>52230</v>
       </c>
     </row>
     <row r="94" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8752,7 +8801,7 @@
       </c>
       <c r="E94" s="117" t="str">
         <f>Swaps!K36</f>
-        <v>obj_0032c#0001</v>
+        <v>obj_0032c#0002</v>
       </c>
       <c r="F94" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E94),"LastFixing","D"),"Libor","")</f>
@@ -8777,11 +8826,11 @@
       </c>
       <c r="L94" s="119">
         <f>_xll.qlRateHelperEarliestDate($E94,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M94" s="120">
         <f>_xll.qlRateHelperLatestDate($E94,Trigger)</f>
-        <v>52540</v>
+        <v>52595</v>
       </c>
     </row>
     <row r="95" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8797,7 +8846,7 @@
       </c>
       <c r="E95" s="117" t="str">
         <f>Swaps!K37</f>
-        <v>obj_00377#0001</v>
+        <v>obj_00341#0002</v>
       </c>
       <c r="F95" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E95),"LastFixing","D"),"Libor","")</f>
@@ -8805,7 +8854,7 @@
       </c>
       <c r="G95" s="118">
         <f>_xll.qlRateHelperQuoteValue($E95,Trigger)</f>
-        <v>1.55E-2</v>
+        <v>1.3824999999999999E-2</v>
       </c>
       <c r="H95" s="118">
         <f>_xll.qlSwapRateHelperSpread($E95,Trigger)</f>
@@ -8822,11 +8871,11 @@
       </c>
       <c r="L95" s="119">
         <f>_xll.qlRateHelperEarliestDate($E95,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M95" s="120">
         <f>_xll.qlRateHelperLatestDate($E95,Trigger)</f>
-        <v>52908</v>
+        <v>52961</v>
       </c>
     </row>
     <row r="96" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8842,7 +8891,7 @@
       </c>
       <c r="E96" s="117" t="str">
         <f>Swaps!K38</f>
-        <v>obj_0033b#0001</v>
+        <v>obj_0033d#0002</v>
       </c>
       <c r="F96" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E96),"LastFixing","D"),"Libor","")</f>
@@ -8867,11 +8916,11 @@
       </c>
       <c r="L96" s="119">
         <f>_xll.qlRateHelperEarliestDate($E96,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M96" s="120">
         <f>_xll.qlRateHelperLatestDate($E96,Trigger)</f>
-        <v>54732</v>
+        <v>54787</v>
       </c>
     </row>
     <row r="97" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8887,7 +8936,7 @@
       </c>
       <c r="E97" s="117" t="str">
         <f>Swaps!K39</f>
-        <v>obj_0033a#0001</v>
+        <v>obj_00337#0002</v>
       </c>
       <c r="F97" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E97),"LastFixing","D"),"Libor","")</f>
@@ -8912,11 +8961,11 @@
       </c>
       <c r="L97" s="119">
         <f>_xll.qlRateHelperEarliestDate($E97,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M97" s="120">
         <f>_xll.qlRateHelperLatestDate($E97,Trigger)</f>
-        <v>56558</v>
+        <v>56613</v>
       </c>
     </row>
     <row r="98" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8932,7 +8981,7 @@
       </c>
       <c r="E98" s="117" t="str">
         <f>Swaps!K40</f>
-        <v>obj_00365#0001</v>
+        <v>obj_00333#0002</v>
       </c>
       <c r="F98" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E98),"LastFixing","D"),"Libor","")</f>
@@ -8957,11 +9006,11 @@
       </c>
       <c r="L98" s="119">
         <f>_xll.qlRateHelperEarliestDate($E98,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M98" s="120">
         <f>_xll.qlRateHelperLatestDate($E98,Trigger)</f>
-        <v>60211</v>
+        <v>60266</v>
       </c>
     </row>
     <row r="99" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8977,7 +9026,7 @@
       </c>
       <c r="E99" s="117" t="str">
         <f>Swaps!K41</f>
-        <v>obj_00363#0001</v>
+        <v>obj_00366#0002</v>
       </c>
       <c r="F99" s="117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(E99),"LastFixing","D"),"Libor","")</f>
@@ -9002,11 +9051,11 @@
       </c>
       <c r="L99" s="125">
         <f>_xll.qlRateHelperEarliestDate($E99,Trigger)</f>
-        <v>41948</v>
+        <v>42003</v>
       </c>
       <c r="M99" s="126">
         <f>_xll.qlRateHelperLatestDate($E99,Trigger)</f>
-        <v>63863</v>
+        <v>63916</v>
       </c>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
@@ -9069,9 +9118,9 @@
       <c r="I1" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="75" t="e">
+      <c r="J1" s="75">
         <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>#VALUE!</v>
+        <v>5.3593891239512345E-4</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -9081,32 +9130,32 @@
       <c r="B2" s="192">
         <v>0</v>
       </c>
-      <c r="D2" s="76" t="e">
+      <c r="D2" s="76" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" s="76" t="e">
+        <v>obj_00320</v>
+      </c>
+      <c r="E2" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D2),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F2" s="77" t="e">
+        <v>JpySWD_Quote</v>
+      </c>
+      <c r="F2" s="77">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>#VALUE!</v>
+        <v>5.2859999999999995E-4</v>
       </c>
       <c r="G2" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
         <v>0</v>
       </c>
-      <c r="H2" s="86" t="e">
+      <c r="H2" s="86">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I2" s="87" t="e">
+        <v>42003</v>
+      </c>
+      <c r="I2" s="87">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J2" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>42010</v>
+      </c>
+      <c r="J2" s="75">
+        <v>5.3593891239512345E-4</v>
       </c>
       <c r="K2" s="78"/>
     </row>
@@ -9117,31 +9166,31 @@
       <c r="B3" s="80">
         <v>0</v>
       </c>
-      <c r="D3" s="76" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E3" s="76" t="e">
+      <c r="D3" s="76" t="str">
+        <v>obj_00326</v>
+      </c>
+      <c r="E3" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D3),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F3" s="77" t="e">
+        <v>Jpy1MD_Quote</v>
+      </c>
+      <c r="F3" s="77">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>#VALUE!</v>
+        <v>7.2859999999999993E-4</v>
       </c>
       <c r="G3" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
         <v>0</v>
       </c>
-      <c r="H3" s="86" t="e">
+      <c r="H3" s="86">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I3" s="87" t="e">
+        <v>42003</v>
+      </c>
+      <c r="I3" s="87">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J3" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>42034</v>
+      </c>
+      <c r="J3" s="75">
+        <v>7.0581669981910518E-4</v>
       </c>
       <c r="K3" s="78"/>
     </row>
@@ -9152,31 +9201,31 @@
       <c r="B4" s="80">
         <v>2</v>
       </c>
-      <c r="D4" s="76" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E4" s="76" t="e">
+      <c r="D4" s="76" t="str">
+        <v>obj_0031c</v>
+      </c>
+      <c r="E4" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D4),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F4" s="77" t="e">
+        <v>Jpy2MD_Quote</v>
+      </c>
+      <c r="F4" s="77">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>#VALUE!</v>
+        <v>9.5E-4</v>
       </c>
       <c r="G4" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
         <v>0</v>
       </c>
-      <c r="H4" s="86" t="e">
+      <c r="H4" s="86">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I4" s="87" t="e">
+        <v>42003</v>
+      </c>
+      <c r="I4" s="87">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J4" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>42062</v>
+      </c>
+      <c r="J4" s="75">
+        <v>9.2368741856078875E-4</v>
       </c>
       <c r="K4" s="78"/>
     </row>
@@ -9187,31 +9236,31 @@
       <c r="B5" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="76" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E5" s="76" t="e">
+      <c r="D5" s="76" t="str">
+        <v>obj_00322</v>
+      </c>
+      <c r="E5" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D5),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F5" s="77" t="e">
+        <v>Jpy3MD_Quote</v>
+      </c>
+      <c r="F5" s="77">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>#VALUE!</v>
+        <v>1.1142999999999999E-3</v>
       </c>
       <c r="G5" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
         <v>0</v>
       </c>
-      <c r="H5" s="86" t="e">
+      <c r="H5" s="86">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I5" s="87" t="e">
+        <v>42003</v>
+      </c>
+      <c r="I5" s="87">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J5" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>42093</v>
+      </c>
+      <c r="J5" s="75">
+        <v>1.0925140455052213E-3</v>
       </c>
       <c r="K5" s="78"/>
     </row>
@@ -9220,469 +9269,469 @@
         <v>51</v>
       </c>
       <c r="B6" s="82" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(Selected!D2)</f>
-        <v>qlRateHelperSelection - ObjectHandler error: attempt to retrieve object with unknown ID 'obj_00322'</v>
-      </c>
-      <c r="D6" s="76" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E6" s="76" t="e">
+        <f>_xll.ohRangeRetrieveError(Selected!D2)</f>
+        <v/>
+      </c>
+      <c r="D6" s="76" t="str">
+        <v>obj_00325</v>
+      </c>
+      <c r="E6" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D6),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F6" s="77" t="e">
+        <v>Jpy6MD_Quote</v>
+      </c>
+      <c r="F6" s="77">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>#VALUE!</v>
+        <v>1.4513999999999998E-3</v>
       </c>
       <c r="G6" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
         <v>0</v>
       </c>
-      <c r="H6" s="86" t="e">
+      <c r="H6" s="86">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I6" s="87" t="e">
+        <v>42003</v>
+      </c>
+      <c r="I6" s="87">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J6" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>42185</v>
+      </c>
+      <c r="J6" s="75">
+        <v>1.4411757372655499E-3</v>
       </c>
       <c r="K6" s="78"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D7" s="76" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E7" s="76" t="e">
+      <c r="D7" s="76" t="str">
+        <v>obj_00329</v>
+      </c>
+      <c r="E7" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D7),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F7" s="77" t="e">
+        <v>JPYSB6L1Y_Quote</v>
+      </c>
+      <c r="F7" s="77">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>#VALUE!</v>
+        <v>1.4250000000000001E-3</v>
       </c>
       <c r="G7" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
         <v>0</v>
       </c>
-      <c r="H7" s="86" t="e">
+      <c r="H7" s="86">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I7" s="87" t="e">
+        <v>42003</v>
+      </c>
+      <c r="I7" s="87">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J7" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>42368</v>
+      </c>
+      <c r="J7" s="75">
+        <v>1.4101062237897141E-3</v>
       </c>
       <c r="K7" s="78"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D8" s="76" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E8" s="76" t="e">
+      <c r="D8" s="76" t="str">
+        <v>obj_00370</v>
+      </c>
+      <c r="E8" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D8),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F8" s="77" t="e">
+        <v>JPYSB6L18M_Quote</v>
+      </c>
+      <c r="F8" s="77">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>#VALUE!</v>
+        <v>1.4250000000000001E-3</v>
       </c>
       <c r="G8" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
         <v>0</v>
       </c>
-      <c r="H8" s="86" t="e">
+      <c r="H8" s="86">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I8" s="87" t="e">
+        <v>42003</v>
+      </c>
+      <c r="I8" s="87">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J8" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>42551</v>
+      </c>
+      <c r="J8" s="75">
+        <v>1.4148579381860508E-3</v>
       </c>
       <c r="K8" s="78"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D9" s="76" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E9" s="76" t="e">
+      <c r="D9" s="76" t="str">
+        <v>obj_00361</v>
+      </c>
+      <c r="E9" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D9),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F9" s="77" t="e">
+        <v>JPYSB6L3Y_Quote</v>
+      </c>
+      <c r="F9" s="77">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>#VALUE!</v>
+        <v>1.5249999999999999E-3</v>
       </c>
       <c r="G9" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
         <v>0</v>
       </c>
-      <c r="H9" s="86" t="e">
+      <c r="H9" s="86">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I9" s="87" t="e">
+        <v>42003</v>
+      </c>
+      <c r="I9" s="87">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J9" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>43098</v>
+      </c>
+      <c r="J9" s="75">
+        <v>1.5191576859674095E-3</v>
       </c>
       <c r="K9" s="78"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D10" s="76" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E10" s="76" t="e">
+      <c r="D10" s="76" t="str">
+        <v>obj_00358</v>
+      </c>
+      <c r="E10" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D10),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F10" s="77" t="e">
+        <v>JPYSB6L4Y_Quote</v>
+      </c>
+      <c r="F10" s="77">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>#VALUE!</v>
+        <v>1.7750000000000001E-3</v>
       </c>
       <c r="G10" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
         <v>0</v>
       </c>
-      <c r="H10" s="86" t="e">
+      <c r="H10" s="86">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I10" s="87" t="e">
+        <v>42003</v>
+      </c>
+      <c r="I10" s="87">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J10" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>43462</v>
+      </c>
+      <c r="J10" s="75">
+        <v>1.7699294984106981E-3</v>
       </c>
       <c r="K10" s="78"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D11" s="76" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E11" s="76" t="e">
+      <c r="D11" s="76" t="str">
+        <v>obj_00373</v>
+      </c>
+      <c r="E11" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D11),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F11" s="77" t="e">
+        <v>JPYSB6L5Y_Quote</v>
+      </c>
+      <c r="F11" s="77">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>#VALUE!</v>
+        <v>2.1749999999999999E-3</v>
       </c>
       <c r="G11" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
         <v>0</v>
       </c>
-      <c r="H11" s="86" t="e">
+      <c r="H11" s="86">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I11" s="87" t="e">
+        <v>42003</v>
+      </c>
+      <c r="I11" s="87">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J11" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>43829</v>
+      </c>
+      <c r="J11" s="75">
+        <v>2.1709841407449876E-3</v>
       </c>
       <c r="K11" s="78"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D12" s="76" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E12" s="76" t="e">
+      <c r="D12" s="76" t="str">
+        <v>obj_00359</v>
+      </c>
+      <c r="E12" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D12),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F12" s="77" t="e">
+        <v>JPYSB6L6Y_Quote</v>
+      </c>
+      <c r="F12" s="77">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>#VALUE!</v>
+        <v>2.6749999999999994E-3</v>
       </c>
       <c r="G12" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
         <v>0</v>
       </c>
-      <c r="H12" s="86" t="e">
+      <c r="H12" s="86">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I12" s="87" t="e">
+        <v>42003</v>
+      </c>
+      <c r="I12" s="87">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J12" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>44195</v>
+      </c>
+      <c r="J12" s="75">
+        <v>2.6733549286184384E-3</v>
       </c>
       <c r="K12" s="78"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D13" s="76" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E13" s="76" t="e">
+      <c r="D13" s="76" t="str">
+        <v>obj_00363</v>
+      </c>
+      <c r="E13" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D13),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F13" s="77" t="e">
+        <v>JPYSB6L7Y_Quote</v>
+      </c>
+      <c r="F13" s="77">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>#VALUE!</v>
+        <v>3.2500000000000003E-3</v>
       </c>
       <c r="G13" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
         <v>0</v>
       </c>
-      <c r="H13" s="86" t="e">
+      <c r="H13" s="86">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I13" s="87" t="e">
+        <v>42003</v>
+      </c>
+      <c r="I13" s="87">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J13" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>44560</v>
+      </c>
+      <c r="J13" s="75">
+        <v>3.2529296428579092E-3</v>
       </c>
       <c r="K13" s="78"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D14" s="76" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E14" s="76" t="e">
+      <c r="D14" s="76" t="str">
+        <v>obj_0035f</v>
+      </c>
+      <c r="E14" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D14),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F14" s="77" t="e">
+        <v>JPYSB6L8Y_Quote</v>
+      </c>
+      <c r="F14" s="77">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>#VALUE!</v>
+        <v>3.875E-3</v>
       </c>
       <c r="G14" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
         <v>0</v>
       </c>
-      <c r="H14" s="86" t="e">
+      <c r="H14" s="86">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I14" s="87" t="e">
+        <v>42003</v>
+      </c>
+      <c r="I14" s="87">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J14" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>44925</v>
+      </c>
+      <c r="J14" s="75">
+        <v>3.8854849137784802E-3</v>
       </c>
       <c r="K14" s="78"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D15" s="76" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E15" s="76" t="e">
+      <c r="D15" s="76" t="str">
+        <v>obj_0033e</v>
+      </c>
+      <c r="E15" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D15),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F15" s="77" t="e">
+        <v>JPYSB6L9Y_Quote</v>
+      </c>
+      <c r="F15" s="77">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>#VALUE!</v>
+        <v>4.5499999999999994E-3</v>
       </c>
       <c r="G15" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
         <v>0</v>
       </c>
-      <c r="H15" s="86" t="e">
+      <c r="H15" s="86">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I15" s="87" t="e">
+        <v>42003</v>
+      </c>
+      <c r="I15" s="87">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J15" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>45289</v>
+      </c>
+      <c r="J15" s="75">
+        <v>4.572114635070978E-3</v>
       </c>
       <c r="K15" s="78"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D16" s="76" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E16" s="76" t="e">
+      <c r="D16" s="76" t="str">
+        <v>obj_00372</v>
+      </c>
+      <c r="E16" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D16),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F16" s="77" t="e">
+        <v>JPYSB6L10Y_Quote</v>
+      </c>
+      <c r="F16" s="77">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>#VALUE!</v>
+        <v>5.2249999999999996E-3</v>
       </c>
       <c r="G16" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
         <v>0</v>
       </c>
-      <c r="H16" s="86" t="e">
+      <c r="H16" s="86">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I16" s="87" t="e">
+        <v>42003</v>
+      </c>
+      <c r="I16" s="87">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J16" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>45656</v>
+      </c>
+      <c r="J16" s="75">
+        <v>5.2626010378304935E-3</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D17" s="76" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E17" s="76" t="e">
+      <c r="D17" s="76" t="str">
+        <v>obj_0034d</v>
+      </c>
+      <c r="E17" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D17),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F17" s="77" t="e">
+        <v>JPYSB6L12Y_Quote</v>
+      </c>
+      <c r="F17" s="77">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>#VALUE!</v>
+        <v>6.5999999999999991E-3</v>
       </c>
       <c r="G17" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
         <v>0</v>
       </c>
-      <c r="H17" s="86" t="e">
+      <c r="H17" s="86">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I17" s="87" t="e">
+        <v>42003</v>
+      </c>
+      <c r="I17" s="87">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J17" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>46386</v>
+      </c>
+      <c r="J17" s="75">
+        <v>6.6835331275429486E-3</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D18" s="76" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E18" s="76" t="e">
+      <c r="D18" s="76" t="str">
+        <v>obj_0034b</v>
+      </c>
+      <c r="E18" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D18),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F18" s="77" t="e">
+        <v>JPYSB6L15Y_Quote</v>
+      </c>
+      <c r="F18" s="77">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>#VALUE!</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="G18" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
         <v>0</v>
       </c>
-      <c r="H18" s="86" t="e">
+      <c r="H18" s="86">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I18" s="87" t="e">
+        <v>42003</v>
+      </c>
+      <c r="I18" s="87">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J18" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>47480</v>
+      </c>
+      <c r="J18" s="75">
+        <v>9.0079998237183809E-3</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D19" s="76" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E19" s="76" t="e">
+      <c r="D19" s="76" t="str">
+        <v>obj_00356</v>
+      </c>
+      <c r="E19" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D19),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F19" s="77" t="e">
+        <v>JPYSB6L20Y_Quote</v>
+      </c>
+      <c r="F19" s="77">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>#VALUE!</v>
+        <v>1.1575E-2</v>
       </c>
       <c r="G19" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
         <v>0</v>
       </c>
-      <c r="H19" s="86" t="e">
+      <c r="H19" s="86">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I19" s="87" t="e">
+        <v>42003</v>
+      </c>
+      <c r="I19" s="87">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J19" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>49307</v>
+      </c>
+      <c r="J19" s="75">
+        <v>1.2045876520181775E-2</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D20" s="76" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E20" s="76" t="e">
+      <c r="D20" s="76" t="str">
+        <v>obj_00357</v>
+      </c>
+      <c r="E20" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D20),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F20" s="77" t="e">
+        <v>JPYSB6L25Y_Quote</v>
+      </c>
+      <c r="F20" s="77">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>#VALUE!</v>
+        <v>1.3050000000000001E-2</v>
       </c>
       <c r="G20" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
         <v>0</v>
       </c>
-      <c r="H20" s="86" t="e">
+      <c r="H20" s="86">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I20" s="87" t="e">
+        <v>42003</v>
+      </c>
+      <c r="I20" s="87">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J20" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>51134</v>
+      </c>
+      <c r="J20" s="75">
+        <v>1.3697570922766415E-2</v>
       </c>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D21" s="76" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E21" s="76" t="e">
+      <c r="D21" s="76" t="str">
+        <v>obj_00341</v>
+      </c>
+      <c r="E21" s="76" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D21),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F21" s="77" t="e">
+        <v>JPYSB6L30Y_Quote</v>
+      </c>
+      <c r="F21" s="77">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>#VALUE!</v>
+        <v>1.3824999999999999E-2</v>
       </c>
       <c r="G21" s="77">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
         <v>0</v>
       </c>
-      <c r="H21" s="86" t="e">
+      <c r="H21" s="86">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I21" s="87" t="e">
+        <v>42003</v>
+      </c>
+      <c r="I21" s="87">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J21" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>52961</v>
+      </c>
+      <c r="J21" s="75">
+        <v>1.4556954057314556E-2</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D22" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E22" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D22),"LastFixing","D"),"Libor","")</f>
@@ -9705,12 +9754,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J22" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D23" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E23" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D23),"LastFixing","D"),"Libor","")</f>
@@ -9733,12 +9782,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J23" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D24" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E24" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D24),"LastFixing","D"),"Libor","")</f>
@@ -9761,12 +9810,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J24" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D25" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E25" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D25),"LastFixing","D"),"Libor","")</f>
@@ -9789,12 +9838,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J25" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D26" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E26" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D26),"LastFixing","D"),"Libor","")</f>
@@ -9817,12 +9866,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J26" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D27" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E27" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D27),"LastFixing","D"),"Libor","")</f>
@@ -9845,12 +9894,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J27" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D28" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E28" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D28),"LastFixing","D"),"Libor","")</f>
@@ -9873,12 +9922,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J28" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D29" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E29" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D29),"LastFixing","D"),"Libor","")</f>
@@ -9901,12 +9950,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J29" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D30" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E30" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D30),"LastFixing","D"),"Libor","")</f>
@@ -9929,12 +9978,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J30" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D31" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E31" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D31),"LastFixing","D"),"Libor","")</f>
@@ -9957,12 +10006,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J31" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D32" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E32" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D32),"LastFixing","D"),"Libor","")</f>
@@ -9985,12 +10034,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J32" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D33" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E33" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D33),"LastFixing","D"),"Libor","")</f>
@@ -10013,12 +10062,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J33" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D34" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E34" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D34),"LastFixing","D"),"Libor","")</f>
@@ -10041,12 +10090,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J34" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D35" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E35" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D35),"LastFixing","D"),"Libor","")</f>
@@ -10069,12 +10118,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J35" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="36" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D36" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E36" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D36),"LastFixing","D"),"Libor","")</f>
@@ -10097,12 +10146,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J36" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D37" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E37" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D37),"LastFixing","D"),"Libor","")</f>
@@ -10125,12 +10174,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J37" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D38" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E38" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D38),"LastFixing","D"),"Libor","")</f>
@@ -10153,12 +10202,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J38" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D39" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E39" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D39),"LastFixing","D"),"Libor","")</f>
@@ -10181,12 +10230,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J39" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D40" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E40" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D40),"LastFixing","D"),"Libor","")</f>
@@ -10209,12 +10258,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J40" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D41" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E41" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D41),"LastFixing","D"),"Libor","")</f>
@@ -10237,12 +10286,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J41" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D42" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E42" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D42),"LastFixing","D"),"Libor","")</f>
@@ -10265,12 +10314,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J42" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D43" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E43" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D43),"LastFixing","D"),"Libor","")</f>
@@ -10293,12 +10342,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J43" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D44" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E44" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D44),"LastFixing","D"),"Libor","")</f>
@@ -10321,12 +10370,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J44" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D45" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E45" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D45),"LastFixing","D"),"Libor","")</f>
@@ -10349,12 +10398,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J45" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D46" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E46" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D46),"LastFixing","D"),"Libor","")</f>
@@ -10377,12 +10426,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J46" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D47" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E47" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D47),"LastFixing","D"),"Libor","")</f>
@@ -10405,12 +10454,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J47" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="48" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D48" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E48" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D48),"LastFixing","D"),"Libor","")</f>
@@ -10433,12 +10482,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J48" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="49" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D49" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E49" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D49),"LastFixing","D"),"Libor","")</f>
@@ -10461,12 +10510,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J49" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D50" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E50" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D50),"LastFixing","D"),"Libor","")</f>
@@ -10489,12 +10538,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J50" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D51" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E51" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D51),"LastFixing","D"),"Libor","")</f>
@@ -10517,12 +10566,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J51" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D52" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E52" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D52),"LastFixing","D"),"Libor","")</f>
@@ -10545,12 +10594,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J52" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D53" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E53" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D53),"LastFixing","D"),"Libor","")</f>
@@ -10573,12 +10622,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J53" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D54" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E54" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D54),"LastFixing","D"),"Libor","")</f>
@@ -10601,12 +10650,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J54" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D55" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E55" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D55),"LastFixing","D"),"Libor","")</f>
@@ -10629,12 +10678,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J55" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="56" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D56" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E56" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D56),"LastFixing","D"),"Libor","")</f>
@@ -10657,12 +10706,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J56" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="57" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D57" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E57" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D57),"LastFixing","D"),"Libor","")</f>
@@ -10685,12 +10734,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J57" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="58" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D58" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E58" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D58),"LastFixing","D"),"Libor","")</f>
@@ -10713,12 +10762,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J58" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="59" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D59" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E59" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D59),"LastFixing","D"),"Libor","")</f>
@@ -10741,12 +10790,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J59" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="60" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D60" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E60" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D60),"LastFixing","D"),"Libor","")</f>
@@ -10769,12 +10818,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J60" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D61" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E61" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D61),"LastFixing","D"),"Libor","")</f>
@@ -10797,12 +10846,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J61" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="62" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D62" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E62" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D62),"LastFixing","D"),"Libor","")</f>
@@ -10825,12 +10874,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J62" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="63" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D63" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E63" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D63),"LastFixing","D"),"Libor","")</f>
@@ -10853,12 +10902,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J63" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="64" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D64" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E64" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D64),"LastFixing","D"),"Libor","")</f>
@@ -10881,12 +10930,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J64" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="65" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D65" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E65" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D65),"LastFixing","D"),"Libor","")</f>
@@ -10909,12 +10958,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J65" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="66" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D66" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E66" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D66),"LastFixing","D"),"Libor","")</f>
@@ -10937,12 +10986,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J66" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D67" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E67" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D67),"LastFixing","D"),"Libor","")</f>
@@ -10965,12 +11014,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J67" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="68" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D68" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E68" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D68),"LastFixing","D"),"Libor","")</f>
@@ -10993,12 +11042,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J68" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="69" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D69" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E69" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D69),"LastFixing","D"),"Libor","")</f>
@@ -11021,12 +11070,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J69" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="70" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D70" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E70" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D70),"LastFixing","D"),"Libor","")</f>
@@ -11049,12 +11098,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J70" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="71" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D71" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E71" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D71),"LastFixing","D"),"Libor","")</f>
@@ -11077,12 +11126,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J71" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="72" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D72" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E72" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D72),"LastFixing","D"),"Libor","")</f>
@@ -11105,12 +11154,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J72" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="73" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D73" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E73" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D73),"LastFixing","D"),"Libor","")</f>
@@ -11133,12 +11182,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J73" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="74" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D74" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E74" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D74),"LastFixing","D"),"Libor","")</f>
@@ -11161,12 +11210,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J74" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="75" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D75" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E75" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D75),"LastFixing","D"),"Libor","")</f>
@@ -11189,12 +11238,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J75" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="76" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D76" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E76" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D76),"LastFixing","D"),"Libor","")</f>
@@ -11217,12 +11266,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J76" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="77" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D77" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E77" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D77),"LastFixing","D"),"Libor","")</f>
@@ -11245,12 +11294,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J77" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="78" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D78" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E78" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D78),"LastFixing","D"),"Libor","")</f>
@@ -11273,12 +11322,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J78" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="79" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D79" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E79" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D79),"LastFixing","D"),"Libor","")</f>
@@ -11301,12 +11350,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J79" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="80" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D80" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E80" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D80),"LastFixing","D"),"Libor","")</f>
@@ -11329,12 +11378,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="81" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D81" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E81" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D81),"LastFixing","D"),"Libor","")</f>
@@ -11357,12 +11406,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J81" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="82" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D82" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E82" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D82),"LastFixing","D"),"Libor","")</f>
@@ -11385,12 +11434,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J82" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="83" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D83" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E83" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D83),"LastFixing","D"),"Libor","")</f>
@@ -11413,12 +11462,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J83" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="84" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D84" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E84" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D84),"LastFixing","D"),"Libor","")</f>
@@ -11441,12 +11490,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J84" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="85" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D85" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E85" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D85),"LastFixing","D"),"Libor","")</f>
@@ -11469,12 +11518,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J85" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="86" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D86" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E86" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D86),"LastFixing","D"),"Libor","")</f>
@@ -11497,12 +11546,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J86" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D87" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E87" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D87),"LastFixing","D"),"Libor","")</f>
@@ -11525,12 +11574,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J87" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="88" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D88" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E88" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D88),"LastFixing","D"),"Libor","")</f>
@@ -11553,12 +11602,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J88" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="89" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D89" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E89" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D89),"LastFixing","D"),"Libor","")</f>
@@ -11581,12 +11630,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J89" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="90" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D90" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E90" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D90),"LastFixing","D"),"Libor","")</f>
@@ -11609,12 +11658,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J90" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="91" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D91" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E91" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D91),"LastFixing","D"),"Libor","")</f>
@@ -11637,12 +11686,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J91" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="92" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D92" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E92" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D92),"LastFixing","D"),"Libor","")</f>
@@ -11665,12 +11714,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J92" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D93" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E93" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D93),"LastFixing","D"),"Libor","")</f>
@@ -11693,12 +11742,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J93" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="94" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D94" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E94" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D94),"LastFixing","D"),"Libor","")</f>
@@ -11721,12 +11770,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J94" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="95" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D95" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E95" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D95),"LastFixing","D"),"Libor","")</f>
@@ -11749,12 +11798,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J95" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="96" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D96" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E96" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D96),"LastFixing","D"),"Libor","")</f>
@@ -11777,12 +11826,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J96" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="97" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D97" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E97" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D97),"LastFixing","D"),"Libor","")</f>
@@ -11805,12 +11854,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J97" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="98" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D98" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E98" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D98),"LastFixing","D"),"Libor","")</f>
@@ -11833,12 +11882,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J98" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="99" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D99" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E99" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D99),"LastFixing","D"),"Libor","")</f>
@@ -11861,12 +11910,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J99" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="100" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D100" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E100" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D100),"LastFixing","D"),"Libor","")</f>
@@ -11889,12 +11938,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J100" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="101" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D101" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E101" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D101),"LastFixing","D"),"Libor","")</f>
@@ -11917,12 +11966,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J101" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="102" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D102" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E102" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D102),"LastFixing","D"),"Libor","")</f>
@@ -11945,12 +11994,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J102" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="103" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D103" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E103" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D103),"LastFixing","D"),"Libor","")</f>
@@ -11973,12 +12022,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J103" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="104" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D104" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E104" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D104),"LastFixing","D"),"Libor","")</f>
@@ -12001,12 +12050,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J104" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="105" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D105" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E105" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D105),"LastFixing","D"),"Libor","")</f>
@@ -12029,12 +12078,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J105" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="106" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D106" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E106" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D106),"LastFixing","D"),"Libor","")</f>
@@ -12057,12 +12106,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J106" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="107" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D107" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E107" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D107),"LastFixing","D"),"Libor","")</f>
@@ -12085,12 +12134,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J107" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="108" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D108" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E108" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D108),"LastFixing","D"),"Libor","")</f>
@@ -12113,12 +12162,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J108" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="109" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D109" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E109" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D109),"LastFixing","D"),"Libor","")</f>
@@ -12141,12 +12190,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J109" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="110" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D110" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E110" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D110),"LastFixing","D"),"Libor","")</f>
@@ -12169,12 +12218,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J110" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="111" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D111" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E111" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D111),"LastFixing","D"),"Libor","")</f>
@@ -12197,12 +12246,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J111" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="112" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D112" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E112" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D112),"LastFixing","D"),"Libor","")</f>
@@ -12225,12 +12274,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J112" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="113" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D113" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E113" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D113),"LastFixing","D"),"Libor","")</f>
@@ -12253,12 +12302,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J113" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="114" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D114" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E114" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D114),"LastFixing","D"),"Libor","")</f>
@@ -12281,12 +12330,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J114" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="115" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D115" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E115" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D115),"LastFixing","D"),"Libor","")</f>
@@ -12309,12 +12358,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J115" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="116" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D116" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E116" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D116),"LastFixing","D"),"Libor","")</f>
@@ -12337,12 +12386,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J116" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="117" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D117" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E117" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D117),"LastFixing","D"),"Libor","")</f>
@@ -12365,12 +12414,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J117" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="118" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D118" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E118" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D118),"LastFixing","D"),"Libor","")</f>
@@ -12393,12 +12442,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J118" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="119" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D119" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E119" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D119),"LastFixing","D"),"Libor","")</f>
@@ -12421,12 +12470,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J119" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="120" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D120" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E120" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D120),"LastFixing","D"),"Libor","")</f>
@@ -12449,12 +12498,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J120" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="121" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D121" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E121" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D121),"LastFixing","D"),"Libor","")</f>
@@ -12477,12 +12526,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J121" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="122" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D122" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E122" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D122),"LastFixing","D"),"Libor","")</f>
@@ -12505,12 +12554,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J122" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="123" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D123" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E123" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D123),"LastFixing","D"),"Libor","")</f>
@@ -12533,12 +12582,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J123" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="124" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D124" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E124" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D124),"LastFixing","D"),"Libor","")</f>
@@ -12561,12 +12610,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J124" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="125" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D125" s="76" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E125" s="76" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D125),"LastFixing","D"),"Libor","")</f>
@@ -12589,12 +12638,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="J125" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="126" spans="4:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D126" s="83" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E126" s="83" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D126),"LastFixing","D"),"Libor","")</f>
@@ -12617,7 +12666,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J126" s="75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -12641,7 +12690,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12706,7 +12757,7 @@
       </c>
       <c r="E3" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0032a#0001</v>
+        <v>obj_0032a#0000</v>
       </c>
       <c r="F3" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E3)</f>
@@ -12721,7 +12772,7 @@
       </c>
       <c r="C4" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B4,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031b#0001</v>
+        <v>obj_0031f#0000</v>
       </c>
       <c r="D4" s="52" t="str">
         <f t="shared" ref="D4:D19" si="0">PROPER(Currency)&amp;FamilyName&amp;$B4&amp;"LastFixing"&amp;QuoteSuffix</f>
@@ -12729,7 +12780,7 @@
       </c>
       <c r="E4" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00328#0001</v>
+        <v>obj_00328#0000</v>
       </c>
       <c r="F4" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E4)</f>
@@ -12744,7 +12795,7 @@
       </c>
       <c r="C5" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B5,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030e#0001</v>
+        <v>obj_0030a#0000</v>
       </c>
       <c r="D5" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12752,7 +12803,7 @@
       </c>
       <c r="E5" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00322#0001</v>
+        <v>obj_00320#0000</v>
       </c>
       <c r="F5" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -12767,7 +12818,7 @@
       </c>
       <c r="C6" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B6,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00308#0001</v>
+        <v>obj_0030d#0000</v>
       </c>
       <c r="D6" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12787,7 +12838,7 @@
       </c>
       <c r="C7" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B7,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00307#0001</v>
+        <v>obj_0030b#0000</v>
       </c>
       <c r="D7" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12807,7 +12858,7 @@
       </c>
       <c r="C8" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B8,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030a#0001</v>
+        <v>obj_00311#0000</v>
       </c>
       <c r="D8" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12815,7 +12866,7 @@
       </c>
       <c r="E8" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031d#0001</v>
+        <v>obj_00326#0000</v>
       </c>
       <c r="F8" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -12830,7 +12881,7 @@
       </c>
       <c r="C9" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B9,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030c#0001</v>
+        <v>obj_00306#0000</v>
       </c>
       <c r="D9" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12838,7 +12889,7 @@
       </c>
       <c r="E9" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00320#0001</v>
+        <v>obj_0031c#0000</v>
       </c>
       <c r="F9" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -12853,7 +12904,7 @@
       </c>
       <c r="C10" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B10,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030d#0001</v>
+        <v>obj_00308#0000</v>
       </c>
       <c r="D10" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12861,7 +12912,7 @@
       </c>
       <c r="E10" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00323#0001</v>
+        <v>obj_00322#0000</v>
       </c>
       <c r="F10" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -12876,7 +12927,7 @@
       </c>
       <c r="C11" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B11,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00311#0001</v>
+        <v>obj_00310#0000</v>
       </c>
       <c r="D11" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12896,7 +12947,7 @@
       </c>
       <c r="C12" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B12,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00309#0001</v>
+        <v>obj_0030f#0000</v>
       </c>
       <c r="D12" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12916,7 +12967,7 @@
       </c>
       <c r="C13" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B13,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030f#0001</v>
+        <v>obj_0030c#0000</v>
       </c>
       <c r="D13" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12924,7 +12975,7 @@
       </c>
       <c r="E13" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D13,C13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00316#0001</v>
+        <v>obj_00325#0000</v>
       </c>
       <c r="F13" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -12939,7 +12990,7 @@
       </c>
       <c r="C14" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B14,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00312#0001</v>
+        <v>obj_00312#0000</v>
       </c>
       <c r="D14" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12959,7 +13010,7 @@
       </c>
       <c r="C15" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B15,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00314#0001</v>
+        <v>obj_00307#0000</v>
       </c>
       <c r="D15" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12979,7 +13030,7 @@
       </c>
       <c r="C16" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B16,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00313#0001</v>
+        <v>obj_00314#0000</v>
       </c>
       <c r="D16" s="52" t="str">
         <f t="shared" si="0"/>
@@ -12999,7 +13050,7 @@
       </c>
       <c r="C17" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B17,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00306#0001</v>
+        <v>obj_00309#0000</v>
       </c>
       <c r="D17" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13019,7 +13070,7 @@
       </c>
       <c r="C18" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B18,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00310#0001</v>
+        <v>obj_0030e#0000</v>
       </c>
       <c r="D18" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13039,7 +13090,7 @@
       </c>
       <c r="C19" s="53" t="str">
         <f>_xll.qlLibor(,Currency,B19,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030b#0001</v>
+        <v>obj_00313#0000</v>
       </c>
       <c r="D19" s="52" t="str">
         <f t="shared" si="0"/>
@@ -13047,7 +13098,7 @@
       </c>
       <c r="E19" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,D19,C19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00326#0001</v>
+        <v>obj_00317#0000</v>
       </c>
       <c r="F19" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
@@ -13157,7 +13208,7 @@
       </c>
       <c r="G3" s="187" t="str">
         <f>_xll.qlFraRateHelper(,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031a#0001</v>
+        <v>obj_0031d#0000</v>
       </c>
       <c r="H3" s="188" t="str">
         <f>_xll.ohRangeRetrieveError(G3)</f>
@@ -13188,7 +13239,7 @@
       </c>
       <c r="G4" s="187" t="str">
         <f>_xll.qlFraRateHelper(,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031c#0001</v>
+        <v>obj_00321#0000</v>
       </c>
       <c r="H4" s="188" t="str">
         <f>_xll.ohRangeRetrieveError(G4)</f>
@@ -13219,7 +13270,7 @@
       </c>
       <c r="G5" s="187" t="str">
         <f>_xll.qlFraRateHelper(,F5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00318#0001</v>
+        <v>obj_00318#0000</v>
       </c>
       <c r="H5" s="188" t="str">
         <f>_xll.ohRangeRetrieveError(G5)</f>
@@ -13250,7 +13301,7 @@
       </c>
       <c r="G6" s="187" t="str">
         <f>_xll.qlFraRateHelper(,F6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00321#0001</v>
+        <v>obj_0031e#0000</v>
       </c>
       <c r="H6" s="188" t="str">
         <f>_xll.ohRangeRetrieveError(G6)</f>
@@ -13281,7 +13332,7 @@
       </c>
       <c r="G7" s="187" t="str">
         <f>_xll.qlFraRateHelper(,F7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031e#0001</v>
+        <v>obj_00316#0000</v>
       </c>
       <c r="H7" s="188" t="str">
         <f>_xll.ohRangeRetrieveError(G7)</f>
@@ -13312,7 +13363,7 @@
       </c>
       <c r="G8" s="187" t="str">
         <f>_xll.qlFraRateHelper(,F8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00324#0001</v>
+        <v>obj_00324#0000</v>
       </c>
       <c r="H8" s="188" t="str">
         <f>_xll.ohRangeRetrieveError(G8)</f>
@@ -13343,7 +13394,7 @@
       </c>
       <c r="G9" s="187" t="str">
         <f>_xll.qlFraRateHelper(,F9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00319#0001</v>
+        <v>obj_0031b#0000</v>
       </c>
       <c r="H9" s="188" t="str">
         <f>_xll.ohRangeRetrieveError(G9)</f>
@@ -13374,7 +13425,7 @@
       </c>
       <c r="G10" s="187" t="str">
         <f>_xll.qlFraRateHelper(,F10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00325#0001</v>
+        <v>obj_00327#0000</v>
       </c>
       <c r="H10" s="188" t="str">
         <f>_xll.ohRangeRetrieveError(G10)</f>
@@ -13405,7 +13456,7 @@
       </c>
       <c r="G11" s="187" t="str">
         <f>_xll.qlFraRateHelper(,F11,B11,E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00327#0001</v>
+        <v>obj_0031a#0000</v>
       </c>
       <c r="H11" s="188" t="str">
         <f>_xll.ohRangeRetrieveError(G11)</f>
@@ -13436,7 +13487,7 @@
       </c>
       <c r="G12" s="187" t="str">
         <f>_xll.qlFraRateHelper(,F12,B12,E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00317#0001</v>
+        <v>obj_00315#0000</v>
       </c>
       <c r="H12" s="188" t="str">
         <f>_xll.ohRangeRetrieveError(G12)</f>
@@ -13467,7 +13518,7 @@
       </c>
       <c r="G13" s="187" t="str">
         <f>_xll.qlFraRateHelper(,F13,B13,E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031f#0001</v>
+        <v>obj_00319#0000</v>
       </c>
       <c r="H13" s="188" t="str">
         <f>_xll.ohRangeRetrieveError(G13)</f>
@@ -13578,7 +13629,7 @@
       </c>
       <c r="D3" s="156" t="str">
         <f t="array" ref="D3:D44">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C3:$C44)</f>
-        <v>X4</v>
+        <v>F5</v>
       </c>
       <c r="E3" s="156" t="str">
         <f t="shared" ref="E3:E34" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
@@ -13586,15 +13637,15 @@
       </c>
       <c r="F3" s="157" t="str">
         <f t="shared" ref="F3:F34" si="1">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
-        <v>JPYFUT3MX4_Quote</v>
+        <v>JPYFUT3MF5_Quote</v>
       </c>
       <c r="G3" s="157" t="str">
         <f t="shared" ref="G3:G34" si="2">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>JPYFUT3MX4ConvAdj_Quote</v>
+        <v>JPYFUT3MF5ConvAdj_Quote</v>
       </c>
       <c r="H3" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00335#0001</v>
+        <v>obj_00342#0000</v>
       </c>
       <c r="I3" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -13612,7 +13663,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="160" t="str">
-        <v>Z4</v>
+        <v>G5</v>
       </c>
       <c r="E4" s="156" t="str">
         <f t="shared" si="0"/>
@@ -13620,15 +13671,15 @@
       </c>
       <c r="F4" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ4_Quote</v>
+        <v>JPYFUT3MG5_Quote</v>
       </c>
       <c r="G4" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MZ4ConvAdj_Quote</v>
+        <v>JPYFUT3MG5ConvAdj_Quote</v>
       </c>
       <c r="H4" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034f#0001</v>
+        <v>obj_00365#0000</v>
       </c>
       <c r="I4" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -13646,7 +13697,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="160" t="str">
-        <v>F5</v>
+        <v>H5</v>
       </c>
       <c r="E5" s="156" t="str">
         <f t="shared" si="0"/>
@@ -13654,15 +13705,15 @@
       </c>
       <c r="F5" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MF5_Quote</v>
+        <v>JPYFUT3MH5_Quote</v>
       </c>
       <c r="G5" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MF5ConvAdj_Quote</v>
+        <v>JPYFUT3MH5ConvAdj_Quote</v>
       </c>
       <c r="H5" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034d#0001</v>
+        <v>obj_0035d#0000</v>
       </c>
       <c r="I5" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -13680,7 +13731,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="160" t="str">
-        <v>G5</v>
+        <v>J5</v>
       </c>
       <c r="E6" s="156" t="str">
         <f t="shared" si="0"/>
@@ -13688,15 +13739,15 @@
       </c>
       <c r="F6" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MG5_Quote</v>
+        <v>JPYFUT3MJ5_Quote</v>
       </c>
       <c r="G6" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MG5ConvAdj_Quote</v>
+        <v>JPYFUT3MJ5ConvAdj_Quote</v>
       </c>
       <c r="H6" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00336#0001</v>
+        <v>obj_0035c#0000</v>
       </c>
       <c r="I6" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -13714,7 +13765,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="160" t="str">
-        <v>H5</v>
+        <v>K5</v>
       </c>
       <c r="E7" s="156" t="str">
         <f t="shared" si="0"/>
@@ -13722,15 +13773,15 @@
       </c>
       <c r="F7" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH5_Quote</v>
+        <v>JPYFUT3MK5_Quote</v>
       </c>
       <c r="G7" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MH5ConvAdj_Quote</v>
+        <v>JPYFUT3MK5ConvAdj_Quote</v>
       </c>
       <c r="H7" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00332#0001</v>
+        <v>obj_0036d#0000</v>
       </c>
       <c r="I7" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -13748,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="160" t="str">
-        <v>J5</v>
+        <v>M5</v>
       </c>
       <c r="E8" s="156" t="str">
         <f t="shared" si="0"/>
@@ -13756,15 +13807,15 @@
       </c>
       <c r="F8" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MJ5_Quote</v>
+        <v>JPYFUT3MM5_Quote</v>
       </c>
       <c r="G8" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MJ5ConvAdj_Quote</v>
+        <v>JPYFUT3MM5ConvAdj_Quote</v>
       </c>
       <c r="H8" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0032f#0001</v>
+        <v>obj_00348#0000</v>
       </c>
       <c r="I8" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -13782,7 +13833,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="160" t="str">
-        <v>K5</v>
+        <v>N5</v>
       </c>
       <c r="E9" s="156" t="str">
         <f t="shared" si="0"/>
@@ -13790,15 +13841,15 @@
       </c>
       <c r="F9" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MK5_Quote</v>
+        <v>JPYFUT3MN5_Quote</v>
       </c>
       <c r="G9" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MK5ConvAdj_Quote</v>
+        <v>JPYFUT3MN5ConvAdj_Quote</v>
       </c>
       <c r="H9" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00353#0001</v>
+        <v>obj_00355#0000</v>
       </c>
       <c r="I9" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -13816,7 +13867,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="160" t="str">
-        <v>M5</v>
+        <v>Q5</v>
       </c>
       <c r="E10" s="156" t="str">
         <f t="shared" si="0"/>
@@ -13824,15 +13875,15 @@
       </c>
       <c r="F10" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM5_Quote</v>
+        <v>JPYFUT3MQ5_Quote</v>
       </c>
       <c r="G10" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MM5ConvAdj_Quote</v>
+        <v>JPYFUT3MQ5ConvAdj_Quote</v>
       </c>
       <c r="H10" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00330#0001</v>
+        <v>obj_00360#0000</v>
       </c>
       <c r="I10" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -13850,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="160" t="str">
-        <v>N5</v>
+        <v>U5</v>
       </c>
       <c r="E11" s="156" t="str">
         <f t="shared" si="0"/>
@@ -13858,15 +13909,15 @@
       </c>
       <c r="F11" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MN5_Quote</v>
+        <v>JPYFUT3MU5_Quote</v>
       </c>
       <c r="G11" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MN5ConvAdj_Quote</v>
+        <v>JPYFUT3MU5ConvAdj_Quote</v>
       </c>
       <c r="H11" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00374#0001</v>
+        <v>obj_00376#0000</v>
       </c>
       <c r="I11" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -13884,7 +13935,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="160" t="str">
-        <v>Q5</v>
+        <v>V5</v>
       </c>
       <c r="E12" s="156" t="str">
         <f t="shared" si="0"/>
@@ -13892,15 +13943,15 @@
       </c>
       <c r="F12" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MQ5_Quote</v>
+        <v>JPYFUT3MV5_Quote</v>
       </c>
       <c r="G12" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MQ5ConvAdj_Quote</v>
+        <v>JPYFUT3MV5ConvAdj_Quote</v>
       </c>
       <c r="H12" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035f#0001</v>
+        <v>obj_00332#0000</v>
       </c>
       <c r="I12" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -13918,7 +13969,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="160" t="str">
-        <v>U5</v>
+        <v>X5</v>
       </c>
       <c r="E13" s="156" t="str">
         <f t="shared" si="0"/>
@@ -13926,15 +13977,15 @@
       </c>
       <c r="F13" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU5_Quote</v>
+        <v>JPYFUT3MX5_Quote</v>
       </c>
       <c r="G13" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MU5ConvAdj_Quote</v>
+        <v>JPYFUT3MX5ConvAdj_Quote</v>
       </c>
       <c r="H13" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00368#0001</v>
+        <v>obj_00346#0000</v>
       </c>
       <c r="I13" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -13952,7 +14003,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="160" t="str">
-        <v>V5</v>
+        <v>Z5</v>
       </c>
       <c r="E14" s="156" t="str">
         <f t="shared" si="0"/>
@@ -13960,15 +14011,15 @@
       </c>
       <c r="F14" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MV5_Quote</v>
+        <v>JPYFUT3MZ5_Quote</v>
       </c>
       <c r="G14" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MV5ConvAdj_Quote</v>
+        <v>JPYFUT3MZ5ConvAdj_Quote</v>
       </c>
       <c r="H14" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00345#0001</v>
+        <v>obj_0034a#0000</v>
       </c>
       <c r="I14" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
@@ -13986,7 +14037,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="160" t="str">
-        <v>Z5</v>
+        <v>H6</v>
       </c>
       <c r="E15" s="156" t="str">
         <f t="shared" si="0"/>
@@ -13994,15 +14045,15 @@
       </c>
       <c r="F15" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ5_Quote</v>
+        <v>JPYFUT3MH6_Quote</v>
       </c>
       <c r="G15" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MZ5ConvAdj_Quote</v>
+        <v>JPYFUT3MH6ConvAdj_Quote</v>
       </c>
       <c r="H15" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00358#0001</v>
+        <v>obj_00331#0000</v>
       </c>
       <c r="I15" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
@@ -14020,7 +14071,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="160" t="str">
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="E16" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14028,15 +14079,15 @@
       </c>
       <c r="F16" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH6_Quote</v>
+        <v>JPYFUT3MM6_Quote</v>
       </c>
       <c r="G16" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MH6ConvAdj_Quote</v>
+        <v>JPYFUT3MM6ConvAdj_Quote</v>
       </c>
       <c r="H16" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00367#0001</v>
+        <v>obj_00340#0000</v>
       </c>
       <c r="I16" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
@@ -14054,7 +14105,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="160" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="E17" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14062,15 +14113,15 @@
       </c>
       <c r="F17" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM6_Quote</v>
+        <v>JPYFUT3MU6_Quote</v>
       </c>
       <c r="G17" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MM6ConvAdj_Quote</v>
+        <v>JPYFUT3MU6ConvAdj_Quote</v>
       </c>
       <c r="H17" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00349#0001</v>
+        <v>obj_0032f#0000</v>
       </c>
       <c r="I17" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
@@ -14088,7 +14139,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="160" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="E18" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14096,15 +14147,15 @@
       </c>
       <c r="F18" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU6_Quote</v>
+        <v>JPYFUT3MZ6_Quote</v>
       </c>
       <c r="G18" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MU6ConvAdj_Quote</v>
+        <v>JPYFUT3MZ6ConvAdj_Quote</v>
       </c>
       <c r="H18" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034c#0001</v>
+        <v>obj_00344#0000</v>
       </c>
       <c r="I18" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
@@ -14122,7 +14173,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="160" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="E19" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14130,15 +14181,15 @@
       </c>
       <c r="F19" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ6_Quote</v>
+        <v>JPYFUT3MH7_Quote</v>
       </c>
       <c r="G19" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MZ6ConvAdj_Quote</v>
+        <v>JPYFUT3MH7ConvAdj_Quote</v>
       </c>
       <c r="H19" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0033d#0001</v>
+        <v>obj_00349#0000</v>
       </c>
       <c r="I19" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
@@ -14156,7 +14207,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="160" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="E20" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14164,15 +14215,15 @@
       </c>
       <c r="F20" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH7_Quote</v>
+        <v>JPYFUT3MM7_Quote</v>
       </c>
       <c r="G20" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MH7ConvAdj_Quote</v>
+        <v>JPYFUT3MM7ConvAdj_Quote</v>
       </c>
       <c r="H20" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035d#0001</v>
+        <v>obj_00378#0000</v>
       </c>
       <c r="I20" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
@@ -14190,7 +14241,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="160" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="E21" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14198,15 +14249,15 @@
       </c>
       <c r="F21" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM7_Quote</v>
+        <v>JPYFUT3MU7_Quote</v>
       </c>
       <c r="G21" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MM7ConvAdj_Quote</v>
+        <v>JPYFUT3MU7ConvAdj_Quote</v>
       </c>
       <c r="H21" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00347#0001</v>
+        <v>obj_00377#0000</v>
       </c>
       <c r="I21" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
@@ -14224,7 +14275,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="160" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="E22" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14232,15 +14283,15 @@
       </c>
       <c r="F22" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU7_Quote</v>
+        <v>JPYFUT3MZ7_Quote</v>
       </c>
       <c r="G22" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MU7ConvAdj_Quote</v>
+        <v>JPYFUT3MZ7ConvAdj_Quote</v>
       </c>
       <c r="H22" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00359#0001</v>
+        <v>obj_0033f#0000</v>
       </c>
       <c r="I22" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
@@ -14258,7 +14309,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="160" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="E23" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14266,15 +14317,15 @@
       </c>
       <c r="F23" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ7_Quote</v>
+        <v>JPYFUT3MH8_Quote</v>
       </c>
       <c r="G23" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MZ7ConvAdj_Quote</v>
+        <v>JPYFUT3MH8ConvAdj_Quote</v>
       </c>
       <c r="H23" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035b#0001</v>
+        <v>obj_0035e#0000</v>
       </c>
       <c r="I23" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H23)</f>
@@ -14292,7 +14343,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="160" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="E24" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14300,15 +14351,15 @@
       </c>
       <c r="F24" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH8_Quote</v>
+        <v>JPYFUT3MM8_Quote</v>
       </c>
       <c r="G24" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MH8ConvAdj_Quote</v>
+        <v>JPYFUT3MM8ConvAdj_Quote</v>
       </c>
       <c r="H24" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034e#0001</v>
+        <v>obj_00368#0000</v>
       </c>
       <c r="I24" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H24)</f>
@@ -14326,7 +14377,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="160" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="E25" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14334,15 +14385,15 @@
       </c>
       <c r="F25" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM8_Quote</v>
+        <v>JPYFUT3MU8_Quote</v>
       </c>
       <c r="G25" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MM8ConvAdj_Quote</v>
+        <v>JPYFUT3MU8ConvAdj_Quote</v>
       </c>
       <c r="H25" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034a#0001</v>
+        <v>obj_00351#0000</v>
       </c>
       <c r="I25" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H25)</f>
@@ -14360,7 +14411,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="160" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="E26" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14368,15 +14419,15 @@
       </c>
       <c r="F26" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU8_Quote</v>
+        <v>JPYFUT3MZ8_Quote</v>
       </c>
       <c r="G26" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MU8ConvAdj_Quote</v>
+        <v>JPYFUT3MZ8ConvAdj_Quote</v>
       </c>
       <c r="H26" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00334#0001</v>
+        <v>obj_00336#0000</v>
       </c>
       <c r="I26" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H26)</f>
@@ -14394,7 +14445,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="160" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="E27" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14402,15 +14453,15 @@
       </c>
       <c r="F27" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ8_Quote</v>
+        <v>JPYFUT3MH9_Quote</v>
       </c>
       <c r="G27" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MZ8ConvAdj_Quote</v>
+        <v>JPYFUT3MH9ConvAdj_Quote</v>
       </c>
       <c r="H27" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00355#0001</v>
+        <v>obj_00362#0000</v>
       </c>
       <c r="I27" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
@@ -14428,7 +14479,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="160" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="E28" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14436,15 +14487,15 @@
       </c>
       <c r="F28" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH9_Quote</v>
+        <v>JPYFUT3MM9_Quote</v>
       </c>
       <c r="G28" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MH9ConvAdj_Quote</v>
+        <v>JPYFUT3MM9ConvAdj_Quote</v>
       </c>
       <c r="H28" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035c#0001</v>
+        <v>obj_0034e#0000</v>
       </c>
       <c r="I28" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
@@ -14462,7 +14513,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="160" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="E29" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14470,15 +14521,15 @@
       </c>
       <c r="F29" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM9_Quote</v>
+        <v>JPYFUT3MU9_Quote</v>
       </c>
       <c r="G29" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MM9ConvAdj_Quote</v>
+        <v>JPYFUT3MU9ConvAdj_Quote</v>
       </c>
       <c r="H29" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00371#0001</v>
+        <v>obj_0034c#0000</v>
       </c>
       <c r="I29" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H29)</f>
@@ -14496,7 +14547,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="160" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="E30" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14504,15 +14555,15 @@
       </c>
       <c r="F30" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU9_Quote</v>
+        <v>JPYFUT3MZ9_Quote</v>
       </c>
       <c r="G30" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MU9ConvAdj_Quote</v>
+        <v>JPYFUT3MZ9ConvAdj_Quote</v>
       </c>
       <c r="H30" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00364#0001</v>
+        <v>obj_00374#0000</v>
       </c>
       <c r="I30" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H30)</f>
@@ -14530,7 +14581,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="160" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="E31" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14538,15 +14589,15 @@
       </c>
       <c r="F31" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MZ9_Quote</v>
+        <v>JPYFUT3MH0_Quote</v>
       </c>
       <c r="G31" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MZ9ConvAdj_Quote</v>
+        <v>JPYFUT3MH0ConvAdj_Quote</v>
       </c>
       <c r="H31" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00360#0001</v>
+        <v>obj_0033a#0000</v>
       </c>
       <c r="I31" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H31)</f>
@@ -14564,7 +14615,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="160" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="E32" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14572,15 +14623,15 @@
       </c>
       <c r="F32" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MH0_Quote</v>
+        <v>JPYFUT3MM0_Quote</v>
       </c>
       <c r="G32" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MH0ConvAdj_Quote</v>
+        <v>JPYFUT3MM0ConvAdj_Quote</v>
       </c>
       <c r="H32" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035a#0001</v>
+        <v>obj_00345#0000</v>
       </c>
       <c r="I32" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H32)</f>
@@ -14598,7 +14649,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="160" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="E33" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14606,15 +14657,15 @@
       </c>
       <c r="F33" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MM0_Quote</v>
+        <v>JPYFUT3MU0_Quote</v>
       </c>
       <c r="G33" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MM0ConvAdj_Quote</v>
+        <v>JPYFUT3MU0ConvAdj_Quote</v>
       </c>
       <c r="H33" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00340#0001</v>
+        <v>obj_0036f#0000</v>
       </c>
       <c r="I33" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
@@ -14632,7 +14683,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="160" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="E34" s="156" t="str">
         <f t="shared" si="0"/>
@@ -14640,15 +14691,15 @@
       </c>
       <c r="F34" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>JPYFUT3MU0_Quote</v>
+        <v>JPYFUT3MZ0_Quote</v>
       </c>
       <c r="G34" s="157" t="str">
         <f t="shared" si="2"/>
-        <v>JPYFUT3MU0ConvAdj_Quote</v>
+        <v>JPYFUT3MZ0ConvAdj_Quote</v>
       </c>
       <c r="H34" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0032d#0001</v>
+        <v>obj_00353#0000</v>
       </c>
       <c r="I34" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
@@ -14666,7 +14717,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="160" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="E35" s="156" t="str">
         <f t="shared" ref="E35:E44" si="3">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
@@ -14674,15 +14725,15 @@
       </c>
       <c r="F35" s="157" t="str">
         <f t="shared" ref="F35:F44" si="4">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;QuoteSuffix</f>
-        <v>JPYFUT3MZ0_Quote</v>
+        <v>JPYFUT3MH1_Quote</v>
       </c>
       <c r="G35" s="157" t="str">
         <f t="shared" ref="G35:G44" si="5">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>JPYFUT3MZ0ConvAdj_Quote</v>
+        <v>JPYFUT3MH1ConvAdj_Quote</v>
       </c>
       <c r="H35" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00343#0001</v>
+        <v>obj_00354#0000</v>
       </c>
       <c r="I35" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H35)</f>
@@ -14700,7 +14751,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="160" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="E36" s="156" t="str">
         <f t="shared" si="3"/>
@@ -14708,15 +14759,15 @@
       </c>
       <c r="F36" s="157" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MH1_Quote</v>
+        <v>JPYFUT3MM1_Quote</v>
       </c>
       <c r="G36" s="157" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MH1ConvAdj_Quote</v>
+        <v>JPYFUT3MM1ConvAdj_Quote</v>
       </c>
       <c r="H36" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00373#0001</v>
+        <v>obj_0036c#0000</v>
       </c>
       <c r="I36" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H36)</f>
@@ -14734,7 +14785,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="160" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="E37" s="156" t="str">
         <f t="shared" si="3"/>
@@ -14742,15 +14793,15 @@
       </c>
       <c r="F37" s="157" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MM1_Quote</v>
+        <v>JPYFUT3MU1_Quote</v>
       </c>
       <c r="G37" s="157" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MM1ConvAdj_Quote</v>
+        <v>JPYFUT3MU1ConvAdj_Quote</v>
       </c>
       <c r="H37" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036c#0001</v>
+        <v>obj_00375#0000</v>
       </c>
       <c r="I37" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H37)</f>
@@ -14768,7 +14819,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="160" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="E38" s="156" t="str">
         <f t="shared" si="3"/>
@@ -14776,15 +14827,15 @@
       </c>
       <c r="F38" s="157" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MU1_Quote</v>
+        <v>JPYFUT3MZ1_Quote</v>
       </c>
       <c r="G38" s="157" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MU1ConvAdj_Quote</v>
+        <v>JPYFUT3MZ1ConvAdj_Quote</v>
       </c>
       <c r="H38" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00350#0001</v>
+        <v>obj_00371#0000</v>
       </c>
       <c r="I38" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H38)</f>
@@ -14802,7 +14853,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="160" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="E39" s="156" t="str">
         <f t="shared" si="3"/>
@@ -14810,15 +14861,15 @@
       </c>
       <c r="F39" s="157" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MZ1_Quote</v>
+        <v>JPYFUT3MH2_Quote</v>
       </c>
       <c r="G39" s="157" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MZ1ConvAdj_Quote</v>
+        <v>JPYFUT3MH2ConvAdj_Quote</v>
       </c>
       <c r="H39" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00376#0001</v>
+        <v>obj_00352#0000</v>
       </c>
       <c r="I39" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H39)</f>
@@ -14836,7 +14887,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="160" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="E40" s="156" t="str">
         <f t="shared" si="3"/>
@@ -14844,15 +14895,15 @@
       </c>
       <c r="F40" s="157" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MH2_Quote</v>
+        <v>JPYFUT3MM2_Quote</v>
       </c>
       <c r="G40" s="157" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MH2ConvAdj_Quote</v>
+        <v>JPYFUT3MM2ConvAdj_Quote</v>
       </c>
       <c r="H40" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0033c#0001</v>
+        <v>obj_00343#0000</v>
       </c>
       <c r="I40" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H40)</f>
@@ -14869,7 +14920,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="160" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="E41" s="156" t="str">
         <f t="shared" si="3"/>
@@ -14877,15 +14928,15 @@
       </c>
       <c r="F41" s="157" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MM2_Quote</v>
+        <v>JPYFUT3MU2_Quote</v>
       </c>
       <c r="G41" s="157" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MM2ConvAdj_Quote</v>
+        <v>JPYFUT3MU2ConvAdj_Quote</v>
       </c>
       <c r="H41" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00337#0001</v>
+        <v>obj_00367#0000</v>
       </c>
       <c r="I41" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H41)</f>
@@ -14902,7 +14953,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="160" t="str">
-        <v>U2</v>
+        <v>Z2</v>
       </c>
       <c r="E42" s="156" t="str">
         <f t="shared" si="3"/>
@@ -14910,15 +14961,15 @@
       </c>
       <c r="F42" s="157" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MU2_Quote</v>
+        <v>JPYFUT3MZ2_Quote</v>
       </c>
       <c r="G42" s="157" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MU2ConvAdj_Quote</v>
+        <v>JPYFUT3MZ2ConvAdj_Quote</v>
       </c>
       <c r="H42" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00378#0001</v>
+        <v>obj_00347#0000</v>
       </c>
       <c r="I42" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H42)</f>
@@ -14935,7 +14986,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="160" t="str">
-        <v>Z2</v>
+        <v>H3</v>
       </c>
       <c r="E43" s="156" t="str">
         <f t="shared" si="3"/>
@@ -14943,15 +14994,15 @@
       </c>
       <c r="F43" s="157" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MZ2_Quote</v>
+        <v>JPYFUT3MH3_Quote</v>
       </c>
       <c r="G43" s="157" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MZ2ConvAdj_Quote</v>
+        <v>JPYFUT3MH3ConvAdj_Quote</v>
       </c>
       <c r="H43" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00338#0001</v>
+        <v>obj_0034f#0000</v>
       </c>
       <c r="I43" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H43)</f>
@@ -14968,7 +15019,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="160" t="str">
-        <v>H3</v>
+        <v>M3</v>
       </c>
       <c r="E44" s="156" t="str">
         <f t="shared" si="3"/>
@@ -14976,15 +15027,15 @@
       </c>
       <c r="F44" s="157" t="str">
         <f t="shared" si="4"/>
-        <v>JPYFUT3MH3_Quote</v>
+        <v>JPYFUT3MM3_Quote</v>
       </c>
       <c r="G44" s="157" t="str">
         <f t="shared" si="5"/>
-        <v>JPYFUT3MH3ConvAdj_Quote</v>
+        <v>JPYFUT3MM3ConvAdj_Quote</v>
       </c>
       <c r="H44" s="161" t="str">
         <f>_xll.qlFuturesRateHelper(,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00339#0001</v>
+        <v>obj_0036e#0000</v>
       </c>
       <c r="I44" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(H44)</f>
@@ -15108,7 +15159,7 @@
       <c r="J3" s="66"/>
       <c r="K3" s="168" t="str">
         <f>_xll.qlLibor(,Currency,$I$1,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00315#0001</v>
+        <v>obj_00323#0000</v>
       </c>
       <c r="L3" s="169" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
@@ -15166,8 +15217,8 @@
         <v>JPYSB6L1Y_Quote</v>
       </c>
       <c r="K5" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J5,$C5,Calendar,$F5,$G5,$H5,$K$3,$I5,B5,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00329#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J5,$C5,SwapCalendar,$F5,$G5,$H5,$K$3,$I5,B5,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00329#0008</v>
       </c>
       <c r="L5" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
@@ -15213,8 +15264,8 @@
         <v>JPYSB6L15M_Quote</v>
       </c>
       <c r="K6" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$3,$I6,B6,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00341#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J6,$C6,SwapCalendar,$F6,$G6,$H6,$K$3,$I6,B6,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0032e#0002</v>
       </c>
       <c r="L6" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -15264,8 +15315,8 @@
         <v>JPYSB6L18M_Quote</v>
       </c>
       <c r="K7" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$3,$I7,B7,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00348#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J7,$C7,SwapCalendar,$F7,$G7,$H7,$K$3,$I7,B7,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00370#0002</v>
       </c>
       <c r="L7" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -15315,8 +15366,8 @@
         <v>JPYSB6L21M_Quote</v>
       </c>
       <c r="K8" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$3,$I8,B8,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00333#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J8,$C8,SwapCalendar,$F8,$G8,$H8,$K$3,$I8,B8,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0032d#0002</v>
       </c>
       <c r="L8" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -15366,8 +15417,8 @@
         <v>JPYSB6L2Y_Quote</v>
       </c>
       <c r="K9" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$3,$I9,B9,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00351#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J9,$C9,SwapCalendar,$F9,$G9,$H9,$K$3,$I9,B9,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00330#0002</v>
       </c>
       <c r="L9" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -15417,8 +15468,8 @@
         <v>JPYSB6L3Y_Quote</v>
       </c>
       <c r="K10" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$3,$I10,B10,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0033e#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J10,$C10,SwapCalendar,$F10,$G10,$H10,$K$3,$I10,B10,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00361#0002</v>
       </c>
       <c r="L10" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -15459,8 +15510,8 @@
         <v>JPYSB6L4Y_Quote</v>
       </c>
       <c r="K11" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$3,$I11,B11,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0032e#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J11,$C11,SwapCalendar,$F11,$G11,$H11,$K$3,$I11,B11,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00358#0002</v>
       </c>
       <c r="L11" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -15501,8 +15552,8 @@
         <v>JPYSB6L5Y_Quote</v>
       </c>
       <c r="K12" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$3,$I12,B12,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0035e#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J12,$C12,SwapCalendar,$F12,$G12,$H12,$K$3,$I12,B12,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00373#0002</v>
       </c>
       <c r="L12" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -15543,8 +15594,8 @@
         <v>JPYSB6L6Y_Quote</v>
       </c>
       <c r="K13" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$3,$I13,B13,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00344#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J13,$C13,SwapCalendar,$F13,$G13,$H13,$K$3,$I13,B13,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00359#0002</v>
       </c>
       <c r="L13" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -15585,8 +15636,8 @@
         <v>JPYSB6L7Y_Quote</v>
       </c>
       <c r="K14" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$3,$I14,B14,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036a#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J14,$C14,SwapCalendar,$F14,$G14,$H14,$K$3,$I14,B14,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00363#0002</v>
       </c>
       <c r="L14" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -15627,8 +15678,8 @@
         <v>JPYSB6L8Y_Quote</v>
       </c>
       <c r="K15" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$3,$I15,B15,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00369#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J15,$C15,SwapCalendar,$F15,$G15,$H15,$K$3,$I15,B15,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0035f#0002</v>
       </c>
       <c r="L15" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
@@ -15669,8 +15720,8 @@
         <v>JPYSB6L9Y_Quote</v>
       </c>
       <c r="K16" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$3,$I16,B16,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0034b#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J16,$C16,SwapCalendar,$F16,$G16,$H16,$K$3,$I16,B16,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0033e#0002</v>
       </c>
       <c r="L16" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
@@ -15711,8 +15762,8 @@
         <v>JPYSB6L10Y_Quote</v>
       </c>
       <c r="K17" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$3,$I17,B17,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00357#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J17,$C17,SwapCalendar,$F17,$G17,$H17,$K$3,$I17,B17,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00372#0002</v>
       </c>
       <c r="L17" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
@@ -15753,8 +15804,8 @@
         <v>JPYSB6L11Y_Quote</v>
       </c>
       <c r="K18" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$3,$I18,B18,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036e#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J18,$C18,SwapCalendar,$F18,$G18,$H18,$K$3,$I18,B18,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0033c#0002</v>
       </c>
       <c r="L18" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
@@ -15795,8 +15846,8 @@
         <v>JPYSB6L12Y_Quote</v>
       </c>
       <c r="K19" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$3,$I19,B19,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00346#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J19,$C19,SwapCalendar,$F19,$G19,$H19,$K$3,$I19,B19,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0034d#0002</v>
       </c>
       <c r="L19" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
@@ -15837,8 +15888,8 @@
         <v>JPYSB6L13Y_Quote</v>
       </c>
       <c r="K20" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$3,$I20,B20,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0033f#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J20,$C20,SwapCalendar,$F20,$G20,$H20,$K$3,$I20,B20,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0036a#0002</v>
       </c>
       <c r="L20" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
@@ -15879,8 +15930,8 @@
         <v>JPYSB6L14Y_Quote</v>
       </c>
       <c r="K21" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$3,$I21,B21,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00370#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J21,$C21,SwapCalendar,$F21,$G21,$H21,$K$3,$I21,B21,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0035b#0002</v>
       </c>
       <c r="L21" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
@@ -15921,8 +15972,8 @@
         <v>JPYSB6L15Y_Quote</v>
       </c>
       <c r="K22" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$3,$I22,B22,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00354#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J22,$C22,SwapCalendar,$F22,$G22,$H22,$K$3,$I22,B22,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0034b#0002</v>
       </c>
       <c r="L22" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
@@ -15963,8 +16014,8 @@
         <v>JPYSB6L16Y_Quote</v>
       </c>
       <c r="K23" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$3,$I23,B23,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00352#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J23,$C23,SwapCalendar,$F23,$G23,$H23,$K$3,$I23,B23,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00339#0002</v>
       </c>
       <c r="L23" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
@@ -16005,8 +16056,8 @@
         <v>JPYSB6L17Y_Quote</v>
       </c>
       <c r="K24" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$3,$I24,B24,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00366#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J24,$C24,SwapCalendar,$F24,$G24,$H24,$K$3,$I24,B24,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0033b#0002</v>
       </c>
       <c r="L24" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
@@ -16047,8 +16098,8 @@
         <v>JPYSB6L18Y_Quote</v>
       </c>
       <c r="K25" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$3,$I25,B25,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00375#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J25,$C25,SwapCalendar,$F25,$G25,$H25,$K$3,$I25,B25,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00335#0002</v>
       </c>
       <c r="L25" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
@@ -16089,8 +16140,8 @@
         <v>JPYSB6L19Y_Quote</v>
       </c>
       <c r="K26" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$3,$I26,B26,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00362#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J26,$C26,SwapCalendar,$F26,$G26,$H26,$K$3,$I26,B26,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0035a#0002</v>
       </c>
       <c r="L26" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
@@ -16131,8 +16182,8 @@
         <v>JPYSB6L20Y_Quote</v>
       </c>
       <c r="K27" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$3,$I27,B27,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00361#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J27,$C27,SwapCalendar,$F27,$G27,$H27,$K$3,$I27,B27,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00356#0002</v>
       </c>
       <c r="L27" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K27)</f>
@@ -16173,8 +16224,8 @@
         <v>JPYSB6L21Y_Quote</v>
       </c>
       <c r="K28" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$3,$I28,B28,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036b#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J28,$C28,SwapCalendar,$F28,$G28,$H28,$K$3,$I28,B28,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0036b#0002</v>
       </c>
       <c r="L28" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K28)</f>
@@ -16215,8 +16266,8 @@
         <v>JPYSB6L22Y_Quote</v>
       </c>
       <c r="K29" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J29,$C29,Calendar,$F29,$G29,$H29,$K$3,$I29,B29,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00356#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J29,$C29,SwapCalendar,$F29,$G29,$H29,$K$3,$I29,B29,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00350#0002</v>
       </c>
       <c r="L29" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K29)</f>
@@ -16257,8 +16308,8 @@
         <v>JPYSB6L23Y_Quote</v>
       </c>
       <c r="K30" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J30,$C30,Calendar,$F30,$G30,$H30,$K$3,$I30,B30,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0032b#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J30,$C30,SwapCalendar,$F30,$G30,$H30,$K$3,$I30,B30,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0032b#0002</v>
       </c>
       <c r="L30" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K30)</f>
@@ -16299,8 +16350,8 @@
         <v>JPYSB6L24Y_Quote</v>
       </c>
       <c r="K31" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J31,$C31,Calendar,$F31,$G31,$H31,$K$3,$I31,B31,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036d#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J31,$C31,SwapCalendar,$F31,$G31,$H31,$K$3,$I31,B31,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00334#0002</v>
       </c>
       <c r="L31" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K31)</f>
@@ -16341,8 +16392,8 @@
         <v>JPYSB6L25Y_Quote</v>
       </c>
       <c r="K32" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J32,$C32,Calendar,$F32,$G32,$H32,$K$3,$I32,B32,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036f#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J32,$C32,SwapCalendar,$F32,$G32,$H32,$K$3,$I32,B32,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00357#0002</v>
       </c>
       <c r="L32" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K32)</f>
@@ -16383,8 +16434,8 @@
         <v>JPYSB6L26Y_Quote</v>
       </c>
       <c r="K33" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J33,$C33,Calendar,$F33,$G33,$H33,$K$3,$I33,B33,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00331#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J33,$C33,SwapCalendar,$F33,$G33,$H33,$K$3,$I33,B33,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00364#0002</v>
       </c>
       <c r="L33" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K33)</f>
@@ -16425,8 +16476,8 @@
         <v>JPYSB6L27Y_Quote</v>
       </c>
       <c r="K34" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J34,$C34,Calendar,$F34,$G34,$H34,$K$3,$I34,B34,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00372#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J34,$C34,SwapCalendar,$F34,$G34,$H34,$K$3,$I34,B34,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00369#0002</v>
       </c>
       <c r="L34" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K34)</f>
@@ -16467,8 +16518,8 @@
         <v>JPYSB6L28Y_Quote</v>
       </c>
       <c r="K35" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J35,$C35,Calendar,$F35,$G35,$H35,$K$3,$I35,B35,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00342#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J35,$C35,SwapCalendar,$F35,$G35,$H35,$K$3,$I35,B35,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00338#0002</v>
       </c>
       <c r="L35" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K35)</f>
@@ -16509,8 +16560,8 @@
         <v>JPYSB6L29Y_Quote</v>
       </c>
       <c r="K36" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J36,$C36,Calendar,$F36,$G36,$H36,$K$3,$I36,B36,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0032c#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J36,$C36,SwapCalendar,$F36,$G36,$H36,$K$3,$I36,B36,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0032c#0002</v>
       </c>
       <c r="L36" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K36)</f>
@@ -16551,8 +16602,8 @@
         <v>JPYSB6L30Y_Quote</v>
       </c>
       <c r="K37" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J37,$C37,Calendar,$F37,$G37,$H37,$K$3,$I37,B37,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00377#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J37,$C37,SwapCalendar,$F37,$G37,$H37,$K$3,$I37,B37,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00341#0002</v>
       </c>
       <c r="L37" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K37)</f>
@@ -16593,8 +16644,8 @@
         <v>JPYSB6L35Y_Quote</v>
       </c>
       <c r="K38" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J38,$C38,Calendar,$F38,$G38,$H38,$K$3,$I38,B38,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0033b#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J38,$C38,SwapCalendar,$F38,$G38,$H38,$K$3,$I38,B38,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_0033d#0002</v>
       </c>
       <c r="L38" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K38)</f>
@@ -16635,8 +16686,8 @@
         <v>JPYSB6L40Y_Quote</v>
       </c>
       <c r="K39" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J39,$C39,Calendar,$F39,$G39,$H39,$K$3,$I39,B39,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0033a#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J39,$C39,SwapCalendar,$F39,$G39,$H39,$K$3,$I39,B39,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00337#0002</v>
       </c>
       <c r="L39" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K39)</f>
@@ -16677,8 +16728,8 @@
         <v>JPYSB6L50Y_Quote</v>
       </c>
       <c r="K40" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J40,$C40,Calendar,$F40,$G40,$H40,$K$3,$I40,B40,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00365#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J40,$C40,SwapCalendar,$F40,$G40,$H40,$K$3,$I40,B40,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00333#0002</v>
       </c>
       <c r="L40" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K40)</f>
@@ -16719,8 +16770,8 @@
         <v>JPYSB6L60Y_Quote</v>
       </c>
       <c r="K41" s="173" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J41,$C41,Calendar,$F41,$G41,$H41,$K$3,$I41,B41,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00363#0001</v>
+        <f>_xll.qlSwapRateHelper2(,$J41,$C41,SwapCalendar,$F41,$G41,$H41,$K$3,$I41,B41,,Permanent,,ObjectOverwrite)</f>
+        <v>obj_00366#0002</v>
       </c>
       <c r="L41" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(K41)</f>
